--- a/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
@@ -108,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,12 +128,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -176,12 +170,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,40 +333,40 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.28867513459481292</c:v>
+                    <c:v>0.29880715233359845</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.7453559924999299</c:v>
+                    <c:v>0.53452248382484879</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.3746344747958346</c:v>
+                    <c:v>2.2253945610567474</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>6.9920589878010109</c:v>
+                    <c:v>5.931654390599963</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.714045207910317</c:v>
+                    <c:v>5.0023803857573164</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>10.897247358851684</c:v>
+                    <c:v>10.331413032015284</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>27.513632984395212</c:v>
+                    <c:v>19.673374562252068</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>22.863726730347352</c:v>
+                    <c:v>18.76610419524166</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>17.182031958479829</c:v>
+                    <c:v>23.177241505613299</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>21.084486134491296</c:v>
+                    <c:v>25.85663311783799</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>36.201212379943549</c:v>
+                    <c:v>48.093101673435754</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>33.608861265379936</c:v>
+                    <c:v>43.866613294221402</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -406,43 +399,43 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.28867513459481292</c:v>
+                    <c:v>0.29880715233359845</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.7453559924999299</c:v>
+                    <c:v>0.53452248382484879</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.3746344747958346</c:v>
+                    <c:v>2.2253945610567474</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>6.9920589878010109</c:v>
+                    <c:v>5.931654390599963</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.714045207910317</c:v>
+                    <c:v>5.0023803857573164</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>10.897247358851684</c:v>
+                    <c:v>10.331413032015284</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>27.513632984395212</c:v>
+                    <c:v>19.673374562252068</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>22.863726730347352</c:v>
+                    <c:v>18.76610419524166</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>17.182031958479829</c:v>
+                    <c:v>23.177241505613299</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>21.084486134491296</c:v>
+                    <c:v>25.85663311783799</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>36.201212379943549</c:v>
+                    <c:v>48.093101673435754</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>33.608861265379936</c:v>
+                    <c:v>43.866613294221402</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>62.75414992917468</c:v>
+                    <c:v>53.607035785559773</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -489,280 +482,280 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.25</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>104</c:v>
+                  <c:v>102.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>212</c:v>
+                  <c:v>214.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>372.75</c:v>
+                  <c:v>380.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>614.5</c:v>
+                  <c:v>623.625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>862.25</c:v>
+                  <c:v>873.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1186.5</c:v>
+                  <c:v>1212.875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1520.5</c:v>
+                  <c:v>1540.375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1814.25</c:v>
+                  <c:v>1879.625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2250</c:v>
+                  <c:v>2305.625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2660.25</c:v>
+                  <c:v>2689.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2938.75</c:v>
+                  <c:v>2996.75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3312.25</c:v>
+                  <c:v>3389.375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3755</c:v>
+                  <c:v>3792.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4015.25</c:v>
+                  <c:v>4113.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4229</c:v>
+                  <c:v>4344.125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4672.75</c:v>
+                  <c:v>4741.875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4856</c:v>
+                  <c:v>4976.875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5014.25</c:v>
+                  <c:v>5142.75</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5222</c:v>
+                  <c:v>5338.75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5349.75</c:v>
+                  <c:v>5445.875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5476.25</c:v>
+                  <c:v>5591.375</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5534.5</c:v>
+                  <c:v>5657.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5609.75</c:v>
+                  <c:v>5721.75</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5661</c:v>
+                  <c:v>5767.125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5624</c:v>
+                  <c:v>5728</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5516.75</c:v>
+                  <c:v>5628.875</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5477.75</c:v>
+                  <c:v>5540</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5419.75</c:v>
+                  <c:v>5487.625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5170.75</c:v>
+                  <c:v>5278.625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5136.75</c:v>
+                  <c:v>5215.25</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4900.5</c:v>
+                  <c:v>4971.125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4794.5</c:v>
+                  <c:v>4874</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4529.75</c:v>
+                  <c:v>4620</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4329.5</c:v>
+                  <c:v>4418.375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4139.5</c:v>
+                  <c:v>4242</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3978.75</c:v>
+                  <c:v>4048.875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3760.75</c:v>
+                  <c:v>3832.375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3559.5</c:v>
+                  <c:v>3613.375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3423.25</c:v>
+                  <c:v>3442</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3137.25</c:v>
+                  <c:v>3207.25</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2885.25</c:v>
+                  <c:v>2940.25</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2712.25</c:v>
+                  <c:v>2774.75</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2619</c:v>
+                  <c:v>2652.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2324.75</c:v>
+                  <c:v>2378.875</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2193.75</c:v>
+                  <c:v>2237.125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2034.5</c:v>
+                  <c:v>2070.625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1900</c:v>
+                  <c:v>1927.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1717.75</c:v>
+                  <c:v>1764.375</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1570.25</c:v>
+                  <c:v>1596.125</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1407.25</c:v>
+                  <c:v>1432.25</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1264.25</c:v>
+                  <c:v>1319.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1157.25</c:v>
+                  <c:v>1190.125</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1039</c:v>
+                  <c:v>1059.75</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>946.5</c:v>
+                  <c:v>972.625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>817</c:v>
+                  <c:v>849.75</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>758.5</c:v>
+                  <c:v>769.875</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>658.25</c:v>
+                  <c:v>694.625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>556.5</c:v>
+                  <c:v>578.75</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>509.75</c:v>
+                  <c:v>540.75</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>439.5</c:v>
+                  <c:v>462.875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>402</c:v>
+                  <c:v>426.875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>353</c:v>
+                  <c:v>372.875</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>314.75</c:v>
+                  <c:v>339.875</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>274.25</c:v>
+                  <c:v>275.625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>238</c:v>
+                  <c:v>252.625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>203.25</c:v>
+                  <c:v>216.625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>173.75</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>150.75</c:v>
+                  <c:v>164.25</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>124.75</c:v>
+                  <c:v>134.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>111.75</c:v>
+                  <c:v>121.625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.5</c:v>
+                  <c:v>99.125</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>73.25</c:v>
+                  <c:v>77.75</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>74.75</c:v>
+                  <c:v>79.625</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>54.5</c:v>
+                  <c:v>57.875</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>44</c:v>
+                  <c:v>46.125</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>33.75</c:v>
+                  <c:v>34.25</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>31.75</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>25.25</c:v>
+                  <c:v>25.125</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>17.25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>14.5</c:v>
+                  <c:v>14.125</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.5</c:v>
+                  <c:v>6.625</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.75</c:v>
+                  <c:v>4.125</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.75</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.75</c:v>
+                  <c:v>2.375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.25</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.5</c:v>
@@ -833,64 +826,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>3.9639853499656952</c:v>
+                    <c:v>2.9714143655398599</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.2347559555381569</c:v>
+                    <c:v>4.5148515219886916</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.2517516432822848</c:v>
+                    <c:v>6.3103509034903951</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.9626057977301148</c:v>
+                    <c:v>5.3937105119907311</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.6345323229197586</c:v>
+                    <c:v>4.8119719731478785</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.7472989783907282</c:v>
+                    <c:v>4.6731426192402976</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>10.120575961941878</c:v>
+                    <c:v>6.7349291446934236</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.1279932895827578</c:v>
+                    <c:v>2.2224634773968348</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.2654039343688046</c:v>
+                    <c:v>7.0166435905729099</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.4110811054589618</c:v>
+                    <c:v>6.3931236843682839</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.8144462267639212</c:v>
+                    <c:v>4.859679600639808</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.4938830215108219</c:v>
+                    <c:v>7.3570421967095108</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>11.901574524008883</c:v>
+                    <c:v>8.8986771454572722</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>19.774978970193011</c:v>
+                    <c:v>15.778299207803659</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>25.817671902584824</c:v>
+                    <c:v>22.16730574830552</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>39.070090318095225</c:v>
+                    <c:v>30.846310812206699</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>56.627737573956679</c:v>
+                    <c:v>44.598174338056609</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>70.703618869699937</c:v>
+                    <c:v>51.498005143226635</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>73.112946657804869</c:v>
+                    <c:v>61.869942163004914</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>96.459287349307175</c:v>
+                    <c:v>79.166133845853551</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -902,64 +895,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>3.9639853499656952</c:v>
+                    <c:v>2.9714143655398599</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.2347559555381569</c:v>
+                    <c:v>4.5148515219886916</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.2517516432822848</c:v>
+                    <c:v>6.3103509034903951</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.9626057977301148</c:v>
+                    <c:v>5.3937105119907311</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.6345323229197586</c:v>
+                    <c:v>4.8119719731478785</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.7472989783907282</c:v>
+                    <c:v>4.6731426192402976</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>10.120575961941878</c:v>
+                    <c:v>6.7349291446934236</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.1279932895827578</c:v>
+                    <c:v>2.2224634773968348</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.2654039343688046</c:v>
+                    <c:v>7.0166435905729099</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.4110811054589618</c:v>
+                    <c:v>6.3931236843682839</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.8144462267639212</c:v>
+                    <c:v>4.859679600639808</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.4938830215108219</c:v>
+                    <c:v>7.3570421967095108</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>11.901574524008883</c:v>
+                    <c:v>8.8986771454572722</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>19.774978970193011</c:v>
+                    <c:v>15.778299207803659</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>25.817671902584824</c:v>
+                    <c:v>22.16730574830552</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>39.070090318095225</c:v>
+                    <c:v>30.846310812206699</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>56.627737573956679</c:v>
+                    <c:v>44.598174338056609</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>70.703618869699937</c:v>
+                    <c:v>51.498005143226635</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>73.112946657804869</c:v>
+                    <c:v>61.869942163004914</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>96.459287349307175</c:v>
+                    <c:v>79.166133845853551</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -985,334 +978,334 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="110"/>
                 <c:pt idx="0">
-                  <c:v>-1.0342021612450507</c:v>
+                  <c:v>0.61119730747304546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7129337983205724</c:v>
+                  <c:v>-1.502142615849154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-13.585405095829532</c:v>
+                  <c:v>-6.1917231270926534</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.93066605180500228</c:v>
+                  <c:v>-2.0705538694746686</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.4502140320837285</c:v>
+                  <c:v>1.0669228364713521</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8861172813922147</c:v>
+                  <c:v>1.5587103281577588</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.3467698693275181</c:v>
+                  <c:v>-2.2557898198719828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0038702283054572</c:v>
+                  <c:v>1.2868316236417718</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.418740905588461</c:v>
+                  <c:v>7.4845993040362213</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.188772631809051</c:v>
+                  <c:v>30.718547200318358</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95.217152738943568</c:v>
+                  <c:v>98.532806168310117</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>228.42318058013873</c:v>
+                  <c:v>222.39928027614911</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>373.92350705713</c:v>
+                  <c:v>372.23987278342196</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>613.62126496434178</c:v>
+                  <c:v>626.22256163507654</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>881.14096650481167</c:v>
+                  <c:v>890.95973617583456</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1144.703222528095</c:v>
+                  <c:v>1168.9365374967413</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1478.3557728826927</c:v>
+                  <c:v>1512.3338718265238</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1825.0676884651098</c:v>
+                  <c:v>1845.6539801359099</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2240.1613131761501</c:v>
+                  <c:v>2279.8244263827651</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2608.4684305787023</c:v>
+                  <c:v>2671.3993801176489</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2896.6137622594651</c:v>
+                  <c:v>2953.6533482968662</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3323.5733632445276</c:v>
+                  <c:v>3392.037444800133</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3691.8410639166627</c:v>
+                  <c:v>3755.5941745936739</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4099.0715991854604</c:v>
+                  <c:v>4140.5801329016631</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4279.6848484873726</c:v>
+                  <c:v>4331.3092210292771</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4634.3505734801201</c:v>
+                  <c:v>4724.2154495119976</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4897.5320337414705</c:v>
+                  <c:v>4973.3787804245903</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5049.8775389192078</c:v>
+                  <c:v>5130.9410317836882</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5198.1515208482697</c:v>
+                  <c:v>5311.6963475048497</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5429.6834676861699</c:v>
+                  <c:v>5481.8057324588235</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5516.1717783808672</c:v>
+                  <c:v>5588.1961446702326</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5584.5165552496874</c:v>
+                  <c:v>5696.726538628337</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5697.1929714679554</c:v>
+                  <c:v>5765.989270001628</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5683.8325635194724</c:v>
+                  <c:v>5773.5239028483575</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5636.8862139582552</c:v>
+                  <c:v>5713.264834135739</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5571.7060217258977</c:v>
+                  <c:v>5644.1725305615655</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5522.4253221154149</c:v>
+                  <c:v>5616.4386424273198</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5428.0122864842378</c:v>
+                  <c:v>5512.0115355253201</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5271.7832245230447</c:v>
+                  <c:v>5347.1465952545204</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5112.0691304206648</c:v>
+                  <c:v>5197.7151319905952</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4946.1477917134698</c:v>
+                  <c:v>5022.7643303945561</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4783.6017227617576</c:v>
+                  <c:v>4860.2500782160778</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4533.0547821819728</c:v>
+                  <c:v>4603.3855165764598</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4436.7596750054399</c:v>
+                  <c:v>4486.7546947048895</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4268.5754403620904</c:v>
+                  <c:v>4295.7230658009603</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3990.95125755667</c:v>
+                  <c:v>4053.0963747780715</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3787.6091038919776</c:v>
+                  <c:v>3851.4723949637055</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3505.1847320860224</c:v>
+                  <c:v>3578.0595884853956</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3345.0982222445273</c:v>
+                  <c:v>3419.3373030940961</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3109.3829601034477</c:v>
+                  <c:v>3137.4251597726125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2924.6267025126099</c:v>
+                  <c:v>2981.4984853416636</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2737.6731505263579</c:v>
+                  <c:v>2793.762660870093</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2560.5025964844899</c:v>
+                  <c:v>2635.0881886046791</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2319.8877115491723</c:v>
+                  <c:v>2388.0514707574562</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2190.9000113406173</c:v>
+                  <c:v>2245.3668103987538</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2037.1866316031624</c:v>
+                  <c:v>2094.8730721778652</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1848.4582985276302</c:v>
+                  <c:v>1930.6053981014938</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1675.0303703564875</c:v>
+                  <c:v>1738.3125935606488</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1503.5377078542899</c:v>
+                  <c:v>1581.9311142127212</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1378.8262051283125</c:v>
+                  <c:v>1426.5390133072924</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1293.7210837108976</c:v>
+                  <c:v>1331.0618694820387</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1139.5518968915551</c:v>
+                  <c:v>1172.7047484711475</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1016.8844083859567</c:v>
+                  <c:v>1063.6784687635914</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>936.47540497593468</c:v>
+                  <c:v>973.86011037486344</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>807.28948263358279</c:v>
+                  <c:v>856.49773117667019</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>738.72230010200053</c:v>
+                  <c:v>781.20041058678044</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>668.36164280958428</c:v>
+                  <c:v>697.33396279788474</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>553.42986794118724</c:v>
+                  <c:v>597.39926389150651</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>526.83701326791174</c:v>
+                  <c:v>555.91740877693496</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>468.6891497197787</c:v>
+                  <c:v>475.99812544096375</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>425.29854857781874</c:v>
+                  <c:v>444.85111573734167</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>365.76983069907823</c:v>
+                  <c:v>385.79874033853349</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>336.53261700551923</c:v>
+                  <c:v>350.58386866422319</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>272.14228685619253</c:v>
+                  <c:v>289.91159753733098</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>258.63635420706078</c:v>
+                  <c:v>251.02798989534449</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>215.82039132644377</c:v>
+                  <c:v>219.20713329501402</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>176.5938526741225</c:v>
+                  <c:v>183.34884464763988</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>159.29601448168927</c:v>
+                  <c:v>168.36986878514236</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>121.57837945022021</c:v>
+                  <c:v>132.77395104795846</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>127.00513632595494</c:v>
+                  <c:v>128.32766520464662</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>92.481738593428958</c:v>
+                  <c:v>99.486328363185422</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81.684950946364438</c:v>
+                  <c:v>87.047632710309443</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>67.290155860129474</c:v>
+                  <c:v>71.249469142406994</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>54.708496665523825</c:v>
+                  <c:v>60.734155625075758</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>60.743462027981849</c:v>
+                  <c:v>55.409017961472202</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>28.113595945294918</c:v>
+                  <c:v>34.051538237254093</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>45.232484805863322</c:v>
+                  <c:v>41.262434306918159</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>35.794086804147774</c:v>
+                  <c:v>32.292136250412987</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>23.064745083684073</c:v>
+                  <c:v>25.023025434580585</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>26.115959534421499</c:v>
+                  <c:v>19.090832575224294</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.2059824399184196</c:v>
+                  <c:v>12.413515800959408</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.769158681854551</c:v>
+                  <c:v>16.368495187722012</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.958092690212617</c:v>
+                  <c:v>10.331623589037886</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.6505836851429017</c:v>
+                  <c:v>4.5599127536988799</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-6.6213238440686748</c:v>
+                  <c:v>-0.54865988233359597</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.34155569691212451</c:v>
+                  <c:v>2.0657931715249926</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.71497746556997233</c:v>
+                  <c:v>-0.1718362462706875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>14.766637526452493</c:v>
+                  <c:v>6.9884910373948372</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-4.9730437356047119</c:v>
+                  <c:v>-1.3452008778694911</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.2111784727021464</c:v>
+                  <c:v>0.62414878564049192</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.5021084374748126</c:v>
+                  <c:v>-0.99082228844053344</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-7.7379004880785516</c:v>
+                  <c:v>-3.5656774574890515</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-4.1279101162217469</c:v>
+                  <c:v>-4.6634149806340996</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.7158292117819576</c:v>
+                  <c:v>-0.18859849659201999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.94183309155050465</c:v>
+                  <c:v>0.86257582850521275</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-1.1464548357762385</c:v>
+                  <c:v>0.75411353982053531</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.10733712371438701</c:v>
+                  <c:v>0.48785437364130435</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-11.451594203710535</c:v>
+                  <c:v>-2.815190241672092</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>6.3175277123227715</c:v>
+                  <c:v>4.0063459058292192</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>13.16946073342112</c:v>
+                  <c:v>8.6227586283348341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,11 +1325,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="304330984"/>
-        <c:axId val="304332944"/>
+        <c:axId val="118762232"/>
+        <c:axId val="118760664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="304330984"/>
+        <c:axId val="118762232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,7 +1442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304332944"/>
+        <c:crossAx val="118760664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1457,7 +1450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304332944"/>
+        <c:axId val="118760664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304330984"/>
+        <c:crossAx val="118762232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2274,7 +2267,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="F242" sqref="F242"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="N242" sqref="N242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2605,25 +2598,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2">
@@ -2638,7 +2631,18 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2666,6 +2670,18 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="L3" s="1">
@@ -2701,6 +2717,18 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L67" si="0">SUM(B4:K4)</f>
         <v>0</v>
@@ -2734,6 +2762,18 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2767,6 +2807,18 @@
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2800,6 +2852,18 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2833,6 +2897,18 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2866,6 +2942,18 @@
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2899,21 +2987,33 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.51754916950676566</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>0.28867513459481292</v>
+        <v>0.29880715233359845</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2932,9 +3032,21 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
@@ -2942,11 +3054,11 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="2"/>
-        <v>1.2909944487358056</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>0.7453559924999299</v>
+        <v>0.53452248382484879</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2965,21 +3077,33 @@
       <c r="E12">
         <v>26</v>
       </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>28</v>
+      </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="1"/>
-        <v>23.25</v>
+        <v>25.5</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="2"/>
-        <v>4.1129875597510219</v>
+        <v>3.8544964466377261</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>2.3746344747958346</v>
+        <v>2.2253945610567474</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2998,21 +3122,33 @@
       <c r="E13">
         <v>98</v>
       </c>
+      <c r="F13">
+        <v>111</v>
+      </c>
+      <c r="G13">
+        <v>95</v>
+      </c>
+      <c r="H13">
+        <v>105</v>
+      </c>
+      <c r="I13">
+        <v>90</v>
+      </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>416</v>
+        <v>817</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>102.125</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="2"/>
-        <v>12.110601416389967</v>
+        <v>10.273926777458142</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>6.9920589878010109</v>
+        <v>5.931654390599963</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -3031,21 +3167,33 @@
       <c r="E14">
         <v>206</v>
       </c>
+      <c r="F14">
+        <v>223</v>
+      </c>
+      <c r="G14">
+        <v>206</v>
+      </c>
+      <c r="H14">
+        <v>214</v>
+      </c>
+      <c r="I14">
+        <v>227</v>
+      </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>848</v>
+        <v>1718</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>214.75</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
-        <v>8.1649658092772608</v>
+        <v>8.6643769869176719</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>4.714045207910317</v>
+        <v>5.0023803857573164</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -3064,21 +3212,33 @@
       <c r="E15">
         <v>386</v>
       </c>
+      <c r="F15">
+        <v>379</v>
+      </c>
+      <c r="G15">
+        <v>393</v>
+      </c>
+      <c r="H15">
+        <v>372</v>
+      </c>
+      <c r="I15">
+        <v>407</v>
+      </c>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>1491</v>
+        <v>3042</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="1"/>
-        <v>372.75</v>
+        <v>380.25</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="2"/>
-        <v>18.874586088176873</v>
+        <v>17.894532285429694</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>10.897247358851684</v>
+        <v>10.331413032015284</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -3097,21 +3257,33 @@
       <c r="E16">
         <v>602</v>
       </c>
+      <c r="F16">
+        <v>633</v>
+      </c>
+      <c r="G16">
+        <v>632</v>
+      </c>
+      <c r="H16">
+        <v>651</v>
+      </c>
+      <c r="I16">
+        <v>615</v>
+      </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>2458</v>
+        <v>4989</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="1"/>
-        <v>614.5</v>
+        <v>623.625</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="2"/>
-        <v>47.655010229775421</v>
+        <v>34.075284298153697</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>27.513632984395212</v>
+        <v>19.673374562252068</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -3130,21 +3302,33 @@
       <c r="E17">
         <v>836</v>
       </c>
+      <c r="F17">
+        <v>873</v>
+      </c>
+      <c r="G17">
+        <v>869</v>
+      </c>
+      <c r="H17">
+        <v>875</v>
+      </c>
+      <c r="I17">
+        <v>920</v>
+      </c>
       <c r="L17" s="1">
         <f t="shared" si="0"/>
-        <v>3449</v>
+        <v>6986</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="1"/>
-        <v>862.25</v>
+        <v>873.25</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="2"/>
-        <v>39.601136347332258</v>
+        <v>32.503845926290012</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>22.863726730347352</v>
+        <v>18.76610419524166</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -3163,21 +3347,33 @@
       <c r="E18">
         <v>1169</v>
       </c>
+      <c r="F18">
+        <v>1226</v>
+      </c>
+      <c r="G18">
+        <v>1224</v>
+      </c>
+      <c r="H18">
+        <v>1287</v>
+      </c>
+      <c r="I18">
+        <v>1220</v>
+      </c>
       <c r="L18" s="1">
         <f t="shared" si="0"/>
-        <v>4746</v>
+        <v>9703</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="1"/>
-        <v>1186.5</v>
+        <v>1212.875</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="2"/>
-        <v>29.760152329359247</v>
+        <v>40.144159867016413</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>17.182031958479829</v>
+        <v>23.177241505613299</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -3196,21 +3392,33 @@
       <c r="E19">
         <v>1502</v>
       </c>
+      <c r="F19">
+        <v>1531</v>
+      </c>
+      <c r="G19">
+        <v>1518</v>
+      </c>
+      <c r="H19">
+        <v>1625</v>
+      </c>
+      <c r="I19">
+        <v>1567</v>
+      </c>
       <c r="L19" s="1">
         <f t="shared" si="0"/>
-        <v>6082</v>
+        <v>12323</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="1"/>
-        <v>1520.5</v>
+        <v>1540.375</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="2"/>
-        <v>36.519401236420443</v>
+        <v>44.785002272763464</v>
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>21.084486134491296</v>
+        <v>25.85663311783799</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -3229,21 +3437,33 @@
       <c r="E20">
         <v>1793</v>
       </c>
+      <c r="F20">
+        <v>1933</v>
+      </c>
+      <c r="G20">
+        <v>1946</v>
+      </c>
+      <c r="H20">
+        <v>1916</v>
+      </c>
+      <c r="I20">
+        <v>1985</v>
+      </c>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
-        <v>7257</v>
+        <v>15037</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="1"/>
-        <v>1814.25</v>
+        <v>1879.625</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="2"/>
-        <v>62.702339137653659</v>
+        <v>83.299695591966511</v>
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>36.201212379943549</v>
+        <v>48.093101673435754</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -3262,21 +3482,33 @@
       <c r="E21">
         <v>2257</v>
       </c>
+      <c r="F21">
+        <v>2336</v>
+      </c>
+      <c r="G21">
+        <v>2365</v>
+      </c>
+      <c r="H21">
+        <v>2420</v>
+      </c>
+      <c r="I21">
+        <v>2324</v>
+      </c>
       <c r="L21" s="1">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>18445</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="1"/>
-        <v>2250</v>
+        <v>2305.625</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="2"/>
-        <v>58.212255296171669</v>
+        <v>75.979202981567823</v>
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>33.608861265379936</v>
+        <v>43.866613294221402</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -3295,21 +3527,33 @@
       <c r="E22">
         <v>2767</v>
       </c>
+      <c r="F22">
+        <v>2641</v>
+      </c>
+      <c r="G22">
+        <v>2769</v>
+      </c>
+      <c r="H22">
+        <v>2800</v>
+      </c>
+      <c r="I22">
+        <v>2665</v>
+      </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
-        <v>10641</v>
+        <v>21516</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="1"/>
-        <v>2660.25</v>
+        <v>2689.5</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="2"/>
-        <v>108.6933760631254</v>
+        <v>92.850109623752502</v>
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
-        <v>62.75414992917468</v>
+        <v>53.607035785559773</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -3328,21 +3572,33 @@
       <c r="E23">
         <v>2987</v>
       </c>
+      <c r="F23">
+        <v>2923</v>
+      </c>
+      <c r="G23">
+        <v>3116</v>
+      </c>
+      <c r="H23">
+        <v>3163</v>
+      </c>
+      <c r="I23">
+        <v>3017</v>
+      </c>
       <c r="L23" s="1">
         <f t="shared" si="0"/>
-        <v>11755</v>
+        <v>23974</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="1"/>
-        <v>2938.75</v>
+        <v>2996.75</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="2"/>
-        <v>169.91443925301542</v>
+        <v>145.29649489430716</v>
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
-        <v>98.100147241932774</v>
+        <v>83.886970439537322</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -3361,21 +3617,33 @@
       <c r="E24">
         <v>3353</v>
       </c>
+      <c r="F24">
+        <v>3453</v>
+      </c>
+      <c r="G24">
+        <v>3538</v>
+      </c>
+      <c r="H24">
+        <v>3467</v>
+      </c>
+      <c r="I24">
+        <v>3408</v>
+      </c>
       <c r="L24" s="1">
         <f t="shared" si="0"/>
-        <v>13249</v>
+        <v>27115</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="1"/>
-        <v>3312.25</v>
+        <v>3389.375</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="2"/>
-        <v>160.57474894889296</v>
+        <v>138.17994220787409</v>
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>92.707874530699939</v>
+        <v>79.77822683032305</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -3394,21 +3662,33 @@
       <c r="E25">
         <v>3826</v>
       </c>
+      <c r="F25">
+        <v>3805</v>
+      </c>
+      <c r="G25">
+        <v>3774</v>
+      </c>
+      <c r="H25">
+        <v>3929</v>
+      </c>
+      <c r="I25">
+        <v>3810</v>
+      </c>
       <c r="L25" s="1">
         <f t="shared" si="0"/>
-        <v>15020</v>
+        <v>30338</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="1"/>
-        <v>3755</v>
+        <v>3792.25</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="2"/>
-        <v>136.41847382227965</v>
+        <v>107.49850497299286</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>78.761242583731075</v>
+        <v>62.064290783639755</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -3427,21 +3707,33 @@
       <c r="E26">
         <v>4123</v>
       </c>
+      <c r="F26">
+        <v>4079</v>
+      </c>
+      <c r="G26">
+        <v>4258</v>
+      </c>
+      <c r="H26">
+        <v>4299</v>
+      </c>
+      <c r="I26">
+        <v>4211</v>
+      </c>
       <c r="L26" s="1">
         <f t="shared" si="0"/>
-        <v>16061</v>
+        <v>32908</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="1"/>
-        <v>4015.25</v>
+        <v>4113.5</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="2"/>
-        <v>196.30991654354432</v>
+        <v>177.36644875189091</v>
       </c>
       <c r="O26">
         <f t="shared" si="3"/>
-        <v>113.33958316100829</v>
+        <v>102.40256693211219</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -3460,21 +3752,33 @@
       <c r="E27">
         <v>4228</v>
       </c>
+      <c r="F27">
+        <v>4335</v>
+      </c>
+      <c r="G27">
+        <v>4539</v>
+      </c>
+      <c r="H27">
+        <v>4616</v>
+      </c>
+      <c r="I27">
+        <v>4347</v>
+      </c>
       <c r="L27" s="1">
         <f t="shared" si="0"/>
-        <v>16916</v>
+        <v>34753</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="1"/>
-        <v>4229</v>
+        <v>4344.125</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="2"/>
-        <v>146.585583647688</v>
+        <v>181.0528237835577</v>
       </c>
       <c r="O27">
         <f t="shared" si="3"/>
-        <v>84.631226178311081</v>
+        <v>104.53089654897892</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -3493,21 +3797,33 @@
       <c r="E28">
         <v>4804</v>
       </c>
+      <c r="F28">
+        <v>4672</v>
+      </c>
+      <c r="G28">
+        <v>4839</v>
+      </c>
+      <c r="H28">
+        <v>4959</v>
+      </c>
+      <c r="I28">
+        <v>4774</v>
+      </c>
       <c r="L28" s="1">
         <f t="shared" si="0"/>
-        <v>18691</v>
+        <v>37935</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="1"/>
-        <v>4672.75</v>
+        <v>4741.875</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="2"/>
-        <v>251.94625749684528</v>
+        <v>197.13478891357556</v>
       </c>
       <c r="O28">
         <f t="shared" si="3"/>
-        <v>145.46123958712241</v>
+        <v>113.81582344589292</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -3526,21 +3842,33 @@
       <c r="E29">
         <v>4926</v>
       </c>
+      <c r="F29">
+        <v>5137</v>
+      </c>
+      <c r="G29">
+        <v>5041</v>
+      </c>
+      <c r="H29">
+        <v>5213</v>
+      </c>
+      <c r="I29">
+        <v>5000</v>
+      </c>
       <c r="L29" s="1">
         <f t="shared" si="0"/>
-        <v>19424</v>
+        <v>39815</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="1"/>
-        <v>4856</v>
+        <v>4976.875</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="2"/>
-        <v>215.09222828049056</v>
+        <v>201.16761845358144</v>
       </c>
       <c r="O29">
         <f t="shared" si="3"/>
-        <v>124.18355589833767</v>
+        <v>116.14417866641118</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -3559,21 +3887,33 @@
       <c r="E30">
         <v>5017</v>
       </c>
+      <c r="F30">
+        <v>5044</v>
+      </c>
+      <c r="G30">
+        <v>5360</v>
+      </c>
+      <c r="H30">
+        <v>5525</v>
+      </c>
+      <c r="I30">
+        <v>5156</v>
+      </c>
       <c r="L30" s="1">
         <f t="shared" si="0"/>
-        <v>20057</v>
+        <v>41142</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="1"/>
-        <v>5014.25</v>
+        <v>5142.75</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="2"/>
-        <v>275.71769983082334</v>
+        <v>266.55192471904712</v>
       </c>
       <c r="O30">
         <f t="shared" si="3"/>
-        <v>159.1856882176703</v>
+        <v>153.89382548955473</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -3592,21 +3932,33 @@
       <c r="E31">
         <v>5494</v>
       </c>
+      <c r="F31">
+        <v>5437</v>
+      </c>
+      <c r="G31">
+        <v>5430</v>
+      </c>
+      <c r="H31">
+        <v>5620</v>
+      </c>
+      <c r="I31">
+        <v>5335</v>
+      </c>
       <c r="L31" s="1">
         <f t="shared" si="0"/>
-        <v>20888</v>
+        <v>42710</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>5222</v>
+        <v>5338.75</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="2"/>
-        <v>339.08504341339898</v>
+        <v>266.33853323489319</v>
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
-        <v>195.77084109290186</v>
+        <v>153.77062385873569</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -3625,21 +3977,33 @@
       <c r="E32">
         <v>5461</v>
       </c>
+      <c r="F32">
+        <v>5401</v>
+      </c>
+      <c r="G32">
+        <v>5523</v>
+      </c>
+      <c r="H32">
+        <v>5768</v>
+      </c>
+      <c r="I32">
+        <v>5476</v>
+      </c>
       <c r="L32" s="1">
         <f t="shared" si="0"/>
-        <v>21399</v>
+        <v>43567</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="1"/>
-        <v>5349.75</v>
+        <v>5445.875</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="2"/>
-        <v>341.96820027599057</v>
+        <v>267.37370182680911</v>
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
-        <v>197.43543248363503</v>
+        <v>154.36827872393499</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -3658,21 +4022,33 @@
       <c r="E33">
         <v>5614</v>
       </c>
+      <c r="F33">
+        <v>5656</v>
+      </c>
+      <c r="G33">
+        <v>5716</v>
+      </c>
+      <c r="H33">
+        <v>5849</v>
+      </c>
+      <c r="I33">
+        <v>5605</v>
+      </c>
       <c r="L33" s="1">
         <f t="shared" si="0"/>
-        <v>21905</v>
+        <v>44731</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="1"/>
-        <v>5476.25</v>
+        <v>5591.375</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="2"/>
-        <v>381.80219573316583</v>
+        <v>287.0037020667155</v>
       </c>
       <c r="O33">
         <f t="shared" si="3"/>
-        <v>220.4336004837335</v>
+        <v>165.70166464663737</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -3691,21 +4067,33 @@
       <c r="E34">
         <v>5808</v>
       </c>
+      <c r="F34">
+        <v>5719</v>
+      </c>
+      <c r="G34">
+        <v>5767</v>
+      </c>
+      <c r="H34">
+        <v>5928</v>
+      </c>
+      <c r="I34">
+        <v>5708</v>
+      </c>
       <c r="L34" s="1">
         <f t="shared" si="0"/>
-        <v>22138</v>
+        <v>45260</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="1"/>
-        <v>5534.5</v>
+        <v>5657.5</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="2"/>
-        <v>400.4618167399567</v>
+        <v>300.74146466928795</v>
       </c>
       <c r="O34">
         <f t="shared" si="3"/>
-        <v>231.2067376949806</v>
+        <v>173.63316558329572</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -3724,21 +4112,33 @@
       <c r="E35">
         <v>5808</v>
       </c>
+      <c r="F35">
+        <v>5636</v>
+      </c>
+      <c r="G35">
+        <v>5965</v>
+      </c>
+      <c r="H35">
+        <v>6005</v>
+      </c>
+      <c r="I35">
+        <v>5729</v>
+      </c>
       <c r="L35" s="1">
         <f t="shared" si="0"/>
-        <v>22439</v>
+        <v>45774</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="1"/>
-        <v>5609.75</v>
+        <v>5721.75</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="2"/>
-        <v>366.41176746023501</v>
+        <v>292.71036391432597</v>
       </c>
       <c r="O35">
         <f t="shared" si="3"/>
-        <v>211.54793257741326</v>
+        <v>168.99640740052942</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -3757,21 +4157,33 @@
       <c r="E36">
         <v>6042</v>
       </c>
+      <c r="F36">
+        <v>5780</v>
+      </c>
+      <c r="G36">
+        <v>5807</v>
+      </c>
+      <c r="H36">
+        <v>6117</v>
+      </c>
+      <c r="I36">
+        <v>5789</v>
+      </c>
       <c r="L36" s="1">
         <f t="shared" si="0"/>
-        <v>22644</v>
+        <v>46137</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="1"/>
-        <v>5661</v>
+        <v>5767.125</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="2"/>
-        <v>448.43579993870543</v>
+        <v>332.3038357974736</v>
       </c>
       <c r="O36">
         <f t="shared" si="3"/>
-        <v>258.90452980887676</v>
+        <v>191.85570905041658</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -3790,21 +4202,33 @@
       <c r="E37">
         <v>5885</v>
       </c>
+      <c r="F37">
+        <v>5635</v>
+      </c>
+      <c r="G37">
+        <v>5896</v>
+      </c>
+      <c r="H37">
+        <v>6145</v>
+      </c>
+      <c r="I37">
+        <v>5652</v>
+      </c>
       <c r="L37" s="1">
         <f t="shared" si="0"/>
-        <v>22496</v>
+        <v>45824</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="1"/>
-        <v>5624</v>
+        <v>5728</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="2"/>
-        <v>406.55708906212254</v>
+        <v>328.5613663055525</v>
       </c>
       <c r="O37">
         <f t="shared" si="3"/>
-        <v>234.72584481096712</v>
+        <v>189.69499328182198</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -3823,21 +4247,33 @@
       <c r="E38">
         <v>5809</v>
       </c>
+      <c r="F38">
+        <v>5690</v>
+      </c>
+      <c r="G38">
+        <v>5836</v>
+      </c>
+      <c r="H38">
+        <v>5854</v>
+      </c>
+      <c r="I38">
+        <v>5584</v>
+      </c>
       <c r="L38" s="1">
         <f t="shared" si="0"/>
-        <v>22067</v>
+        <v>45031</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="1"/>
-        <v>5516.75</v>
+        <v>5628.875</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="2"/>
-        <v>455.42095911365345</v>
+        <v>332.0595632886193</v>
       </c>
       <c r="O38">
         <f t="shared" si="3"/>
-        <v>262.93741333886538</v>
+        <v>191.71467825167394</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -3856,21 +4292,33 @@
       <c r="E39">
         <v>5780</v>
       </c>
+      <c r="F39">
+        <v>5379</v>
+      </c>
+      <c r="G39">
+        <v>5696</v>
+      </c>
+      <c r="H39">
+        <v>5824</v>
+      </c>
+      <c r="I39">
+        <v>5510</v>
+      </c>
       <c r="L39" s="1">
         <f t="shared" si="0"/>
-        <v>21911</v>
+        <v>44320</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="1"/>
-        <v>5477.75</v>
+        <v>5540</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" si="2"/>
-        <v>459.04565858601325</v>
+        <v>333.6983239822631</v>
       </c>
       <c r="O39">
         <f t="shared" si="3"/>
-        <v>265.03013455496381</v>
+        <v>192.66081717928657</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -3889,21 +4337,33 @@
       <c r="E40">
         <v>5703</v>
       </c>
+      <c r="F40">
+        <v>5384</v>
+      </c>
+      <c r="G40">
+        <v>5696</v>
+      </c>
+      <c r="H40">
+        <v>5718</v>
+      </c>
+      <c r="I40">
+        <v>5424</v>
+      </c>
       <c r="L40" s="1">
         <f t="shared" si="0"/>
-        <v>21679</v>
+        <v>43901</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="1"/>
-        <v>5419.75</v>
+        <v>5487.625</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="2"/>
-        <v>431.73091542456552</v>
+        <v>313.70638569938518</v>
       </c>
       <c r="O40">
         <f t="shared" si="3"/>
-        <v>249.25996023785646</v>
+        <v>181.11846623004462</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -3922,21 +4382,33 @@
       <c r="E41">
         <v>5496</v>
       </c>
+      <c r="F41">
+        <v>5227</v>
+      </c>
+      <c r="G41">
+        <v>5483</v>
+      </c>
+      <c r="H41">
+        <v>5610</v>
+      </c>
+      <c r="I41">
+        <v>5226</v>
+      </c>
       <c r="L41" s="1">
         <f t="shared" si="0"/>
-        <v>20683</v>
+        <v>42229</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="1"/>
-        <v>5170.75</v>
+        <v>5278.625</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" si="2"/>
-        <v>392.05303637815808</v>
+        <v>308.14604028424111</v>
       </c>
       <c r="O41">
         <f t="shared" si="3"/>
-        <v>226.35192608953972</v>
+        <v>177.90819930782388</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -3955,21 +4427,33 @@
       <c r="E42">
         <v>5514</v>
       </c>
+      <c r="F42">
+        <v>5234</v>
+      </c>
+      <c r="G42">
+        <v>5325</v>
+      </c>
+      <c r="H42">
+        <v>5486</v>
+      </c>
+      <c r="I42">
+        <v>5130</v>
+      </c>
       <c r="L42" s="1">
         <f t="shared" si="0"/>
-        <v>20547</v>
+        <v>41722</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="1"/>
-        <v>5136.75</v>
+        <v>5215.25</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="2"/>
-        <v>459.7835541498485</v>
+        <v>327.72407819470851</v>
       </c>
       <c r="O42">
         <f t="shared" si="3"/>
-        <v>265.45615875737792</v>
+        <v>189.21158476563693</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -3988,21 +4472,33 @@
       <c r="E43">
         <v>5348</v>
       </c>
+      <c r="F43">
+        <v>4965</v>
+      </c>
+      <c r="G43">
+        <v>5062</v>
+      </c>
+      <c r="H43">
+        <v>5253</v>
+      </c>
+      <c r="I43">
+        <v>4887</v>
+      </c>
       <c r="L43" s="1">
         <f t="shared" si="0"/>
-        <v>19602</v>
+        <v>39769</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="1"/>
-        <v>4900.5</v>
+        <v>4971.125</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="2"/>
-        <v>439.52739770500466</v>
+        <v>314.9446379921398</v>
       </c>
       <c r="O43">
         <f t="shared" si="3"/>
-        <v>253.76126138120014</v>
+        <v>181.83337152459117</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -4021,21 +4517,33 @@
       <c r="E44">
         <v>5193</v>
       </c>
+      <c r="F44">
+        <v>4864</v>
+      </c>
+      <c r="G44">
+        <v>5072</v>
+      </c>
+      <c r="H44">
+        <v>5055</v>
+      </c>
+      <c r="I44">
+        <v>4823</v>
+      </c>
       <c r="L44" s="1">
         <f t="shared" si="0"/>
-        <v>19178</v>
+        <v>38992</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="1"/>
-        <v>4794.5</v>
+        <v>4874</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="2"/>
-        <v>459.57117693200325</v>
+        <v>323.72033785793741</v>
       </c>
       <c r="O44">
         <f t="shared" si="3"/>
-        <v>265.3335427134852</v>
+        <v>186.90002420443676</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -4054,21 +4562,33 @@
       <c r="E45">
         <v>5003</v>
       </c>
+      <c r="F45">
+        <v>4680</v>
+      </c>
+      <c r="G45">
+        <v>4697</v>
+      </c>
+      <c r="H45">
+        <v>4931</v>
+      </c>
+      <c r="I45">
+        <v>4533</v>
+      </c>
       <c r="L45" s="1">
         <f t="shared" si="0"/>
-        <v>18119</v>
+        <v>36960</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="1"/>
-        <v>4529.75</v>
+        <v>4620</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" si="2"/>
-        <v>516.94575795403011</v>
+        <v>368.02523205423216</v>
       </c>
       <c r="O45">
         <f t="shared" si="3"/>
-        <v>298.45877251119441</v>
+        <v>212.47946679508544</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -4087,21 +4607,33 @@
       <c r="E46">
         <v>4652</v>
       </c>
+      <c r="F46">
+        <v>4486</v>
+      </c>
+      <c r="G46">
+        <v>4707</v>
+      </c>
+      <c r="H46">
+        <v>4549</v>
+      </c>
+      <c r="I46">
+        <v>4287</v>
+      </c>
       <c r="L46" s="1">
         <f t="shared" si="0"/>
-        <v>17318</v>
+        <v>35347</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="1"/>
-        <v>4329.5</v>
+        <v>4418.375</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" si="2"/>
-        <v>454.15819563965448</v>
+        <v>332.21633979768581</v>
       </c>
       <c r="O46">
         <f t="shared" si="3"/>
-        <v>262.20835650722927</v>
+        <v>191.8051932113861</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -4120,21 +4652,33 @@
       <c r="E47">
         <v>4497</v>
       </c>
+      <c r="F47">
+        <v>4323</v>
+      </c>
+      <c r="G47">
+        <v>4508</v>
+      </c>
+      <c r="H47">
+        <v>4397</v>
+      </c>
+      <c r="I47">
+        <v>4150</v>
+      </c>
       <c r="L47" s="1">
         <f t="shared" si="0"/>
-        <v>16558</v>
+        <v>33936</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="1"/>
-        <v>4139.5</v>
+        <v>4242</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" si="2"/>
-        <v>407.23989653929209</v>
+        <v>304.57558292529905</v>
       </c>
       <c r="O47">
         <f t="shared" si="3"/>
-        <v>235.12006389171566</v>
+        <v>175.8467947905086</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -4153,21 +4697,33 @@
       <c r="E48">
         <v>4398</v>
       </c>
+      <c r="F48">
+        <v>3998</v>
+      </c>
+      <c r="G48">
+        <v>4192</v>
+      </c>
+      <c r="H48">
+        <v>4298</v>
+      </c>
+      <c r="I48">
+        <v>3988</v>
+      </c>
       <c r="L48" s="1">
         <f t="shared" si="0"/>
-        <v>15915</v>
+        <v>32391</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="1"/>
-        <v>3978.75</v>
+        <v>4048.875</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" si="2"/>
-        <v>488.79469105136565</v>
+        <v>343.36005154939033</v>
       </c>
       <c r="O48">
         <f t="shared" si="3"/>
-        <v>282.20574645696593</v>
+        <v>198.23901819100431</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -4186,21 +4742,33 @@
       <c r="E49">
         <v>4087</v>
       </c>
+      <c r="F49">
+        <v>3829</v>
+      </c>
+      <c r="G49">
+        <v>4079</v>
+      </c>
+      <c r="H49">
+        <v>4031</v>
+      </c>
+      <c r="I49">
+        <v>3677</v>
+      </c>
       <c r="L49" s="1">
         <f t="shared" si="0"/>
-        <v>15043</v>
+        <v>30659</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="1"/>
-        <v>3760.75</v>
+        <v>3832.375</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" si="2"/>
-        <v>450.54513277436109</v>
+        <v>328.18154274730318</v>
       </c>
       <c r="O49">
         <f t="shared" si="3"/>
-        <v>260.12235368935308</v>
+        <v>189.47570204822219</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -4219,21 +4787,33 @@
       <c r="E50">
         <v>3975</v>
       </c>
+      <c r="F50">
+        <v>3582</v>
+      </c>
+      <c r="G50">
+        <v>3796</v>
+      </c>
+      <c r="H50">
+        <v>3771</v>
+      </c>
+      <c r="I50">
+        <v>3520</v>
+      </c>
       <c r="L50" s="1">
         <f t="shared" si="0"/>
-        <v>14238</v>
+        <v>28907</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="1"/>
-        <v>3559.5</v>
+        <v>3613.375</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" si="2"/>
-        <v>437.16549116629352</v>
+        <v>305.39245827529624</v>
       </c>
       <c r="O50">
         <f t="shared" si="3"/>
-        <v>252.39761400527453</v>
+        <v>176.31841799372384</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -4252,21 +4832,33 @@
       <c r="E51">
         <v>3747</v>
       </c>
+      <c r="F51">
+        <v>3450</v>
+      </c>
+      <c r="G51">
+        <v>3632</v>
+      </c>
+      <c r="H51">
+        <v>3458</v>
+      </c>
+      <c r="I51">
+        <v>3303</v>
+      </c>
       <c r="L51" s="1">
         <f t="shared" si="0"/>
-        <v>13693</v>
+        <v>27536</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="1"/>
-        <v>3423.25</v>
+        <v>3442</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" si="2"/>
-        <v>408.99663812799247</v>
+        <v>282.58551171029882</v>
       </c>
       <c r="O51">
         <f t="shared" si="3"/>
-        <v>236.13431912084843</v>
+        <v>163.15082125502917</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -4285,21 +4877,33 @@
       <c r="E52">
         <v>3477</v>
       </c>
+      <c r="F52">
+        <v>3295</v>
+      </c>
+      <c r="G52">
+        <v>3455</v>
+      </c>
+      <c r="H52">
+        <v>3276</v>
+      </c>
+      <c r="I52">
+        <v>3083</v>
+      </c>
       <c r="L52" s="1">
         <f t="shared" si="0"/>
-        <v>12549</v>
+        <v>25658</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="1"/>
-        <v>3137.25</v>
+        <v>3207.25</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" si="2"/>
-        <v>398.35526438929691</v>
+        <v>289.06388320132379</v>
       </c>
       <c r="O52">
         <f t="shared" si="3"/>
-        <v>229.99051912826513</v>
+        <v>166.89111077928285</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -4318,21 +4922,33 @@
       <c r="E53">
         <v>3154</v>
       </c>
+      <c r="F53">
+        <v>2911</v>
+      </c>
+      <c r="G53">
+        <v>3205</v>
+      </c>
+      <c r="H53">
+        <v>3046</v>
+      </c>
+      <c r="I53">
+        <v>2819</v>
+      </c>
       <c r="L53" s="1">
         <f t="shared" si="0"/>
-        <v>11541</v>
+        <v>23522</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" si="1"/>
-        <v>2885.25</v>
+        <v>2940.25</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" si="2"/>
-        <v>320.14306697683355</v>
+        <v>243.89913020403685</v>
       </c>
       <c r="O53">
         <f t="shared" si="3"/>
-        <v>184.83468589826725</v>
+        <v>140.81522847841626</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -4351,21 +4967,33 @@
       <c r="E54">
         <v>3000</v>
       </c>
+      <c r="F54">
+        <v>2805</v>
+      </c>
+      <c r="G54">
+        <v>3023</v>
+      </c>
+      <c r="H54">
+        <v>2840</v>
+      </c>
+      <c r="I54">
+        <v>2681</v>
+      </c>
       <c r="L54" s="1">
         <f t="shared" si="0"/>
-        <v>10849</v>
+        <v>22198</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="1"/>
-        <v>2712.25</v>
+        <v>2774.75</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" si="2"/>
-        <v>356.05465404438496</v>
+        <v>259.54341778262403</v>
       </c>
       <c r="O54">
         <f t="shared" si="3"/>
-        <v>205.56825035874473</v>
+        <v>149.84746212319351</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -4384,21 +5012,33 @@
       <c r="E55">
         <v>2927</v>
       </c>
+      <c r="F55">
+        <v>2659</v>
+      </c>
+      <c r="G55">
+        <v>2774</v>
+      </c>
+      <c r="H55">
+        <v>2779</v>
+      </c>
+      <c r="I55">
+        <v>2532</v>
+      </c>
       <c r="L55" s="1">
         <f t="shared" si="0"/>
-        <v>10476</v>
+        <v>21220</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="1"/>
-        <v>2619</v>
+        <v>2652.5</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="2"/>
-        <v>364.15106755301434</v>
+        <v>252.87885298243955</v>
       </c>
       <c r="O55">
         <f t="shared" si="3"/>
-        <v>210.24271687742245</v>
+        <v>145.99967384177529</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -4417,21 +5057,33 @@
       <c r="E56">
         <v>2586</v>
       </c>
+      <c r="F56">
+        <v>2375</v>
+      </c>
+      <c r="G56">
+        <v>2653</v>
+      </c>
+      <c r="H56">
+        <v>2469</v>
+      </c>
+      <c r="I56">
+        <v>2235</v>
+      </c>
       <c r="L56" s="1">
         <f t="shared" si="0"/>
-        <v>9299</v>
+        <v>19031</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" si="1"/>
-        <v>2324.75</v>
+        <v>2378.875</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" si="2"/>
-        <v>317.43910177124263</v>
+        <v>244.3659068458025</v>
       </c>
       <c r="O56">
         <f t="shared" si="3"/>
-        <v>183.27355085893996</v>
+        <v>141.08472209819109</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -4450,21 +5102,33 @@
       <c r="E57">
         <v>2436</v>
       </c>
+      <c r="F57">
+        <v>2228</v>
+      </c>
+      <c r="G57">
+        <v>2456</v>
+      </c>
+      <c r="H57">
+        <v>2295</v>
+      </c>
+      <c r="I57">
+        <v>2143</v>
+      </c>
       <c r="L57" s="1">
         <f t="shared" si="0"/>
-        <v>8775</v>
+        <v>17897</v>
       </c>
       <c r="M57" s="1">
         <f t="shared" si="1"/>
-        <v>2193.75</v>
+        <v>2237.125</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" si="2"/>
-        <v>270.01527734556061</v>
+        <v>202.29005872049882</v>
       </c>
       <c r="O57">
         <f t="shared" si="3"/>
-        <v>155.89339306077088</v>
+        <v>116.7922198566652</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -4483,21 +5147,33 @@
       <c r="E58">
         <v>2325</v>
       </c>
+      <c r="F58">
+        <v>2126</v>
+      </c>
+      <c r="G58">
+        <v>2301</v>
+      </c>
+      <c r="H58">
+        <v>2015</v>
+      </c>
+      <c r="I58">
+        <v>1985</v>
+      </c>
       <c r="L58" s="1">
         <f t="shared" si="0"/>
-        <v>8138</v>
+        <v>16565</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" si="1"/>
-        <v>2034.5</v>
+        <v>2070.625</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" si="2"/>
-        <v>280.59995248277096</v>
+        <v>209.75968392424699</v>
       </c>
       <c r="O58">
         <f t="shared" si="3"/>
-        <v>162.00445810052403</v>
+        <v>121.10480997879482</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -4516,21 +5192,33 @@
       <c r="E59">
         <v>2137</v>
       </c>
+      <c r="F59">
+        <v>1954</v>
+      </c>
+      <c r="G59">
+        <v>2116</v>
+      </c>
+      <c r="H59">
+        <v>1966</v>
+      </c>
+      <c r="I59">
+        <v>1784</v>
+      </c>
       <c r="L59" s="1">
         <f t="shared" si="0"/>
-        <v>7600</v>
+        <v>15420</v>
       </c>
       <c r="M59" s="1">
         <f t="shared" si="1"/>
-        <v>1900</v>
+        <v>1927.5</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" si="2"/>
-        <v>269.51190449897882</v>
+        <v>199.72981750354651</v>
       </c>
       <c r="O59">
         <f t="shared" si="3"/>
-        <v>155.60277061229414</v>
+        <v>115.31406390086741</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -4549,21 +5237,33 @@
       <c r="E60">
         <v>1998</v>
       </c>
+      <c r="F60">
+        <v>1705</v>
+      </c>
+      <c r="G60">
+        <v>2022</v>
+      </c>
+      <c r="H60">
+        <v>1835</v>
+      </c>
+      <c r="I60">
+        <v>1682</v>
+      </c>
       <c r="L60" s="1">
         <f t="shared" si="0"/>
-        <v>6871</v>
+        <v>14115</v>
       </c>
       <c r="M60" s="1">
         <f t="shared" si="1"/>
-        <v>1717.75</v>
+        <v>1764.375</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" si="2"/>
-        <v>288.89487707468959</v>
+        <v>220.63087305011769</v>
       </c>
       <c r="O60">
         <f t="shared" si="3"/>
-        <v>166.7935350465759</v>
+        <v>127.3812939470276</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -4582,21 +5282,33 @@
       <c r="E61">
         <v>1808</v>
       </c>
+      <c r="F61">
+        <v>1587</v>
+      </c>
+      <c r="G61">
+        <v>1841</v>
+      </c>
+      <c r="H61">
+        <v>1591</v>
+      </c>
+      <c r="I61">
+        <v>1469</v>
+      </c>
       <c r="L61" s="1">
         <f t="shared" si="0"/>
-        <v>6281</v>
+        <v>12769</v>
       </c>
       <c r="M61" s="1">
         <f t="shared" si="1"/>
-        <v>1570.25</v>
+        <v>1596.125</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" si="2"/>
-        <v>286.17287898518032</v>
+        <v>215.33922574128744</v>
       </c>
       <c r="O61">
         <f t="shared" si="3"/>
-        <v>165.22198871686408</v>
+        <v>124.3261599488179</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -4615,21 +5327,33 @@
       <c r="E62">
         <v>1580</v>
       </c>
+      <c r="F62">
+        <v>1427</v>
+      </c>
+      <c r="G62">
+        <v>1651</v>
+      </c>
+      <c r="H62">
+        <v>1402</v>
+      </c>
+      <c r="I62">
+        <v>1349</v>
+      </c>
       <c r="L62" s="1">
         <f t="shared" si="0"/>
-        <v>5629</v>
+        <v>11458</v>
       </c>
       <c r="M62" s="1">
         <f t="shared" si="1"/>
-        <v>1407.25</v>
+        <v>1432.25</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" si="2"/>
-        <v>246.98903484432935</v>
+        <v>185.64001262043234</v>
       </c>
       <c r="O62">
         <f t="shared" si="3"/>
-        <v>142.59918575425942</v>
+        <v>107.17931125877215</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -4648,21 +5372,33 @@
       <c r="E63">
         <v>1423</v>
       </c>
+      <c r="F63">
+        <v>1357</v>
+      </c>
+      <c r="G63">
+        <v>1531</v>
+      </c>
+      <c r="H63">
+        <v>1338</v>
+      </c>
+      <c r="I63">
+        <v>1273</v>
+      </c>
       <c r="L63" s="1">
         <f t="shared" si="0"/>
-        <v>5057</v>
+        <v>10556</v>
       </c>
       <c r="M63" s="1">
         <f t="shared" si="1"/>
-        <v>1264.25</v>
+        <v>1319.5</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" si="2"/>
-        <v>201.80085067544522</v>
+        <v>161.69813144958019</v>
       </c>
       <c r="O63">
         <f t="shared" si="3"/>
-        <v>116.50977546016378</v>
+        <v>93.356459719874621</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -4681,21 +5417,33 @@
       <c r="E64">
         <v>1347</v>
       </c>
+      <c r="F64">
+        <v>1210</v>
+      </c>
+      <c r="G64">
+        <v>1416</v>
+      </c>
+      <c r="H64">
+        <v>1147</v>
+      </c>
+      <c r="I64">
+        <v>1119</v>
+      </c>
       <c r="L64" s="1">
         <f t="shared" si="0"/>
-        <v>4629</v>
+        <v>9521</v>
       </c>
       <c r="M64" s="1">
         <f t="shared" si="1"/>
-        <v>1157.25</v>
+        <v>1190.125</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" si="2"/>
-        <v>185.05382099990982</v>
+        <v>153.71163865219464</v>
       </c>
       <c r="O64">
         <f t="shared" si="3"/>
-        <v>106.84087336886677</v>
+        <v>88.745455953423061</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -4714,21 +5462,33 @@
       <c r="E65">
         <v>1222</v>
       </c>
+      <c r="F65">
+        <v>1107</v>
+      </c>
+      <c r="G65">
+        <v>1255</v>
+      </c>
+      <c r="H65">
+        <v>1015</v>
+      </c>
+      <c r="I65">
+        <v>945</v>
+      </c>
       <c r="L65" s="1">
         <f t="shared" si="0"/>
-        <v>4156</v>
+        <v>8478</v>
       </c>
       <c r="M65" s="1">
         <f t="shared" si="1"/>
-        <v>1039</v>
+        <v>1059.75</v>
       </c>
       <c r="N65" s="1">
         <f t="shared" si="2"/>
-        <v>166.07829478893382</v>
+        <v>141.41807320343261</v>
       </c>
       <c r="O65">
         <f t="shared" si="3"/>
-        <v>95.885348202944968</v>
+        <v>81.647762632280021</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -4747,21 +5507,33 @@
       <c r="E66">
         <v>1143</v>
       </c>
+      <c r="F66">
+        <v>1033</v>
+      </c>
+      <c r="G66">
+        <v>1158</v>
+      </c>
+      <c r="H66">
+        <v>873</v>
+      </c>
+      <c r="I66">
+        <v>931</v>
+      </c>
       <c r="L66" s="1">
         <f t="shared" si="0"/>
-        <v>3786</v>
+        <v>7781</v>
       </c>
       <c r="M66" s="1">
         <f t="shared" si="1"/>
-        <v>946.5</v>
+        <v>972.625</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" si="2"/>
-        <v>171.06041817634687</v>
+        <v>141.5131871694548</v>
       </c>
       <c r="O66">
         <f t="shared" si="3"/>
-        <v>98.76177848180383</v>
+        <v>81.702676706166628</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -4780,21 +5552,33 @@
       <c r="E67">
         <v>949</v>
       </c>
+      <c r="F67">
+        <v>903</v>
+      </c>
+      <c r="G67">
+        <v>1036</v>
+      </c>
+      <c r="H67">
+        <v>805</v>
+      </c>
+      <c r="I67">
+        <v>786</v>
+      </c>
       <c r="L67" s="1">
         <f t="shared" si="0"/>
-        <v>3268</v>
+        <v>6798</v>
       </c>
       <c r="M67" s="1">
         <f t="shared" si="1"/>
-        <v>817</v>
+        <v>849.75</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" si="2"/>
-        <v>152.499180325666</v>
+        <v>129.64208972618201</v>
       </c>
       <c r="O67">
         <f t="shared" si="3"/>
-        <v>88.045442812220557</v>
+        <v>74.848895401716803</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -4813,21 +5597,33 @@
       <c r="E68">
         <v>877</v>
       </c>
+      <c r="F68">
+        <v>799</v>
+      </c>
+      <c r="G68">
+        <v>934</v>
+      </c>
+      <c r="H68">
+        <v>729</v>
+      </c>
+      <c r="I68">
+        <v>663</v>
+      </c>
       <c r="L68" s="1">
         <f t="shared" ref="L68:L112" si="4">SUM(B68:K68)</f>
-        <v>3034</v>
+        <v>6159</v>
       </c>
       <c r="M68" s="1">
         <f t="shared" ref="M68:M112" si="5">AVERAGE(B68:K68)</f>
-        <v>758.5</v>
+        <v>769.875</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" ref="N68:N112" si="6">STDEV(B68:K68)</f>
-        <v>121.40428328522844</v>
+        <v>110.59118732650316</v>
       </c>
       <c r="O68">
         <f t="shared" ref="O68:O112" si="7">N68/SQRT(3)</f>
-        <v>70.092795635500224</v>
+        <v>63.849851772956931</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -4846,21 +5642,33 @@
       <c r="E69">
         <v>811</v>
       </c>
+      <c r="F69">
+        <v>733</v>
+      </c>
+      <c r="G69">
+        <v>908</v>
+      </c>
+      <c r="H69">
+        <v>628</v>
+      </c>
+      <c r="I69">
+        <v>655</v>
+      </c>
       <c r="L69" s="1">
         <f t="shared" si="4"/>
-        <v>2633</v>
+        <v>5557</v>
       </c>
       <c r="M69" s="1">
         <f t="shared" si="5"/>
-        <v>658.25</v>
+        <v>694.625</v>
       </c>
       <c r="N69" s="1">
         <f t="shared" si="6"/>
-        <v>129.25781730066979</v>
+        <v>124.45646111908258</v>
       </c>
       <c r="O69">
         <f t="shared" si="7"/>
-        <v>74.62703561340517</v>
+        <v>71.854971329490525</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -4879,21 +5687,33 @@
       <c r="E70">
         <v>691</v>
       </c>
+      <c r="F70">
+        <v>612</v>
+      </c>
+      <c r="G70">
+        <v>744</v>
+      </c>
+      <c r="H70">
+        <v>522</v>
+      </c>
+      <c r="I70">
+        <v>526</v>
+      </c>
       <c r="L70" s="1">
         <f t="shared" si="4"/>
-        <v>2226</v>
+        <v>4630</v>
       </c>
       <c r="M70" s="1">
         <f t="shared" si="5"/>
-        <v>556.5</v>
+        <v>578.75</v>
       </c>
       <c r="N70" s="1">
         <f t="shared" si="6"/>
-        <v>99.754699137434116</v>
+        <v>97.284193401159911</v>
       </c>
       <c r="O70">
         <f t="shared" si="7"/>
-        <v>57.593402399927719</v>
+        <v>56.167055248055291</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -4912,21 +5732,33 @@
       <c r="E71">
         <v>590</v>
       </c>
+      <c r="F71">
+        <v>562</v>
+      </c>
+      <c r="G71">
+        <v>730</v>
+      </c>
+      <c r="H71">
+        <v>503</v>
+      </c>
+      <c r="I71">
+        <v>492</v>
+      </c>
       <c r="L71" s="1">
         <f t="shared" si="4"/>
-        <v>2039</v>
+        <v>4326</v>
       </c>
       <c r="M71" s="1">
         <f t="shared" si="5"/>
-        <v>509.75</v>
+        <v>540.75</v>
       </c>
       <c r="N71" s="1">
         <f t="shared" si="6"/>
-        <v>74.271461544795258</v>
+        <v>92.937382913750824</v>
       </c>
       <c r="O71">
         <f t="shared" si="7"/>
-        <v>42.880648315994485</v>
+        <v>53.657423043033369</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -4945,21 +5777,33 @@
       <c r="E72">
         <v>546</v>
       </c>
+      <c r="F72">
+        <v>518</v>
+      </c>
+      <c r="G72">
+        <v>599</v>
+      </c>
+      <c r="H72">
+        <v>420</v>
+      </c>
+      <c r="I72">
+        <v>408</v>
+      </c>
       <c r="L72" s="1">
         <f t="shared" si="4"/>
-        <v>1758</v>
+        <v>3703</v>
       </c>
       <c r="M72" s="1">
         <f t="shared" si="5"/>
-        <v>439.5</v>
+        <v>462.875</v>
       </c>
       <c r="N72" s="1">
         <f t="shared" si="6"/>
-        <v>80.392785745985933</v>
+        <v>82.801720996607315</v>
       </c>
       <c r="O72">
         <f t="shared" si="7"/>
-        <v>46.414796491348888</v>
+        <v>47.805595906755521</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -4978,21 +5822,33 @@
       <c r="E73">
         <v>480</v>
       </c>
+      <c r="F73">
+        <v>461</v>
+      </c>
+      <c r="G73">
+        <v>557</v>
+      </c>
+      <c r="H73">
+        <v>390</v>
+      </c>
+      <c r="I73">
+        <v>399</v>
+      </c>
       <c r="L73" s="1">
         <f t="shared" si="4"/>
-        <v>1608</v>
+        <v>3415</v>
       </c>
       <c r="M73" s="1">
         <f t="shared" si="5"/>
-        <v>402</v>
+        <v>426.875</v>
       </c>
       <c r="N73" s="1">
         <f t="shared" si="6"/>
-        <v>78.871203025354362</v>
+        <v>76.877337362840549</v>
       </c>
       <c r="O73">
         <f t="shared" si="7"/>
-        <v>45.536310297997971</v>
+        <v>44.385151421017667</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -5011,21 +5867,33 @@
       <c r="E74">
         <v>453</v>
       </c>
+      <c r="F74">
+        <v>413</v>
+      </c>
+      <c r="G74">
+        <v>510</v>
+      </c>
+      <c r="H74">
+        <v>332</v>
+      </c>
+      <c r="I74">
+        <v>316</v>
+      </c>
       <c r="L74" s="1">
         <f t="shared" si="4"/>
-        <v>1412</v>
+        <v>2983</v>
       </c>
       <c r="M74" s="1">
         <f t="shared" si="5"/>
-        <v>353</v>
+        <v>372.875</v>
       </c>
       <c r="N74" s="1">
         <f t="shared" si="6"/>
-        <v>74.815328197725179</v>
+        <v>79.00350353894801</v>
       </c>
       <c r="O74">
         <f t="shared" si="7"/>
-        <v>43.194649874466833</v>
+        <v>45.612694035135185</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -5044,21 +5912,33 @@
       <c r="E75">
         <v>364</v>
       </c>
+      <c r="F75">
+        <v>376</v>
+      </c>
+      <c r="G75">
+        <v>477</v>
+      </c>
+      <c r="H75">
+        <v>275</v>
+      </c>
+      <c r="I75">
+        <v>332</v>
+      </c>
       <c r="L75" s="1">
         <f t="shared" si="4"/>
-        <v>1259</v>
+        <v>2719</v>
       </c>
       <c r="M75" s="1">
         <f t="shared" si="5"/>
-        <v>314.75</v>
+        <v>339.875</v>
       </c>
       <c r="N75" s="1">
         <f t="shared" si="6"/>
-        <v>61.770408233500717</v>
+        <v>74.018216869710045</v>
       </c>
       <c r="O75">
         <f t="shared" si="7"/>
-        <v>35.663161821564714</v>
+        <v>42.734437434663199</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -5077,21 +5957,33 @@
       <c r="E76">
         <v>315</v>
       </c>
+      <c r="F76">
+        <v>296</v>
+      </c>
+      <c r="G76">
+        <v>370</v>
+      </c>
+      <c r="H76">
+        <v>215</v>
+      </c>
+      <c r="I76">
+        <v>227</v>
+      </c>
       <c r="L76" s="1">
         <f t="shared" si="4"/>
-        <v>1097</v>
+        <v>2205</v>
       </c>
       <c r="M76" s="1">
         <f t="shared" si="5"/>
-        <v>274.25</v>
+        <v>275.625</v>
       </c>
       <c r="N76" s="1">
         <f t="shared" si="6"/>
-        <v>41.987101193898425</v>
+        <v>54.324257933265869</v>
       </c>
       <c r="O76">
         <f t="shared" si="7"/>
-        <v>24.241264176789315</v>
+        <v>31.364124941297714</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -5110,21 +6002,33 @@
       <c r="E77">
         <v>276</v>
       </c>
+      <c r="F77">
+        <v>279</v>
+      </c>
+      <c r="G77">
+        <v>341</v>
+      </c>
+      <c r="H77">
+        <v>216</v>
+      </c>
+      <c r="I77">
+        <v>233</v>
+      </c>
       <c r="L77" s="1">
         <f t="shared" si="4"/>
-        <v>952</v>
+        <v>2021</v>
       </c>
       <c r="M77" s="1">
         <f t="shared" si="5"/>
-        <v>238</v>
+        <v>252.625</v>
       </c>
       <c r="N77" s="1">
         <f t="shared" si="6"/>
-        <v>43.855824394638091</v>
+        <v>49.074105770180445</v>
       </c>
       <c r="O77">
         <f t="shared" si="7"/>
-        <v>25.32017201977726</v>
+        <v>28.332948176653847</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -5143,21 +6047,33 @@
       <c r="E78">
         <v>225</v>
       </c>
+      <c r="F78">
+        <v>221</v>
+      </c>
+      <c r="G78">
+        <v>303</v>
+      </c>
+      <c r="H78">
+        <v>196</v>
+      </c>
+      <c r="I78">
+        <v>200</v>
+      </c>
       <c r="L78" s="1">
         <f t="shared" si="4"/>
-        <v>813</v>
+        <v>1733</v>
       </c>
       <c r="M78" s="1">
         <f t="shared" si="5"/>
-        <v>203.25</v>
+        <v>216.625</v>
       </c>
       <c r="N78" s="1">
         <f t="shared" si="6"/>
-        <v>35.696638497203068</v>
+        <v>42.627749178205505</v>
       </c>
       <c r="O78">
         <f t="shared" si="7"/>
-        <v>20.609463845524949</v>
+        <v>24.611142462984798</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -5176,21 +6092,33 @@
       <c r="E79">
         <v>198</v>
       </c>
+      <c r="F79">
+        <v>205</v>
+      </c>
+      <c r="G79">
+        <v>256</v>
+      </c>
+      <c r="H79">
+        <v>128</v>
+      </c>
+      <c r="I79">
+        <v>148</v>
+      </c>
       <c r="L79" s="1">
         <f t="shared" si="4"/>
-        <v>695</v>
+        <v>1432</v>
       </c>
       <c r="M79" s="1">
         <f t="shared" si="5"/>
-        <v>173.75</v>
+        <v>179</v>
       </c>
       <c r="N79" s="1">
         <f t="shared" si="6"/>
-        <v>36.003472054789384</v>
+        <v>44.98571201742044</v>
       </c>
       <c r="O79">
         <f t="shared" si="7"/>
-        <v>20.78661428259382</v>
+        <v>25.972512942944675</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -5209,21 +6137,33 @@
       <c r="E80">
         <v>183</v>
       </c>
+      <c r="F80">
+        <v>196</v>
+      </c>
+      <c r="G80">
+        <v>259</v>
+      </c>
+      <c r="H80">
+        <v>117</v>
+      </c>
+      <c r="I80">
+        <v>139</v>
+      </c>
       <c r="L80" s="1">
         <f t="shared" si="4"/>
-        <v>603</v>
+        <v>1314</v>
       </c>
       <c r="M80" s="1">
         <f t="shared" si="5"/>
-        <v>150.75</v>
+        <v>164.25</v>
       </c>
       <c r="N80" s="1">
         <f t="shared" si="6"/>
-        <v>33.589432862136867</v>
+        <v>49.23631064279985</v>
       </c>
       <c r="O80">
         <f t="shared" si="7"/>
-        <v>19.392868104881583</v>
+        <v>28.42659720352453</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -5242,21 +6182,33 @@
       <c r="E81">
         <v>136</v>
       </c>
+      <c r="F81">
+        <v>141</v>
+      </c>
+      <c r="G81">
+        <v>206</v>
+      </c>
+      <c r="H81">
+        <v>98</v>
+      </c>
+      <c r="I81">
+        <v>132</v>
+      </c>
       <c r="L81" s="1">
         <f t="shared" si="4"/>
-        <v>499</v>
+        <v>1076</v>
       </c>
       <c r="M81" s="1">
         <f t="shared" si="5"/>
-        <v>124.75</v>
+        <v>134.5</v>
       </c>
       <c r="N81" s="1">
         <f t="shared" si="6"/>
-        <v>19.670197423174653</v>
+        <v>33.877932134566386</v>
       </c>
       <c r="O81">
         <f t="shared" si="7"/>
-        <v>11.356593777282969</v>
+        <v>19.559433237479777</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -5275,21 +6227,33 @@
       <c r="E82">
         <v>121</v>
       </c>
+      <c r="F82">
+        <v>147</v>
+      </c>
+      <c r="G82">
+        <v>194</v>
+      </c>
+      <c r="H82">
+        <v>79</v>
+      </c>
+      <c r="I82">
+        <v>106</v>
+      </c>
       <c r="L82" s="1">
         <f t="shared" si="4"/>
-        <v>447</v>
+        <v>973</v>
       </c>
       <c r="M82" s="1">
         <f t="shared" si="5"/>
-        <v>111.75</v>
+        <v>121.625</v>
       </c>
       <c r="N82" s="1">
         <f t="shared" si="6"/>
-        <v>12.038133853162901</v>
+        <v>35.391433588208479</v>
       </c>
       <c r="O82">
         <f t="shared" si="7"/>
-        <v>6.9502198206643477</v>
+        <v>20.433253709158929</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -5308,21 +6272,33 @@
       <c r="E83">
         <v>99</v>
       </c>
+      <c r="F83">
+        <v>104</v>
+      </c>
+      <c r="G83">
+        <v>152</v>
+      </c>
+      <c r="H83">
+        <v>65</v>
+      </c>
+      <c r="I83">
+        <v>94</v>
+      </c>
       <c r="L83" s="1">
         <f t="shared" si="4"/>
-        <v>378</v>
+        <v>793</v>
       </c>
       <c r="M83" s="1">
         <f t="shared" si="5"/>
-        <v>94.5</v>
+        <v>99.125</v>
       </c>
       <c r="N83" s="1">
         <f t="shared" si="6"/>
-        <v>17.464249196572979</v>
+        <v>26.755173064554931</v>
       </c>
       <c r="O83">
         <f t="shared" si="7"/>
-        <v>10.082988974836116</v>
+        <v>15.447106371035815</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -5341,21 +6317,33 @@
       <c r="E84">
         <v>82</v>
       </c>
+      <c r="F84">
+        <v>88</v>
+      </c>
+      <c r="G84">
+        <v>123</v>
+      </c>
+      <c r="H84">
+        <v>51</v>
+      </c>
+      <c r="I84">
+        <v>67</v>
+      </c>
       <c r="L84" s="1">
         <f t="shared" si="4"/>
-        <v>293</v>
+        <v>622</v>
       </c>
       <c r="M84" s="1">
         <f t="shared" si="5"/>
-        <v>73.25</v>
+        <v>77.75</v>
       </c>
       <c r="N84" s="1">
         <f t="shared" si="6"/>
-        <v>8.1802607945386843</v>
+        <v>21.598611066455177</v>
       </c>
       <c r="O84">
         <f t="shared" si="7"/>
-        <v>4.7228757717682512</v>
+        <v>12.469963913339928</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -5374,21 +6362,33 @@
       <c r="E85">
         <v>81</v>
       </c>
+      <c r="F85">
+        <v>78</v>
+      </c>
+      <c r="G85">
+        <v>126</v>
+      </c>
+      <c r="H85">
+        <v>48</v>
+      </c>
+      <c r="I85">
+        <v>86</v>
+      </c>
       <c r="L85" s="1">
         <f t="shared" si="4"/>
-        <v>299</v>
+        <v>637</v>
       </c>
       <c r="M85" s="1">
         <f t="shared" si="5"/>
-        <v>74.75</v>
+        <v>79.625</v>
       </c>
       <c r="N85" s="1">
         <f t="shared" si="6"/>
-        <v>8.5</v>
+        <v>22.379438905260464</v>
       </c>
       <c r="O85">
         <f t="shared" si="7"/>
-        <v>4.9074772881118189</v>
+        <v>12.920775076264913</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -5407,21 +6407,33 @@
       <c r="E86">
         <v>53</v>
       </c>
+      <c r="F86">
+        <v>63</v>
+      </c>
+      <c r="G86">
+        <v>95</v>
+      </c>
+      <c r="H86">
+        <v>37</v>
+      </c>
+      <c r="I86">
+        <v>50</v>
+      </c>
       <c r="L86" s="1">
         <f t="shared" si="4"/>
-        <v>218</v>
+        <v>463</v>
       </c>
       <c r="M86" s="1">
         <f t="shared" si="5"/>
-        <v>54.5</v>
+        <v>57.875</v>
       </c>
       <c r="N86" s="1">
         <f t="shared" si="6"/>
-        <v>3.415650255319866</v>
+        <v>16.830563185551966</v>
       </c>
       <c r="O86">
         <f t="shared" si="7"/>
-        <v>1.9720265943665387</v>
+        <v>9.717130185791433</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -5440,21 +6452,33 @@
       <c r="E87">
         <v>43</v>
       </c>
+      <c r="F87">
+        <v>44</v>
+      </c>
+      <c r="G87">
+        <v>71</v>
+      </c>
+      <c r="H87">
+        <v>29</v>
+      </c>
+      <c r="I87">
+        <v>49</v>
+      </c>
       <c r="L87" s="1">
         <f t="shared" si="4"/>
-        <v>176</v>
+        <v>369</v>
       </c>
       <c r="M87" s="1">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>46.125</v>
       </c>
       <c r="N87" s="1">
         <f t="shared" si="6"/>
-        <v>7.0710678118654755</v>
+        <v>12.494998999599799</v>
       </c>
       <c r="O87">
         <f t="shared" si="7"/>
-        <v>4.0824829046386304</v>
+        <v>7.2139910359430495</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -5473,21 +6497,33 @@
       <c r="E88">
         <v>32</v>
       </c>
+      <c r="F88">
+        <v>38</v>
+      </c>
+      <c r="G88">
+        <v>47</v>
+      </c>
+      <c r="H88">
+        <v>22</v>
+      </c>
+      <c r="I88">
+        <v>32</v>
+      </c>
       <c r="L88" s="1">
         <f t="shared" si="4"/>
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="M88" s="1">
         <f t="shared" si="5"/>
-        <v>33.75</v>
+        <v>34.25</v>
       </c>
       <c r="N88" s="1">
         <f t="shared" si="6"/>
-        <v>6.1305247192498404</v>
+        <v>7.9776473438512649</v>
       </c>
       <c r="O88">
         <f t="shared" si="7"/>
-        <v>3.5394600969325505</v>
+        <v>4.6058968414724308</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -5506,9 +6542,21 @@
       <c r="E89">
         <v>29</v>
       </c>
+      <c r="F89">
+        <v>28</v>
+      </c>
+      <c r="G89">
+        <v>42</v>
+      </c>
+      <c r="H89">
+        <v>20</v>
+      </c>
+      <c r="I89">
+        <v>32</v>
+      </c>
       <c r="L89" s="1">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="M89" s="1">
         <f t="shared" si="5"/>
@@ -5516,11 +6564,11 @@
       </c>
       <c r="N89" s="1">
         <f t="shared" si="6"/>
-        <v>10.279429296739517</v>
+        <v>9.0079330116768261</v>
       </c>
       <c r="O89">
         <f t="shared" si="7"/>
-        <v>5.9348312715882861</v>
+        <v>5.2007325491337326</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -5539,21 +6587,33 @@
       <c r="E90">
         <v>31</v>
       </c>
+      <c r="F90">
+        <v>32</v>
+      </c>
+      <c r="G90">
+        <v>42</v>
+      </c>
+      <c r="H90">
+        <v>21</v>
+      </c>
+      <c r="I90">
+        <v>40</v>
+      </c>
       <c r="L90" s="1">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="M90" s="1">
         <f t="shared" si="5"/>
-        <v>31.75</v>
+        <v>32.75</v>
       </c>
       <c r="N90" s="1">
         <f t="shared" si="6"/>
-        <v>4.349329450233296</v>
+        <v>6.9436507482941359</v>
       </c>
       <c r="O90">
         <f t="shared" si="7"/>
-        <v>2.5110865288865605</v>
+        <v>4.0089186286863656</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -5572,21 +6632,33 @@
       <c r="E91">
         <v>26</v>
       </c>
+      <c r="F91">
+        <v>19</v>
+      </c>
+      <c r="G91">
+        <v>33</v>
+      </c>
+      <c r="H91">
+        <v>18</v>
+      </c>
+      <c r="I91">
+        <v>30</v>
+      </c>
       <c r="L91" s="1">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="M91" s="1">
         <f t="shared" si="5"/>
-        <v>25.25</v>
+        <v>25.125</v>
       </c>
       <c r="N91" s="1">
         <f t="shared" si="6"/>
-        <v>2.2173557826083452</v>
+        <v>5.1944338341288798</v>
       </c>
       <c r="O91">
         <f t="shared" si="7"/>
-        <v>1.2801909579781015</v>
+        <v>2.9990077724220088</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -5605,21 +6677,33 @@
       <c r="E92">
         <v>12</v>
       </c>
+      <c r="F92">
+        <v>14</v>
+      </c>
+      <c r="G92">
+        <v>29</v>
+      </c>
+      <c r="H92">
+        <v>11</v>
+      </c>
+      <c r="I92">
+        <v>21</v>
+      </c>
       <c r="L92" s="1">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="M92" s="1">
         <f t="shared" si="5"/>
-        <v>17.25</v>
+        <v>18</v>
       </c>
       <c r="N92" s="1">
         <f t="shared" si="6"/>
-        <v>5.5602757725374259</v>
+        <v>6.4365030434678916</v>
       </c>
       <c r="O92">
         <f t="shared" si="7"/>
-        <v>3.2102267140430372</v>
+        <v>3.7161167647860331</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -5638,21 +6722,33 @@
       <c r="E93">
         <v>13</v>
       </c>
+      <c r="F93">
+        <v>13</v>
+      </c>
+      <c r="G93">
+        <v>20</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>17</v>
+      </c>
       <c r="L93" s="1">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="M93" s="1">
         <f t="shared" si="5"/>
-        <v>14.5</v>
+        <v>14.125</v>
       </c>
       <c r="N93" s="1">
         <f t="shared" si="6"/>
-        <v>2.3804761428476167</v>
+        <v>4.5493327611231704</v>
       </c>
       <c r="O93">
         <f t="shared" si="7"/>
-        <v>1.3743685418725535</v>
+        <v>2.6265584942676461</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -5671,21 +6767,33 @@
       <c r="E94">
         <v>11</v>
       </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>12</v>
+      </c>
+      <c r="H94">
+        <v>10</v>
+      </c>
+      <c r="I94">
+        <v>11</v>
+      </c>
       <c r="L94" s="1">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="M94" s="1">
         <f t="shared" si="5"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="N94" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2.2038926600773587</v>
       </c>
       <c r="O94">
         <f t="shared" si="7"/>
-        <v>0.57735026918962584</v>
+        <v>1.2724180205607036</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -5704,21 +6812,33 @@
       <c r="E95">
         <v>2</v>
       </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95">
+        <v>9</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
       <c r="L95" s="1">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M95" s="1">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>6.625</v>
       </c>
       <c r="N95" s="1">
         <f t="shared" si="6"/>
-        <v>3.7859388972001824</v>
+        <v>3.7392703642746747</v>
       </c>
       <c r="O95">
         <f t="shared" si="7"/>
-        <v>2.1858128414340001</v>
+        <v>2.1588687513867737</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -5737,21 +6857,33 @@
       <c r="E96">
         <v>4</v>
       </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
       <c r="L96" s="1">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M96" s="1">
         <f t="shared" si="5"/>
-        <v>4.75</v>
+        <v>4.125</v>
       </c>
       <c r="N96" s="1">
         <f t="shared" si="6"/>
-        <v>1.707825127659933</v>
+        <v>2.1671244937540095</v>
       </c>
       <c r="O96">
         <f t="shared" si="7"/>
-        <v>0.98601329718326935</v>
+        <v>1.2511899098363088</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -5770,21 +6902,33 @@
       <c r="E97">
         <v>1</v>
       </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
       <c r="L97" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M97" s="1">
         <f t="shared" si="5"/>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N97" s="1">
         <f t="shared" si="6"/>
-        <v>1.707825127659933</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="O97">
         <f t="shared" si="7"/>
-        <v>0.98601329718326935</v>
+        <v>0.81649658092772615</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -5803,21 +6947,33 @@
       <c r="E98">
         <v>1</v>
       </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
       <c r="L98" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M98" s="1">
         <f t="shared" si="5"/>
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N98" s="1">
         <f t="shared" si="6"/>
-        <v>2.0615528128088303</v>
+        <v>1.8468119248354136</v>
       </c>
       <c r="O98">
         <f t="shared" si="7"/>
-        <v>1.1902380714238083</v>
+        <v>1.0662573619463369</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -5836,21 +6992,33 @@
       <c r="E99">
         <v>0</v>
       </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
       <c r="L99" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M99" s="1">
         <f t="shared" si="5"/>
-        <v>1.25</v>
+        <v>0.875</v>
       </c>
       <c r="N99" s="1">
         <f t="shared" si="6"/>
-        <v>0.9574271077563381</v>
+        <v>0.99103120896511487</v>
       </c>
       <c r="O99">
         <f t="shared" si="7"/>
-        <v>0.55277079839256671</v>
+        <v>0.57217213527132937</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -5869,21 +7037,33 @@
       <c r="E100">
         <v>0</v>
       </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
       <c r="L100" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M100" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="N100" s="1">
         <f t="shared" si="6"/>
-        <v>1.8257418583505538</v>
+        <v>1.5526475085202969</v>
       </c>
       <c r="O100">
         <f t="shared" si="7"/>
-        <v>1.0540925533894598</v>
+        <v>0.89642145700079523</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -5902,21 +7082,33 @@
       <c r="E101">
         <v>0</v>
       </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
       <c r="L101" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M101" s="1">
         <f t="shared" si="5"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N101" s="1">
         <f t="shared" si="6"/>
-        <v>0.9574271077563381</v>
+        <v>0.7559289460184544</v>
       </c>
       <c r="O101">
         <f t="shared" si="7"/>
-        <v>0.55277079839256671</v>
+        <v>0.43643578047198478</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -5935,9 +7127,21 @@
       <c r="E102">
         <v>0</v>
       </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
       <c r="L102" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M102" s="1">
         <f t="shared" si="5"/>
@@ -5945,11 +7149,11 @@
       </c>
       <c r="N102" s="1">
         <f t="shared" si="6"/>
-        <v>0.57735026918962573</v>
+        <v>0.53452248382484879</v>
       </c>
       <c r="O102">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <v>0.30860669992418382</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -5968,6 +7172,18 @@
       <c r="E103">
         <v>0</v>
       </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
       <c r="L103" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6001,9 +7217,21 @@
       <c r="E104">
         <v>0</v>
       </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
       <c r="L104" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M104" s="1">
         <f t="shared" si="5"/>
@@ -6011,11 +7239,11 @@
       </c>
       <c r="N104" s="1">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.46291004988627571</v>
       </c>
       <c r="O104">
         <f t="shared" si="7"/>
-        <v>0.28867513459481292</v>
+        <v>0.2672612419124244</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -6034,6 +7262,18 @@
       <c r="E105">
         <v>0</v>
       </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
       <c r="L105" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6067,6 +7307,18 @@
       <c r="E106">
         <v>0</v>
       </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
       <c r="L106" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6100,6 +7352,18 @@
       <c r="E107">
         <v>0</v>
       </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
       <c r="L107" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6133,6 +7397,18 @@
       <c r="E108">
         <v>0</v>
       </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
       <c r="L108" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6166,6 +7442,18 @@
       <c r="E109">
         <v>0</v>
       </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
       <c r="L109" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6199,6 +7487,18 @@
       <c r="E110">
         <v>0</v>
       </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
       <c r="L110" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6232,6 +7532,18 @@
       <c r="E111">
         <v>0</v>
       </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
       <c r="L111" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6265,6 +7577,18 @@
       <c r="E112">
         <v>0</v>
       </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
       <c r="L112" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6283,25 +7607,25 @@
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="6" t="s">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B122">
@@ -6316,7 +7640,18 @@
       <c r="E122">
         <v>3</v>
       </c>
-      <c r="F122" s="2"/>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="G122">
+        <v>5</v>
+      </c>
+      <c r="H122">
+        <v>6</v>
+      </c>
+      <c r="I122">
+        <v>7</v>
+      </c>
       <c r="L122" s="1" t="s">
         <v>1</v>
       </c>
@@ -6346,21 +7681,33 @@
       <c r="E123">
         <v>-10.9519759863615</v>
       </c>
+      <c r="F123">
+        <v>-0.141807802021503</v>
+      </c>
+      <c r="G123">
+        <v>6.1528699472546498</v>
+      </c>
+      <c r="H123">
+        <v>1.1315363869071</v>
+      </c>
+      <c r="I123">
+        <v>1.88378857262432</v>
+      </c>
       <c r="L123" s="1">
         <f>SUM(B123:K123)</f>
-        <v>-4.1368086449802028</v>
+        <v>4.8895784597843637</v>
       </c>
       <c r="M123" s="1">
         <f>AVERAGE(B123:K123)</f>
-        <v>-1.0342021612450507</v>
+        <v>0.61119730747304546</v>
       </c>
       <c r="N123" s="1">
         <f>STDEV(B123:K123)</f>
-        <v>6.8658240265992809</v>
+        <v>5.1466406514550771</v>
       </c>
       <c r="O123">
         <f>N123/SQRT(3)</f>
-        <v>3.9639853499656952</v>
+        <v>2.9714143655398599</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
@@ -6379,21 +7726,33 @@
       <c r="E124">
         <v>9.82855732738971</v>
       </c>
+      <c r="F124">
+        <v>-11.2298520840704</v>
+      </c>
+      <c r="G124">
+        <v>-5.4710899181663901</v>
+      </c>
+      <c r="H124">
+        <v>-1.7797839026898099</v>
+      </c>
+      <c r="I124">
+        <v>-8.3881502151489205</v>
+      </c>
       <c r="L124" s="1">
         <f t="shared" ref="L124:L187" si="8">SUM(B124:K124)</f>
-        <v>14.851735193282289</v>
+        <v>-12.017140926793232</v>
       </c>
       <c r="M124" s="1">
         <f t="shared" ref="M124:M187" si="9">AVERAGE(B124:K124)</f>
-        <v>3.7129337983205724</v>
+        <v>-1.502142615849154</v>
       </c>
       <c r="N124" s="1">
         <f t="shared" ref="N124:N187" si="10">STDEV(B124:K124)</f>
-        <v>7.3348124726469761</v>
+        <v>7.819952224714088</v>
       </c>
       <c r="O124">
         <f t="shared" ref="O124:O187" si="11">N124/SQRT(3)</f>
-        <v>4.2347559555381569</v>
+        <v>4.5148515219886916</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -6412,21 +7771,33 @@
       <c r="E125">
         <v>-2.6265920125879298</v>
       </c>
+      <c r="F125">
+        <v>-4.9126374125480599</v>
+      </c>
+      <c r="G125">
+        <v>3.0214028880000101</v>
+      </c>
+      <c r="H125">
+        <v>13.0004280656576</v>
+      </c>
+      <c r="I125">
+        <v>-6.3013581745326501</v>
+      </c>
       <c r="L125" s="1">
         <f t="shared" si="8"/>
-        <v>-54.34162038331813</v>
+        <v>-49.533785016741227</v>
       </c>
       <c r="M125" s="1">
         <f t="shared" si="9"/>
-        <v>-13.585405095829532</v>
+        <v>-6.1917231270926534</v>
       </c>
       <c r="N125" s="1">
         <f t="shared" si="10"/>
-        <v>7.3642498673293826</v>
+        <v>10.929848378433533</v>
       </c>
       <c r="O125">
         <f t="shared" si="11"/>
-        <v>4.2517516432822848</v>
+        <v>6.3103509034903951</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -6445,21 +7816,33 @@
       <c r="E126">
         <v>-4.99016528204083</v>
       </c>
+      <c r="F126">
+        <v>-2.5796560719609198</v>
+      </c>
+      <c r="G126">
+        <v>-2.3966511785983999</v>
+      </c>
+      <c r="H126">
+        <v>-0.20390583574771801</v>
+      </c>
+      <c r="I126">
+        <v>-7.6615536622703004</v>
+      </c>
       <c r="L126" s="1">
         <f t="shared" si="8"/>
-        <v>-3.7226642072200091</v>
+        <v>-16.564430955797349</v>
       </c>
       <c r="M126" s="1">
         <f t="shared" si="9"/>
-        <v>-0.93066605180500228</v>
+        <v>-2.0705538694746686</v>
       </c>
       <c r="N126" s="1">
         <f t="shared" si="10"/>
-        <v>13.791637802311069</v>
+        <v>9.3421806480862877</v>
       </c>
       <c r="O126">
         <f t="shared" si="11"/>
-        <v>7.9626057977301148</v>
+        <v>5.3937105119907311</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -6478,21 +7861,33 @@
       <c r="E127">
         <v>-7.5970284044742504</v>
       </c>
+      <c r="F127">
+        <v>2.27393063530325</v>
+      </c>
+      <c r="G127">
+        <v>6.7114645987749002</v>
+      </c>
+      <c r="H127">
+        <v>5.3516346588730803</v>
+      </c>
+      <c r="I127">
+        <v>11.9992089271545</v>
+      </c>
       <c r="L127" s="1">
         <f t="shared" si="8"/>
-        <v>-17.800856128334914</v>
+        <v>8.5353826917708169</v>
       </c>
       <c r="M127" s="1">
         <f t="shared" si="9"/>
-        <v>-4.4502140320837285</v>
+        <v>1.0669228364713521</v>
       </c>
       <c r="N127" s="1">
         <f t="shared" si="10"/>
-        <v>8.0272454526172314</v>
+        <v>8.3345799420895865</v>
       </c>
       <c r="O127">
         <f t="shared" si="11"/>
-        <v>4.6345323229197586</v>
+        <v>4.8119719731478785</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -6511,21 +7906,33 @@
       <c r="E128">
         <v>13.132055528461899</v>
       </c>
+      <c r="F128">
+        <v>-7.5727089494466702</v>
+      </c>
+      <c r="G128">
+        <v>4.3903662178199703</v>
+      </c>
+      <c r="H128">
+        <v>-1.2866287007927799</v>
+      </c>
+      <c r="I128">
+        <v>9.3941849321126902</v>
+      </c>
       <c r="L128" s="1">
         <f t="shared" si="8"/>
-        <v>7.5444691255688587</v>
+        <v>12.46968262526207</v>
       </c>
       <c r="M128" s="1">
         <f t="shared" si="9"/>
-        <v>1.8861172813922147</v>
+        <v>1.5587103281577588</v>
       </c>
       <c r="N128" s="1">
         <f t="shared" si="10"/>
-        <v>9.9546138368614443</v>
+        <v>8.0941204475396962</v>
       </c>
       <c r="O128">
         <f t="shared" si="11"/>
-        <v>5.7472989783907282</v>
+        <v>4.6731426192402976</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -6544,21 +7951,33 @@
       <c r="E129">
         <v>-2.6886708699166699</v>
       </c>
+      <c r="F129">
+        <v>-2.00282847695052</v>
+      </c>
+      <c r="G129">
+        <v>-1.2299031391739801</v>
+      </c>
+      <c r="H129">
+        <v>-7.3787932917474999</v>
+      </c>
+      <c r="I129">
+        <v>-2.0477141737937901</v>
+      </c>
       <c r="L129" s="1">
         <f t="shared" si="8"/>
-        <v>-5.3870794773100723</v>
+        <v>-18.046318558975862</v>
       </c>
       <c r="M129" s="1">
         <f t="shared" si="9"/>
-        <v>-1.3467698693275181</v>
+        <v>-2.2557898198719828</v>
       </c>
       <c r="N129" s="1">
         <f t="shared" si="10"/>
-        <v>17.529351767943595</v>
+        <v>11.665239463985412</v>
       </c>
       <c r="O129">
         <f t="shared" si="11"/>
-        <v>10.120575961941878</v>
+        <v>6.7349291446934236</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -6577,21 +7996,33 @@
       <c r="E130">
         <v>6.4773780852556202</v>
       </c>
+      <c r="F130">
+        <v>1.7243747152388</v>
+      </c>
+      <c r="G130">
+        <v>1.6068975739181</v>
+      </c>
+      <c r="H130">
+        <v>0.77607924304902498</v>
+      </c>
+      <c r="I130">
+        <v>-5.8281794562935803</v>
+      </c>
       <c r="L130" s="1">
         <f t="shared" si="8"/>
-        <v>12.015480913221829</v>
+        <v>10.294652989134175</v>
       </c>
       <c r="M130" s="1">
         <f t="shared" si="9"/>
-        <v>3.0038702283054572</v>
+        <v>1.2868316236417718</v>
       </c>
       <c r="N130" s="1">
         <f t="shared" si="10"/>
-        <v>3.6857924957229673</v>
+        <v>3.8494196608175226</v>
       </c>
       <c r="O130">
         <f t="shared" si="11"/>
-        <v>2.1279932895827578</v>
+        <v>2.2224634773968348</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -6610,21 +8041,33 @@
       <c r="E131">
         <v>5.7380245504900804</v>
       </c>
+      <c r="F131">
+        <v>2.95791532844305E-2</v>
+      </c>
+      <c r="G131">
+        <v>2.04898817837238</v>
+      </c>
+      <c r="H131">
+        <v>2.76875096559524</v>
+      </c>
+      <c r="I131">
+        <v>-6.6454874873161298</v>
+      </c>
       <c r="L131" s="1">
         <f t="shared" si="8"/>
-        <v>61.674963622353843</v>
+        <v>59.87679443228977</v>
       </c>
       <c r="M131" s="1">
         <f t="shared" si="9"/>
-        <v>15.418740905588461</v>
+        <v>7.4845993040362213</v>
       </c>
       <c r="N131" s="1">
         <f t="shared" si="10"/>
-        <v>12.584048751837585</v>
+        <v>12.153183197474794</v>
       </c>
       <c r="O131">
         <f t="shared" si="11"/>
-        <v>7.2654039343688046</v>
+        <v>7.0166435905729099</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -6643,21 +8086,33 @@
       <c r="E132">
         <v>46.404046690091398</v>
       </c>
+      <c r="F132">
+        <v>13.8964938707649</v>
+      </c>
+      <c r="G132">
+        <v>25.881812293082401</v>
+      </c>
+      <c r="H132">
+        <v>30.288430426269699</v>
+      </c>
+      <c r="I132">
+        <v>26.926550485193701</v>
+      </c>
       <c r="L132" s="1">
         <f t="shared" si="8"/>
-        <v>148.75509052723621</v>
+        <v>245.74837760254687</v>
       </c>
       <c r="M132" s="1">
         <f t="shared" si="9"/>
-        <v>37.188772631809051</v>
+        <v>30.718547200318358</v>
       </c>
       <c r="N132" s="1">
         <f t="shared" si="10"/>
-        <v>11.104318206099764</v>
+        <v>11.073215040397802</v>
       </c>
       <c r="O132">
         <f t="shared" si="11"/>
-        <v>6.4110811054589618</v>
+        <v>6.3931236843682839</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -6676,21 +8131,33 @@
       <c r="E133">
         <v>99.898966461420002</v>
       </c>
+      <c r="F133">
+        <v>90.176335290074306</v>
+      </c>
+      <c r="G133">
+        <v>110.540503561496</v>
+      </c>
+      <c r="H133">
+        <v>97.824101015925393</v>
+      </c>
+      <c r="I133">
+        <v>108.852898523211</v>
+      </c>
       <c r="L133" s="1">
         <f t="shared" si="8"/>
-        <v>380.86861095577427</v>
+        <v>788.26244934648093</v>
       </c>
       <c r="M133" s="1">
         <f t="shared" si="9"/>
-        <v>95.217152738943568</v>
+        <v>98.532806168310117</v>
       </c>
       <c r="N133" s="1">
         <f t="shared" si="10"/>
-        <v>6.6068146674945059</v>
+        <v>8.417211976814178</v>
       </c>
       <c r="O133">
         <f t="shared" si="11"/>
-        <v>3.8144462267639212</v>
+        <v>4.859679600639808</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -6709,21 +8176,33 @@
       <c r="E134">
         <v>230.646810472011</v>
       </c>
+      <c r="F134">
+        <v>212.60627150535501</v>
+      </c>
+      <c r="G134">
+        <v>219.550082862377</v>
+      </c>
+      <c r="H134">
+        <v>225.961620748043</v>
+      </c>
+      <c r="I134">
+        <v>207.38354477286299</v>
+      </c>
       <c r="L134" s="1">
         <f t="shared" si="8"/>
-        <v>913.69272232055494</v>
+        <v>1779.1942422091929</v>
       </c>
       <c r="M134" s="1">
         <f t="shared" si="9"/>
-        <v>228.42318058013873</v>
+        <v>222.39928027614911</v>
       </c>
       <c r="N134" s="1">
         <f t="shared" si="10"/>
-        <v>14.711836946803393</v>
+        <v>12.742770878129015</v>
       </c>
       <c r="O134">
         <f t="shared" si="11"/>
-        <v>8.4938830215108219</v>
+        <v>7.3570421967095108</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -6742,21 +8221,33 @@
       <c r="E135">
         <v>363.599839419126</v>
       </c>
+      <c r="F135">
+        <v>365.322796046733</v>
+      </c>
+      <c r="G135">
+        <v>376.00957992672897</v>
+      </c>
+      <c r="H135">
+        <v>358.03139388561198</v>
+      </c>
+      <c r="I135">
+        <v>382.86118417978201</v>
+      </c>
       <c r="L135" s="1">
         <f t="shared" si="8"/>
-        <v>1495.69402822852</v>
+        <v>2977.9189822673757</v>
       </c>
       <c r="M135" s="1">
         <f t="shared" si="9"/>
-        <v>373.92350705713</v>
+        <v>372.23987278342196</v>
       </c>
       <c r="N135" s="1">
         <f t="shared" si="10"/>
-        <v>20.614131765650761</v>
+        <v>15.41296093608398</v>
       </c>
       <c r="O135">
         <f t="shared" si="11"/>
-        <v>11.901574524008883</v>
+        <v>8.8986771454572722</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
@@ -6775,21 +8266,33 @@
       <c r="E136">
         <v>623.74706089496601</v>
       </c>
+      <c r="F136">
+        <v>622.74131953716198</v>
+      </c>
+      <c r="G136">
+        <v>652.05802059173504</v>
+      </c>
+      <c r="H136">
+        <v>640.70189291238705</v>
+      </c>
+      <c r="I136">
+        <v>639.79420018196095</v>
+      </c>
       <c r="L136" s="1">
         <f t="shared" si="8"/>
-        <v>2454.4850598573671</v>
+        <v>5009.7804930806124</v>
       </c>
       <c r="M136" s="1">
         <f t="shared" si="9"/>
-        <v>613.62126496434178</v>
+        <v>626.22256163507654</v>
       </c>
       <c r="N136" s="1">
         <f t="shared" si="10"/>
-        <v>34.25126829498037</v>
+        <v>27.328815884939704</v>
       </c>
       <c r="O136">
         <f t="shared" si="11"/>
-        <v>19.774978970193011</v>
+        <v>15.778299207803659</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -6808,21 +8311,33 @@
       <c r="E137">
         <v>912.47790765762295</v>
       </c>
+      <c r="F137">
+        <v>858.16980665922097</v>
+      </c>
+      <c r="G137">
+        <v>918.06160926818802</v>
+      </c>
+      <c r="H137">
+        <v>937.04260635375897</v>
+      </c>
+      <c r="I137">
+        <v>889.84000110626198</v>
+      </c>
       <c r="L137" s="1">
         <f t="shared" si="8"/>
-        <v>3524.5638660192467</v>
+        <v>7127.6778894066765</v>
       </c>
       <c r="M137" s="1">
         <f t="shared" si="9"/>
-        <v>881.14096650481167</v>
+        <v>890.95973617583456</v>
       </c>
       <c r="N137" s="1">
         <f t="shared" si="10"/>
-        <v>44.717519468420356</v>
+        <v>38.394899822978786</v>
       </c>
       <c r="O137">
         <f t="shared" si="11"/>
-        <v>25.817671902584824</v>
+        <v>22.16730574830552</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -6841,21 +8356,33 @@
       <c r="E138">
         <v>1193.84099775552</v>
       </c>
+      <c r="F138">
+        <v>1160.8831970691599</v>
+      </c>
+      <c r="G138">
+        <v>1204.4199044704401</v>
+      </c>
+      <c r="H138">
+        <v>1212.48745882511</v>
+      </c>
+      <c r="I138">
+        <v>1194.8888494968401</v>
+      </c>
       <c r="L138" s="1">
         <f t="shared" si="8"/>
-        <v>4578.81289011238</v>
+        <v>9351.4922999739301</v>
       </c>
       <c r="M138" s="1">
         <f t="shared" si="9"/>
-        <v>1144.703222528095</v>
+        <v>1168.9365374967413</v>
       </c>
       <c r="N138" s="1">
         <f t="shared" si="10"/>
-        <v>67.67138148724581</v>
+        <v>53.4273775528032</v>
       </c>
       <c r="O138">
         <f t="shared" si="11"/>
-        <v>39.070090318095225</v>
+        <v>30.846310812206699</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -6874,21 +8401,33 @@
       <c r="E139">
         <v>1528.81020128726</v>
       </c>
+      <c r="F139">
+        <v>1502.4694347381501</v>
+      </c>
+      <c r="G139">
+        <v>1577.7340924739799</v>
+      </c>
+      <c r="H139">
+        <v>1571.04100036621</v>
+      </c>
+      <c r="I139">
+        <v>1534.00335550308</v>
+      </c>
       <c r="L139" s="1">
         <f t="shared" si="8"/>
-        <v>5913.4230915307708</v>
+        <v>12098.670974612191</v>
       </c>
       <c r="M139" s="1">
         <f t="shared" si="9"/>
-        <v>1478.3557728826927</v>
+        <v>1512.3338718265238</v>
       </c>
       <c r="N139" s="1">
         <f t="shared" si="10"/>
-        <v>98.082118595770112</v>
+        <v>77.246303878328519</v>
       </c>
       <c r="O139">
         <f t="shared" si="11"/>
-        <v>56.627737573956679</v>
+        <v>44.598174338056609</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -6907,21 +8446,33 @@
       <c r="E140">
         <v>1902.3891501426599</v>
       </c>
+      <c r="F140">
+        <v>1811.92539906501</v>
+      </c>
+      <c r="G140">
+        <v>1928.57746744155</v>
+      </c>
+      <c r="H140">
+        <v>1877.1178021430901</v>
+      </c>
+      <c r="I140">
+        <v>1847.3404185771899</v>
+      </c>
       <c r="L140" s="1">
         <f t="shared" si="8"/>
-        <v>7300.2707538604391</v>
+        <v>14765.231841087279</v>
       </c>
       <c r="M140" s="1">
         <f t="shared" si="9"/>
-        <v>1825.0676884651098</v>
+        <v>1845.6539801359099</v>
       </c>
       <c r="N140" s="1">
         <f t="shared" si="10"/>
-        <v>122.46226016130588</v>
+        <v>89.197161396511888</v>
       </c>
       <c r="O140">
         <f t="shared" si="11"/>
-        <v>70.703618869699937</v>
+        <v>51.498005143226635</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -6940,21 +8491,33 @@
       <c r="E141">
         <v>2332.3660229444499</v>
       </c>
+      <c r="F141">
+        <v>2226.7333066463402</v>
+      </c>
+      <c r="G141">
+        <v>2368.1870379447901</v>
+      </c>
+      <c r="H141">
+        <v>2403.7461643218899</v>
+      </c>
+      <c r="I141">
+        <v>2279.2836494445</v>
+      </c>
       <c r="L141" s="1">
         <f t="shared" si="8"/>
-        <v>8960.6452527046004</v>
+        <v>18238.595411062121</v>
       </c>
       <c r="M141" s="1">
         <f t="shared" si="9"/>
-        <v>2240.1613131761501</v>
+        <v>2279.8244263827651</v>
       </c>
       <c r="N141" s="1">
         <f t="shared" si="10"/>
-        <v>126.63533830239116</v>
+        <v>107.16188328767238</v>
       </c>
       <c r="O141">
         <f t="shared" si="11"/>
-        <v>73.112946657804869</v>
+        <v>61.869942163004914</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -6973,21 +8536,33 @@
       <c r="E142">
         <v>2687.5480481386098</v>
       </c>
+      <c r="F142">
+        <v>2662.1099557876501</v>
+      </c>
+      <c r="G142">
+        <v>2769.4325890540999</v>
+      </c>
+      <c r="H142">
+        <v>2820.1723756790102</v>
+      </c>
+      <c r="I142">
+        <v>2685.60639810562</v>
+      </c>
       <c r="L142" s="1">
         <f t="shared" si="8"/>
-        <v>10433.873722314809</v>
+        <v>21371.195040941191</v>
       </c>
       <c r="M142" s="1">
         <f t="shared" si="9"/>
-        <v>2608.4684305787023</v>
+        <v>2671.3993801176489</v>
       </c>
       <c r="N142" s="1">
         <f t="shared" si="10"/>
-        <v>167.07238655088588</v>
+        <v>137.11976605981647</v>
       </c>
       <c r="O142">
         <f t="shared" si="11"/>
-        <v>96.459287349307175</v>
+        <v>79.166133845853551</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
@@ -7006,21 +8581,33 @@
       <c r="E143">
         <v>3020.4250500202102</v>
       </c>
+      <c r="F143">
+        <v>2947.4714632034002</v>
+      </c>
+      <c r="G143">
+        <v>3054.7712407112099</v>
+      </c>
+      <c r="H143">
+        <v>3062.37799787521</v>
+      </c>
+      <c r="I143">
+        <v>2978.1510355472501</v>
+      </c>
       <c r="L143" s="1">
         <f t="shared" si="8"/>
-        <v>11586.455049037861</v>
+        <v>23629.226786374929</v>
       </c>
       <c r="M143" s="1">
         <f t="shared" si="9"/>
-        <v>2896.6137622594651</v>
+        <v>2953.6533482968662</v>
       </c>
       <c r="N143" s="1">
         <f t="shared" si="10"/>
-        <v>202.69617575049315</v>
+        <v>150.6915043908655</v>
       </c>
       <c r="O143">
         <f t="shared" si="11"/>
-        <v>117.02669163325493</v>
+        <v>87.001780624655879</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -7039,21 +8626,33 @@
       <c r="E144">
         <v>3490.8099229335699</v>
       </c>
+      <c r="F144">
+        <v>3335.8194828033402</v>
+      </c>
+      <c r="G144">
+        <v>3467.9159033298401</v>
+      </c>
+      <c r="H144">
+        <v>3598.84565210342</v>
+      </c>
+      <c r="I144">
+        <v>3439.4250671863501</v>
+      </c>
       <c r="L144" s="1">
         <f t="shared" si="8"/>
-        <v>13294.293452978111</v>
+        <v>27136.299558401064</v>
       </c>
       <c r="M144" s="1">
         <f t="shared" si="9"/>
-        <v>3323.5733632445276</v>
+        <v>3392.037444800133</v>
       </c>
       <c r="N144" s="1">
         <f t="shared" si="10"/>
-        <v>209.96886138698866</v>
+        <v>171.10703049461313</v>
       </c>
       <c r="O144">
         <f t="shared" si="11"/>
-        <v>121.22557864321713</v>
+        <v>98.788690116302405</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -7072,21 +8671,33 @@
       <c r="E145">
         <v>3863.4308624267501</v>
       </c>
+      <c r="F145">
+        <v>3657.2791085243198</v>
+      </c>
+      <c r="G145">
+        <v>3904.1270189285201</v>
+      </c>
+      <c r="H145">
+        <v>3939.95528459548</v>
+      </c>
+      <c r="I145">
+        <v>3776.0277290344202</v>
+      </c>
       <c r="L145" s="1">
         <f t="shared" si="8"/>
-        <v>14767.364255666651</v>
+        <v>30044.753396749391</v>
       </c>
       <c r="M145" s="1">
         <f t="shared" si="9"/>
-        <v>3691.8410639166627</v>
+        <v>3755.5941745936739</v>
       </c>
       <c r="N145" s="1">
         <f t="shared" si="10"/>
-        <v>293.42488015112377</v>
+        <v>220.6117224089441</v>
       </c>
       <c r="O145">
         <f t="shared" si="11"/>
-        <v>169.408933542185</v>
+        <v>127.37023731919088</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -7105,21 +8716,33 @@
       <c r="E146">
         <v>4253.1568398475601</v>
       </c>
+      <c r="F146">
+        <v>4081.5011491775499</v>
+      </c>
+      <c r="G146">
+        <v>4270.1609992980902</v>
+      </c>
+      <c r="H146">
+        <v>4354.4142692088999</v>
+      </c>
+      <c r="I146">
+        <v>4022.2782487869199</v>
+      </c>
       <c r="L146" s="1">
         <f t="shared" si="8"/>
-        <v>16396.286396741842</v>
+        <v>33124.641063213305</v>
       </c>
       <c r="M146" s="1">
         <f t="shared" si="9"/>
-        <v>4099.0715991854604</v>
+        <v>4140.5801329016631</v>
       </c>
       <c r="N146" s="1">
         <f t="shared" si="10"/>
-        <v>291.56334067337497</v>
+        <v>221.01107898804369</v>
       </c>
       <c r="O146">
         <f t="shared" si="11"/>
-        <v>168.33417322359961</v>
+        <v>127.60080594763667</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -7138,21 +8761,33 @@
       <c r="E147">
         <v>4436.4433052539798</v>
       </c>
+      <c r="F147">
+        <v>4306.5312933921796</v>
+      </c>
+      <c r="G147">
+        <v>4464.4634757041904</v>
+      </c>
+      <c r="H147">
+        <v>4501.2154960632297</v>
+      </c>
+      <c r="I147">
+        <v>4259.5241091251301</v>
+      </c>
       <c r="L147" s="1">
         <f t="shared" si="8"/>
-        <v>17118.73939394949</v>
+        <v>34650.473768234217</v>
       </c>
       <c r="M147" s="1">
         <f t="shared" si="9"/>
-        <v>4279.6848484873726</v>
+        <v>4331.3092210292771</v>
       </c>
       <c r="N147" s="1">
         <f t="shared" si="10"/>
-        <v>294.30106153102889</v>
+        <v>214.76395469021924</v>
       </c>
       <c r="O147">
         <f t="shared" si="11"/>
-        <v>169.91479709773216</v>
+        <v>123.99402705262668</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
@@ -7171,21 +8806,33 @@
       <c r="E148">
         <v>4847.9251022338804</v>
       </c>
+      <c r="F148">
+        <v>4695.8757829666101</v>
+      </c>
+      <c r="G148">
+        <v>4912.0052323341297</v>
+      </c>
+      <c r="H148">
+        <v>4935.53709626197</v>
+      </c>
+      <c r="I148">
+        <v>4712.9031906127902</v>
+      </c>
       <c r="L148" s="1">
         <f t="shared" si="8"/>
-        <v>18537.402293920481</v>
+        <v>37793.723596095981</v>
       </c>
       <c r="M148" s="1">
         <f t="shared" si="9"/>
-        <v>4634.3505734801201</v>
+        <v>4724.2154495119976</v>
       </c>
       <c r="N148" s="1">
         <f t="shared" si="10"/>
-        <v>314.62365828207464</v>
+        <v>242.05072303374055</v>
       </c>
       <c r="O148">
         <f t="shared" si="11"/>
-        <v>181.64805380258065</v>
+        <v>139.74805010107366</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -7204,21 +8851,33 @@
       <c r="E149">
         <v>5090.4221425056403</v>
       </c>
+      <c r="F149">
+        <v>4836.0958669185602</v>
+      </c>
+      <c r="G149">
+        <v>5125.4818694591504</v>
+      </c>
+      <c r="H149">
+        <v>5235.31833100318</v>
+      </c>
+      <c r="I149">
+        <v>5000.00604104995</v>
+      </c>
       <c r="L149" s="1">
         <f t="shared" si="8"/>
-        <v>19590.128134965882</v>
+        <v>39787.030243396723</v>
       </c>
       <c r="M149" s="1">
         <f t="shared" si="9"/>
-        <v>4897.5320337414705</v>
+        <v>4973.3787804245903</v>
       </c>
       <c r="N149" s="1">
         <f t="shared" si="10"/>
-        <v>364.00370142784067</v>
+        <v>275.63181629781923</v>
       </c>
       <c r="O149">
         <f t="shared" si="11"/>
-        <v>210.15763500538398</v>
+        <v>159.13610333677141</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -7237,21 +8896,33 @@
       <c r="E150">
         <v>5292.0477528572001</v>
       </c>
+      <c r="F150">
+        <v>5114.6162965296999</v>
+      </c>
+      <c r="G150">
+        <v>5274.4247334003403</v>
+      </c>
+      <c r="H150">
+        <v>5303.4486668109803</v>
+      </c>
+      <c r="I150">
+        <v>5155.5284018516504</v>
+      </c>
       <c r="L150" s="1">
         <f t="shared" si="8"/>
-        <v>20199.510155676831</v>
+        <v>41047.528254269506</v>
       </c>
       <c r="M150" s="1">
         <f t="shared" si="9"/>
-        <v>5049.8775389192078</v>
+        <v>5130.9410317836882</v>
       </c>
       <c r="N150" s="1">
         <f t="shared" si="10"/>
-        <v>394.40790963816437</v>
+        <v>278.817771922117</v>
       </c>
       <c r="O150">
         <f t="shared" si="11"/>
-        <v>227.71151280011182</v>
+        <v>160.97551567408595</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -7270,21 +8941,33 @@
       <c r="E151">
         <v>5396.34940695762</v>
       </c>
+      <c r="F151">
+        <v>5272.2797932624799</v>
+      </c>
+      <c r="G151">
+        <v>5420.11423707008</v>
+      </c>
+      <c r="H151">
+        <v>5621.9067978858902</v>
+      </c>
+      <c r="I151">
+        <v>5386.6638684272702</v>
+      </c>
       <c r="L151" s="1">
         <f t="shared" si="8"/>
-        <v>20792.606083393079</v>
+        <v>42493.570780038797</v>
       </c>
       <c r="M151" s="1">
         <f t="shared" si="9"/>
-        <v>5198.1515208482697</v>
+        <v>5311.6963475048497</v>
       </c>
       <c r="N151" s="1">
         <f t="shared" si="10"/>
-        <v>315.77869025324134</v>
+        <v>257.98034546980244</v>
       </c>
       <c r="O151">
         <f t="shared" si="11"/>
-        <v>182.31491182205636</v>
+        <v>148.9450219026231</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -7303,21 +8986,33 @@
       <c r="E152">
         <v>5663.61775159835</v>
       </c>
+      <c r="F152">
+        <v>5449.1673655509903</v>
+      </c>
+      <c r="G152">
+        <v>5624.0954737663196</v>
+      </c>
+      <c r="H152">
+        <v>5666.0428283214496</v>
+      </c>
+      <c r="I152">
+        <v>5396.4063212871497</v>
+      </c>
       <c r="L152" s="1">
         <f t="shared" si="8"/>
-        <v>21718.73387074468</v>
+        <v>43854.445859670588</v>
       </c>
       <c r="M152" s="1">
         <f t="shared" si="9"/>
-        <v>5429.6834676861699</v>
+        <v>5481.8057324588235</v>
       </c>
       <c r="N152" s="1">
         <f t="shared" si="10"/>
-        <v>410.08297496841044</v>
+        <v>287.3323266118062</v>
       </c>
       <c r="O152">
         <f t="shared" si="11"/>
-        <v>236.76151598809435</v>
+        <v>165.8913961162078</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -7336,21 +9031,33 @@
       <c r="E153">
         <v>5791.2972700595801</v>
       </c>
+      <c r="F153">
+        <v>5546.8256082534699</v>
+      </c>
+      <c r="G153">
+        <v>5643.1554965972</v>
+      </c>
+      <c r="H153">
+        <v>5916.4301347732498</v>
+      </c>
+      <c r="I153">
+        <v>5534.4708042144703</v>
+      </c>
       <c r="L153" s="1">
         <f t="shared" si="8"/>
-        <v>22064.687113523469</v>
+        <v>44705.569157361861</v>
       </c>
       <c r="M153" s="1">
         <f t="shared" si="9"/>
-        <v>5516.1717783808672</v>
+        <v>5588.1961446702326</v>
       </c>
       <c r="N153" s="1">
         <f t="shared" si="10"/>
-        <v>439.82128815168193</v>
+        <v>319.91837128631755</v>
       </c>
       <c r="O153">
         <f t="shared" si="11"/>
-        <v>253.93093910970154</v>
+        <v>184.70495778086209</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -7369,21 +9076,33 @@
       <c r="E154">
         <v>5839.5016005039197</v>
       </c>
+      <c r="F154">
+        <v>5724.5781047344199</v>
+      </c>
+      <c r="G154">
+        <v>5876.3788912296204</v>
+      </c>
+      <c r="H154">
+        <v>6045.2557182312003</v>
+      </c>
+      <c r="I154">
+        <v>5589.5333738326999</v>
+      </c>
       <c r="L154" s="1">
         <f t="shared" si="8"/>
-        <v>22338.066220998749</v>
+        <v>45573.812309026696</v>
       </c>
       <c r="M154" s="1">
         <f t="shared" si="9"/>
-        <v>5584.5165552496874</v>
+        <v>5696.726538628337</v>
       </c>
       <c r="N154" s="1">
         <f t="shared" si="10"/>
-        <v>438.71059760438573</v>
+        <v>336.74469514833726</v>
       </c>
       <c r="O154">
         <f t="shared" si="11"/>
-        <v>253.28968162323369</v>
+        <v>194.41964039207099</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
@@ -7402,21 +9121,33 @@
       <c r="E155">
         <v>5981.1686701773997</v>
       </c>
+      <c r="F155">
+        <v>5775.7132470607703</v>
+      </c>
+      <c r="G155">
+        <v>5888.3603618144898</v>
+      </c>
+      <c r="H155">
+        <v>6058.9861490726398</v>
+      </c>
+      <c r="I155">
+        <v>5616.0825161932999</v>
+      </c>
       <c r="L155" s="1">
         <f t="shared" si="8"/>
-        <v>22788.771885871822</v>
+        <v>46127.914160013024</v>
       </c>
       <c r="M155" s="1">
         <f t="shared" si="9"/>
-        <v>5697.1929714679554</v>
+        <v>5765.989270001628</v>
       </c>
       <c r="N155" s="1">
         <f t="shared" si="10"/>
-        <v>448.76752447330756</v>
+        <v>326.5615325210465</v>
       </c>
       <c r="O155">
         <f t="shared" si="11"/>
-        <v>259.09605105822612</v>
+        <v>188.54038870800295</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -7435,21 +9166,33 @@
       <c r="E156">
         <v>5902.57806825637</v>
       </c>
+      <c r="F156">
+        <v>5788.3560771942102</v>
+      </c>
+      <c r="G156">
+        <v>5908.54433536529</v>
+      </c>
+      <c r="H156">
+        <v>6068.9900602102198</v>
+      </c>
+      <c r="I156">
+        <v>5686.9704959392502</v>
+      </c>
       <c r="L156" s="1">
         <f t="shared" si="8"/>
-        <v>22735.33025407789</v>
+        <v>46188.19122278686</v>
       </c>
       <c r="M156" s="1">
         <f t="shared" si="9"/>
-        <v>5683.8325635194724</v>
+        <v>5773.5239028483575</v>
       </c>
       <c r="N156" s="1">
         <f t="shared" si="10"/>
-        <v>400.13593649455856</v>
+        <v>298.98559483030346</v>
       </c>
       <c r="O156">
         <f t="shared" si="11"/>
-        <v>231.01859064757639</v>
+        <v>172.6194136590961</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -7468,21 +9211,33 @@
       <c r="E157">
         <v>5957.6436221599497</v>
       </c>
+      <c r="F157">
+        <v>5696.6502256393396</v>
+      </c>
+      <c r="G157">
+        <v>5859.9917051792099</v>
+      </c>
+      <c r="H157">
+        <v>5990.0421833990004</v>
+      </c>
+      <c r="I157">
+        <v>5611.8897030353501</v>
+      </c>
       <c r="L157" s="1">
         <f t="shared" si="8"/>
-        <v>22547.544855833021</v>
+        <v>45706.118673085912</v>
       </c>
       <c r="M157" s="1">
         <f t="shared" si="9"/>
-        <v>5636.8862139582552</v>
+        <v>5713.264834135739</v>
       </c>
       <c r="N157" s="1">
         <f t="shared" si="10"/>
-        <v>469.1131195657739</v>
+        <v>336.41461865203866</v>
       </c>
       <c r="O157">
         <f t="shared" si="11"/>
-        <v>270.84258586168465</v>
+        <v>194.22907063807983</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
@@ -7501,21 +9256,33 @@
       <c r="E158">
         <v>5922.3193058967499</v>
       </c>
+      <c r="F158">
+        <v>5564.1447522640201</v>
+      </c>
+      <c r="G158">
+        <v>5799.3366589546004</v>
+      </c>
+      <c r="H158">
+        <v>5898.79450178146</v>
+      </c>
+      <c r="I158">
+        <v>5604.2802445888501</v>
+      </c>
       <c r="L158" s="1">
         <f t="shared" si="8"/>
-        <v>22286.824086903591</v>
+        <v>45153.380244492524</v>
       </c>
       <c r="M158" s="1">
         <f t="shared" si="9"/>
-        <v>5571.7060217258977</v>
+        <v>5644.1725305615655</v>
       </c>
       <c r="N158" s="1">
         <f t="shared" si="10"/>
-        <v>488.25879848500324</v>
+        <v>344.98439659386287</v>
       </c>
       <c r="O158">
         <f t="shared" si="11"/>
-        <v>281.89634873951985</v>
+        <v>199.17683423968737</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -7534,21 +9301,33 @@
       <c r="E159">
         <v>5796.5265066623597</v>
       </c>
+      <c r="F159">
+        <v>5701.1173298358899</v>
+      </c>
+      <c r="G159">
+        <v>5750.2108829021399</v>
+      </c>
+      <c r="H159">
+        <v>5919.5620558261799</v>
+      </c>
+      <c r="I159">
+        <v>5470.9175823926898</v>
+      </c>
       <c r="L159" s="1">
         <f t="shared" si="8"/>
-        <v>22089.70128846166</v>
+        <v>44931.509139418558</v>
       </c>
       <c r="M159" s="1">
         <f t="shared" si="9"/>
-        <v>5522.4253221154149</v>
+        <v>5616.4386424273198</v>
       </c>
       <c r="N159" s="1">
         <f t="shared" si="10"/>
-        <v>448.86811735025225</v>
+        <v>333.36540505063653</v>
       </c>
       <c r="O159">
         <f t="shared" si="11"/>
-        <v>259.15412838280866</v>
+        <v>192.46860634449365</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -7567,21 +9346,33 @@
       <c r="E160">
         <v>5762.3189544677698</v>
       </c>
+      <c r="F160">
+        <v>5540.6934697628003</v>
+      </c>
+      <c r="G160">
+        <v>5746.8386182784998</v>
+      </c>
+      <c r="H160">
+        <v>5773.4716188907596</v>
+      </c>
+      <c r="I160">
+        <v>5323.0394313335401</v>
+      </c>
       <c r="L160" s="1">
         <f t="shared" si="8"/>
-        <v>21712.049145936951</v>
+        <v>44096.092284202561</v>
       </c>
       <c r="M160" s="1">
         <f t="shared" si="9"/>
-        <v>5428.0122864842378</v>
+        <v>5512.0115355253201</v>
       </c>
       <c r="N160" s="1">
         <f t="shared" si="10"/>
-        <v>470.01899920237616</v>
+        <v>348.67408394282495</v>
       </c>
       <c r="O160">
         <f t="shared" si="11"/>
-        <v>271.36559571373039</v>
+        <v>201.30707622383616</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
@@ -7600,21 +9391,33 @@
       <c r="E161">
         <v>5594.3265397548603</v>
       </c>
+      <c r="F161">
+        <v>5359.1738476753198</v>
+      </c>
+      <c r="G161">
+        <v>5483.7886583805002</v>
+      </c>
+      <c r="H161">
+        <v>5591.3673217296</v>
+      </c>
+      <c r="I161">
+        <v>5255.7100361585599</v>
+      </c>
       <c r="L161" s="1">
         <f t="shared" si="8"/>
-        <v>21087.132898092179</v>
+        <v>42777.172762036163</v>
       </c>
       <c r="M161" s="1">
         <f t="shared" si="9"/>
-        <v>5271.7832245230447</v>
+        <v>5347.1465952545204</v>
       </c>
       <c r="N161" s="1">
         <f t="shared" si="10"/>
-        <v>435.96695008663289</v>
+        <v>311.61794627648123</v>
       </c>
       <c r="O161">
         <f t="shared" si="11"/>
-        <v>251.70563599029765</v>
+        <v>179.91270516704478</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
@@ -7633,21 +9436,33 @@
       <c r="E162">
         <v>5483.3914051055899</v>
       </c>
+      <c r="F162">
+        <v>5192.4936084747296</v>
+      </c>
+      <c r="G162">
+        <v>5405.7317888736698</v>
+      </c>
+      <c r="H162">
+        <v>5395.6320567726998</v>
+      </c>
+      <c r="I162">
+        <v>5139.5870801210003</v>
+      </c>
       <c r="L162" s="1">
         <f t="shared" si="8"/>
-        <v>20448.276521682659</v>
+        <v>41581.721055924761</v>
       </c>
       <c r="M162" s="1">
         <f t="shared" si="9"/>
-        <v>5112.0691304206648</v>
+        <v>5197.7151319905952</v>
       </c>
       <c r="N162" s="1">
         <f t="shared" si="10"/>
-        <v>446.170852155685</v>
+        <v>319.0150940579577</v>
       </c>
       <c r="O162">
         <f t="shared" si="11"/>
-        <v>257.59686159664949</v>
+        <v>184.18345042991567</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
@@ -7666,21 +9481,33 @@
       <c r="E163">
         <v>5288.5031212568201</v>
       </c>
+      <c r="F163">
+        <v>5076.7571328878003</v>
+      </c>
+      <c r="G163">
+        <v>5215.3807089328702</v>
+      </c>
+      <c r="H163">
+        <v>5177.2294973730995</v>
+      </c>
+      <c r="I163">
+        <v>4928.1561371088001</v>
+      </c>
       <c r="L163" s="1">
         <f t="shared" si="8"/>
-        <v>19784.591166853879</v>
+        <v>40182.114643156448</v>
       </c>
       <c r="M163" s="1">
         <f t="shared" si="9"/>
-        <v>4946.1477917134698</v>
+        <v>5022.7643303945561</v>
       </c>
       <c r="N163" s="1">
         <f t="shared" si="10"/>
-        <v>463.32682866088504</v>
+        <v>325.20809085821929</v>
       </c>
       <c r="O163">
         <f t="shared" si="11"/>
-        <v>267.50186925013759</v>
+        <v>187.75897879963719</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
@@ -7699,21 +9526,33 @@
       <c r="E164">
         <v>5086.0675547709998</v>
       </c>
+      <c r="F164">
+        <v>4864.1674752235404</v>
+      </c>
+      <c r="G164">
+        <v>5019.2287143468802</v>
+      </c>
+      <c r="H164">
+        <v>5096.4333912730199</v>
+      </c>
+      <c r="I164">
+        <v>4767.7641538381504</v>
+      </c>
       <c r="L164" s="1">
         <f t="shared" si="8"/>
-        <v>19134.406891047031</v>
+        <v>38882.000625728622</v>
       </c>
       <c r="M164" s="1">
         <f t="shared" si="9"/>
-        <v>4783.6017227617576</v>
+        <v>4860.2500782160778</v>
       </c>
       <c r="N164" s="1">
         <f t="shared" si="10"/>
-        <v>455.79540048160084</v>
+        <v>324.33976435563312</v>
       </c>
       <c r="O164">
         <f t="shared" si="11"/>
-        <v>263.15359716344551</v>
+        <v>187.25765025962457</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
@@ -7732,21 +9571,33 @@
       <c r="E165">
         <v>4842.28675746917</v>
       </c>
+      <c r="F165">
+        <v>4638.3864822387604</v>
+      </c>
+      <c r="G165">
+        <v>4791.9288444518997</v>
+      </c>
+      <c r="H165">
+        <v>4780.7763302922203</v>
+      </c>
+      <c r="I165">
+        <v>4483.7733469008999</v>
+      </c>
       <c r="L165" s="1">
         <f t="shared" si="8"/>
-        <v>18132.219128727891</v>
+        <v>36827.084132611679</v>
       </c>
       <c r="M165" s="1">
         <f t="shared" si="9"/>
-        <v>4533.0547821819728</v>
+        <v>4603.3855165764598</v>
       </c>
       <c r="N165" s="1">
         <f t="shared" si="10"/>
-        <v>400.13114009850295</v>
+        <v>288.50567279402446</v>
       </c>
       <c r="O165">
         <f t="shared" si="11"/>
-        <v>231.01582144702255</v>
+        <v>166.56882785036413</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
@@ -7765,21 +9616,33 @@
       <c r="E166">
         <v>4761.7508383169697</v>
       </c>
+      <c r="F166">
+        <v>4561.9427195787403</v>
+      </c>
+      <c r="G166">
+        <v>4607.6492959260904</v>
+      </c>
+      <c r="H166">
+        <v>4687.2655559182103</v>
+      </c>
+      <c r="I166">
+        <v>4290.1412861943199</v>
+      </c>
       <c r="L166" s="1">
         <f t="shared" si="8"/>
-        <v>17747.03870002176</v>
+        <v>35894.037557639116</v>
       </c>
       <c r="M166" s="1">
         <f t="shared" si="9"/>
-        <v>4436.7596750054399</v>
+        <v>4486.7546947048895</v>
       </c>
       <c r="N166" s="1">
         <f t="shared" si="10"/>
-        <v>419.66585457168225</v>
+        <v>301.7772305191483</v>
       </c>
       <c r="O166">
         <f t="shared" si="11"/>
-        <v>242.29419410665508</v>
+        <v>174.23116527553003</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
@@ -7798,21 +9661,33 @@
       <c r="E167">
         <v>4621.41317647695</v>
       </c>
+      <c r="F167">
+        <v>4284.0907729864102</v>
+      </c>
+      <c r="G167">
+        <v>4378.26083004474</v>
+      </c>
+      <c r="H167">
+        <v>4492.77629190683</v>
+      </c>
+      <c r="I167">
+        <v>4136.3548700213396</v>
+      </c>
       <c r="L167" s="1">
         <f t="shared" si="8"/>
-        <v>17074.301761448362</v>
+        <v>34365.784526407682</v>
       </c>
       <c r="M167" s="1">
         <f t="shared" si="9"/>
-        <v>4268.5754403620904</v>
+        <v>4295.7230658009603</v>
       </c>
       <c r="N167" s="1">
         <f t="shared" si="10"/>
-        <v>423.92443023372726</v>
+        <v>295.98738641611919</v>
       </c>
       <c r="O167">
         <f t="shared" si="11"/>
-        <v>244.75288391150119</v>
+        <v>170.88839722408019</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
@@ -7831,21 +9706,33 @@
       <c r="E168">
         <v>4347.5589965581803</v>
       </c>
+      <c r="F168">
+        <v>4075.1221175789801</v>
+      </c>
+      <c r="G168">
+        <v>4310.9870561957296</v>
+      </c>
+      <c r="H168">
+        <v>4177.4825659543203</v>
+      </c>
+      <c r="I168">
+        <v>3897.37422826886</v>
+      </c>
       <c r="L168" s="1">
         <f t="shared" si="8"/>
-        <v>15963.80503022668</v>
+        <v>32424.770998224572</v>
       </c>
       <c r="M168" s="1">
         <f t="shared" si="9"/>
-        <v>3990.95125755667</v>
+        <v>4053.0963747780715</v>
       </c>
       <c r="N168" s="1">
         <f t="shared" si="10"/>
-        <v>390.19281916543628</v>
+        <v>287.57940993735622</v>
       </c>
       <c r="O168">
         <f t="shared" si="11"/>
-        <v>225.27792918102361</v>
+        <v>166.03404974072637</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
@@ -7864,21 +9751,33 @@
       <c r="E169">
         <v>4130.1596900372997</v>
       </c>
+      <c r="F169">
+        <v>3877.9433811306899</v>
+      </c>
+      <c r="G169">
+        <v>4038.9259013384499</v>
+      </c>
+      <c r="H169">
+        <v>3986.0657825022899</v>
+      </c>
+      <c r="I169">
+        <v>3758.4076791703001</v>
+      </c>
       <c r="L169" s="1">
         <f t="shared" si="8"/>
-        <v>15150.43641556791</v>
+        <v>30811.779159709644</v>
       </c>
       <c r="M169" s="1">
         <f t="shared" si="9"/>
-        <v>3787.6091038919776</v>
+        <v>3851.4723949637055</v>
       </c>
       <c r="N169" s="1">
         <f t="shared" si="10"/>
-        <v>401.41443755222394</v>
+        <v>283.43068773960334</v>
       </c>
       <c r="O169">
         <f t="shared" si="11"/>
-        <v>231.75673357737872</v>
+        <v>163.63878386306075</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
@@ -7897,21 +9796,33 @@
       <c r="E170">
         <v>3866.6783325076099</v>
       </c>
+      <c r="F170">
+        <v>3627.4045167490799</v>
+      </c>
+      <c r="G170">
+        <v>3770.31776677072</v>
+      </c>
+      <c r="H170">
+        <v>3693.2917469814402</v>
+      </c>
+      <c r="I170">
+        <v>3512.7237490378302</v>
+      </c>
       <c r="L170" s="1">
         <f t="shared" si="8"/>
-        <v>14020.73892834409</v>
+        <v>28624.476707883165</v>
       </c>
       <c r="M170" s="1">
         <f t="shared" si="9"/>
-        <v>3505.1847320860224</v>
+        <v>3578.0595884853956</v>
       </c>
       <c r="N170" s="1">
         <f t="shared" si="10"/>
-        <v>426.86989449656312</v>
+        <v>298.76939281811929</v>
       </c>
       <c r="O170">
         <f t="shared" si="11"/>
-        <v>246.45344849653787</v>
+        <v>172.49458936916221</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
@@ -7930,21 +9841,33 @@
       <c r="E171">
         <v>3664.5479445159399</v>
       </c>
+      <c r="F171">
+        <v>3476.5942745655698</v>
+      </c>
+      <c r="G171">
+        <v>3672.2037391774302</v>
+      </c>
+      <c r="H171">
+        <v>3538.6047442406398</v>
+      </c>
+      <c r="I171">
+        <v>3286.9027777910201</v>
+      </c>
       <c r="L171" s="1">
         <f t="shared" si="8"/>
-        <v>13380.392888978109</v>
+        <v>27354.698424752769</v>
       </c>
       <c r="M171" s="1">
         <f t="shared" si="9"/>
-        <v>3345.0982222445273</v>
+        <v>3419.3373030940961</v>
       </c>
       <c r="N171" s="1">
         <f t="shared" si="10"/>
-        <v>353.17122961173419</v>
+        <v>265.98038006789017</v>
       </c>
       <c r="O171">
         <f t="shared" si="11"/>
-        <v>203.90350448636588</v>
+        <v>153.56384403135536</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
@@ -7963,21 +9886,33 @@
       <c r="E172">
         <v>3444.0297340452598</v>
       </c>
+      <c r="F172">
+        <v>3155.4927372038301</v>
+      </c>
+      <c r="G172">
+        <v>3336.3022721763</v>
+      </c>
+      <c r="H172">
+        <v>3219.10386204719</v>
+      </c>
+      <c r="I172">
+        <v>2950.9705663397899</v>
+      </c>
       <c r="L172" s="1">
         <f t="shared" si="8"/>
-        <v>12437.531840413791</v>
+        <v>25099.4012781809</v>
       </c>
       <c r="M172" s="1">
         <f t="shared" si="9"/>
-        <v>3109.3829601034477</v>
+        <v>3137.4251597726125</v>
       </c>
       <c r="N172" s="1">
         <f t="shared" si="10"/>
-        <v>346.25731357487768</v>
+        <v>251.89088070351161</v>
       </c>
       <c r="O172">
         <f t="shared" si="11"/>
-        <v>199.91175320133229</v>
+        <v>145.42926778058435</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
@@ -7996,21 +9931,33 @@
       <c r="E173">
         <v>3306.4219890460299</v>
       </c>
+      <c r="F173">
+        <v>2978.5778848454302</v>
+      </c>
+      <c r="G173">
+        <v>3174.5987990759299</v>
+      </c>
+      <c r="H173">
+        <v>3082.6497350484101</v>
+      </c>
+      <c r="I173">
+        <v>2917.6546537130998</v>
+      </c>
       <c r="L173" s="1">
         <f t="shared" si="8"/>
-        <v>11698.50681005044</v>
+        <v>23851.987882733309</v>
       </c>
       <c r="M173" s="1">
         <f t="shared" si="9"/>
-        <v>2924.6267025126099</v>
+        <v>2981.4984853416636</v>
       </c>
       <c r="N173" s="1">
         <f t="shared" si="10"/>
-        <v>388.84328315691397</v>
+        <v>272.06584458366245</v>
       </c>
       <c r="O173">
         <f t="shared" si="11"/>
-        <v>224.49877420322215</v>
+        <v>157.0772886076804</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
@@ -8029,21 +9976,33 @@
       <c r="E174">
         <v>3103.6630137264701</v>
       </c>
+      <c r="F174">
+        <v>2852.4739513248201</v>
+      </c>
+      <c r="G174">
+        <v>2991.5342423301099</v>
+      </c>
+      <c r="H174">
+        <v>2858.1551557704802</v>
+      </c>
+      <c r="I174">
+        <v>2697.2453354299</v>
+      </c>
       <c r="L174" s="1">
         <f t="shared" si="8"/>
-        <v>10950.692602105431</v>
+        <v>22350.101286960744</v>
       </c>
       <c r="M174" s="1">
         <f t="shared" si="9"/>
-        <v>2737.6731505263579</v>
+        <v>2793.762660870093</v>
       </c>
       <c r="N174" s="1">
         <f t="shared" si="10"/>
-        <v>343.18492839255305</v>
+        <v>245.51241443138329</v>
       </c>
       <c r="O174">
         <f t="shared" si="11"/>
-        <v>198.13791078926295</v>
+        <v>141.74665856135411</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
@@ -8062,21 +10021,33 @@
       <c r="E175">
         <v>2931.06943564116</v>
       </c>
+      <c r="F175">
+        <v>2647.9006129279701</v>
+      </c>
+      <c r="G175">
+        <v>2929.8546859417102</v>
+      </c>
+      <c r="H175">
+        <v>2700.8275070935401</v>
+      </c>
+      <c r="I175">
+        <v>2560.11231693625</v>
+      </c>
       <c r="L175" s="1">
         <f t="shared" si="8"/>
-        <v>10242.01038593796</v>
+        <v>21080.705508837433</v>
       </c>
       <c r="M175" s="1">
         <f t="shared" si="9"/>
-        <v>2560.5025964844899</v>
+        <v>2635.0881886046791</v>
       </c>
       <c r="N175" s="1">
         <f t="shared" si="10"/>
-        <v>366.94284912259178</v>
+        <v>273.38818327255962</v>
       </c>
       <c r="O175">
         <f t="shared" si="11"/>
-        <v>211.8545527181366</v>
+        <v>157.84074120567504</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
@@ -8095,21 +10066,33 @@
       <c r="E176">
         <v>2648.2907104492101</v>
       </c>
+      <c r="F176">
+        <v>2493.5127213001201</v>
+      </c>
+      <c r="G176">
+        <v>2568.5208177044901</v>
+      </c>
+      <c r="H176">
+        <v>2384.7783853113601</v>
+      </c>
+      <c r="I176">
+        <v>2378.0489955469902</v>
+      </c>
       <c r="L176" s="1">
         <f t="shared" si="8"/>
-        <v>9279.5508461966892</v>
+        <v>19104.411766059649</v>
       </c>
       <c r="M176" s="1">
         <f t="shared" si="9"/>
-        <v>2319.8877115491723</v>
+        <v>2388.0514707574562</v>
       </c>
       <c r="N176" s="1">
         <f t="shared" si="10"/>
-        <v>350.53067675368544</v>
+        <v>248.13662177633105</v>
       </c>
       <c r="O176">
         <f t="shared" si="11"/>
-        <v>202.37898058296199</v>
+        <v>143.26174537836908</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
@@ -8128,21 +10111,33 @@
       <c r="E177">
         <v>2554.0889851171501</v>
       </c>
+      <c r="F177">
+        <v>2296.2031139964201</v>
+      </c>
+      <c r="G177">
+        <v>2454.7529606539701</v>
+      </c>
+      <c r="H177">
+        <v>2315.8019016906601</v>
+      </c>
+      <c r="I177">
+        <v>2132.5764614865102</v>
+      </c>
       <c r="L177" s="1">
         <f t="shared" si="8"/>
-        <v>8763.6000453624692</v>
+        <v>17962.934483190031</v>
       </c>
       <c r="M177" s="1">
         <f t="shared" si="9"/>
-        <v>2190.9000113406173</v>
+        <v>2245.3668103987538</v>
       </c>
       <c r="N177" s="1">
         <f t="shared" si="10"/>
-        <v>335.96189995830639</v>
+        <v>243.36550349644671</v>
       </c>
       <c r="O177">
         <f t="shared" si="11"/>
-        <v>193.96769337838631</v>
+        <v>140.50713895514232</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
@@ -8161,21 +10156,33 @@
       <c r="E178">
         <v>2371.8086776137302</v>
       </c>
+      <c r="F178">
+        <v>2141.6831871271102</v>
+      </c>
+      <c r="G178">
+        <v>2324.0141277909202</v>
+      </c>
+      <c r="H178">
+        <v>2154.5546804647802</v>
+      </c>
+      <c r="I178">
+        <v>1989.98605562746</v>
+      </c>
       <c r="L178" s="1">
         <f t="shared" si="8"/>
-        <v>8148.7465264126495</v>
+        <v>16758.984577422922</v>
       </c>
       <c r="M178" s="1">
         <f t="shared" si="9"/>
-        <v>2037.1866316031624</v>
+        <v>2094.8730721778652</v>
       </c>
       <c r="N178" s="1">
         <f t="shared" si="10"/>
-        <v>312.64860838385891</v>
+        <v>231.70743545482969</v>
       </c>
       <c r="O178">
         <f t="shared" si="11"/>
-        <v>180.50775821218284</v>
+        <v>133.77635023308378</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.3">
@@ -8194,21 +10201,33 @@
       <c r="E179">
         <v>2144.7608410008202</v>
       </c>
+      <c r="F179">
+        <v>2013.1631079316101</v>
+      </c>
+      <c r="G179">
+        <v>2209.63479998707</v>
+      </c>
+      <c r="H179">
+        <v>1925.09084692597</v>
+      </c>
+      <c r="I179">
+        <v>1903.12123585678</v>
+      </c>
       <c r="L179" s="1">
         <f t="shared" si="8"/>
-        <v>7393.8331941105207</v>
+        <v>15444.843184811951</v>
       </c>
       <c r="M179" s="1">
         <f t="shared" si="9"/>
-        <v>1848.4582985276302</v>
+        <v>1930.6053981014938</v>
       </c>
       <c r="N179" s="1">
         <f t="shared" si="10"/>
-        <v>282.06960579778934</v>
+        <v>223.9710897913678</v>
       </c>
       <c r="O179">
         <f t="shared" si="11"/>
-        <v>162.85296283756531</v>
+        <v>129.30976898174006</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.3">
@@ -8227,21 +10246,33 @@
       <c r="E180">
         <v>1966.6597621589001</v>
       </c>
+      <c r="F180">
+        <v>1854.5716625898999</v>
+      </c>
+      <c r="G180">
+        <v>1992.24945356696</v>
+      </c>
+      <c r="H180">
+        <v>1700.9034025669</v>
+      </c>
+      <c r="I180">
+        <v>1658.65474833548</v>
+      </c>
       <c r="L180" s="1">
         <f t="shared" si="8"/>
-        <v>6700.1214814259502</v>
+        <v>13906.50074848519</v>
       </c>
       <c r="M180" s="1">
         <f t="shared" si="9"/>
-        <v>1675.0303703564875</v>
+        <v>1738.3125935606488</v>
       </c>
       <c r="N180" s="1">
         <f t="shared" si="10"/>
-        <v>271.98893953340325</v>
+        <v>215.04067012620763</v>
       </c>
       <c r="O180">
         <f t="shared" si="11"/>
-        <v>157.03288745621123</v>
+        <v>124.1537887840835</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
@@ -8260,21 +10291,33 @@
       <c r="E181">
         <v>1813.7218806445501</v>
       </c>
+      <c r="F181">
+        <v>1655.9226770997</v>
+      </c>
+      <c r="G181">
+        <v>1839.3844330217601</v>
+      </c>
+      <c r="H181">
+        <v>1534.5923319235401</v>
+      </c>
+      <c r="I181">
+        <v>1611.3986402396099</v>
+      </c>
       <c r="L181" s="1">
         <f t="shared" si="8"/>
-        <v>6014.1508314171597</v>
+        <v>12655.44891370177</v>
       </c>
       <c r="M181" s="1">
         <f t="shared" si="9"/>
-        <v>1503.5377078542899</v>
+        <v>1581.9311142127212</v>
       </c>
       <c r="N181" s="1">
         <f t="shared" si="10"/>
-        <v>251.64415962230083</v>
+        <v>203.33740854654428</v>
       </c>
       <c r="O181">
         <f t="shared" si="11"/>
-        <v>145.28682329793256</v>
+        <v>117.39690756066825</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
@@ -8293,21 +10336,33 @@
       <c r="E182">
         <v>1651.5965542811</v>
       </c>
+      <c r="F182">
+        <v>1482.1750113815001</v>
+      </c>
+      <c r="G182">
+        <v>1631.8801017999599</v>
+      </c>
+      <c r="H182">
+        <v>1417.6206084042699</v>
+      </c>
+      <c r="I182">
+        <v>1365.3315643593601</v>
+      </c>
       <c r="L182" s="1">
         <f t="shared" si="8"/>
-        <v>5515.30482051325</v>
+        <v>11412.312106458339</v>
       </c>
       <c r="M182" s="1">
         <f t="shared" si="9"/>
-        <v>1378.8262051283125</v>
+        <v>1426.5390133072924</v>
       </c>
       <c r="N182" s="1">
         <f t="shared" si="10"/>
-        <v>226.79915784631271</v>
+        <v>174.23540681441128</v>
       </c>
       <c r="O182">
         <f t="shared" si="11"/>
-        <v>130.94255483454907</v>
+        <v>100.59485902666431</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
@@ -8326,21 +10381,33 @@
       <c r="E183">
         <v>1581.7436616606999</v>
       </c>
+      <c r="F183">
+        <v>1349.5720967426801</v>
+      </c>
+      <c r="G183">
+        <v>1552.69295018911</v>
+      </c>
+      <c r="H183">
+        <v>1322.56196705251</v>
+      </c>
+      <c r="I183">
+        <v>1248.78360702842</v>
+      </c>
       <c r="L183" s="1">
         <f t="shared" si="8"/>
-        <v>5174.8843348435903</v>
+        <v>10648.494955856309</v>
       </c>
       <c r="M183" s="1">
         <f t="shared" si="9"/>
-        <v>1293.7210837108976</v>
+        <v>1331.0618694820387</v>
       </c>
       <c r="N183" s="1">
         <f t="shared" si="10"/>
-        <v>241.98216148705157</v>
+        <v>184.21585235966694</v>
       </c>
       <c r="O183">
         <f t="shared" si="11"/>
-        <v>139.70846607363671</v>
+        <v>106.35707194885008</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
@@ -8359,21 +10426,33 @@
       <c r="E184">
         <v>1403.4064888283599</v>
       </c>
+      <c r="F184">
+        <v>1229.2283560931601</v>
+      </c>
+      <c r="G184">
+        <v>1363.8136234981901</v>
+      </c>
+      <c r="H184">
+        <v>1154.41220223903</v>
+      </c>
+      <c r="I184">
+        <v>1075.97621837258</v>
+      </c>
       <c r="L184" s="1">
         <f t="shared" si="8"/>
-        <v>4558.2075875662204</v>
+        <v>9381.6379877691797</v>
       </c>
       <c r="M184" s="1">
         <f t="shared" si="9"/>
-        <v>1139.5518968915551</v>
+        <v>1172.7047484711475</v>
       </c>
       <c r="N184" s="1">
         <f t="shared" si="10"/>
-        <v>207.19050929317265</v>
+        <v>161.50573356046215</v>
       </c>
       <c r="O184">
         <f t="shared" si="11"/>
-        <v>119.6214963139489</v>
+        <v>93.245378746800796</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.3">
@@ -8392,21 +10471,33 @@
       <c r="E185">
         <v>1224.7113664150199</v>
       </c>
+      <c r="F185">
+        <v>1115.9130836054601</v>
+      </c>
+      <c r="G185">
+        <v>1301.6301173716699</v>
+      </c>
+      <c r="H185">
+        <v>1026.2155127078199</v>
+      </c>
+      <c r="I185">
+        <v>998.13140287995304</v>
+      </c>
       <c r="L185" s="1">
         <f t="shared" si="8"/>
-        <v>4067.5376335438268</v>
+        <v>8509.4277501087308</v>
       </c>
       <c r="M185" s="1">
         <f t="shared" si="9"/>
-        <v>1016.8844083859567</v>
+        <v>1063.6784687635914</v>
       </c>
       <c r="N185" s="1">
         <f t="shared" si="10"/>
-        <v>180.03862902745189</v>
+        <v>156.31917584504794</v>
       </c>
       <c r="O185">
         <f t="shared" si="11"/>
-        <v>103.94535093353052</v>
+        <v>90.250918253638872</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.3">
@@ -8425,21 +10516,33 @@
       <c r="E186">
         <v>1169.24334196001</v>
       </c>
+      <c r="F186">
+        <v>1013.92406293004</v>
+      </c>
+      <c r="G186">
+        <v>1202.0571096241399</v>
+      </c>
+      <c r="H186">
+        <v>921.69478704221501</v>
+      </c>
+      <c r="I186">
+        <v>907.30330349877397</v>
+      </c>
       <c r="L186" s="1">
         <f t="shared" si="8"/>
-        <v>3745.9016199037387</v>
+        <v>7790.8808829989075</v>
       </c>
       <c r="M186" s="1">
         <f t="shared" si="9"/>
-        <v>936.47540497593468</v>
+        <v>973.86011037486344</v>
       </c>
       <c r="N186" s="1">
         <f t="shared" si="10"/>
-        <v>187.4345370581521</v>
+        <v>156.66871421584824</v>
       </c>
       <c r="O186">
         <f t="shared" si="11"/>
-        <v>108.21538042595701</v>
+        <v>90.452724326112531</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.3">
@@ -8458,21 +10561,33 @@
       <c r="E187">
         <v>1028.2226205207401</v>
       </c>
+      <c r="F187">
+        <v>922.00522005558003</v>
+      </c>
+      <c r="G187">
+        <v>1099.4124385416501</v>
+      </c>
+      <c r="H187">
+        <v>797.82561406493096</v>
+      </c>
+      <c r="I187">
+        <v>803.58064621686901</v>
+      </c>
       <c r="L187" s="1">
         <f t="shared" si="8"/>
-        <v>3229.1579305343312</v>
+        <v>6851.9818494133615</v>
       </c>
       <c r="M187" s="1">
         <f t="shared" si="9"/>
-        <v>807.28948263358279</v>
+        <v>856.49773117667019</v>
       </c>
       <c r="N187" s="1">
         <f t="shared" si="10"/>
-        <v>170.30322699941675</v>
+        <v>154.10422986611903</v>
       </c>
       <c r="O187">
         <f t="shared" si="11"/>
-        <v>98.324613951975209</v>
+        <v>88.972118596463787</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.3">
@@ -8491,21 +10606,33 @@
       <c r="E188">
         <v>892.89154294133095</v>
       </c>
+      <c r="F188">
+        <v>830.83915899693898</v>
+      </c>
+      <c r="G188">
+        <v>993.96060869097698</v>
+      </c>
+      <c r="H188">
+        <v>743.133004672825</v>
+      </c>
+      <c r="I188">
+        <v>726.78131192549995</v>
+      </c>
       <c r="L188" s="1">
         <f t="shared" ref="L188:L232" si="12">SUM(B188:K188)</f>
-        <v>2954.8892004080021</v>
+        <v>6249.6032846942435</v>
       </c>
       <c r="M188" s="1">
         <f t="shared" ref="M188:M232" si="13">AVERAGE(B188:K188)</f>
-        <v>738.72230010200053</v>
+        <v>781.20041058678044</v>
       </c>
       <c r="N188" s="1">
         <f t="shared" ref="N188:N232" si="14">STDEV(B188:K188)</f>
-        <v>130.18782116830852</v>
+        <v>125.47375295043668</v>
       </c>
       <c r="O188">
         <f t="shared" ref="O188:O232" si="15">N188/SQRT(3)</f>
-        <v>75.163973596733783</v>
+        <v>72.44230504216722</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.3">
@@ -8524,21 +10651,33 @@
       <c r="E189">
         <v>821.61022872477702</v>
       </c>
+      <c r="F189">
+        <v>746.64130344986904</v>
+      </c>
+      <c r="G189">
+        <v>848.98373779654003</v>
+      </c>
+      <c r="H189">
+        <v>661.64886562526203</v>
+      </c>
+      <c r="I189">
+        <v>647.95122427307001</v>
+      </c>
       <c r="L189" s="1">
         <f t="shared" si="12"/>
-        <v>2673.4465712383371</v>
+        <v>5578.6717023830779</v>
       </c>
       <c r="M189" s="1">
         <f t="shared" si="13"/>
-        <v>668.36164280958428</v>
+        <v>697.33396279788474</v>
       </c>
       <c r="N189" s="1">
         <f t="shared" si="14"/>
-        <v>129.11642279773216</v>
+        <v>108.56971580773708</v>
       </c>
       <c r="O189">
         <f t="shared" si="15"/>
-        <v>74.545401459072195</v>
+        <v>62.682754647438173</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.3">
@@ -8557,21 +10696,33 @@
       <c r="E190">
         <v>680.98840178549199</v>
       </c>
+      <c r="F190">
+        <v>682.74103622883501</v>
+      </c>
+      <c r="G190">
+        <v>802.099250718951</v>
+      </c>
+      <c r="H190">
+        <v>565.68011467157999</v>
+      </c>
+      <c r="I190">
+        <v>514.95423774793699</v>
+      </c>
       <c r="L190" s="1">
         <f t="shared" si="12"/>
-        <v>2213.719471764749</v>
+        <v>4779.1941111320521</v>
       </c>
       <c r="M190" s="1">
         <f t="shared" si="13"/>
-        <v>553.42986794118724</v>
+        <v>597.39926389150651</v>
       </c>
       <c r="N190" s="1">
         <f t="shared" si="14"/>
-        <v>111.71228432279155</v>
+        <v>120.8072396143511</v>
       </c>
       <c r="O190">
         <f t="shared" si="15"/>
-        <v>64.497117425551707</v>
+        <v>69.748092311401237</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
@@ -8590,21 +10741,33 @@
       <c r="E191">
         <v>703.73627848923195</v>
       </c>
+      <c r="F191">
+        <v>615.60782715678204</v>
+      </c>
+      <c r="G191">
+        <v>741.15518327057305</v>
+      </c>
+      <c r="H191">
+        <v>507.117382086813</v>
+      </c>
+      <c r="I191">
+        <v>476.11082462966402</v>
+      </c>
       <c r="L191" s="1">
         <f t="shared" si="12"/>
-        <v>2107.348053071647</v>
+        <v>4447.3392702154797</v>
       </c>
       <c r="M191" s="1">
         <f t="shared" si="13"/>
-        <v>526.83701326791174</v>
+        <v>555.91740877693496</v>
       </c>
       <c r="N191" s="1">
         <f t="shared" si="14"/>
-        <v>133.63350275187341</v>
+        <v>121.64522737921017</v>
       </c>
       <c r="O191">
         <f t="shared" si="15"/>
-        <v>77.153338786546712</v>
+        <v>70.231904773020233</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
@@ -8623,21 +10786,33 @@
       <c r="E192">
         <v>585.24375534802596</v>
       </c>
+      <c r="F192">
+        <v>516.55056599526995</v>
+      </c>
+      <c r="G192">
+        <v>640.37850362807501</v>
+      </c>
+      <c r="H192">
+        <v>383.50908721238301</v>
+      </c>
+      <c r="I192">
+        <v>392.79024781286699</v>
+      </c>
       <c r="L192" s="1">
         <f t="shared" si="12"/>
-        <v>1874.7565988791148</v>
+        <v>3807.98500352771</v>
       </c>
       <c r="M192" s="1">
         <f t="shared" si="13"/>
-        <v>468.6891497197787</v>
+        <v>475.99812544096375</v>
       </c>
       <c r="N192" s="1">
         <f t="shared" si="14"/>
-        <v>84.554704322629121</v>
+        <v>96.957546551719275</v>
       </c>
       <c r="O192">
         <f t="shared" si="15"/>
-        <v>48.817681301919137</v>
+        <v>55.978465601600796</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.3">
@@ -8656,21 +10831,33 @@
       <c r="E193">
         <v>544.758106298744</v>
       </c>
+      <c r="F193">
+        <v>488.05383295565798</v>
+      </c>
+      <c r="G193">
+        <v>584.70727469026997</v>
+      </c>
+      <c r="H193">
+        <v>378.44236448407099</v>
+      </c>
+      <c r="I193">
+        <v>406.41125945746001</v>
+      </c>
       <c r="L193" s="1">
         <f t="shared" si="12"/>
-        <v>1701.1941943112749</v>
+        <v>3558.8089258987334</v>
       </c>
       <c r="M193" s="1">
         <f t="shared" si="13"/>
-        <v>425.29854857781874</v>
+        <v>444.85111573734167</v>
       </c>
       <c r="N193" s="1">
         <f t="shared" si="14"/>
-        <v>87.624060694846463</v>
+        <v>86.087251697683868</v>
       </c>
       <c r="O193">
         <f t="shared" si="15"/>
-        <v>50.589775029657716</v>
+        <v>49.702497941452854</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.3">
@@ -8689,21 +10876,33 @@
       <c r="E194">
         <v>456.48486505076198</v>
       </c>
+      <c r="F194">
+        <v>426.19219526275901</v>
+      </c>
+      <c r="G194">
+        <v>528.18314677476803</v>
+      </c>
+      <c r="H194">
+        <v>324.40669708698903</v>
+      </c>
+      <c r="I194">
+        <v>344.52856078743901</v>
+      </c>
       <c r="L194" s="1">
         <f t="shared" si="12"/>
-        <v>1463.0793227963129</v>
+        <v>3086.3899227082679</v>
       </c>
       <c r="M194" s="1">
         <f t="shared" si="13"/>
-        <v>365.76983069907823</v>
+        <v>385.79874033853349</v>
       </c>
       <c r="N194" s="1">
         <f t="shared" si="14"/>
-        <v>69.103007382329892</v>
+        <v>78.656093093308343</v>
       </c>
       <c r="O194">
         <f t="shared" si="15"/>
-        <v>39.896639914000865</v>
+        <v>45.41211652082584</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.3">
@@ -8722,21 +10921,33 @@
       <c r="E195">
         <v>450.732904663309</v>
       </c>
+      <c r="F195">
+        <v>369.14621812105099</v>
+      </c>
+      <c r="G195">
+        <v>497.94509306549998</v>
+      </c>
+      <c r="H195">
+        <v>308.50341760367098</v>
+      </c>
+      <c r="I195">
+        <v>282.94575250148699</v>
+      </c>
       <c r="L195" s="1">
         <f t="shared" si="12"/>
-        <v>1346.1304680220769</v>
+        <v>2804.6709493137855</v>
       </c>
       <c r="M195" s="1">
         <f t="shared" si="13"/>
-        <v>336.53261700551923</v>
+        <v>350.58386866422319</v>
       </c>
       <c r="N195" s="1">
         <f t="shared" si="14"/>
-        <v>86.258304649778964</v>
+        <v>85.787783387489313</v>
       </c>
       <c r="O195">
         <f t="shared" si="15"/>
-        <v>49.801255409390635</v>
+        <v>49.529599831948261</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.3">
@@ -8755,21 +10966,33 @@
       <c r="E196">
         <v>382.68304122798099</v>
       </c>
+      <c r="F196">
+        <v>348.09369263790001</v>
+      </c>
+      <c r="G196">
+        <v>427.999732520431</v>
+      </c>
+      <c r="H196">
+        <v>245.94587254151699</v>
+      </c>
+      <c r="I196">
+        <v>208.68433517403</v>
+      </c>
       <c r="L196" s="1">
         <f t="shared" si="12"/>
-        <v>1088.5691474247701</v>
+        <v>2319.2927802986478</v>
       </c>
       <c r="M196" s="1">
         <f t="shared" si="13"/>
-        <v>272.14228685619253</v>
+        <v>289.91159753733098</v>
       </c>
       <c r="N196" s="1">
         <f t="shared" si="14"/>
-        <v>81.396658700681897</v>
+        <v>86.291519273816462</v>
       </c>
       <c r="O196">
         <f t="shared" si="15"/>
-        <v>46.994382811974788</v>
+        <v>49.820431881519717</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.3">
@@ -8788,21 +11011,33 @@
       <c r="E197">
         <v>347.84580095484802</v>
       </c>
+      <c r="F197">
+        <v>246.27591259242001</v>
+      </c>
+      <c r="G197">
+        <v>377.408267974853</v>
+      </c>
+      <c r="H197">
+        <v>148.71390112116899</v>
+      </c>
+      <c r="I197">
+        <v>201.28042064607101</v>
+      </c>
       <c r="L197" s="1">
         <f t="shared" si="12"/>
-        <v>1034.5454168282431</v>
+        <v>2008.2239191627559</v>
       </c>
       <c r="M197" s="1">
         <f t="shared" si="13"/>
-        <v>258.63635420706078</v>
+        <v>251.02798989534449</v>
       </c>
       <c r="N197" s="1">
         <f t="shared" si="14"/>
-        <v>60.048683328509895</v>
+        <v>75.580262231154222</v>
       </c>
       <c r="O197">
         <f t="shared" si="15"/>
-        <v>34.669123484197783</v>
+        <v>43.636284744579399</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.3">
@@ -8821,21 +11056,33 @@
       <c r="E198">
         <v>248.03759468719301</v>
       </c>
+      <c r="F198">
+        <v>231.82426418643399</v>
+      </c>
+      <c r="G198">
+        <v>347.00090147554801</v>
+      </c>
+      <c r="H198">
+        <v>163.61597528308599</v>
+      </c>
+      <c r="I198">
+        <v>147.93436010926899</v>
+      </c>
       <c r="L198" s="1">
         <f t="shared" si="12"/>
-        <v>863.28156530577508</v>
+        <v>1753.6570663601121</v>
       </c>
       <c r="M198" s="1">
         <f t="shared" si="13"/>
-        <v>215.82039132644377</v>
+        <v>219.20713329501402</v>
       </c>
       <c r="N198" s="1">
         <f t="shared" si="14"/>
-        <v>27.138332620696399</v>
+        <v>62.009183192430122</v>
       </c>
       <c r="O198">
         <f t="shared" si="15"/>
-        <v>15.668323643916668</v>
+        <v>35.801018608378349</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.3">
@@ -8854,21 +11101,33 @@
       <c r="E199">
         <v>222.89374785870299</v>
       </c>
+      <c r="F199">
+        <v>184.50544809922499</v>
+      </c>
+      <c r="G199">
+        <v>272.36566471867201</v>
+      </c>
+      <c r="H199">
+        <v>155.30463029444201</v>
+      </c>
+      <c r="I199">
+        <v>148.23960337228999</v>
+      </c>
       <c r="L199" s="1">
         <f t="shared" si="12"/>
-        <v>706.37541069649001</v>
+        <v>1466.790757181119</v>
       </c>
       <c r="M199" s="1">
         <f t="shared" si="13"/>
-        <v>176.5938526741225</v>
+        <v>183.34884464763988</v>
       </c>
       <c r="N199" s="1">
         <f t="shared" si="14"/>
-        <v>35.140777172235651</v>
+        <v>44.451596622099444</v>
       </c>
       <c r="O199">
         <f t="shared" si="15"/>
-        <v>20.28853715992291</v>
+        <v>25.664141275677775</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.3">
@@ -8887,21 +11146,33 @@
       <c r="E200">
         <v>216.9887573421</v>
       </c>
+      <c r="F200">
+        <v>172.029214520007</v>
+      </c>
+      <c r="G200">
+        <v>252.27670741453699</v>
+      </c>
+      <c r="H200">
+        <v>158.76456520706401</v>
+      </c>
+      <c r="I200">
+        <v>126.70440521277401</v>
+      </c>
       <c r="L200" s="1">
         <f t="shared" si="12"/>
-        <v>637.18405792675708</v>
+        <v>1346.9589502811389</v>
       </c>
       <c r="M200" s="1">
         <f t="shared" si="13"/>
-        <v>159.29601448168927</v>
+        <v>168.36986878514236</v>
       </c>
       <c r="N200" s="1">
         <f t="shared" si="14"/>
-        <v>42.729091479817626</v>
+        <v>45.808118736540649</v>
       </c>
       <c r="O200">
         <f t="shared" si="15"/>
-        <v>24.669652468100853</v>
+        <v>26.447329683612086</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.3">
@@ -8920,21 +11191,33 @@
       <c r="E201">
         <v>185.47858002036801</v>
       </c>
+      <c r="F201">
+        <v>152.564352031797</v>
+      </c>
+      <c r="G201">
+        <v>192.932796962559</v>
+      </c>
+      <c r="H201">
+        <v>107.59462904930101</v>
+      </c>
+      <c r="I201">
+        <v>122.78631253912999</v>
+      </c>
       <c r="L201" s="1">
         <f t="shared" si="12"/>
-        <v>486.31351780088085</v>
+        <v>1062.1916083836677</v>
       </c>
       <c r="M201" s="1">
         <f t="shared" si="13"/>
-        <v>121.57837945022021</v>
+        <v>132.77395104795846</v>
       </c>
       <c r="N201" s="1">
         <f t="shared" si="14"/>
-        <v>51.681051664473344</v>
+        <v>43.521184479041196</v>
       </c>
       <c r="O201">
         <f t="shared" si="15"/>
-        <v>29.838069090486645</v>
+        <v>25.126967574425798</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.3">
@@ -8953,21 +11236,33 @@
       <c r="E202">
         <v>173.916087575256</v>
       </c>
+      <c r="F202">
+        <v>141.08558546751701</v>
+      </c>
+      <c r="G202">
+        <v>172.62878598271999</v>
+      </c>
+      <c r="H202">
+        <v>90.513933267444301</v>
+      </c>
+      <c r="I202">
+        <v>114.372471615672</v>
+      </c>
       <c r="L202" s="1">
         <f t="shared" si="12"/>
-        <v>508.02054530381974</v>
+        <v>1026.621321637173</v>
       </c>
       <c r="M202" s="1">
         <f t="shared" si="13"/>
-        <v>127.00513632595494</v>
+        <v>128.32766520464662</v>
       </c>
       <c r="N202" s="1">
         <f t="shared" si="14"/>
-        <v>35.457906920525126</v>
+        <v>32.795394717737359</v>
       </c>
       <c r="O202">
         <f t="shared" si="15"/>
-        <v>20.471632105465876</v>
+        <v>18.934429968465697</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.3">
@@ -8986,21 +11281,33 @@
       <c r="E203">
         <v>123.62125219404599</v>
       </c>
+      <c r="F203">
+        <v>94.287130624055806</v>
+      </c>
+      <c r="G203">
+        <v>150.21673235110899</v>
+      </c>
+      <c r="H203">
+        <v>87.341091744601698</v>
+      </c>
+      <c r="I203">
+        <v>94.118717812000995</v>
+      </c>
       <c r="L203" s="1">
         <f t="shared" si="12"/>
-        <v>369.92695437371583</v>
+        <v>795.89062690548337</v>
       </c>
       <c r="M203" s="1">
         <f t="shared" si="13"/>
-        <v>92.481738593428958</v>
+        <v>99.486328363185422</v>
       </c>
       <c r="N203" s="1">
         <f t="shared" si="14"/>
-        <v>26.852910554950718</v>
+        <v>27.088260737938853</v>
       </c>
       <c r="O203">
         <f t="shared" si="15"/>
-        <v>15.503535137425741</v>
+        <v>15.639414628927769</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.3">
@@ -9019,21 +11326,33 @@
       <c r="E204">
         <v>125.117754017934</v>
       </c>
+      <c r="F204">
+        <v>106.69868262857101</v>
+      </c>
+      <c r="G204">
+        <v>127.097688093781</v>
+      </c>
+      <c r="H204">
+        <v>66.127940788865004</v>
+      </c>
+      <c r="I204">
+        <v>69.716946385800796</v>
+      </c>
       <c r="L204" s="1">
         <f t="shared" si="12"/>
-        <v>326.73980378545775</v>
+        <v>696.38106168247555</v>
       </c>
       <c r="M204" s="1">
         <f t="shared" si="13"/>
-        <v>81.684950946364438</v>
+        <v>87.047632710309443</v>
       </c>
       <c r="N204" s="1">
         <f t="shared" si="14"/>
-        <v>33.957310727045453</v>
+        <v>30.005921263073922</v>
       </c>
       <c r="O204">
         <f t="shared" si="15"/>
-        <v>19.605262489215459</v>
+        <v>17.323926718518447</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.3">
@@ -9052,21 +11371,33 @@
       <c r="E205">
         <v>113.835250824689</v>
       </c>
+      <c r="F205">
+        <v>79.087940171360898</v>
+      </c>
+      <c r="G205">
+        <v>128.86190369725199</v>
+      </c>
+      <c r="H205">
+        <v>55.604871248826299</v>
+      </c>
+      <c r="I205">
+        <v>37.2804145812988</v>
+      </c>
       <c r="L205" s="1">
         <f t="shared" si="12"/>
-        <v>269.1606234405179</v>
+        <v>569.99575313925595</v>
       </c>
       <c r="M205" s="1">
         <f t="shared" si="13"/>
-        <v>67.290155860129474</v>
+        <v>71.249469142406994</v>
       </c>
       <c r="N205" s="1">
         <f t="shared" si="14"/>
-        <v>33.412795430003669</v>
+        <v>34.207838902062257</v>
       </c>
       <c r="O205">
         <f t="shared" si="15"/>
-        <v>19.290886435890517</v>
+        <v>19.749904998500998</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.3">
@@ -9085,21 +11416,33 @@
       <c r="E206">
         <v>83.441457113018203</v>
       </c>
+      <c r="F206">
+        <v>82.458159267902303</v>
+      </c>
+      <c r="G206">
+        <v>87.806077226996393</v>
+      </c>
+      <c r="H206">
+        <v>30.135796912014399</v>
+      </c>
+      <c r="I206">
+        <v>66.639224931597695</v>
+      </c>
       <c r="L206" s="1">
         <f t="shared" si="12"/>
-        <v>218.8339866620953</v>
+        <v>485.87324500060606</v>
       </c>
       <c r="M206" s="1">
         <f t="shared" si="13"/>
-        <v>54.708496665523825</v>
+        <v>60.734155625075758</v>
       </c>
       <c r="N206" s="1">
         <f t="shared" si="14"/>
-        <v>31.434828107050595</v>
+        <v>27.478901493142647</v>
       </c>
       <c r="O206">
         <f t="shared" si="15"/>
-        <v>18.148906469535277</v>
+        <v>15.864951174101117</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.3">
@@ -9118,21 +11461,33 @@
       <c r="E207">
         <v>99.114773422479601</v>
       </c>
+      <c r="F207">
+        <v>42.688843771815002</v>
+      </c>
+      <c r="G207">
+        <v>86.966681160032707</v>
+      </c>
+      <c r="H207">
+        <v>33.064478747546602</v>
+      </c>
+      <c r="I207">
+        <v>37.578291900455902</v>
+      </c>
       <c r="L207" s="1">
         <f t="shared" si="12"/>
-        <v>242.9738481119274</v>
+        <v>443.27214369177761</v>
       </c>
       <c r="M207" s="1">
         <f t="shared" si="13"/>
-        <v>60.743462027981849</v>
+        <v>55.409017961472202</v>
       </c>
       <c r="N207" s="1">
         <f t="shared" si="14"/>
-        <v>25.804914869569714</v>
+        <v>24.161386640631974</v>
       </c>
       <c r="O207">
         <f t="shared" si="15"/>
-        <v>14.898474546361452</v>
+        <v>13.9495830809635</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.3">
@@ -9151,21 +11506,33 @@
       <c r="E208">
         <v>56.670625369995797</v>
       </c>
+      <c r="F208">
+        <v>45.008504349738303</v>
+      </c>
+      <c r="G208">
+        <v>64.278906358405905</v>
+      </c>
+      <c r="H208">
+        <v>22.129202018491899</v>
+      </c>
+      <c r="I208">
+        <v>28.541309390216998</v>
+      </c>
       <c r="L208" s="1">
         <f t="shared" si="12"/>
-        <v>112.45438378117967</v>
+        <v>272.41230589803274</v>
       </c>
       <c r="M208" s="1">
         <f t="shared" si="13"/>
-        <v>28.113595945294918</v>
+        <v>34.051538237254093</v>
       </c>
       <c r="N208" s="1">
         <f t="shared" si="14"/>
-        <v>20.835492737975613</v>
+        <v>19.455603380645652</v>
       </c>
       <c r="O208">
         <f t="shared" si="15"/>
-        <v>12.029377340968713</v>
+        <v>11.232697849062362</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.3">
@@ -9184,21 +11551,33 @@
       <c r="E209">
         <v>58.331968963146203</v>
       </c>
+      <c r="F209">
+        <v>33.893540450370999</v>
+      </c>
+      <c r="G209">
+        <v>64.962827961891804</v>
+      </c>
+      <c r="H209">
+        <v>13.9230411277385</v>
+      </c>
+      <c r="I209">
+        <v>36.390125691890702</v>
+      </c>
       <c r="L209" s="1">
         <f t="shared" si="12"/>
-        <v>180.92993922345329</v>
+        <v>330.09947445534527</v>
       </c>
       <c r="M209" s="1">
         <f t="shared" si="13"/>
-        <v>45.232484805863322</v>
+        <v>41.262434306918159</v>
       </c>
       <c r="N209" s="1">
         <f t="shared" si="14"/>
-        <v>9.2144844562025199</v>
+        <v>15.606575729265582</v>
       </c>
       <c r="O209">
         <f t="shared" si="15"/>
-        <v>5.3199850812321472</v>
+        <v>9.0104606984197648</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.3">
@@ -9217,21 +11596,33 @@
       <c r="E210">
         <v>45.4591525271534</v>
       </c>
+      <c r="F210">
+        <v>35.556380331516202</v>
+      </c>
+      <c r="G210">
+        <v>71.378580767661305</v>
+      </c>
+      <c r="H210">
+        <v>14.272268343716799</v>
+      </c>
+      <c r="I210">
+        <v>-6.0464866561815098</v>
+      </c>
       <c r="L210" s="1">
         <f t="shared" si="12"/>
-        <v>143.1763472165911</v>
+        <v>258.3370900033039</v>
       </c>
       <c r="M210" s="1">
         <f t="shared" si="13"/>
-        <v>35.794086804147774</v>
+        <v>32.292136250412987</v>
       </c>
       <c r="N210" s="1">
         <f t="shared" si="14"/>
-        <v>9.4687146818459684</v>
+        <v>22.837923923883423</v>
       </c>
       <c r="O210">
         <f t="shared" si="15"/>
-        <v>5.4667649704435322</v>
+        <v>13.18548152518629</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.3">
@@ -9250,21 +11641,33 @@
       <c r="E211">
         <v>33.723919293843203</v>
       </c>
+      <c r="F211">
+        <v>27.078169137239399</v>
+      </c>
+      <c r="G211">
+        <v>55.208459634333799</v>
+      </c>
+      <c r="H211">
+        <v>18.852703893557099</v>
+      </c>
+      <c r="I211">
+        <v>6.7858904767780999</v>
+      </c>
       <c r="L211" s="1">
         <f t="shared" si="12"/>
-        <v>92.258980334736293</v>
+        <v>200.18420347664468</v>
       </c>
       <c r="M211" s="1">
         <f t="shared" si="13"/>
-        <v>23.064745083684073</v>
+        <v>25.023025434580585</v>
       </c>
       <c r="N211" s="1">
         <f t="shared" si="14"/>
-        <v>14.49239530953443</v>
+        <v>16.611003349798871</v>
       </c>
       <c r="O211">
         <f t="shared" si="15"/>
-        <v>8.3671883331621739</v>
+        <v>9.5903672555161545</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.3">
@@ -9283,21 +11686,33 @@
       <c r="E212">
         <v>29.046288155019202</v>
       </c>
+      <c r="F212">
+        <v>23.221469789743399</v>
+      </c>
+      <c r="G212">
+        <v>19.0226266924291</v>
+      </c>
+      <c r="H212">
+        <v>5.1252181529998699</v>
+      </c>
+      <c r="I212">
+        <v>0.89350782893598002</v>
+      </c>
       <c r="L212" s="1">
         <f t="shared" si="12"/>
-        <v>104.463838137686</v>
+        <v>152.72666060179435</v>
       </c>
       <c r="M212" s="1">
         <f t="shared" si="13"/>
-        <v>26.115959534421499</v>
+        <v>19.090832575224294</v>
       </c>
       <c r="N212" s="1">
         <f t="shared" si="14"/>
-        <v>9.8779903658803399</v>
+        <v>12.150141363840586</v>
       </c>
       <c r="O212">
         <f t="shared" si="15"/>
-        <v>5.7030603967935445</v>
+        <v>7.014887387105369</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.3">
@@ -9316,21 +11731,33 @@
       <c r="E213">
         <v>23.833318348042599</v>
       </c>
+      <c r="F213">
+        <v>29.918576851487099</v>
+      </c>
+      <c r="G213">
+        <v>42.852713882923098</v>
+      </c>
+      <c r="H213">
+        <v>2.5299649611115398</v>
+      </c>
+      <c r="I213">
+        <v>-4.8170590475201598</v>
+      </c>
       <c r="L213" s="1">
         <f t="shared" si="12"/>
-        <v>28.823929759673678</v>
+        <v>99.30812640767526</v>
       </c>
       <c r="M213" s="1">
         <f t="shared" si="13"/>
-        <v>7.2059824399184196</v>
+        <v>12.413515800959408</v>
       </c>
       <c r="N213" s="1">
         <f t="shared" si="14"/>
-        <v>15.526786383623673</v>
+        <v>18.743631795138551</v>
       </c>
       <c r="O213">
         <f t="shared" si="15"/>
-        <v>8.9643942982349447</v>
+        <v>10.821640862514471</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.3">
@@ -9349,21 +11776,33 @@
       <c r="E214">
         <v>24.5780733972787</v>
       </c>
+      <c r="F214">
+        <v>38.320285441353903</v>
+      </c>
+      <c r="G214">
+        <v>18.548574402928299</v>
+      </c>
+      <c r="H214">
+        <v>9.0890107881277</v>
+      </c>
+      <c r="I214">
+        <v>1.9134561419480001</v>
+      </c>
       <c r="L214" s="1">
         <f t="shared" si="12"/>
-        <v>63.076634727418202</v>
+        <v>130.94796150177609</v>
       </c>
       <c r="M214" s="1">
         <f t="shared" si="13"/>
-        <v>15.769158681854551</v>
+        <v>16.368495187722012</v>
       </c>
       <c r="N214" s="1">
         <f t="shared" si="14"/>
-        <v>6.8989657297711657</v>
+        <v>11.293467701498596</v>
       </c>
       <c r="O214">
         <f t="shared" si="15"/>
-        <v>3.9831197212133858</v>
+        <v>6.5202866175445591</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.3">
@@ -9382,21 +11821,33 @@
       <c r="E215">
         <v>14.7651082873344</v>
       </c>
+      <c r="F215">
+        <v>14.794682078063399</v>
+      </c>
+      <c r="G215">
+        <v>15.5902739316225</v>
+      </c>
+      <c r="H215">
+        <v>5.7710587531327997</v>
+      </c>
+      <c r="I215">
+        <v>2.6646031886339099</v>
+      </c>
       <c r="L215" s="1">
         <f t="shared" si="12"/>
-        <v>43.832370760850466</v>
+        <v>82.652988712303085</v>
       </c>
       <c r="M215" s="1">
         <f t="shared" si="13"/>
-        <v>10.958092690212617</v>
+        <v>10.331623589037886</v>
       </c>
       <c r="N215" s="1">
         <f t="shared" si="14"/>
-        <v>9.4194579134666174</v>
+        <v>7.5109697322777365</v>
       </c>
       <c r="O215">
         <f t="shared" si="15"/>
-        <v>5.4383265619603023</v>
+        <v>4.3364603968056832</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.3">
@@ -9415,21 +11866,33 @@
       <c r="E216">
         <v>9.4075902691110898</v>
       </c>
+      <c r="F216">
+        <v>5.22407349199056</v>
+      </c>
+      <c r="G216">
+        <v>8.2409377470612508</v>
+      </c>
+      <c r="H216">
+        <v>4.8106718570925198</v>
+      </c>
+      <c r="I216">
+        <v>-16.398715807124901</v>
+      </c>
       <c r="L216" s="1">
         <f t="shared" si="12"/>
-        <v>34.602334740571607</v>
+        <v>36.47930202959104</v>
       </c>
       <c r="M216" s="1">
         <f t="shared" si="13"/>
-        <v>8.6505836851429017</v>
+        <v>4.5599127536988799</v>
       </c>
       <c r="N216" s="1">
         <f t="shared" si="14"/>
-        <v>0.80411203624511718</v>
+        <v>8.6370645554453027</v>
       </c>
       <c r="O216">
         <f t="shared" si="15"/>
-        <v>0.46425430058473655</v>
+        <v>4.9866115460945215</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.3">
@@ -9448,21 +11911,33 @@
       <c r="E217">
         <v>-16.0421461393125</v>
       </c>
+      <c r="F217">
+        <v>1.86635012924671</v>
+      </c>
+      <c r="G217">
+        <v>6.8917498141527096</v>
+      </c>
+      <c r="H217">
+        <v>2.7571561783552099</v>
+      </c>
+      <c r="I217">
+        <v>10.580760195851299</v>
+      </c>
       <c r="L217" s="1">
         <f t="shared" si="12"/>
-        <v>-26.485295376274699</v>
+        <v>-4.3892790586687678</v>
       </c>
       <c r="M217" s="1">
         <f t="shared" si="13"/>
-        <v>-6.6213238440686748</v>
+        <v>-0.54865988233359597</v>
       </c>
       <c r="N217" s="1">
         <f t="shared" si="14"/>
-        <v>8.803900148120027</v>
+        <v>9.0712996764067544</v>
       </c>
       <c r="O217">
         <f t="shared" si="15"/>
-        <v>5.0829341204356844</v>
+        <v>5.2373173100732053</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.3">
@@ -9481,21 +11956,33 @@
       <c r="E218">
         <v>5.2060559354722002</v>
       </c>
+      <c r="F218">
+        <v>2.1396098732948299</v>
+      </c>
+      <c r="G218">
+        <v>10.48653524369</v>
+      </c>
+      <c r="H218">
+        <v>7.47230018302798</v>
+      </c>
+      <c r="I218">
+        <v>-2.20587714016437</v>
+      </c>
       <c r="L218" s="1">
         <f t="shared" si="12"/>
-        <v>-1.366222787648498</v>
+        <v>16.526345372199941</v>
       </c>
       <c r="M218" s="1">
         <f t="shared" si="13"/>
-        <v>-0.34155569691212451</v>
+        <v>2.0657931715249926</v>
       </c>
       <c r="N218" s="1">
         <f t="shared" si="14"/>
-        <v>20.583112190019076</v>
+        <v>14.205465084390118</v>
       </c>
       <c r="O218">
         <f t="shared" si="15"/>
-        <v>11.883665363667781</v>
+        <v>8.2015290904364644</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.3">
@@ -9514,21 +12001,33 @@
       <c r="E219">
         <v>-6.7753780707716897</v>
       </c>
+      <c r="F219">
+        <v>1.7784908283501799</v>
+      </c>
+      <c r="G219">
+        <v>4.4154632445424697</v>
+      </c>
+      <c r="H219">
+        <v>-2.43165906146168</v>
+      </c>
+      <c r="I219">
+        <v>-7.9968948438763601</v>
+      </c>
       <c r="L219" s="1">
         <f t="shared" si="12"/>
-        <v>2.8599098622798893</v>
+        <v>-1.3746899701655</v>
       </c>
       <c r="M219" s="1">
         <f t="shared" si="13"/>
-        <v>0.71497746556997233</v>
+        <v>-0.1718362462706875</v>
       </c>
       <c r="N219" s="1">
         <f t="shared" si="14"/>
-        <v>7.9053066517567157</v>
+        <v>6.3449958633488199</v>
       </c>
       <c r="O219">
         <f t="shared" si="15"/>
-        <v>4.5641309234182792</v>
+        <v>3.6632850697115034</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.3">
@@ -9547,21 +12046,33 @@
       <c r="E220">
         <v>18.629582308232699</v>
       </c>
+      <c r="F220">
+        <v>-0.46950508654117501</v>
+      </c>
+      <c r="G220">
+        <v>0.68227687105536405</v>
+      </c>
+      <c r="H220">
+        <v>8.0168711841106397</v>
+      </c>
+      <c r="I220">
+        <v>-11.388264775276101</v>
+      </c>
       <c r="L220" s="1">
         <f t="shared" si="12"/>
-        <v>59.066550105809974</v>
+        <v>55.907928299158698</v>
       </c>
       <c r="M220" s="1">
         <f t="shared" si="13"/>
-        <v>14.766637526452493</v>
+        <v>6.9884910373948372</v>
       </c>
       <c r="N220" s="1">
         <f t="shared" si="14"/>
-        <v>8.2133974795636338</v>
+        <v>11.202874050336662</v>
       </c>
       <c r="O220">
         <f t="shared" si="15"/>
-        <v>4.742007245787458</v>
+        <v>6.4679823486593451</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.3">
@@ -9580,21 +12091,33 @@
       <c r="E221">
         <v>-5.9540000911802</v>
       </c>
+      <c r="F221">
+        <v>-1.5133897215127901</v>
+      </c>
+      <c r="G221">
+        <v>4.76878090947866</v>
+      </c>
+      <c r="H221">
+        <v>-1.5179223082959601</v>
+      </c>
+      <c r="I221">
+        <v>7.3930990397930101</v>
+      </c>
       <c r="L221" s="1">
         <f t="shared" si="12"/>
-        <v>-19.892174942418848</v>
+        <v>-10.761607022955928</v>
       </c>
       <c r="M221" s="1">
         <f t="shared" si="13"/>
-        <v>-4.9730437356047119</v>
+        <v>-1.3452008778694911</v>
       </c>
       <c r="N221" s="1">
         <f t="shared" si="14"/>
-        <v>6.0722445083076568</v>
+        <v>6.2912435090869341</v>
       </c>
       <c r="O221">
         <f t="shared" si="15"/>
-        <v>3.5058120014566527</v>
+        <v>3.6322511335088272</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.3">
@@ -9613,21 +12136,33 @@
       <c r="E222">
         <v>0.25447462499141599</v>
       </c>
+      <c r="F222">
+        <v>-6.4724689140421097</v>
+      </c>
+      <c r="G222">
+        <v>9.6895403638482005</v>
+      </c>
+      <c r="H222">
+        <v>2.3035868667066</v>
+      </c>
+      <c r="I222">
+        <v>-5.3721819221973401</v>
+      </c>
       <c r="L222" s="1">
         <f t="shared" si="12"/>
-        <v>4.8447138908085856</v>
+        <v>4.9931902851239354</v>
       </c>
       <c r="M222" s="1">
         <f t="shared" si="13"/>
-        <v>1.2111784727021464</v>
+        <v>0.62414878564049192</v>
       </c>
       <c r="N222" s="1">
         <f t="shared" si="14"/>
-        <v>10.893941807893933</v>
+        <v>8.6909815426508672</v>
       </c>
       <c r="O222">
         <f t="shared" si="15"/>
-        <v>6.2896202353236808</v>
+        <v>5.0177405331715477</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.3">
@@ -9646,21 +12181,33 @@
       <c r="E223">
         <v>1.16504703462123</v>
       </c>
+      <c r="F223">
+        <v>-20.062010385095999</v>
+      </c>
+      <c r="G223">
+        <v>-3.1062550991773601</v>
+      </c>
+      <c r="H223">
+        <v>-4.0644858554005596</v>
+      </c>
+      <c r="I223">
+        <v>5.2977392822503999</v>
+      </c>
       <c r="L223" s="1">
         <f t="shared" si="12"/>
-        <v>14.00843374989925</v>
+        <v>-7.9265783075242675</v>
       </c>
       <c r="M223" s="1">
         <f t="shared" si="13"/>
-        <v>3.5021084374748126</v>
+        <v>-0.99082228844053344</v>
       </c>
       <c r="N223" s="1">
         <f t="shared" si="14"/>
-        <v>2.8810588590356674</v>
+        <v>8.6423036960652695</v>
       </c>
       <c r="O223">
         <f t="shared" si="15"/>
-        <v>1.6633801078153987</v>
+        <v>4.9896363653417817</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.3">
@@ -9679,21 +12226,33 @@
       <c r="E224">
         <v>-0.65740597248077304</v>
       </c>
+      <c r="F224">
+        <v>-6.0209355205297399</v>
+      </c>
+      <c r="G224">
+        <v>8.9592171460390002</v>
+      </c>
+      <c r="H224">
+        <v>1.5302612259984001</v>
+      </c>
+      <c r="I224">
+        <v>-2.04236055910587</v>
+      </c>
       <c r="L224" s="1">
         <f t="shared" si="12"/>
-        <v>-30.951601952314206</v>
+        <v>-28.525419659912412</v>
       </c>
       <c r="M224" s="1">
         <f t="shared" si="13"/>
-        <v>-7.7379004880785516</v>
+        <v>-3.5656774574890515</v>
       </c>
       <c r="N224" s="1">
         <f t="shared" si="14"/>
-        <v>6.6128734528461539</v>
+        <v>7.483414312449078</v>
       </c>
       <c r="O224">
         <f t="shared" si="15"/>
-        <v>3.8179442681176572</v>
+        <v>4.3205512677499733</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.3">
@@ -9712,21 +12271,33 @@
       <c r="E225">
         <v>-4.9682100005447802</v>
       </c>
+      <c r="F225">
+        <v>-8.3860317328944003</v>
+      </c>
+      <c r="G225">
+        <v>-10.642624430358399</v>
+      </c>
+      <c r="H225">
+        <v>-4.0861605890095198</v>
+      </c>
+      <c r="I225">
+        <v>2.3191373720765101</v>
+      </c>
       <c r="L225" s="1">
         <f t="shared" si="12"/>
-        <v>-16.511640464886987</v>
+        <v>-37.307319845072797</v>
       </c>
       <c r="M225" s="1">
         <f t="shared" si="13"/>
-        <v>-4.1279101162217469</v>
+        <v>-4.6634149806340996</v>
       </c>
       <c r="N225" s="1">
         <f t="shared" si="14"/>
-        <v>7.7014213873779322</v>
+        <v>6.2994423462489308</v>
       </c>
       <c r="O225">
         <f t="shared" si="15"/>
-        <v>4.4464177111453909</v>
+        <v>3.6369847343513482</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.3">
@@ -9745,21 +12316,33 @@
       <c r="E226">
         <v>-2.58947720378637</v>
       </c>
+      <c r="F226">
+        <v>2.5362556017935201</v>
+      </c>
+      <c r="G226">
+        <v>-3.67984365671873</v>
+      </c>
+      <c r="H226">
+        <v>2.0286349430680199</v>
+      </c>
+      <c r="I226">
+        <v>-13.2571517080068</v>
+      </c>
       <c r="L226" s="1">
         <f t="shared" si="12"/>
-        <v>10.86331684712783</v>
+        <v>-1.5087879727361599</v>
       </c>
       <c r="M226" s="1">
         <f t="shared" si="13"/>
-        <v>2.7158292117819576</v>
+        <v>-0.18859849659201999</v>
       </c>
       <c r="N226" s="1">
         <f t="shared" si="14"/>
-        <v>8.9247836046818225</v>
+        <v>8.1767520465472057</v>
       </c>
       <c r="O226">
         <f t="shared" si="15"/>
-        <v>5.1527262166222094</v>
+        <v>4.7208499951708527</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.3">
@@ -9778,21 +12361,33 @@
       <c r="E227">
         <v>1.4483761936426101</v>
       </c>
+      <c r="F227">
+        <v>4.4936011135578102</v>
+      </c>
+      <c r="G227">
+        <v>3.5101025076583001</v>
+      </c>
+      <c r="H227">
+        <v>-4.39509947970509</v>
+      </c>
+      <c r="I227">
+        <v>-0.475329879671335</v>
+      </c>
       <c r="L227" s="1">
         <f t="shared" si="12"/>
-        <v>3.7673323662020186</v>
+        <v>6.900606628041702</v>
       </c>
       <c r="M227" s="1">
         <f t="shared" si="13"/>
-        <v>0.94183309155050465</v>
+        <v>0.86257582850521275</v>
       </c>
       <c r="N227" s="1">
         <f t="shared" si="14"/>
-        <v>7.8466266432219554</v>
+        <v>5.7861985961349447</v>
       </c>
       <c r="O227">
         <f t="shared" si="15"/>
-        <v>4.5302520046946855</v>
+        <v>3.3406633170631452</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.3">
@@ -9811,21 +12406,33 @@
       <c r="E228">
         <v>0.26744617149233801</v>
       </c>
+      <c r="F228">
+        <v>3.3949903734028299</v>
+      </c>
+      <c r="G228">
+        <v>3.8516393750905902</v>
+      </c>
+      <c r="H228">
+        <v>3.26698442921042</v>
+      </c>
+      <c r="I228">
+        <v>0.10511348396539601</v>
+      </c>
       <c r="L228" s="1">
         <f t="shared" si="12"/>
-        <v>-4.5858193431049541</v>
+        <v>6.0329083185642824</v>
       </c>
       <c r="M228" s="1">
         <f t="shared" si="13"/>
-        <v>-1.1464548357762385</v>
+        <v>0.75411353982053531</v>
       </c>
       <c r="N228" s="1">
         <f t="shared" si="14"/>
-        <v>1.9826027477242325</v>
+        <v>2.6604349670330616</v>
       </c>
       <c r="O228">
         <f t="shared" si="15"/>
-        <v>1.1446562300946774</v>
+        <v>1.5360028443780314</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.3">
@@ -9844,21 +12451,33 @@
       <c r="E229">
         <v>-0.35863619670271801</v>
       </c>
+      <c r="F229">
+        <v>11.090042896568701</v>
+      </c>
+      <c r="G229">
+        <v>-4.8569311760365901</v>
+      </c>
+      <c r="H229">
+        <v>0.84274949878454197</v>
+      </c>
+      <c r="I229">
+        <v>-2.7436777353286699</v>
+      </c>
       <c r="L229" s="1">
         <f t="shared" si="12"/>
-        <v>-0.42934849485754806</v>
+        <v>3.9028349891304348</v>
       </c>
       <c r="M229" s="1">
         <f t="shared" si="13"/>
-        <v>-0.10733712371438701</v>
+        <v>0.48785437364130435</v>
       </c>
       <c r="N229" s="1">
         <f t="shared" si="14"/>
-        <v>6.9510380376559091</v>
+        <v>6.5236896379471085</v>
       </c>
       <c r="O229">
         <f t="shared" si="15"/>
-        <v>4.0131836821879672</v>
+        <v>3.7664539685783356</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.3">
@@ -9877,21 +12496,33 @@
       <c r="E230">
         <v>-8.7712938562035507</v>
       </c>
+      <c r="F230">
+        <v>8.9751820862293208</v>
+      </c>
+      <c r="G230">
+        <v>1.94711416959762</v>
+      </c>
+      <c r="H230">
+        <v>6.2183019146323</v>
+      </c>
+      <c r="I230">
+        <v>6.1442567110061601</v>
+      </c>
       <c r="L230" s="1">
         <f t="shared" si="12"/>
-        <v>-45.806376814842139</v>
+        <v>-22.521521933376736</v>
       </c>
       <c r="M230" s="1">
         <f t="shared" si="13"/>
-        <v>-11.451594203710535</v>
+        <v>-2.815190241672092</v>
       </c>
       <c r="N230" s="1">
         <f t="shared" si="14"/>
-        <v>11.457771640035938</v>
+        <v>12.046099425716312</v>
       </c>
       <c r="O230">
         <f t="shared" si="15"/>
-        <v>6.6151475406880094</v>
+        <v>6.9548187461223092</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.3">
@@ -9910,21 +12541,33 @@
       <c r="E231">
         <v>0.29357986524701102</v>
       </c>
+      <c r="F231">
+        <v>5.9996785148978198</v>
+      </c>
+      <c r="G231">
+        <v>-2.7377344444394098</v>
+      </c>
+      <c r="H231">
+        <v>2.7753397822379999</v>
+      </c>
+      <c r="I231">
+        <v>0.74337254464626301</v>
+      </c>
       <c r="L231" s="1">
         <f t="shared" si="12"/>
-        <v>25.270110849291086</v>
+        <v>32.050767246633754</v>
       </c>
       <c r="M231" s="1">
         <f t="shared" si="13"/>
-        <v>6.3175277123227715</v>
+        <v>4.0063459058292192</v>
       </c>
       <c r="N231" s="1">
         <f t="shared" si="14"/>
-        <v>17.694165098451485</v>
+        <v>12.084435366310831</v>
       </c>
       <c r="O231">
         <f t="shared" si="15"/>
-        <v>10.215730982676646</v>
+        <v>6.976952011744193</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.3">
@@ -9943,21 +12586,33 @@
       <c r="E232">
         <v>15.637747641652799</v>
       </c>
+      <c r="F232">
+        <v>9.8704523667693103</v>
+      </c>
+      <c r="G232">
+        <v>3.0247690230607902</v>
+      </c>
+      <c r="H232">
+        <v>-0.35260877013206399</v>
+      </c>
+      <c r="I232">
+        <v>3.7616134732961601</v>
+      </c>
       <c r="L232" s="1">
         <f t="shared" si="12"/>
-        <v>52.677842933684481</v>
+        <v>68.982069026678673</v>
       </c>
       <c r="M232" s="1">
         <f t="shared" si="13"/>
-        <v>13.16946073342112</v>
+        <v>8.6227586283348341</v>
       </c>
       <c r="N232" s="1">
         <f t="shared" si="14"/>
-        <v>7.5301652049566661</v>
+        <v>7.4630742766628577</v>
       </c>
       <c r="O232">
         <f t="shared" si="15"/>
-        <v>4.3475429081240851</v>
+        <v>4.3088079426134724</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.3">
@@ -9969,7 +12624,7 @@
         <v>160887.2572864072</v>
       </c>
       <c r="C240">
-        <f t="shared" ref="C240:E240" si="16">SUM(C123:C232)</f>
+        <f t="shared" ref="C240:I240" si="16">SUM(C123:C232)</f>
         <v>179135.89259480289</v>
       </c>
       <c r="D240">
@@ -9980,8 +12635,24 @@
         <f t="shared" si="16"/>
         <v>198018.17817689409</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <f>SUM(F123:F232)</f>
+        <v>187593.34230175277</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="16"/>
+        <v>197476.66285654757</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="16"/>
+        <v>192543.13880156647</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="16"/>
+        <v>182211.65395871975</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -10001,8 +12672,24 @@
         <f t="shared" si="17"/>
         <v>194520</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241">
+        <f>SUM(F3:F112)</f>
+        <v>186904</v>
+      </c>
+      <c r="G241">
+        <f t="shared" ref="G241:I241" si="18">SUM(G3:G112)</f>
+        <v>196497</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="18"/>
+        <v>193015</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="18"/>
+        <v>183450</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -10011,19 +12698,35 @@
         <v>-463.74271359280101</v>
       </c>
       <c r="C242">
-        <f t="shared" ref="C242:E242" si="18">C240-C241</f>
+        <f t="shared" ref="C242:E242" si="19">C240-C241</f>
         <v>-2383.1074051971082</v>
       </c>
       <c r="D242">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1577.4646576145897</v>
       </c>
       <c r="E242">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3498.1781768940855</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242">
+        <f>F240-F241</f>
+        <v>689.34230175276753</v>
+      </c>
+      <c r="G242">
+        <f t="shared" ref="G242:I242" si="20">G240-G241</f>
+        <v>979.66285654756939</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="20"/>
+        <v>-471.86119843352935</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="20"/>
+        <v>-1238.3460412802524</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -10032,19 +12735,35 @@
         <v>-2.8741235789849521E-3</v>
       </c>
       <c r="C243">
-        <f t="shared" ref="C243:E243" si="19">C242/C241</f>
+        <f t="shared" ref="C243:E243" si="21">C242/C241</f>
         <v>-1.312869399455213E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8.1809371213585058E-3</v>
       </c>
       <c r="E243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.7983642694294085E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243">
+        <f>F242/F241</f>
+        <v>3.6882158849075863E-3</v>
+      </c>
+      <c r="G243">
+        <f t="shared" ref="G243:I243" si="22">G242/G241</f>
+        <v>4.9856377275356335E-3</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="22"/>
+        <v>-2.4446866742664007E-3</v>
+      </c>
+      <c r="I243">
+        <f t="shared" si="22"/>
+        <v>-6.7503191130021938E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>10</v>
       </c>
@@ -10057,12 +12776,28 @@
         <v>31.287087878983982</v>
       </c>
       <c r="D244">
-        <f t="shared" ref="C244:E244" si="20">(D241-D240)^2/D241</f>
+        <f t="shared" ref="D244:E244" si="23">(D241-D240)^2/D241</f>
         <v>12.905139175110282</v>
       </c>
       <c r="E244">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>62.909986414240322</v>
+      </c>
+      <c r="F244">
+        <f>(F241-F240)^2/F241</f>
+        <v>2.5424432274633162</v>
+      </c>
+      <c r="G244">
+        <f>(G241-G240)^2/G241</f>
+        <v>4.8842440978688915</v>
+      </c>
+      <c r="H244">
+        <f t="shared" ref="H244:I244" si="24">(H241-H240)^2/H241</f>
+        <v>1.1535527839138231</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="24"/>
+        <v>8.3592309509646903</v>
       </c>
     </row>
   </sheetData>

--- a/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Target</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>Std/sqrt(3)</t>
+  </si>
+  <si>
+    <t>true-out</t>
+  </si>
+  <si>
+    <t>1/root(true)</t>
+  </si>
+  <si>
+    <t>r/s</t>
+  </si>
+  <si>
+    <t>chisq</t>
   </si>
 </sst>
 </file>
@@ -1325,11 +1337,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118762232"/>
-        <c:axId val="118760664"/>
+        <c:axId val="313566880"/>
+        <c:axId val="313567664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118762232"/>
+        <c:axId val="313566880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118760664"/>
+        <c:crossAx val="313567664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1450,7 +1462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118760664"/>
+        <c:axId val="313567664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118762232"/>
+        <c:crossAx val="313566880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1691,7 +1703,1842 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>relative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> error</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$R$130:$R$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>-2.4315509963780584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9938397216144885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.20464890981640621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5174480604062502E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5619465779506934E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1065423317759478E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.1652621929469556E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.0280259004677427E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6226703084207966E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8204091973367642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8073296462906202E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1190273187198669E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7301059239082027E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4381130125347068E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.855267711991198E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6659833624698089E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.5832339617510859E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9501404703416523E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7241703942011172E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0249294495233826E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2962361025349802E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0674132512573819E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.5977886857159799E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6852837267531325E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.9335463770812261E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.7317726222970295E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.1095481454550518E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5724800740679179E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.7176888031028418E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.3797588885797796E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.4439143573622728E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2980955315924211E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3622296168745154E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0387855947005165E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8210754583344725E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5962085332337987E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.5476208946703146E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.2664560537708695E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.0426043723433173E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.9831749146953212E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.7735251709563549E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5841652835281483E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1770937790127849E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.4028904120963722E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.8520266222517291E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5643021283019456E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.8574833723739889E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.68410812929713E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1710508748742625E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6111014793742397E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4771466632292573E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.8927156627950556E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9874230704888061E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.7623110890781911E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4637329296378558E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.7069768941649958E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.269873152410681E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-7.9408428086733575E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.4710713540224627E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.8998924569152238E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.222335013651232E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.8048837312870945E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.8351337706645958E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.2110959267564682E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.4659712607531992E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.1508256459648956E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-5.1833460452901506E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.3216629575675804E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.1919830559787733E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.4295221495194856E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.5082914978035668E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2833077710346004E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-5.5109271980650534E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.6451789476461198E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.11958370045414075</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.10518720072330305</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.9402257020747437E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.20127952219993933</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.7945040217783159E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.35286669858748065</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3980572506473667E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0586891709219752E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-6.0601809734682988E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.12116702294092691</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.6368495187722012</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.55949035306232231</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.10543339483609211</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.2194639529334386</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.13019234883158204</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1963842814522143</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.7271952199439133</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6904017557389821</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.24829757128098384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446299424"/>
+        <c:axId val="446301384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446299424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446301384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446301384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446299424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1/root(true)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$S$130:$S$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1.6329931618554523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19802950859533489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8954139199058683E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8239119393494044E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.004407273335673E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3840027153248686E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8713886396267204E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5479257578373642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3065580739059788E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0825990392946817E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9282539322832151E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8267316060998445E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7176718136839322E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6238709775341649E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5591727976114366E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5172209934815136E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4521950407133924E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4174953192277748E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3944479031314379E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3686115720737697E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3550838384546319E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.337336474903855E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3294980928779005E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3220124979025265E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3168015154181935E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3212910564542248E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3328743112218882E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3435230372511476E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3499192392788215E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3763839347353903E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3847214960382929E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4183148764245436E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.432376666040793E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4712247158412491E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.504418666962188E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5353757178626857E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5715666909482562E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6153476372506338E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6635792022840736E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7044904292704971E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7657678008211362E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.844199375737695E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8984015070124632E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9416560651186562E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0502847851135975E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1142428689408906E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1976031725940863E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2777329617136386E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3806993438741434E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5030328537576901E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6423514707860023E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7529308506178359E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8987029394585629E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0718378505606096E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2064707742092177E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.430476221747198E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.6040423985645734E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7942399730627178E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1567556712637267E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3003295253753064E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.6480215984769452E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8400476747043952E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.1786715433664143E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.4242586434973504E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0233860193683417E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.291610618605574E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7943155358499832E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.474350927519359E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8027431464087041E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.6226122711845377E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.067521068905561E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.10044039219036507</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11340959542474854</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.11206636293610515</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.131448155980155</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14724203476646205</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.17087153154335219</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.18107149208503706</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.17474081133220759</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.19950186722152657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.23570226039551587</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26607604209509572</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.31622776601683794</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.38851434494290565</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.4923659639173309</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.64888568452305018</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0690449676496976</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.73029674334022143</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446603840"/>
+        <c:axId val="446603448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446603840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446603448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446603448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446603840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>chi squared</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$U$130:$U$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>2.2171650929951729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9384920887193537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0679699953706108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12635355225880876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27246327703415069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16873672064632289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0819525272433808E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35915803655043049</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.591745635082159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51046327630695099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61396831315097522</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28871546716328944</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12181908909662181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61977855610952803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0914216673443742E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35431459851514646</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17827485060696144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7808348200483205E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5767175102318512E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4560695857295516E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7116179151983191E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13709203714883716</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2370633800863137</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8072694476029233E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27197902479194308</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.34204797662899389</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.099890788342075E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.790592057389728E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1573927522290111E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0546689632006596</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10837167534729529</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8894757661747742</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8956252549206369E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53642192533845368</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8789566898641513E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.9749147063006589E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0582584429646409</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.68037901910756915</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.401223800917199E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.5165659519165932E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34515606336066823</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.14921494219897316</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5201522527960705</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57867104599317587</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.13027525844172089</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.11429639059989713</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.5398083363963329E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0363720690174647E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.28395726137903304</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.003111475362693E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.38497996707612342</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.12622219045645797</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2772120093756822E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.10130869717294219</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.25498595805355656</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4562742936082078E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.568433505302973E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3582672589122457E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.16660487086755432</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0564663581534649E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60094176016423051</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.42542818124205961</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.37205816114344031</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75699147760422358</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.44793312594793899</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.3374177802650426</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.74052378845776512</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0095759621461864E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.0778591359353479E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.10565614396260349</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.10333831845838888</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2150520333410337E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.36937899975811328</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.3171065426709301E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1118453249622653</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.88099864548185403</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.14124874105230836</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8686826993807795</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1499874824003741E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.7977046626468511</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.4011973491871323E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.138830643772527E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.6106428176136919E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.20737544520818535</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.0557730956038416</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.0738201404999388</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5854328079986087E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7177308312601185</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.0256363273925316E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2524184302926895</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13.945488314409241</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.8095325593806812</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.0825841952017628E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="453469440"/>
+        <c:axId val="453470224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="453469440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453470224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="453470224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453469440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2247,6 +4094,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2267,7 +5662,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,6 +5675,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2585,10 +6070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O244"/>
+  <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="N242" sqref="N242"/>
+    <sheetView tabSelected="1" topLeftCell="K139" workbookViewId="0">
+      <selection activeCell="AB179" sqref="AB179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7606,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -7627,7 +11112,7 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>0</v>
       </c>
@@ -7664,8 +11149,23 @@
       <c r="O122" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0</v>
       </c>
@@ -7710,7 +11210,7 @@
         <v>2.9714143655398599</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -7755,7 +11255,7 @@
         <v>4.5148515219886916</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2</v>
       </c>
@@ -7800,7 +11300,7 @@
         <v>6.3103509034903951</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>3</v>
       </c>
@@ -7845,7 +11345,7 @@
         <v>5.3937105119907311</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>4</v>
       </c>
@@ -7890,7 +11390,7 @@
         <v>4.8119719731478785</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
@@ -7935,7 +11435,7 @@
         <v>4.6731426192402976</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>6</v>
       </c>
@@ -7980,7 +11480,7 @@
         <v>6.7349291446934236</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>7</v>
       </c>
@@ -8024,8 +11524,28 @@
         <f t="shared" si="11"/>
         <v>2.2224634773968348</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q130">
+        <f>M10-M130</f>
+        <v>-0.91183162364177184</v>
+      </c>
+      <c r="R130">
+        <f>Q130/M10</f>
+        <v>-2.4315509963780584</v>
+      </c>
+      <c r="S130">
+        <f>1/SQRT(M10)</f>
+        <v>1.6329931618554523</v>
+      </c>
+      <c r="T130">
+        <f>R130/S130</f>
+        <v>-1.4890148061705675</v>
+      </c>
+      <c r="U130">
+        <f>Q130*Q130/M10</f>
+        <v>2.2171650929951729</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>8</v>
       </c>
@@ -8069,8 +11589,28 @@
         <f t="shared" si="11"/>
         <v>7.0166435905729099</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q131">
+        <f>M11-M131</f>
+        <v>-4.9845993040362213</v>
+      </c>
+      <c r="R131">
+        <f t="shared" ref="R131:R194" si="12">Q131/M11</f>
+        <v>-1.9938397216144885</v>
+      </c>
+      <c r="S131">
+        <f t="shared" ref="S131:S194" si="13">1/SQRT(M11)</f>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="T131">
+        <f t="shared" ref="T131:T194" si="14">R131/S131</f>
+        <v>-3.1525374048089185</v>
+      </c>
+      <c r="U131">
+        <f t="shared" ref="U131:U194" si="15">Q131*Q131/M11</f>
+        <v>9.9384920887193537</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>9</v>
       </c>
@@ -8114,8 +11654,28 @@
         <f t="shared" si="11"/>
         <v>6.3931236843682839</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q132">
+        <f t="shared" ref="Q132:Q195" si="16">M12-M132</f>
+        <v>-5.2185472003183584</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="12"/>
+        <v>-0.20464890981640621</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="13"/>
+        <v>0.19802950859533489</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="14"/>
+        <v>-1.033426337660605</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="15"/>
+        <v>1.0679699953706108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>10</v>
       </c>
@@ -8159,8 +11719,28 @@
         <f t="shared" si="11"/>
         <v>4.859679600639808</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q133">
+        <f t="shared" si="16"/>
+        <v>3.5921938316898832</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="12"/>
+        <v>3.5174480604062502E-2</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="13"/>
+        <v>9.8954139199058683E-2</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="14"/>
+        <v>0.35546244845104069</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="15"/>
+        <v>0.12635355225880876</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>11</v>
       </c>
@@ -8204,8 +11784,28 @@
         <f t="shared" si="11"/>
         <v>7.3570421967095108</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q134">
+        <f t="shared" si="16"/>
+        <v>-7.6492802761491134</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="12"/>
+        <v>-3.5619465779506934E-2</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="13"/>
+        <v>6.8239119393494044E-2</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="14"/>
+        <v>-0.52198015003843845</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="15"/>
+        <v>0.27246327703415069</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>12</v>
       </c>
@@ -8249,8 +11849,28 @@
         <f t="shared" si="11"/>
         <v>8.8986771454572722</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q135">
+        <f t="shared" si="16"/>
+        <v>8.0101272165780415</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="12"/>
+        <v>2.1065423317759478E-2</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="13"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="14"/>
+        <v>0.41077575469630984</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="15"/>
+        <v>0.16873672064632289</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13</v>
       </c>
@@ -8294,8 +11914,28 @@
         <f t="shared" si="11"/>
         <v>15.778299207803659</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q136">
+        <f t="shared" si="16"/>
+        <v>-2.5975616350765449</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="12"/>
+        <v>-4.1652621929469556E-3</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="13"/>
+        <v>4.004407273335673E-2</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="14"/>
+        <v>-0.10401694704438219</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="15"/>
+        <v>1.0819525272433808E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14</v>
       </c>
@@ -8339,8 +11979,28 @@
         <f t="shared" si="11"/>
         <v>22.16730574830552</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q137">
+        <f t="shared" si="16"/>
+        <v>-17.709736175834564</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="12"/>
+        <v>-2.0280259004677427E-2</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="13"/>
+        <v>3.3840027153248686E-2</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="14"/>
+        <v>-0.59929795306711198</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="15"/>
+        <v>0.35915803655043049</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>15</v>
       </c>
@@ -8384,8 +12044,28 @@
         <f t="shared" si="11"/>
         <v>30.846310812206699</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q138">
+        <f t="shared" si="16"/>
+        <v>43.938462503258734</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="12"/>
+        <v>3.6226703084207966E-2</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="13"/>
+        <v>2.8713886396267204E-2</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="14"/>
+        <v>1.2616440207452178</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="15"/>
+        <v>1.591745635082159</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>16</v>
       </c>
@@ -8429,8 +12109,28 @@
         <f t="shared" si="11"/>
         <v>44.598174338056609</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q139">
+        <f t="shared" si="16"/>
+        <v>28.041128173476181</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="12"/>
+        <v>1.8204091973367642E-2</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="13"/>
+        <v>2.5479257578373642E-2</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="14"/>
+        <v>0.7144671275201897</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="15"/>
+        <v>0.51046327630695099</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>17</v>
       </c>
@@ -8474,8 +12174,28 @@
         <f t="shared" si="11"/>
         <v>51.498005143226635</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q140">
+        <f t="shared" si="16"/>
+        <v>33.971019864090067</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="12"/>
+        <v>1.8073296462906202E-2</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="13"/>
+        <v>2.3065580739059788E-2</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="14"/>
+        <v>0.78356130146337322</v>
+      </c>
+      <c r="U140">
+        <f t="shared" si="15"/>
+        <v>0.61396831315097522</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>18</v>
       </c>
@@ -8519,8 +12239,28 @@
         <f t="shared" si="11"/>
         <v>61.869942163004914</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q141">
+        <f t="shared" si="16"/>
+        <v>25.800573617234932</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="12"/>
+        <v>1.1190273187198669E-2</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="13"/>
+        <v>2.0825990392946817E-2</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="14"/>
+        <v>0.53732249828505163</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="15"/>
+        <v>0.28871546716328944</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>19</v>
       </c>
@@ -8564,8 +12304,28 @@
         <f t="shared" si="11"/>
         <v>79.166133845853551</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q142">
+        <f t="shared" si="16"/>
+        <v>18.100619882351111</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="12"/>
+        <v>6.7301059239082027E-3</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="13"/>
+        <v>1.9282539322832151E-2</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="14"/>
+        <v>0.34902591464907273</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="15"/>
+        <v>0.12181908909662181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>20</v>
       </c>
@@ -8609,8 +12369,28 @@
         <f t="shared" si="11"/>
         <v>87.001780624655879</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q143">
+        <f t="shared" si="16"/>
+        <v>43.09665170313383</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="12"/>
+        <v>1.4381130125347068E-2</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="13"/>
+        <v>1.8267316060998445E-2</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="14"/>
+        <v>0.78726015783191261</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="15"/>
+        <v>0.61977855610952803</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>21</v>
       </c>
@@ -8654,8 +12434,28 @@
         <f t="shared" si="11"/>
         <v>98.788690116302405</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q144">
+        <f t="shared" si="16"/>
+        <v>-2.6624448001330165</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="12"/>
+        <v>-7.855267711991198E-4</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="13"/>
+        <v>1.7176718136839322E-2</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="14"/>
+        <v>-4.5732063886778321E-2</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="15"/>
+        <v>2.0914216673443742E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>22</v>
       </c>
@@ -8699,8 +12499,28 @@
         <f t="shared" si="11"/>
         <v>127.37023731919088</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q145">
+        <f t="shared" si="16"/>
+        <v>36.65582540632613</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="12"/>
+        <v>9.6659833624698089E-3</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="13"/>
+        <v>1.6238709775341649E-2</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="14"/>
+        <v>0.59524331034892486</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="15"/>
+        <v>0.35431459851514646</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>23</v>
       </c>
@@ -8744,8 +12564,28 @@
         <f t="shared" si="11"/>
         <v>127.60080594763667</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q146">
+        <f t="shared" si="16"/>
+        <v>-27.080132901663092</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="12"/>
+        <v>-6.5832339617510859E-3</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="13"/>
+        <v>1.5591727976114366E-2</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="14"/>
+        <v>-0.42222606575975563</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="15"/>
+        <v>0.17827485060696144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>24</v>
       </c>
@@ -8789,8 +12629,28 @@
         <f t="shared" si="11"/>
         <v>123.99402705262668</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q147">
+        <f t="shared" si="16"/>
+        <v>12.815778970722931</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="12"/>
+        <v>2.9501404703416523E-3</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="13"/>
+        <v>1.5172209934815136E-2</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="14"/>
+        <v>0.1944436890219973</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="15"/>
+        <v>3.7808348200483205E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>25</v>
       </c>
@@ -8834,8 +12694,28 @@
         <f t="shared" si="11"/>
         <v>139.74805010107366</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q148">
+        <f t="shared" si="16"/>
+        <v>17.659550488002424</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="12"/>
+        <v>3.7241703942011172E-3</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="13"/>
+        <v>1.4521950407133924E-2</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="14"/>
+        <v>0.25645111639904888</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="15"/>
+        <v>6.5767175102318512E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>26</v>
       </c>
@@ -8879,8 +12759,28 @@
         <f t="shared" si="11"/>
         <v>159.13610333677141</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q149">
+        <f t="shared" si="16"/>
+        <v>3.4962195754096683</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="12"/>
+        <v>7.0249294495233826E-4</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="13"/>
+        <v>1.4174953192277748E-2</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="14"/>
+        <v>4.9558748831357226E-2</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="15"/>
+        <v>2.4560695857295516E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>27</v>
       </c>
@@ -8924,8 +12824,28 @@
         <f t="shared" si="11"/>
         <v>160.97551567408595</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q150">
+        <f t="shared" si="16"/>
+        <v>11.808968216311769</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="12"/>
+        <v>2.2962361025349802E-3</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="13"/>
+        <v>1.3944479031314379E-2</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="14"/>
+        <v>0.16466990967381745</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="15"/>
+        <v>2.7116179151983191E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>28</v>
       </c>
@@ -8969,8 +12889,28 @@
         <f t="shared" si="11"/>
         <v>148.9450219026231</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q151">
+        <f t="shared" si="16"/>
+        <v>27.053652495150345</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="12"/>
+        <v>5.0674132512573819E-3</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="13"/>
+        <v>1.3686115720737697E-2</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="14"/>
+        <v>0.37025941871725182</v>
+      </c>
+      <c r="U151">
+        <f t="shared" si="15"/>
+        <v>0.13709203714883716</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>29</v>
       </c>
@@ -9014,8 +12954,28 @@
         <f t="shared" si="11"/>
         <v>165.8913961162078</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q152">
+        <f t="shared" si="16"/>
+        <v>-35.930732458823513</v>
+      </c>
+      <c r="R152">
+        <f t="shared" si="12"/>
+        <v>-6.5977886857159799E-3</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="13"/>
+        <v>1.3550838384546319E-2</v>
+      </c>
+      <c r="T152">
+        <f t="shared" si="14"/>
+        <v>-0.48689154858789008</v>
+      </c>
+      <c r="U152">
+        <f t="shared" si="15"/>
+        <v>0.2370633800863137</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>30</v>
       </c>
@@ -9059,8 +13019,28 @@
         <f t="shared" si="11"/>
         <v>184.70495778086209</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q153">
+        <f t="shared" si="16"/>
+        <v>3.1788553297674298</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="12"/>
+        <v>5.6852837267531325E-4</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="13"/>
+        <v>1.337336474903855E-2</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="14"/>
+        <v>4.2511991809405063E-2</v>
+      </c>
+      <c r="U153">
+        <f t="shared" si="15"/>
+        <v>1.8072694476029233E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>31</v>
       </c>
@@ -9104,8 +13084,28 @@
         <f t="shared" si="11"/>
         <v>194.41964039207099</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q154">
+        <f t="shared" si="16"/>
+        <v>-39.226538628337039</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="12"/>
+        <v>-6.9335463770812261E-3</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="13"/>
+        <v>1.3294980928779005E-2</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="14"/>
+        <v>-0.5215160829657538</v>
+      </c>
+      <c r="U154">
+        <f t="shared" si="15"/>
+        <v>0.27197902479194308</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>32</v>
       </c>
@@ -9149,8 +13149,28 @@
         <f t="shared" si="11"/>
         <v>188.54038870800295</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q155">
+        <f t="shared" si="16"/>
+        <v>-44.239270001628029</v>
+      </c>
+      <c r="R155">
+        <f t="shared" si="12"/>
+        <v>-7.7317726222970295E-3</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="13"/>
+        <v>1.3220124979025265E-2</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="14"/>
+        <v>-0.58484867840236576</v>
+      </c>
+      <c r="U155">
+        <f t="shared" si="15"/>
+        <v>0.34204797662899389</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>33</v>
       </c>
@@ -9194,8 +13214,28 @@
         <f t="shared" si="11"/>
         <v>172.6194136590961</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q156">
+        <f t="shared" si="16"/>
+        <v>-6.3989028483574657</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="12"/>
+        <v>-1.1095481454550518E-3</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="13"/>
+        <v>1.3168015154181935E-2</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="14"/>
+        <v>-8.4260849677309069E-2</v>
+      </c>
+      <c r="U156">
+        <f t="shared" si="15"/>
+        <v>7.099890788342075E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>34</v>
       </c>
@@ -9239,8 +13279,28 @@
         <f t="shared" si="11"/>
         <v>194.22907063807983</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q157">
+        <f t="shared" si="16"/>
+        <v>14.735165864261035</v>
+      </c>
+      <c r="R157">
+        <f t="shared" si="12"/>
+        <v>2.5724800740679179E-3</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="13"/>
+        <v>1.3212910564542248E-2</v>
+      </c>
+      <c r="T157">
+        <f t="shared" si="14"/>
+        <v>0.19469442871817697</v>
+      </c>
+      <c r="U157">
+        <f t="shared" si="15"/>
+        <v>3.790592057389728E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>35</v>
       </c>
@@ -9284,8 +13344,28 @@
         <f t="shared" si="11"/>
         <v>199.17683423968737</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q158">
+        <f t="shared" si="16"/>
+        <v>-15.297530561565509</v>
+      </c>
+      <c r="R158">
+        <f t="shared" si="12"/>
+        <v>-2.7176888031028418E-3</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="13"/>
+        <v>1.3328743112218882E-2</v>
+      </c>
+      <c r="T158">
+        <f t="shared" si="14"/>
+        <v>-0.20389685510642411</v>
+      </c>
+      <c r="U158">
+        <f t="shared" si="15"/>
+        <v>4.1573927522290111E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>36</v>
       </c>
@@ -9329,8 +13409,28 @@
         <f t="shared" si="11"/>
         <v>192.46860634449365</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q159">
+        <f t="shared" si="16"/>
+        <v>-76.438642427319792</v>
+      </c>
+      <c r="R159">
+        <f t="shared" si="12"/>
+        <v>-1.3797588885797796E-2</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="13"/>
+        <v>1.3435230372511476E-2</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="14"/>
+        <v>-1.0269707703730713</v>
+      </c>
+      <c r="U159">
+        <f t="shared" si="15"/>
+        <v>1.0546689632006596</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>37</v>
       </c>
@@ -9374,8 +13474,28 @@
         <f t="shared" si="11"/>
         <v>201.30707622383616</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q160">
+        <f t="shared" si="16"/>
+        <v>-24.386535525320141</v>
+      </c>
+      <c r="R160">
+        <f t="shared" si="12"/>
+        <v>-4.4439143573622728E-3</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="13"/>
+        <v>1.3499192392788215E-2</v>
+      </c>
+      <c r="T160">
+        <f t="shared" si="14"/>
+        <v>-0.32919853484986122</v>
+      </c>
+      <c r="U160">
+        <f t="shared" si="15"/>
+        <v>0.10837167534729529</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>38</v>
       </c>
@@ -9419,8 +13539,28 @@
         <f t="shared" si="11"/>
         <v>179.91270516704478</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q161">
+        <f t="shared" si="16"/>
+        <v>-68.521595254520435</v>
+      </c>
+      <c r="R161">
+        <f t="shared" si="12"/>
+        <v>-1.2980955315924211E-2</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="13"/>
+        <v>1.3763839347353903E-2</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="14"/>
+        <v>-0.94312022890762659</v>
+      </c>
+      <c r="U161">
+        <f t="shared" si="15"/>
+        <v>0.8894757661747742</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>39</v>
       </c>
@@ -9464,8 +13604,28 @@
         <f t="shared" si="11"/>
         <v>184.18345042991567</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q162">
+        <f t="shared" si="16"/>
+        <v>17.534868009404818</v>
+      </c>
+      <c r="R162">
+        <f t="shared" si="12"/>
+        <v>3.3622296168745154E-3</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="13"/>
+        <v>1.3847214960382929E-2</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="14"/>
+        <v>0.24280908662817036</v>
+      </c>
+      <c r="U162">
+        <f t="shared" si="15"/>
+        <v>5.8956252549206369E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>40</v>
       </c>
@@ -9509,8 +13669,28 @@
         <f t="shared" si="11"/>
         <v>187.75897879963719</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q163">
+        <f t="shared" si="16"/>
+        <v>-51.639330394556055</v>
+      </c>
+      <c r="R163">
+        <f t="shared" si="12"/>
+        <v>-1.0387855947005165E-2</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="13"/>
+        <v>1.4183148764245436E-2</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="14"/>
+        <v>-0.73240830507200949</v>
+      </c>
+      <c r="U163">
+        <f t="shared" si="15"/>
+        <v>0.53642192533845368</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>41</v>
       </c>
@@ -9554,8 +13734,28 @@
         <f t="shared" si="11"/>
         <v>187.25765025962457</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q164">
+        <f t="shared" si="16"/>
+        <v>13.749921783922218</v>
+      </c>
+      <c r="R164">
+        <f t="shared" si="12"/>
+        <v>2.8210754583344725E-3</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="13"/>
+        <v>1.432376666040793E-2</v>
+      </c>
+      <c r="T164">
+        <f t="shared" si="14"/>
+        <v>0.19695067123176177</v>
+      </c>
+      <c r="U164">
+        <f t="shared" si="15"/>
+        <v>3.8789566898641513E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>42</v>
       </c>
@@ -9599,8 +13799,28 @@
         <f t="shared" si="11"/>
         <v>166.56882785036413</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q165">
+        <f t="shared" si="16"/>
+        <v>16.61448342354015</v>
+      </c>
+      <c r="R165">
+        <f t="shared" si="12"/>
+        <v>3.5962085332337987E-3</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="13"/>
+        <v>1.4712247158412491E-2</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="14"/>
+        <v>0.24443638653647004</v>
+      </c>
+      <c r="U165">
+        <f t="shared" si="15"/>
+        <v>5.9749147063006589E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>43</v>
       </c>
@@ -9644,8 +13864,28 @@
         <f t="shared" si="11"/>
         <v>174.23116527553003</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q166">
+        <f t="shared" si="16"/>
+        <v>-68.379694704889516</v>
+      </c>
+      <c r="R166">
+        <f t="shared" si="12"/>
+        <v>-1.5476208946703146E-2</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="13"/>
+        <v>1.504418666962188E-2</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="14"/>
+        <v>-1.0287168915521123</v>
+      </c>
+      <c r="U166">
+        <f t="shared" si="15"/>
+        <v>1.0582584429646409</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>44</v>
       </c>
@@ -9689,8 +13929,28 @@
         <f t="shared" si="11"/>
         <v>170.88839722408019</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q167">
+        <f t="shared" si="16"/>
+        <v>-53.723065800960285</v>
+      </c>
+      <c r="R167">
+        <f t="shared" si="12"/>
+        <v>-1.2664560537708695E-2</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="13"/>
+        <v>1.5353757178626857E-2</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="14"/>
+        <v>-0.82485090719933696</v>
+      </c>
+      <c r="U167">
+        <f t="shared" si="15"/>
+        <v>0.68037901910756915</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>45</v>
       </c>
@@ -9734,8 +13994,28 @@
         <f t="shared" si="11"/>
         <v>166.03404974072637</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q168">
+        <f t="shared" si="16"/>
+        <v>-4.2213747780715494</v>
+      </c>
+      <c r="R168">
+        <f t="shared" si="12"/>
+        <v>-1.0426043723433173E-3</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="13"/>
+        <v>1.5715666909482562E-2</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="14"/>
+        <v>-6.6341719912263342E-2</v>
+      </c>
+      <c r="U168">
+        <f t="shared" si="15"/>
+        <v>4.401223800917199E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>46</v>
       </c>
@@ -9779,8 +14059,28 @@
         <f t="shared" si="11"/>
         <v>163.63878386306075</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q169">
+        <f t="shared" si="16"/>
+        <v>-19.097394963705483</v>
+      </c>
+      <c r="R169">
+        <f t="shared" si="12"/>
+        <v>-4.9831749146953212E-3</v>
+      </c>
+      <c r="S169">
+        <f t="shared" si="13"/>
+        <v>1.6153476372506338E-2</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="14"/>
+        <v>-0.3084893183226381</v>
+      </c>
+      <c r="U169">
+        <f t="shared" si="15"/>
+        <v>9.5165659519165932E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>47</v>
       </c>
@@ -9824,8 +14124,28 @@
         <f t="shared" si="11"/>
         <v>172.49458936916221</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q170">
+        <f t="shared" si="16"/>
+        <v>35.315411514604421</v>
+      </c>
+      <c r="R170">
+        <f t="shared" si="12"/>
+        <v>9.7735251709563549E-3</v>
+      </c>
+      <c r="S170">
+        <f t="shared" si="13"/>
+        <v>1.6635792022840736E-2</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="14"/>
+        <v>0.58749984115799392</v>
+      </c>
+      <c r="U170">
+        <f t="shared" si="15"/>
+        <v>0.34515606336066823</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>48</v>
       </c>
@@ -9869,8 +14189,28 @@
         <f t="shared" si="11"/>
         <v>153.56384403135536</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q171">
+        <f t="shared" si="16"/>
+        <v>22.662696905903886</v>
+      </c>
+      <c r="R171">
+        <f t="shared" si="12"/>
+        <v>6.5841652835281483E-3</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="13"/>
+        <v>1.7044904292704971E-2</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="14"/>
+        <v>0.38628349977571291</v>
+      </c>
+      <c r="U171">
+        <f t="shared" si="15"/>
+        <v>0.14921494219897316</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>49</v>
       </c>
@@ -9914,8 +14254,28 @@
         <f t="shared" si="11"/>
         <v>145.42926778058435</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q172">
+        <f t="shared" si="16"/>
+        <v>69.82484022738754</v>
+      </c>
+      <c r="R172">
+        <f t="shared" si="12"/>
+        <v>2.1770937790127849E-2</v>
+      </c>
+      <c r="S172">
+        <f t="shared" si="13"/>
+        <v>1.7657678008211362E-2</v>
+      </c>
+      <c r="T172">
+        <f t="shared" si="14"/>
+        <v>1.2329445457100132</v>
+      </c>
+      <c r="U172">
+        <f t="shared" si="15"/>
+        <v>1.5201522527960705</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>50</v>
       </c>
@@ -9959,8 +14319,28 @@
         <f t="shared" si="11"/>
         <v>157.0772886076804</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q173">
+        <f t="shared" si="16"/>
+        <v>-41.248485341663581</v>
+      </c>
+      <c r="R173">
+        <f t="shared" si="12"/>
+        <v>-1.4028904120963722E-2</v>
+      </c>
+      <c r="S173">
+        <f t="shared" si="13"/>
+        <v>1.844199375737695E-2</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="14"/>
+        <v>-0.76070430917221432</v>
+      </c>
+      <c r="U173">
+        <f t="shared" si="15"/>
+        <v>0.57867104599317587</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>51</v>
       </c>
@@ -10004,8 +14384,28 @@
         <f t="shared" si="11"/>
         <v>141.74665856135411</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q174">
+        <f t="shared" si="16"/>
+        <v>-19.012660870092986</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="12"/>
+        <v>-6.8520266222517291E-3</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="13"/>
+        <v>1.8984015070124632E-2</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="14"/>
+        <v>-0.36093664048101415</v>
+      </c>
+      <c r="U174">
+        <f t="shared" si="15"/>
+        <v>0.13027525844172089</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>52</v>
       </c>
@@ -10049,8 +14449,28 @@
         <f t="shared" si="11"/>
         <v>157.84074120567504</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q175">
+        <f t="shared" si="16"/>
+        <v>17.41181139532091</v>
+      </c>
+      <c r="R175">
+        <f t="shared" si="12"/>
+        <v>6.5643021283019456E-3</v>
+      </c>
+      <c r="S175">
+        <f t="shared" si="13"/>
+        <v>1.9416560651186562E-2</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="14"/>
+        <v>0.33807749200426984</v>
+      </c>
+      <c r="U175">
+        <f t="shared" si="15"/>
+        <v>0.11429639059989713</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>53</v>
       </c>
@@ -10094,8 +14514,28 @@
         <f t="shared" si="11"/>
         <v>143.26174537836908</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q176">
+        <f t="shared" si="16"/>
+        <v>-9.1764707574561726</v>
+      </c>
+      <c r="R176">
+        <f t="shared" si="12"/>
+        <v>-3.8574833723739889E-3</v>
+      </c>
+      <c r="S176">
+        <f t="shared" si="13"/>
+        <v>2.0502847851135975E-2</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="14"/>
+        <v>-0.18814378375052235</v>
+      </c>
+      <c r="U176">
+        <f t="shared" si="15"/>
+        <v>3.5398083363963329E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>54</v>
       </c>
@@ -10139,8 +14579,28 @@
         <f t="shared" si="11"/>
         <v>140.50713895514232</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q177">
+        <f t="shared" si="16"/>
+        <v>-8.2418103987538416</v>
+      </c>
+      <c r="R177">
+        <f t="shared" si="12"/>
+        <v>-3.68410812929713E-3</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="13"/>
+        <v>2.1142428689408906E-2</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="14"/>
+        <v>-0.17425188862728189</v>
+      </c>
+      <c r="U177">
+        <f t="shared" si="15"/>
+        <v>3.0363720690174647E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>55</v>
       </c>
@@ -10184,8 +14644,28 @@
         <f t="shared" si="11"/>
         <v>133.77635023308378</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q178">
+        <f t="shared" si="16"/>
+        <v>-24.248072177865197</v>
+      </c>
+      <c r="R178">
+        <f t="shared" si="12"/>
+        <v>-1.1710508748742625E-2</v>
+      </c>
+      <c r="S178">
+        <f t="shared" si="13"/>
+        <v>2.1976031725940863E-2</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="14"/>
+        <v>-0.53287640347366949</v>
+      </c>
+      <c r="U178">
+        <f t="shared" si="15"/>
+        <v>0.28395726137903304</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>56</v>
       </c>
@@ -10229,8 +14709,28 @@
         <f t="shared" si="11"/>
         <v>129.30976898174006</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q179">
+        <f t="shared" si="16"/>
+        <v>-3.1053981014938472</v>
+      </c>
+      <c r="R179">
+        <f t="shared" si="12"/>
+        <v>-1.6111014793742397E-3</v>
+      </c>
+      <c r="S179">
+        <f t="shared" si="13"/>
+        <v>2.2777329617136386E-2</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="14"/>
+        <v>-7.0732676150154897E-2</v>
+      </c>
+      <c r="U179">
+        <f t="shared" si="15"/>
+        <v>5.003111475362693E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>57</v>
       </c>
@@ -10274,8 +14774,28 @@
         <f t="shared" si="11"/>
         <v>124.1537887840835</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q180">
+        <f t="shared" si="16"/>
+        <v>26.062406439351207</v>
+      </c>
+      <c r="R180">
+        <f t="shared" si="12"/>
+        <v>1.4771466632292573E-2</v>
+      </c>
+      <c r="S180">
+        <f t="shared" si="13"/>
+        <v>2.3806993438741434E-2</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="14"/>
+        <v>0.62046753909944674</v>
+      </c>
+      <c r="U180">
+        <f t="shared" si="15"/>
+        <v>0.38497996707612342</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>58</v>
       </c>
@@ -10319,8 +14839,28 @@
         <f t="shared" si="11"/>
         <v>117.39690756066825</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q181">
+        <f t="shared" si="16"/>
+        <v>14.193885787278759</v>
+      </c>
+      <c r="R181">
+        <f t="shared" si="12"/>
+        <v>8.8927156627950556E-3</v>
+      </c>
+      <c r="S181">
+        <f t="shared" si="13"/>
+        <v>2.5030328537576901E-2</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="14"/>
+        <v>0.35527762448043076</v>
+      </c>
+      <c r="U181">
+        <f t="shared" si="15"/>
+        <v>0.12622219045645797</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>59</v>
       </c>
@@ -10364,8 +14904,28 @@
         <f t="shared" si="11"/>
         <v>100.59485902666431</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q182">
+        <f t="shared" si="16"/>
+        <v>5.7109866927075927</v>
+      </c>
+      <c r="R182">
+        <f t="shared" si="12"/>
+        <v>3.9874230704888061E-3</v>
+      </c>
+      <c r="S182">
+        <f t="shared" si="13"/>
+        <v>2.6423514707860023E-2</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="14"/>
+        <v>0.15090434087115195</v>
+      </c>
+      <c r="U182">
+        <f t="shared" si="15"/>
+        <v>2.2772120093756822E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>60</v>
       </c>
@@ -10409,8 +14969,28 @@
         <f t="shared" si="11"/>
         <v>106.35707194885008</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q183">
+        <f t="shared" si="16"/>
+        <v>-11.561869482038674</v>
+      </c>
+      <c r="R183">
+        <f t="shared" si="12"/>
+        <v>-8.7623110890781911E-3</v>
+      </c>
+      <c r="S183">
+        <f t="shared" si="13"/>
+        <v>2.7529308506178359E-2</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="14"/>
+        <v>-0.31829027187921122</v>
+      </c>
+      <c r="U183">
+        <f t="shared" si="15"/>
+        <v>0.10130869717294219</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>61</v>
       </c>
@@ -10454,8 +15034,28 @@
         <f t="shared" si="11"/>
         <v>93.245378746800796</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q184">
+        <f t="shared" si="16"/>
+        <v>17.420251528852532</v>
+      </c>
+      <c r="R184">
+        <f t="shared" si="12"/>
+        <v>1.4637329296378558E-2</v>
+      </c>
+      <c r="S184">
+        <f t="shared" si="13"/>
+        <v>2.8987029394585629E-2</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="14"/>
+        <v>0.50496134312792351</v>
+      </c>
+      <c r="U184">
+        <f t="shared" si="15"/>
+        <v>0.25498595805355656</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>62</v>
       </c>
@@ -10499,8 +15099,28 @@
         <f t="shared" si="11"/>
         <v>90.250918253638872</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q185">
+        <f t="shared" si="16"/>
+        <v>-3.9284687635913542</v>
+      </c>
+      <c r="R185">
+        <f t="shared" si="12"/>
+        <v>-3.7069768941649958E-3</v>
+      </c>
+      <c r="S185">
+        <f t="shared" si="13"/>
+        <v>3.0718378505606096E-2</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="14"/>
+        <v>-0.12067619042744959</v>
+      </c>
+      <c r="U185">
+        <f t="shared" si="15"/>
+        <v>1.4562742936082078E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>63</v>
       </c>
@@ -10544,8 +15164,28 @@
         <f t="shared" si="11"/>
         <v>90.452724326112531</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q186">
+        <f t="shared" si="16"/>
+        <v>-1.2351103748634387</v>
+      </c>
+      <c r="R186">
+        <f t="shared" si="12"/>
+        <v>-1.269873152410681E-3</v>
+      </c>
+      <c r="S186">
+        <f t="shared" si="13"/>
+        <v>3.2064707742092177E-2</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="14"/>
+        <v>-3.9603453199222066E-2</v>
+      </c>
+      <c r="U186">
+        <f t="shared" si="15"/>
+        <v>1.568433505302973E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>64</v>
       </c>
@@ -10589,8 +15229,28 @@
         <f t="shared" si="11"/>
         <v>88.972118596463787</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q187">
+        <f t="shared" si="16"/>
+        <v>-6.747731176670186</v>
+      </c>
+      <c r="R187">
+        <f t="shared" si="12"/>
+        <v>-7.9408428086733575E-3</v>
+      </c>
+      <c r="S187">
+        <f t="shared" si="13"/>
+        <v>3.430476221747198E-2</v>
+      </c>
+      <c r="T187">
+        <f t="shared" si="14"/>
+        <v>-0.23147931352309317</v>
+      </c>
+      <c r="U187">
+        <f t="shared" si="15"/>
+        <v>5.3582672589122457E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>65</v>
       </c>
@@ -10619,23 +15279,43 @@
         <v>726.78131192549995</v>
       </c>
       <c r="L188" s="1">
-        <f t="shared" ref="L188:L232" si="12">SUM(B188:K188)</f>
+        <f t="shared" ref="L188:L232" si="17">SUM(B188:K188)</f>
         <v>6249.6032846942435</v>
       </c>
       <c r="M188" s="1">
-        <f t="shared" ref="M188:M232" si="13">AVERAGE(B188:K188)</f>
+        <f t="shared" ref="M188:M232" si="18">AVERAGE(B188:K188)</f>
         <v>781.20041058678044</v>
       </c>
       <c r="N188" s="1">
-        <f t="shared" ref="N188:N232" si="14">STDEV(B188:K188)</f>
+        <f t="shared" ref="N188:N232" si="19">STDEV(B188:K188)</f>
         <v>125.47375295043668</v>
       </c>
       <c r="O188">
-        <f t="shared" ref="O188:O232" si="15">N188/SQRT(3)</f>
+        <f t="shared" ref="O188:O232" si="20">N188/SQRT(3)</f>
         <v>72.44230504216722</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q188">
+        <f t="shared" si="16"/>
+        <v>-11.325410586780436</v>
+      </c>
+      <c r="R188">
+        <f t="shared" si="12"/>
+        <v>-1.4710713540224627E-2</v>
+      </c>
+      <c r="S188">
+        <f t="shared" si="13"/>
+        <v>3.6040423985645734E-2</v>
+      </c>
+      <c r="T188">
+        <f t="shared" si="14"/>
+        <v>-0.40817259935908762</v>
+      </c>
+      <c r="U188">
+        <f t="shared" si="15"/>
+        <v>0.16660487086755432</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>66</v>
       </c>
@@ -10664,23 +15344,43 @@
         <v>647.95122427307001</v>
       </c>
       <c r="L189" s="1">
+        <f t="shared" si="17"/>
+        <v>5578.6717023830779</v>
+      </c>
+      <c r="M189" s="1">
+        <f t="shared" si="18"/>
+        <v>697.33396279788474</v>
+      </c>
+      <c r="N189" s="1">
+        <f t="shared" si="19"/>
+        <v>108.56971580773708</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="20"/>
+        <v>62.682754647438173</v>
+      </c>
+      <c r="Q189">
+        <f t="shared" si="16"/>
+        <v>-2.7089627978847375</v>
+      </c>
+      <c r="R189">
         <f t="shared" si="12"/>
-        <v>5578.6717023830779</v>
-      </c>
-      <c r="M189" s="1">
+        <v>-3.8998924569152238E-3</v>
+      </c>
+      <c r="S189">
         <f t="shared" si="13"/>
-        <v>697.33396279788474</v>
-      </c>
-      <c r="N189" s="1">
+        <v>3.7942399730627178E-2</v>
+      </c>
+      <c r="T189">
         <f t="shared" si="14"/>
-        <v>108.56971580773708</v>
-      </c>
-      <c r="O189">
+        <v>-0.10278454933274089</v>
+      </c>
+      <c r="U189">
         <f t="shared" si="15"/>
-        <v>62.682754647438173</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.0564663581534649E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>67</v>
       </c>
@@ -10709,23 +15409,43 @@
         <v>514.95423774793699</v>
       </c>
       <c r="L190" s="1">
+        <f t="shared" si="17"/>
+        <v>4779.1941111320521</v>
+      </c>
+      <c r="M190" s="1">
+        <f t="shared" si="18"/>
+        <v>597.39926389150651</v>
+      </c>
+      <c r="N190" s="1">
+        <f t="shared" si="19"/>
+        <v>120.8072396143511</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="20"/>
+        <v>69.748092311401237</v>
+      </c>
+      <c r="Q190">
+        <f t="shared" si="16"/>
+        <v>-18.649263891506507</v>
+      </c>
+      <c r="R190">
         <f t="shared" si="12"/>
-        <v>4779.1941111320521</v>
-      </c>
-      <c r="M190" s="1">
+        <v>-3.222335013651232E-2</v>
+      </c>
+      <c r="S190">
         <f t="shared" si="13"/>
-        <v>597.39926389150651</v>
-      </c>
-      <c r="N190" s="1">
+        <v>4.1567556712637267E-2</v>
+      </c>
+      <c r="T190">
         <f t="shared" si="14"/>
-        <v>120.8072396143511</v>
-      </c>
-      <c r="O190">
+        <v>-0.77520433445913495</v>
+      </c>
+      <c r="U190">
         <f t="shared" si="15"/>
-        <v>69.748092311401237</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.60094176016423051</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>68</v>
       </c>
@@ -10754,23 +15474,43 @@
         <v>476.11082462966402</v>
       </c>
       <c r="L191" s="1">
+        <f t="shared" si="17"/>
+        <v>4447.3392702154797</v>
+      </c>
+      <c r="M191" s="1">
+        <f t="shared" si="18"/>
+        <v>555.91740877693496</v>
+      </c>
+      <c r="N191" s="1">
+        <f t="shared" si="19"/>
+        <v>121.64522737921017</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="20"/>
+        <v>70.231904773020233</v>
+      </c>
+      <c r="Q191">
+        <f t="shared" si="16"/>
+        <v>-15.167408776934963</v>
+      </c>
+      <c r="R191">
         <f t="shared" si="12"/>
-        <v>4447.3392702154797</v>
-      </c>
-      <c r="M191" s="1">
+        <v>-2.8048837312870945E-2</v>
+      </c>
+      <c r="S191">
         <f t="shared" si="13"/>
-        <v>555.91740877693496</v>
-      </c>
-      <c r="N191" s="1">
+        <v>4.3003295253753064E-2</v>
+      </c>
+      <c r="T191">
         <f t="shared" si="14"/>
-        <v>121.64522737921017</v>
-      </c>
-      <c r="O191">
+        <v>-0.6522485578688999</v>
+      </c>
+      <c r="U191">
         <f t="shared" si="15"/>
-        <v>70.231904773020233</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.42542818124205961</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>69</v>
       </c>
@@ -10799,23 +15539,43 @@
         <v>392.79024781286699</v>
       </c>
       <c r="L192" s="1">
+        <f t="shared" si="17"/>
+        <v>3807.98500352771</v>
+      </c>
+      <c r="M192" s="1">
+        <f t="shared" si="18"/>
+        <v>475.99812544096375</v>
+      </c>
+      <c r="N192" s="1">
+        <f t="shared" si="19"/>
+        <v>96.957546551719275</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="20"/>
+        <v>55.978465601600796</v>
+      </c>
+      <c r="Q192">
+        <f t="shared" si="16"/>
+        <v>-13.123125440963747</v>
+      </c>
+      <c r="R192">
         <f t="shared" si="12"/>
-        <v>3807.98500352771</v>
-      </c>
-      <c r="M192" s="1">
+        <v>-2.8351337706645958E-2</v>
+      </c>
+      <c r="S192">
         <f t="shared" si="13"/>
-        <v>475.99812544096375</v>
-      </c>
-      <c r="N192" s="1">
+        <v>4.6480215984769452E-2</v>
+      </c>
+      <c r="T192">
         <f t="shared" si="14"/>
-        <v>96.957546551719275</v>
-      </c>
-      <c r="O192">
+        <v>-0.60996570489121804</v>
+      </c>
+      <c r="U192">
         <f t="shared" si="15"/>
-        <v>55.978465601600796</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.37205816114344031</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>70</v>
       </c>
@@ -10844,23 +15604,43 @@
         <v>406.41125945746001</v>
       </c>
       <c r="L193" s="1">
+        <f t="shared" si="17"/>
+        <v>3558.8089258987334</v>
+      </c>
+      <c r="M193" s="1">
+        <f t="shared" si="18"/>
+        <v>444.85111573734167</v>
+      </c>
+      <c r="N193" s="1">
+        <f t="shared" si="19"/>
+        <v>86.087251697683868</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="20"/>
+        <v>49.702497941452854</v>
+      </c>
+      <c r="Q193">
+        <f t="shared" si="16"/>
+        <v>-17.976115737341672</v>
+      </c>
+      <c r="R193">
         <f t="shared" si="12"/>
-        <v>3558.8089258987334</v>
-      </c>
-      <c r="M193" s="1">
+        <v>-4.2110959267564682E-2</v>
+      </c>
+      <c r="S193">
         <f t="shared" si="13"/>
-        <v>444.85111573734167</v>
-      </c>
-      <c r="N193" s="1">
+        <v>4.8400476747043952E-2</v>
+      </c>
+      <c r="T193">
         <f t="shared" si="14"/>
-        <v>86.087251697683868</v>
-      </c>
-      <c r="O193">
+        <v>-0.87005257174737638</v>
+      </c>
+      <c r="U193">
         <f t="shared" si="15"/>
-        <v>49.702497941452854</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.75699147760422358</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>71</v>
       </c>
@@ -10889,23 +15669,43 @@
         <v>344.52856078743901</v>
       </c>
       <c r="L194" s="1">
+        <f t="shared" si="17"/>
+        <v>3086.3899227082679</v>
+      </c>
+      <c r="M194" s="1">
+        <f t="shared" si="18"/>
+        <v>385.79874033853349</v>
+      </c>
+      <c r="N194" s="1">
+        <f t="shared" si="19"/>
+        <v>78.656093093308343</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="20"/>
+        <v>45.41211652082584</v>
+      </c>
+      <c r="Q194">
+        <f t="shared" si="16"/>
+        <v>-12.923740338533491</v>
+      </c>
+      <c r="R194">
         <f t="shared" si="12"/>
-        <v>3086.3899227082679</v>
-      </c>
-      <c r="M194" s="1">
+        <v>-3.4659712607531992E-2</v>
+      </c>
+      <c r="S194">
         <f t="shared" si="13"/>
-        <v>385.79874033853349</v>
-      </c>
-      <c r="N194" s="1">
+        <v>5.1786715433664143E-2</v>
+      </c>
+      <c r="T194">
         <f t="shared" si="14"/>
-        <v>78.656093093308343</v>
-      </c>
-      <c r="O194">
+        <v>-0.66927806325020023</v>
+      </c>
+      <c r="U194">
         <f t="shared" si="15"/>
-        <v>45.41211652082584</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.44793312594793899</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>72</v>
       </c>
@@ -10934,23 +15734,43 @@
         <v>282.94575250148699</v>
       </c>
       <c r="L195" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2804.6709493137855</v>
       </c>
       <c r="M195" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>350.58386866422319</v>
       </c>
       <c r="N195" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>85.787783387489313</v>
       </c>
       <c r="O195">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>49.529599831948261</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q195">
+        <f t="shared" si="16"/>
+        <v>-10.708868664223189</v>
+      </c>
+      <c r="R195">
+        <f t="shared" ref="R195:R222" si="21">Q195/M75</f>
+        <v>-3.1508256459648956E-2</v>
+      </c>
+      <c r="S195">
+        <f t="shared" ref="S195:S222" si="22">1/SQRT(M75)</f>
+        <v>5.4242586434973504E-2</v>
+      </c>
+      <c r="T195">
+        <f t="shared" ref="T195:T222" si="23">R195/S195</f>
+        <v>-0.58087673413990559</v>
+      </c>
+      <c r="U195">
+        <f t="shared" ref="U195:U222" si="24">Q195*Q195/M75</f>
+        <v>0.3374177802650426</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>73</v>
       </c>
@@ -10979,23 +15799,43 @@
         <v>208.68433517403</v>
       </c>
       <c r="L196" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2319.2927802986478</v>
       </c>
       <c r="M196" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>289.91159753733098</v>
       </c>
       <c r="N196" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>86.291519273816462</v>
       </c>
       <c r="O196">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>49.820431881519717</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q196">
+        <f t="shared" ref="Q196:Q232" si="25">M76-M196</f>
+        <v>-14.286597537330977</v>
+      </c>
+      <c r="R196">
+        <f t="shared" si="21"/>
+        <v>-5.1833460452901506E-2</v>
+      </c>
+      <c r="S196">
+        <f t="shared" si="22"/>
+        <v>6.0233860193683417E-2</v>
+      </c>
+      <c r="T196">
+        <f t="shared" si="23"/>
+        <v>-0.86053691870701587</v>
+      </c>
+      <c r="U196">
+        <f t="shared" si="24"/>
+        <v>0.74052378845776512</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>74</v>
       </c>
@@ -11024,23 +15864,43 @@
         <v>201.28042064607101</v>
       </c>
       <c r="L197" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2008.2239191627559</v>
       </c>
       <c r="M197" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>251.02798989534449</v>
       </c>
       <c r="N197" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>75.580262231154222</v>
       </c>
       <c r="O197">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>43.636284744579399</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q197">
+        <f t="shared" si="25"/>
+        <v>1.5970101046555101</v>
+      </c>
+      <c r="R197">
+        <f t="shared" si="21"/>
+        <v>6.3216629575675804E-3</v>
+      </c>
+      <c r="S197">
+        <f t="shared" si="22"/>
+        <v>6.291610618605574E-2</v>
+      </c>
+      <c r="T197">
+        <f t="shared" si="23"/>
+        <v>0.10047765732471008</v>
+      </c>
+      <c r="U197">
+        <f t="shared" si="24"/>
+        <v>1.0095759621461864E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>75</v>
       </c>
@@ -11069,23 +15929,43 @@
         <v>147.93436010926899</v>
       </c>
       <c r="L198" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1753.6570663601121</v>
       </c>
       <c r="M198" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>219.20713329501402</v>
       </c>
       <c r="N198" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>62.009183192430122</v>
       </c>
       <c r="O198">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>35.801018608378349</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q198">
+        <f t="shared" si="25"/>
+        <v>-2.5821332950140174</v>
+      </c>
+      <c r="R198">
+        <f t="shared" si="21"/>
+        <v>-1.1919830559787733E-2</v>
+      </c>
+      <c r="S198">
+        <f t="shared" si="22"/>
+        <v>6.7943155358499832E-2</v>
+      </c>
+      <c r="T198">
+        <f t="shared" si="23"/>
+        <v>-0.17543828361949246</v>
+      </c>
+      <c r="U198">
+        <f t="shared" si="24"/>
+        <v>3.0778591359353479E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>76</v>
       </c>
@@ -11114,23 +15994,43 @@
         <v>148.23960337228999</v>
       </c>
       <c r="L199" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1466.790757181119</v>
       </c>
       <c r="M199" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>183.34884464763988</v>
       </c>
       <c r="N199" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>44.451596622099444</v>
       </c>
       <c r="O199">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>25.664141275677775</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q199">
+        <f t="shared" si="25"/>
+        <v>-4.3488446476398792</v>
+      </c>
+      <c r="R199">
+        <f t="shared" si="21"/>
+        <v>-2.4295221495194856E-2</v>
+      </c>
+      <c r="S199">
+        <f t="shared" si="22"/>
+        <v>7.474350927519359E-2</v>
+      </c>
+      <c r="T199">
+        <f t="shared" si="23"/>
+        <v>-0.32504791025724727</v>
+      </c>
+      <c r="U199">
+        <f t="shared" si="24"/>
+        <v>0.10565614396260349</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>77</v>
       </c>
@@ -11159,23 +16059,43 @@
         <v>126.70440521277401</v>
       </c>
       <c r="L200" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1346.9589502811389</v>
       </c>
       <c r="M200" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>168.36986878514236</v>
       </c>
       <c r="N200" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>45.808118736540649</v>
       </c>
       <c r="O200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>26.447329683612086</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q200">
+        <f t="shared" si="25"/>
+        <v>-4.1198687851423585</v>
+      </c>
+      <c r="R200">
+        <f t="shared" si="21"/>
+        <v>-2.5082914978035668E-2</v>
+      </c>
+      <c r="S200">
+        <f t="shared" si="22"/>
+        <v>7.8027431464087041E-2</v>
+      </c>
+      <c r="T200">
+        <f t="shared" si="23"/>
+        <v>-0.32146277927372691</v>
+      </c>
+      <c r="U200">
+        <f t="shared" si="24"/>
+        <v>0.10333831845838888</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>78</v>
       </c>
@@ -11204,23 +16124,43 @@
         <v>122.78631253912999</v>
       </c>
       <c r="L201" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1062.1916083836677</v>
       </c>
       <c r="M201" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>132.77395104795846</v>
       </c>
       <c r="N201" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>43.521184479041196</v>
       </c>
       <c r="O201">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>25.126967574425798</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q201">
+        <f t="shared" si="25"/>
+        <v>1.7260489520415376</v>
+      </c>
+      <c r="R201">
+        <f t="shared" si="21"/>
+        <v>1.2833077710346004E-2</v>
+      </c>
+      <c r="S201">
+        <f t="shared" si="22"/>
+        <v>8.6226122711845377E-2</v>
+      </c>
+      <c r="T201">
+        <f t="shared" si="23"/>
+        <v>0.1488305087453857</v>
+      </c>
+      <c r="U201">
+        <f t="shared" si="24"/>
+        <v>2.2150520333410337E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>79</v>
       </c>
@@ -11249,23 +16189,43 @@
         <v>114.372471615672</v>
       </c>
       <c r="L202" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1026.621321637173</v>
       </c>
       <c r="M202" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>128.32766520464662</v>
       </c>
       <c r="N202" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>32.795394717737359</v>
       </c>
       <c r="O202">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>18.934429968465697</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q202">
+        <f t="shared" si="25"/>
+        <v>-6.7026652046466211</v>
+      </c>
+      <c r="R202">
+        <f t="shared" si="21"/>
+        <v>-5.5109271980650534E-2</v>
+      </c>
+      <c r="S202">
+        <f t="shared" si="22"/>
+        <v>9.067521068905561E-2</v>
+      </c>
+      <c r="T202">
+        <f t="shared" si="23"/>
+        <v>-0.60776557960953448</v>
+      </c>
+      <c r="U202">
+        <f t="shared" si="24"/>
+        <v>0.36937899975811328</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>80</v>
       </c>
@@ -11294,23 +16254,43 @@
         <v>94.118717812000995</v>
       </c>
       <c r="L203" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>795.89062690548337</v>
       </c>
       <c r="M203" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>99.486328363185422</v>
       </c>
       <c r="N203" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>27.088260737938853</v>
       </c>
       <c r="O203">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>15.639414628927769</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q203">
+        <f t="shared" si="25"/>
+        <v>-0.36132836318542161</v>
+      </c>
+      <c r="R203">
+        <f t="shared" si="21"/>
+        <v>-3.6451789476461198E-3</v>
+      </c>
+      <c r="S203">
+        <f t="shared" si="22"/>
+        <v>0.10044039219036507</v>
+      </c>
+      <c r="T203">
+        <f t="shared" si="23"/>
+        <v>-3.6291962507846422E-2</v>
+      </c>
+      <c r="U203">
+        <f t="shared" si="24"/>
+        <v>1.3171065426709301E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>81</v>
       </c>
@@ -11339,23 +16319,43 @@
         <v>69.716946385800796</v>
       </c>
       <c r="L204" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>696.38106168247555</v>
       </c>
       <c r="M204" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>87.047632710309443</v>
       </c>
       <c r="N204" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>30.005921263073922</v>
       </c>
       <c r="O204">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>17.323926718518447</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q204">
+        <f t="shared" si="25"/>
+        <v>-9.2976327103094434</v>
+      </c>
+      <c r="R204">
+        <f t="shared" si="21"/>
+        <v>-0.11958370045414075</v>
+      </c>
+      <c r="S204">
+        <f t="shared" si="22"/>
+        <v>0.11340959542474854</v>
+      </c>
+      <c r="T204">
+        <f t="shared" si="23"/>
+        <v>-1.0544407640841023</v>
+      </c>
+      <c r="U204">
+        <f t="shared" si="24"/>
+        <v>1.1118453249622653</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>82</v>
       </c>
@@ -11384,23 +16384,43 @@
         <v>37.2804145812988</v>
       </c>
       <c r="L205" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>569.99575313925595</v>
       </c>
       <c r="M205" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>71.249469142406994</v>
       </c>
       <c r="N205" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>34.207838902062257</v>
       </c>
       <c r="O205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>19.749904998500998</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q205">
+        <f t="shared" si="25"/>
+        <v>8.3755308575930059</v>
+      </c>
+      <c r="R205">
+        <f t="shared" si="21"/>
+        <v>0.10518720072330305</v>
+      </c>
+      <c r="S205">
+        <f t="shared" si="22"/>
+        <v>0.11206636293610515</v>
+      </c>
+      <c r="T205">
+        <f t="shared" si="23"/>
+        <v>0.93861528086956592</v>
+      </c>
+      <c r="U205">
+        <f t="shared" si="24"/>
+        <v>0.88099864548185403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>83</v>
       </c>
@@ -11429,23 +16449,43 @@
         <v>66.639224931597695</v>
       </c>
       <c r="L206" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>485.87324500060606</v>
       </c>
       <c r="M206" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>60.734155625075758</v>
       </c>
       <c r="N206" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>27.478901493142647</v>
       </c>
       <c r="O206">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>15.864951174101117</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q206">
+        <f t="shared" si="25"/>
+        <v>-2.8591556250757577</v>
+      </c>
+      <c r="R206">
+        <f t="shared" si="21"/>
+        <v>-4.9402257020747437E-2</v>
+      </c>
+      <c r="S206">
+        <f t="shared" si="22"/>
+        <v>0.131448155980155</v>
+      </c>
+      <c r="T206">
+        <f t="shared" si="23"/>
+        <v>-0.37583073457649568</v>
+      </c>
+      <c r="U206">
+        <f t="shared" si="24"/>
+        <v>0.14124874105230836</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>84</v>
       </c>
@@ -11474,23 +16514,43 @@
         <v>37.578291900455902</v>
       </c>
       <c r="L207" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>443.27214369177761</v>
       </c>
       <c r="M207" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>55.409017961472202</v>
       </c>
       <c r="N207" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>24.161386640631974</v>
       </c>
       <c r="O207">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>13.9495830809635</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q207">
+        <f t="shared" si="25"/>
+        <v>-9.2840179614722018</v>
+      </c>
+      <c r="R207">
+        <f t="shared" si="21"/>
+        <v>-0.20127952219993933</v>
+      </c>
+      <c r="S207">
+        <f t="shared" si="22"/>
+        <v>0.14724203476646205</v>
+      </c>
+      <c r="T207">
+        <f t="shared" si="23"/>
+        <v>-1.3669976954555483</v>
+      </c>
+      <c r="U207">
+        <f t="shared" si="24"/>
+        <v>1.8686826993807795</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>85</v>
       </c>
@@ -11519,23 +16579,43 @@
         <v>28.541309390216998</v>
       </c>
       <c r="L208" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>272.41230589803274</v>
       </c>
       <c r="M208" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>34.051538237254093</v>
       </c>
       <c r="N208" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>19.455603380645652</v>
       </c>
       <c r="O208">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>11.232697849062362</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q208">
+        <f t="shared" si="25"/>
+        <v>0.19846176274590732</v>
+      </c>
+      <c r="R208">
+        <f t="shared" si="21"/>
+        <v>5.7945040217783159E-3</v>
+      </c>
+      <c r="S208">
+        <f t="shared" si="22"/>
+        <v>0.17087153154335219</v>
+      </c>
+      <c r="T208">
+        <f t="shared" si="23"/>
+        <v>3.3911465353186579E-2</v>
+      </c>
+      <c r="U208">
+        <f t="shared" si="24"/>
+        <v>1.1499874824003741E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>86</v>
       </c>
@@ -11564,23 +16644,43 @@
         <v>36.390125691890702</v>
       </c>
       <c r="L209" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>330.09947445534527</v>
       </c>
       <c r="M209" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>41.262434306918159</v>
       </c>
       <c r="N209" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>15.606575729265582</v>
       </c>
       <c r="O209">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>9.0104606984197648</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q209">
+        <f t="shared" si="25"/>
+        <v>-10.762434306918159</v>
+      </c>
+      <c r="R209">
+        <f t="shared" si="21"/>
+        <v>-0.35286669858748065</v>
+      </c>
+      <c r="S209">
+        <f t="shared" si="22"/>
+        <v>0.18107149208503706</v>
+      </c>
+      <c r="T209">
+        <f t="shared" si="23"/>
+        <v>-1.948770038420863</v>
+      </c>
+      <c r="U209">
+        <f t="shared" si="24"/>
+        <v>3.7977046626468511</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>87</v>
       </c>
@@ -11609,23 +16709,43 @@
         <v>-6.0464866561815098</v>
       </c>
       <c r="L210" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>258.3370900033039</v>
       </c>
       <c r="M210" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>32.292136250412987</v>
       </c>
       <c r="N210" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>22.837923923883423</v>
       </c>
       <c r="O210">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>13.18548152518629</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q210">
+        <f t="shared" si="25"/>
+        <v>0.45786374958701259</v>
+      </c>
+      <c r="R210">
+        <f t="shared" si="21"/>
+        <v>1.3980572506473667E-2</v>
+      </c>
+      <c r="S210">
+        <f t="shared" si="22"/>
+        <v>0.17474081133220759</v>
+      </c>
+      <c r="T210">
+        <f t="shared" si="23"/>
+        <v>8.0007483082441308E-2</v>
+      </c>
+      <c r="U210">
+        <f t="shared" si="24"/>
+        <v>6.4011973491871323E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>88</v>
       </c>
@@ -11654,23 +16774,43 @@
         <v>6.7858904767780999</v>
       </c>
       <c r="L211" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>200.18420347664468</v>
       </c>
       <c r="M211" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>25.023025434580585</v>
       </c>
       <c r="N211" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>16.611003349798871</v>
       </c>
       <c r="O211">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>9.5903672555161545</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q211">
+        <f t="shared" si="25"/>
+        <v>0.10197456541941463</v>
+      </c>
+      <c r="R211">
+        <f t="shared" si="21"/>
+        <v>4.0586891709219752E-3</v>
+      </c>
+      <c r="S211">
+        <f t="shared" si="22"/>
+        <v>0.19950186722152657</v>
+      </c>
+      <c r="T211">
+        <f t="shared" si="23"/>
+        <v>2.0344116210276934E-2</v>
+      </c>
+      <c r="U211">
+        <f t="shared" si="24"/>
+        <v>4.138830643772527E-4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>89</v>
       </c>
@@ -11699,23 +16839,43 @@
         <v>0.89350782893598002</v>
       </c>
       <c r="L212" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>152.72666060179435</v>
       </c>
       <c r="M212" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19.090832575224294</v>
       </c>
       <c r="N212" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>12.150141363840586</v>
       </c>
       <c r="O212">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>7.014887387105369</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q212">
+        <f t="shared" si="25"/>
+        <v>-1.0908325752242938</v>
+      </c>
+      <c r="R212">
+        <f t="shared" si="21"/>
+        <v>-6.0601809734682988E-2</v>
+      </c>
+      <c r="S212">
+        <f t="shared" si="22"/>
+        <v>0.23570226039551587</v>
+      </c>
+      <c r="T212">
+        <f t="shared" si="23"/>
+        <v>-0.25711170369342756</v>
+      </c>
+      <c r="U212">
+        <f t="shared" si="24"/>
+        <v>6.6106428176136919E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>90</v>
       </c>
@@ -11744,23 +16904,43 @@
         <v>-4.8170590475201598</v>
       </c>
       <c r="L213" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>99.30812640767526</v>
       </c>
       <c r="M213" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>12.413515800959408</v>
       </c>
       <c r="N213" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>18.743631795138551</v>
       </c>
       <c r="O213">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>10.821640862514471</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q213">
+        <f t="shared" si="25"/>
+        <v>1.7114841990405925</v>
+      </c>
+      <c r="R213">
+        <f t="shared" si="21"/>
+        <v>0.12116702294092691</v>
+      </c>
+      <c r="S213">
+        <f t="shared" si="22"/>
+        <v>0.26607604209509572</v>
+      </c>
+      <c r="T213">
+        <f t="shared" si="23"/>
+        <v>0.4553849417890159</v>
+      </c>
+      <c r="U213">
+        <f t="shared" si="24"/>
+        <v>0.20737544520818535</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>91</v>
       </c>
@@ -11789,23 +16969,43 @@
         <v>1.9134561419480001</v>
       </c>
       <c r="L214" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>130.94796150177609</v>
       </c>
       <c r="M214" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16.368495187722012</v>
       </c>
       <c r="N214" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>11.293467701498596</v>
       </c>
       <c r="O214">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.5202866175445591</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q214">
+        <f t="shared" si="25"/>
+        <v>-6.3684951877220115</v>
+      </c>
+      <c r="R214">
+        <f t="shared" si="21"/>
+        <v>-0.6368495187722012</v>
+      </c>
+      <c r="S214">
+        <f t="shared" si="22"/>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="T214">
+        <f t="shared" si="23"/>
+        <v>-2.0138950061023149</v>
+      </c>
+      <c r="U214">
+        <f t="shared" si="24"/>
+        <v>4.0557730956038416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>92</v>
       </c>
@@ -11834,23 +17034,43 @@
         <v>2.6646031886339099</v>
       </c>
       <c r="L215" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>82.652988712303085</v>
       </c>
       <c r="M215" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>10.331623589037886</v>
       </c>
       <c r="N215" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>7.5109697322777365</v>
       </c>
       <c r="O215">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.3364603968056832</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q215">
+        <f t="shared" si="25"/>
+        <v>-3.7066235890378856</v>
+      </c>
+      <c r="R215">
+        <f t="shared" si="21"/>
+        <v>-0.55949035306232231</v>
+      </c>
+      <c r="S215">
+        <f t="shared" si="22"/>
+        <v>0.38851434494290565</v>
+      </c>
+      <c r="T215">
+        <f t="shared" si="23"/>
+        <v>-1.440076435644976</v>
+      </c>
+      <c r="U215">
+        <f t="shared" si="24"/>
+        <v>2.0738201404999388</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>93</v>
       </c>
@@ -11879,23 +17099,43 @@
         <v>-16.398715807124901</v>
       </c>
       <c r="L216" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>36.47930202959104</v>
       </c>
       <c r="M216" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.5599127536988799</v>
       </c>
       <c r="N216" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8.6370645554453027</v>
       </c>
       <c r="O216">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.9866115460945215</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q216">
+        <f t="shared" si="25"/>
+        <v>-0.43491275369887994</v>
+      </c>
+      <c r="R216">
+        <f t="shared" si="21"/>
+        <v>-0.10543339483609211</v>
+      </c>
+      <c r="S216">
+        <f t="shared" si="22"/>
+        <v>0.4923659639173309</v>
+      </c>
+      <c r="T216">
+        <f t="shared" si="23"/>
+        <v>-0.21413623719488978</v>
+      </c>
+      <c r="U216">
+        <f t="shared" si="24"/>
+        <v>4.5854328079986087E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>94</v>
       </c>
@@ -11924,23 +17164,43 @@
         <v>10.580760195851299</v>
       </c>
       <c r="L217" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-4.3892790586687678</v>
       </c>
       <c r="M217" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.54865988233359597</v>
       </c>
       <c r="N217" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>9.0712996764067544</v>
       </c>
       <c r="O217">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.2373173100732053</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q217">
+        <f t="shared" si="25"/>
+        <v>3.0486598823335962</v>
+      </c>
+      <c r="R217">
+        <f t="shared" si="21"/>
+        <v>1.2194639529334386</v>
+      </c>
+      <c r="S217">
+        <f t="shared" si="22"/>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="T217">
+        <f t="shared" si="23"/>
+        <v>1.9281418078710184</v>
+      </c>
+      <c r="U217">
+        <f t="shared" si="24"/>
+        <v>3.7177308312601185</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>95</v>
       </c>
@@ -11969,23 +17229,43 @@
         <v>-2.20587714016437</v>
       </c>
       <c r="L218" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>16.526345372199941</v>
       </c>
       <c r="M218" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.0657931715249926</v>
       </c>
       <c r="N218" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>14.205465084390118</v>
       </c>
       <c r="O218">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>8.2015290904364644</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q218">
+        <f t="shared" si="25"/>
+        <v>0.30920682847500736</v>
+      </c>
+      <c r="R218">
+        <f t="shared" si="21"/>
+        <v>0.13019234883158204</v>
+      </c>
+      <c r="S218">
+        <f t="shared" si="22"/>
+        <v>0.64888568452305018</v>
+      </c>
+      <c r="T218">
+        <f t="shared" si="23"/>
+        <v>0.20063988455420648</v>
+      </c>
+      <c r="U218">
+        <f t="shared" si="24"/>
+        <v>4.0256363273925316E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>96</v>
       </c>
@@ -12014,23 +17294,43 @@
         <v>-7.9968948438763601</v>
       </c>
       <c r="L219" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-1.3746899701655</v>
       </c>
       <c r="M219" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.1718362462706875</v>
       </c>
       <c r="N219" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.3449958633488199</v>
       </c>
       <c r="O219">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.6632850697115034</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q219">
+        <f t="shared" si="25"/>
+        <v>1.0468362462706875</v>
+      </c>
+      <c r="R219">
+        <f t="shared" si="21"/>
+        <v>1.1963842814522143</v>
+      </c>
+      <c r="S219">
+        <f t="shared" si="22"/>
+        <v>1.0690449676496976</v>
+      </c>
+      <c r="T219">
+        <f t="shared" si="23"/>
+        <v>1.119115021028978</v>
+      </c>
+      <c r="U219">
+        <f t="shared" si="24"/>
+        <v>1.2524184302926895</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>97</v>
       </c>
@@ -12059,23 +17359,43 @@
         <v>-11.388264775276101</v>
       </c>
       <c r="L220" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>55.907928299158698</v>
       </c>
       <c r="M220" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>6.9884910373948372</v>
       </c>
       <c r="N220" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>11.202874050336662</v>
       </c>
       <c r="O220">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.4679823486593451</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q220">
+        <f t="shared" si="25"/>
+        <v>-5.1134910373948372</v>
+      </c>
+      <c r="R220">
+        <f t="shared" si="21"/>
+        <v>-2.7271952199439133</v>
+      </c>
+      <c r="S220">
+        <f t="shared" si="22"/>
+        <v>0.73029674334022143</v>
+      </c>
+      <c r="T220">
+        <f t="shared" si="23"/>
+        <v>-3.7343658517088607</v>
+      </c>
+      <c r="U220">
+        <f t="shared" si="24"/>
+        <v>13.945488314409241</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>98</v>
       </c>
@@ -12104,23 +17424,43 @@
         <v>7.3930990397930101</v>
       </c>
       <c r="L221" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-10.761607022955928</v>
       </c>
       <c r="M221" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-1.3452008778694911</v>
       </c>
       <c r="N221" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.2912435090869341</v>
       </c>
       <c r="O221">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.6322511335088272</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q221">
+        <f t="shared" si="25"/>
+        <v>1.8452008778694911</v>
+      </c>
+      <c r="R221">
+        <f t="shared" si="21"/>
+        <v>3.6904017557389821</v>
+      </c>
+      <c r="S221">
+        <f t="shared" si="22"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="T221">
+        <f t="shared" si="23"/>
+        <v>2.6095081067857753</v>
+      </c>
+      <c r="U221">
+        <f t="shared" si="24"/>
+        <v>6.8095325593806812</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>99</v>
       </c>
@@ -12149,23 +17489,43 @@
         <v>-5.3721819221973401</v>
       </c>
       <c r="L222" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4.9931902851239354</v>
       </c>
       <c r="M222" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.62414878564049192</v>
       </c>
       <c r="N222" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8.6909815426508672</v>
       </c>
       <c r="O222">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.0177405331715477</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q222">
+        <f t="shared" si="25"/>
+        <v>-0.12414878564049192</v>
+      </c>
+      <c r="R222">
+        <f t="shared" si="21"/>
+        <v>-0.24829757128098384</v>
+      </c>
+      <c r="S222">
+        <f t="shared" si="22"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="T222">
+        <f t="shared" si="23"/>
+        <v>-0.17557289640493384</v>
+      </c>
+      <c r="U222">
+        <f t="shared" si="24"/>
+        <v>3.0825841952017628E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>100</v>
       </c>
@@ -12194,23 +17554,27 @@
         <v>5.2977392822503999</v>
       </c>
       <c r="L223" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-7.9265783075242675</v>
       </c>
       <c r="M223" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.99082228844053344</v>
       </c>
       <c r="N223" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8.6423036960652695</v>
       </c>
       <c r="O223">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.9896363653417817</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q223">
+        <f t="shared" si="25"/>
+        <v>0.99082228844053344</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>101</v>
       </c>
@@ -12239,23 +17603,27 @@
         <v>-2.04236055910587</v>
       </c>
       <c r="L224" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-28.525419659912412</v>
       </c>
       <c r="M224" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-3.5656774574890515</v>
       </c>
       <c r="N224" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>7.483414312449078</v>
       </c>
       <c r="O224">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.3205512677499733</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q224">
+        <f t="shared" si="25"/>
+        <v>3.8156774574890515</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>102</v>
       </c>
@@ -12284,23 +17652,27 @@
         <v>2.3191373720765101</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-37.307319845072797</v>
       </c>
       <c r="M225" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-4.6634149806340996</v>
       </c>
       <c r="N225" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.2994423462489308</v>
       </c>
       <c r="O225">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.6369847343513482</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q225">
+        <f t="shared" si="25"/>
+        <v>4.6634149806340996</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>103</v>
       </c>
@@ -12329,23 +17701,27 @@
         <v>-13.2571517080068</v>
       </c>
       <c r="L226" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-1.5087879727361599</v>
       </c>
       <c r="M226" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.18859849659201999</v>
       </c>
       <c r="N226" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8.1767520465472057</v>
       </c>
       <c r="O226">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.7208499951708527</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q226">
+        <f t="shared" si="25"/>
+        <v>0.18859849659201999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>104</v>
       </c>
@@ -12374,23 +17750,27 @@
         <v>-0.475329879671335</v>
       </c>
       <c r="L227" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6.900606628041702</v>
       </c>
       <c r="M227" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.86257582850521275</v>
       </c>
       <c r="N227" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.7861985961349447</v>
       </c>
       <c r="O227">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.3406633170631452</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q227">
+        <f t="shared" si="25"/>
+        <v>-0.86257582850521275</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>105</v>
       </c>
@@ -12419,23 +17799,27 @@
         <v>0.10511348396539601</v>
       </c>
       <c r="L228" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6.0329083185642824</v>
       </c>
       <c r="M228" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.75411353982053531</v>
       </c>
       <c r="N228" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.6604349670330616</v>
       </c>
       <c r="O228">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.5360028443780314</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q228">
+        <f t="shared" si="25"/>
+        <v>-0.75411353982053531</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>106</v>
       </c>
@@ -12464,23 +17848,27 @@
         <v>-2.7436777353286699</v>
       </c>
       <c r="L229" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.9028349891304348</v>
       </c>
       <c r="M229" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.48785437364130435</v>
       </c>
       <c r="N229" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.5236896379471085</v>
       </c>
       <c r="O229">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.7664539685783356</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q229">
+        <f t="shared" si="25"/>
+        <v>-0.48785437364130435</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>107</v>
       </c>
@@ -12509,23 +17897,27 @@
         <v>6.1442567110061601</v>
       </c>
       <c r="L230" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-22.521521933376736</v>
       </c>
       <c r="M230" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-2.815190241672092</v>
       </c>
       <c r="N230" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>12.046099425716312</v>
       </c>
       <c r="O230">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.9548187461223092</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q230">
+        <f t="shared" si="25"/>
+        <v>2.815190241672092</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>108</v>
       </c>
@@ -12554,23 +17946,27 @@
         <v>0.74337254464626301</v>
       </c>
       <c r="L231" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>32.050767246633754</v>
       </c>
       <c r="M231" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.0063459058292192</v>
       </c>
       <c r="N231" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>12.084435366310831</v>
       </c>
       <c r="O231">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.976952011744193</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q231">
+        <f t="shared" si="25"/>
+        <v>-4.0063459058292192</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>109</v>
       </c>
@@ -12599,23 +17995,27 @@
         <v>3.7616134732961601</v>
       </c>
       <c r="L232" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>68.982069026678673</v>
       </c>
       <c r="M232" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>8.6227586283348341</v>
       </c>
       <c r="N232" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>7.4630742766628577</v>
       </c>
       <c r="O232">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.3088079426134724</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q232">
+        <f t="shared" si="25"/>
+        <v>-8.6227586283348341</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -12624,15 +18024,15 @@
         <v>160887.2572864072</v>
       </c>
       <c r="C240">
-        <f t="shared" ref="C240:I240" si="16">SUM(C123:C232)</f>
+        <f t="shared" ref="C240:I240" si="26">SUM(C123:C232)</f>
         <v>179135.89259480289</v>
       </c>
       <c r="D240">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>194399.46465761459</v>
       </c>
       <c r="E240">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>198018.17817689409</v>
       </c>
       <c r="F240">
@@ -12640,19 +18040,19 @@
         <v>187593.34230175277</v>
       </c>
       <c r="G240">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>197476.66285654757</v>
       </c>
       <c r="H240">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>192543.13880156647</v>
       </c>
       <c r="I240">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>182211.65395871975</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -12661,15 +18061,15 @@
         <v>161351</v>
       </c>
       <c r="C241">
-        <f t="shared" ref="C241:E241" si="17">SUM(C3:C112)</f>
+        <f t="shared" ref="C241:E241" si="27">SUM(C3:C112)</f>
         <v>181519</v>
       </c>
       <c r="D241">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>192822</v>
       </c>
       <c r="E241">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>194520</v>
       </c>
       <c r="F241">
@@ -12677,19 +18077,19 @@
         <v>186904</v>
       </c>
       <c r="G241">
-        <f t="shared" ref="G241:I241" si="18">SUM(G3:G112)</f>
+        <f t="shared" ref="G241:I241" si="28">SUM(G3:G112)</f>
         <v>196497</v>
       </c>
       <c r="H241">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>193015</v>
       </c>
       <c r="I241">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>183450</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -12698,15 +18098,15 @@
         <v>-463.74271359280101</v>
       </c>
       <c r="C242">
-        <f t="shared" ref="C242:E242" si="19">C240-C241</f>
+        <f t="shared" ref="C242:E242" si="29">C240-C241</f>
         <v>-2383.1074051971082</v>
       </c>
       <c r="D242">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1577.4646576145897</v>
       </c>
       <c r="E242">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>3498.1781768940855</v>
       </c>
       <c r="F242">
@@ -12714,19 +18114,19 @@
         <v>689.34230175276753</v>
       </c>
       <c r="G242">
-        <f t="shared" ref="G242:I242" si="20">G240-G241</f>
+        <f t="shared" ref="G242:I242" si="30">G240-G241</f>
         <v>979.66285654756939</v>
       </c>
       <c r="H242">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>-471.86119843352935</v>
       </c>
       <c r="I242">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>-1238.3460412802524</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -12735,15 +18135,15 @@
         <v>-2.8741235789849521E-3</v>
       </c>
       <c r="C243">
-        <f t="shared" ref="C243:E243" si="21">C242/C241</f>
+        <f t="shared" ref="C243:E243" si="31">C242/C241</f>
         <v>-1.312869399455213E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>8.1809371213585058E-3</v>
       </c>
       <c r="E243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1.7983642694294085E-2</v>
       </c>
       <c r="F243">
@@ -12751,19 +18151,27 @@
         <v>3.6882158849075863E-3</v>
       </c>
       <c r="G243">
-        <f t="shared" ref="G243:I243" si="22">G242/G241</f>
+        <f t="shared" ref="G243:I243" si="32">G242/G241</f>
         <v>4.9856377275356335E-3</v>
       </c>
       <c r="H243">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>-2.4446866742664007E-3</v>
       </c>
       <c r="I243">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>-6.7503191130021938E-3</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243">
+        <f>AVERAGE(B243:I243)</f>
+        <v>1.2050762584112668E-3</v>
+      </c>
+      <c r="K243">
+        <f>STDEV(B243:I243)/SQRT(7)</f>
+        <v>3.6403281972681202E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>10</v>
       </c>
@@ -12776,11 +18184,11 @@
         <v>31.287087878983982</v>
       </c>
       <c r="D244">
-        <f t="shared" ref="D244:E244" si="23">(D241-D240)^2/D241</f>
+        <f t="shared" ref="D244:E244" si="33">(D241-D240)^2/D241</f>
         <v>12.905139175110282</v>
       </c>
       <c r="E244">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>62.909986414240322</v>
       </c>
       <c r="F244">
@@ -12792,11 +18200,11 @@
         <v>4.8842440978688915</v>
       </c>
       <c r="H244">
-        <f t="shared" ref="H244:I244" si="24">(H241-H240)^2/H241</f>
+        <f t="shared" ref="H244:I244" si="34">(H241-H240)^2/H241</f>
         <v>1.1535527839138231</v>
       </c>
       <c r="I244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>8.3592309509646903</v>
       </c>
     </row>

--- a/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -260,7 +263,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1337,11 +1339,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="313566880"/>
-        <c:axId val="313567664"/>
+        <c:axId val="471656696"/>
+        <c:axId val="471657088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313566880"/>
+        <c:axId val="471656696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1390,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1454,7 +1455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313567664"/>
+        <c:crossAx val="471657088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1462,7 +1463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313567664"/>
+        <c:axId val="471657088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1510,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1576,7 +1576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313566880"/>
+        <c:crossAx val="471656696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1629,7 +1629,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2107,11 +2106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446299424"/>
-        <c:axId val="446301384"/>
+        <c:axId val="471657480"/>
+        <c:axId val="471650032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446299424"/>
+        <c:axId val="471657480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,12 +2166,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446301384"/>
+        <c:crossAx val="471650032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446301384"/>
+        <c:axId val="471650032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446299424"/>
+        <c:crossAx val="471657480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2677,11 +2676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446603840"/>
-        <c:axId val="446603448"/>
+        <c:axId val="471648464"/>
+        <c:axId val="471642192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446603840"/>
+        <c:axId val="471648464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,12 +2736,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446603448"/>
+        <c:crossAx val="471642192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446603448"/>
+        <c:axId val="471642192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2799,7 +2798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446603840"/>
+        <c:crossAx val="471648464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3247,11 +3246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453469440"/>
-        <c:axId val="453470224"/>
+        <c:axId val="471642584"/>
+        <c:axId val="471644936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453469440"/>
+        <c:axId val="471642584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3307,12 +3306,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453470224"/>
+        <c:crossAx val="471644936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453470224"/>
+        <c:axId val="471644936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,7 +3368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453469440"/>
+        <c:crossAx val="471642584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3381,6 +3380,2780 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>relative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> error</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$R$130:$R$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>-2.4315509963780584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9938397216144885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.20464890981640621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5174480604062502E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5619465779506934E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1065423317759478E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.1652621929469556E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.0280259004677427E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6226703084207966E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8204091973367642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8073296462906202E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1190273187198669E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7301059239082027E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4381130125347068E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.855267711991198E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6659833624698089E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.5832339617510859E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9501404703416523E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7241703942011172E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0249294495233826E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2962361025349802E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0674132512573819E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.5977886857159799E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6852837267531325E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.9335463770812261E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.7317726222970295E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.1095481454550518E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5724800740679179E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.7176888031028418E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.3797588885797796E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.4439143573622728E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2980955315924211E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3622296168745154E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0387855947005165E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8210754583344725E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5962085332337987E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.5476208946703146E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.2664560537708695E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.0426043723433173E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.9831749146953212E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.7735251709563549E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5841652835281483E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1770937790127849E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.4028904120963722E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.8520266222517291E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5643021283019456E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.8574833723739889E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.68410812929713E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1710508748742625E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6111014793742397E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4771466632292573E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.8927156627950556E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9874230704888061E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.7623110890781911E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4637329296378558E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.7069768941649958E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.269873152410681E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-7.9408428086733575E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.4710713540224627E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.8998924569152238E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.222335013651232E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.8048837312870945E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.8351337706645958E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.2110959267564682E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.4659712607531992E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.1508256459648956E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-5.1833460452901506E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.3216629575675804E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.1919830559787733E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.4295221495194856E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.5082914978035668E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2833077710346004E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-5.5109271980650534E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.6451789476461198E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.11958370045414075</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.10518720072330305</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.9402257020747437E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.20127952219993933</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.7945040217783159E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.35286669858748065</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3980572506473667E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0586891709219752E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-6.0601809734682988E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.12116702294092691</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.6368495187722012</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.55949035306232231</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.10543339483609211</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.2194639529334386</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.13019234883158204</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1963842814522143</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.7271952199439133</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6904017557389821</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.24829757128098384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>allz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$R$130:$R$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>11.504553201297902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3172893341863499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37497317346324011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.148734959149816E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3583193189431216E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0036901846350122E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0651996022213879E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.19958793386532E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7851735668360231E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1346980081556663E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.214623467218845E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6512963201166377E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9469569785007729E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0912084747351027E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3487818784956711E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2046964034804747E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.2856544366176213E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3034073463130668E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.485382572565702E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.298781673646901E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.9820239198405287E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9397945533765729E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.739686147436778E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.8503878320259216E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8123097605162931E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3403314497615332E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.3293299963635392E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.9431350565812904E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3265596473084795E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.6059253308315383E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.2211943233401075E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9528037254739342E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6351467463010093E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.5845024887575183E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-8.0805134790956738E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.381909989623743E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.0796398788179685E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.2171218869859708E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.679002483086411E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.9623013952313309E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.3868149109776685E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.4476103456911713E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5131039564977945E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.5382463836561033E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5.8534525144169104E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1196045226504341E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.8681356078051335E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.9829720013823886E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.5018974777839031E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4459786699645176E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3836220711303447E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.8058952217732757E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.7908990694304279E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9977516697880896E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.6822232971022203E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5415360712498843E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.5097842747609687E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.3070868030647314E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.9784443283469741E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.1717198419769425E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1841206319419677E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.4608762252730497E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.12092047044074E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.4109311856402287E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.6645414937863967E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.817721107843708E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8301006119351548E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.5998180499822775E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.8602297412908377E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-9.0696013888326182E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.2381602708967276E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.11545274669882419</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.23190856739908841</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.0954429141056145E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.21099161550288481</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.2847697401777875E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.18924739295475893</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.23987525192702336</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.30617692426737297</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.25052812769932564</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.9222167255998477E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.58679788988616111</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.61203966783876829</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.47045842020780826</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.0807841772910648E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.76496424250093564</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2933011818114687E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.3434977363795051</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.8764863468118389</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.7317607960264545</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.8076050383659639</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.226073449361117</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-8.5143940951675123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="485319856"/>
+        <c:axId val="485320640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="485319856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485320640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485320640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485319856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1/root(true)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$S$130:$S$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1.6329931618554523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19802950859533489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8954139199058683E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8239119393494044E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.004407273335673E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3840027153248686E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8713886396267204E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5479257578373642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3065580739059788E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0825990392946817E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9282539322832151E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8267316060998445E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7176718136839322E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6238709775341649E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5591727976114366E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5172209934815136E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4521950407133924E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4174953192277748E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3944479031314379E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3686115720737697E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3550838384546319E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.337336474903855E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3294980928779005E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3220124979025265E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3168015154181935E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3212910564542248E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3328743112218882E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3435230372511476E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3499192392788215E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3763839347353903E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3847214960382929E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4183148764245436E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.432376666040793E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4712247158412491E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.504418666962188E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5353757178626857E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5715666909482562E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6153476372506338E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6635792022840736E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7044904292704971E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7657678008211362E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.844199375737695E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8984015070124632E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9416560651186562E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0502847851135975E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1142428689408906E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1976031725940863E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2777329617136386E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3806993438741434E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5030328537576901E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6423514707860023E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7529308506178359E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8987029394585629E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0718378505606096E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2064707742092177E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.430476221747198E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.6040423985645734E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7942399730627178E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1567556712637267E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3003295253753064E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.6480215984769452E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8400476747043952E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.1786715433664143E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.4242586434973504E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0233860193683417E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.291610618605574E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7943155358499832E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.474350927519359E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8027431464087041E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.6226122711845377E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.067521068905561E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.10044039219036507</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11340959542474854</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.11206636293610515</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.131448155980155</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14724203476646205</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.17087153154335219</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.18107149208503706</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.17474081133220759</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.19950186722152657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.23570226039551587</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26607604209509572</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.31622776601683794</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.38851434494290565</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.4923659639173309</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.64888568452305018</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0690449676496976</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.73029674334022143</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>allz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$S$130:$S$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1.6329931618554523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19802950859533489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8954139199058683E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8239119393494044E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.004407273335673E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3840027153248686E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8713886396267204E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5479257578373642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3065580739059788E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0825990392946817E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9282539322832151E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8267316060998445E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7176718136839322E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6238709775341649E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5591727976114366E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5172209934815136E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4521950407133924E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4174953192277748E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3944479031314379E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3686115720737697E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3550838384546319E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.337336474903855E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3294980928779005E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3220124979025265E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3168015154181935E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3212910564542248E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3328743112218882E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3435230372511476E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3499192392788215E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3763839347353903E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3847214960382929E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4183148764245436E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.432376666040793E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4712247158412491E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.504418666962188E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5353757178626857E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5715666909482562E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6153476372506338E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6635792022840736E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7044904292704971E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7657678008211362E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.844199375737695E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8984015070124632E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9416560651186562E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0502847851135975E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1142428689408906E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1976031725940863E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2777329617136386E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3806993438741434E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5030328537576901E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6423514707860023E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7529308506178359E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8987029394585629E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0718378505606096E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2064707742092177E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.430476221747198E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.6040423985645734E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7942399730627178E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1567556712637267E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3003295253753064E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.6480215984769452E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8400476747043952E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.1786715433664143E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.4242586434973504E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0233860193683417E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.291610618605574E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7943155358499832E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.474350927519359E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8027431464087041E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.6226122711845377E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.067521068905561E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.10044039219036507</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11340959542474854</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.11206636293610515</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.131448155980155</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14724203476646205</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.17087153154335219</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.18107149208503706</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.17474081133220759</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.19950186722152657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.23570226039551587</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26607604209509572</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.31622776601683794</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.38851434494290565</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.4923659639173309</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.64888568452305018</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0690449676496976</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.73029674334022143</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="486309640"/>
+        <c:axId val="486311600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="486309640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486311600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="486311600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486309640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>chi squared</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$U$130:$U$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>2.2171650929951729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9384920887193537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0679699953706108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12635355225880876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27246327703415069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16873672064632289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0819525272433808E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35915803655043049</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.591745635082159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51046327630695099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61396831315097522</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28871546716328944</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12181908909662181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61977855610952803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0914216673443742E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35431459851514646</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17827485060696144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7808348200483205E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5767175102318512E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4560695857295516E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7116179151983191E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13709203714883716</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2370633800863137</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8072694476029233E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27197902479194308</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.34204797662899389</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.099890788342075E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.790592057389728E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1573927522290111E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0546689632006596</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10837167534729529</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8894757661747742</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8956252549206369E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53642192533845368</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8789566898641513E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.9749147063006589E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0582584429646409</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.68037901910756915</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.401223800917199E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.5165659519165932E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34515606336066823</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.14921494219897316</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5201522527960705</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57867104599317587</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.13027525844172089</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.11429639059989713</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.5398083363963329E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0363720690174647E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.28395726137903304</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.003111475362693E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.38497996707612342</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.12622219045645797</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2772120093756822E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.10130869717294219</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.25498595805355656</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4562742936082078E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.568433505302973E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3582672589122457E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.16660487086755432</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0564663581534649E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60094176016423051</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.42542818124205961</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.37205816114344031</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75699147760422358</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.44793312594793899</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.3374177802650426</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.74052378845776512</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0095759621461864E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.0778591359353479E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.10565614396260349</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.10333831845838888</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2150520333410337E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.36937899975811328</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.3171065426709301E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1118453249622653</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.88099864548185403</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.14124874105230836</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8686826993807795</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1499874824003741E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.7977046626468511</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.4011973491871323E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.138830643772527E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.6106428176136919E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.20737544520818535</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.0557730956038416</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.0738201404999388</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5854328079986087E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7177308312601185</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.0256363273925316E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2524184302926895</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13.945488314409241</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.8095325593806812</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.0825841952017628E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>allz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$U$130:$U$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>49.633029135560179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.511021316766296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.585424460835875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38610339106825847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9622048718297914E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60952307196998767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26597914302137154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12566165400714771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94085040012740673</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.63338314305725E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1111322949440305E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0738511381881089E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6610438294890465E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19619019386748512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61659935561733259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10272774697807373</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11492355050379077</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9951253386114726E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0462289901420625E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3951611465523275E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0202875880486627E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5711819575046746E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41596744483848846</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26239100292434619</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8581870174564294</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0279057475349196</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3925340796542496E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.9060743018394242E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9905471872432221</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4287638771863378</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14959743262317854</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.012973233710079</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.6214687522823888E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2480745719441468</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31824635847041766</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.284039612197592E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9109038987227913</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0852100176752972</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.2387503325337243</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.13623724422769973</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.9536312667653616E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19091706932240932</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.73429462221196717</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.6957225244767582</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.5070999362846256E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.33249466466370098</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6376350337100041E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.10908646100081264</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.7534990249295508E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.40301216902202652</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.020014997377416</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2566368731929325</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1155963705154541</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52661399831991829</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6136629253620809</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.68453550861517876</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1981364373043917</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92935654487734176</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.6655954265816575E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2088730058346191</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.27608591235586633</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64769219413815227</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.7860536549281496</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.481249007020403E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.1904615074081334E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.9536762411664728E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.2314206135262118E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.79218051989832117</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.4962099730421219E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4724122814064302</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.17222732586472944</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7927957888807342</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.541185109375486</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.9904788683542423E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.4612326559232107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3143167534014125E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.0727685709625088</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.6540387954653157</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.2107425816686312</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9143124544401533</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.26070949050282882</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.6513355598181381</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.7426659901474171</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.1263021426650273</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.491231147046985E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.8767531865208253</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1694325030803749E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.729954101039658</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8245422508504625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.5297024158687034</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14.779961346483647</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>101.19058289330864</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36.247453403911699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="486314344"/>
+        <c:axId val="486304544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="486314344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486304544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="486304544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486314344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3539,6 +6312,126 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5642,6 +8535,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5662,7 +10103,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5770,7 +10211,1140 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>57823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>46617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>62305</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>64994</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>103094</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>47066</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="גיליון1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="130">
+          <cell r="R130">
+            <v>11.504553201297902</v>
+          </cell>
+          <cell r="S130">
+            <v>1.6329931618554523</v>
+          </cell>
+          <cell r="U130">
+            <v>49.633029135560179</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="R131">
+            <v>3.3172893341863499</v>
+          </cell>
+          <cell r="S131">
+            <v>0.63245553203367588</v>
+          </cell>
+          <cell r="U131">
+            <v>27.511021316766296</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="R132">
+            <v>-0.37497317346324011</v>
+          </cell>
+          <cell r="S132">
+            <v>0.19802950859533489</v>
+          </cell>
+          <cell r="U132">
+            <v>3.585424460835875</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="R133">
+            <v>-6.148734959149816E-2</v>
+          </cell>
+          <cell r="S133">
+            <v>9.8954139199058683E-2</v>
+          </cell>
+          <cell r="U133">
+            <v>0.38610339106825847</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="R134">
+            <v>-1.3583193189431216E-2</v>
+          </cell>
+          <cell r="S134">
+            <v>6.8239119393494044E-2</v>
+          </cell>
+          <cell r="U134">
+            <v>3.9622048718297914E-2</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="R135">
+            <v>4.0036901846350122E-2</v>
+          </cell>
+          <cell r="S135">
+            <v>5.128205128205128E-2</v>
+          </cell>
+          <cell r="U135">
+            <v>0.60952307196998767</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="R136">
+            <v>2.0651996022213879E-2</v>
+          </cell>
+          <cell r="S136">
+            <v>4.004407273335673E-2</v>
+          </cell>
+          <cell r="U136">
+            <v>0.26597914302137154</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="R137">
+            <v>-1.19958793386532E-2</v>
+          </cell>
+          <cell r="S137">
+            <v>3.3840027153248686E-2</v>
+          </cell>
+          <cell r="U137">
+            <v>0.12566165400714771</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="R138">
+            <v>2.7851735668360231E-2</v>
+          </cell>
+          <cell r="S138">
+            <v>2.8713886396267204E-2</v>
+          </cell>
+          <cell r="U138">
+            <v>0.94085040012740673</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="R139">
+            <v>4.1346980081556663E-3</v>
+          </cell>
+          <cell r="S139">
+            <v>2.5479257578373642E-2</v>
+          </cell>
+          <cell r="U139">
+            <v>2.63338314305725E-2</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="R140">
+            <v>5.214623467218845E-3</v>
+          </cell>
+          <cell r="S140">
+            <v>2.3065580739059788E-2</v>
+          </cell>
+          <cell r="U140">
+            <v>5.1111322949440305E-2</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="R141">
+            <v>3.6512963201166377E-3</v>
+          </cell>
+          <cell r="S141">
+            <v>2.0825990392946817E-2</v>
+          </cell>
+          <cell r="U141">
+            <v>3.0738511381881089E-2</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="R142">
+            <v>9.9469569785007729E-4</v>
+          </cell>
+          <cell r="S142">
+            <v>1.9282539322832151E-2</v>
+          </cell>
+          <cell r="U142">
+            <v>2.6610438294890465E-3</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="R143">
+            <v>8.0912084747351027E-3</v>
+          </cell>
+          <cell r="S143">
+            <v>1.8267316060998445E-2</v>
+          </cell>
+          <cell r="U143">
+            <v>0.19619019386748512</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="R144">
+            <v>-1.3487818784956711E-2</v>
+          </cell>
+          <cell r="S144">
+            <v>1.7176718136839322E-2</v>
+          </cell>
+          <cell r="U144">
+            <v>0.61659935561733259</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="R145">
+            <v>5.2046964034804747E-3</v>
+          </cell>
+          <cell r="S145">
+            <v>1.6238709775341649E-2</v>
+          </cell>
+          <cell r="U145">
+            <v>0.10272774697807373</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="R146">
+            <v>-5.2856544366176213E-3</v>
+          </cell>
+          <cell r="S146">
+            <v>1.5591727976114366E-2</v>
+          </cell>
+          <cell r="U146">
+            <v>0.11492355050379077</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="R147">
+            <v>8.3034073463130668E-4</v>
+          </cell>
+          <cell r="S147">
+            <v>1.5172209934815136E-2</v>
+          </cell>
+          <cell r="U147">
+            <v>2.9951253386114726E-3</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="R148">
+            <v>1.485382572565702E-3</v>
+          </cell>
+          <cell r="S148">
+            <v>1.4521950407133924E-2</v>
+          </cell>
+          <cell r="U148">
+            <v>1.0462289901420625E-2</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="R149">
+            <v>-1.298781673646901E-3</v>
+          </cell>
+          <cell r="S149">
+            <v>1.4174953192277748E-2</v>
+          </cell>
+          <cell r="U149">
+            <v>8.3951611465523275E-3</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="R150">
+            <v>-1.9820239198405287E-3</v>
+          </cell>
+          <cell r="S150">
+            <v>1.3944479031314379E-2</v>
+          </cell>
+          <cell r="U150">
+            <v>2.0202875880486627E-2</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="R151">
+            <v>6.9397945533765729E-4</v>
+          </cell>
+          <cell r="S151">
+            <v>1.3686115720737697E-2</v>
+          </cell>
+          <cell r="U151">
+            <v>2.5711819575046746E-3</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="R152">
+            <v>-8.739686147436778E-3</v>
+          </cell>
+          <cell r="S152">
+            <v>1.3550838384546319E-2</v>
+          </cell>
+          <cell r="U152">
+            <v>0.41596744483848846</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="R153">
+            <v>-6.8503878320259216E-3</v>
+          </cell>
+          <cell r="S153">
+            <v>1.337336474903855E-2</v>
+          </cell>
+          <cell r="U153">
+            <v>0.26239100292434619</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="R154">
+            <v>-1.8123097605162931E-2</v>
+          </cell>
+          <cell r="S154">
+            <v>1.3294980928779005E-2</v>
+          </cell>
+          <cell r="U154">
+            <v>1.8581870174564294</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="R155">
+            <v>-1.3403314497615332E-2</v>
+          </cell>
+          <cell r="S155">
+            <v>1.3220124979025265E-2</v>
+          </cell>
+          <cell r="U155">
+            <v>1.0279057475349196</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="R156">
+            <v>-3.3293299963635392E-3</v>
+          </cell>
+          <cell r="S156">
+            <v>1.3168015154181935E-2</v>
+          </cell>
+          <cell r="U156">
+            <v>6.3925340796542496E-2</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="R157">
+            <v>-3.9431350565812904E-3</v>
+          </cell>
+          <cell r="S157">
+            <v>1.3212910564542248E-2</v>
+          </cell>
+          <cell r="U157">
+            <v>8.9060743018394242E-2</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="R158">
+            <v>-1.3265596473084795E-2</v>
+          </cell>
+          <cell r="S158">
+            <v>1.3328743112218882E-2</v>
+          </cell>
+          <cell r="U158">
+            <v>0.9905471872432221</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="R159">
+            <v>-1.6059253308315383E-2</v>
+          </cell>
+          <cell r="S159">
+            <v>1.3435230372511476E-2</v>
+          </cell>
+          <cell r="U159">
+            <v>1.4287638771863378</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="R160">
+            <v>-5.2211943233401075E-3</v>
+          </cell>
+          <cell r="S160">
+            <v>1.3499192392788215E-2</v>
+          </cell>
+          <cell r="U160">
+            <v>0.14959743262317854</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="R161">
+            <v>-1.9528037254739342E-2</v>
+          </cell>
+          <cell r="S161">
+            <v>1.3763839347353903E-2</v>
+          </cell>
+          <cell r="U161">
+            <v>2.012973233710079</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="R162">
+            <v>2.6351467463010093E-4</v>
+          </cell>
+          <cell r="S162">
+            <v>1.3847214960382929E-2</v>
+          </cell>
+          <cell r="U162">
+            <v>3.6214687522823888E-4</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="R163">
+            <v>-1.5845024887575183E-2</v>
+          </cell>
+          <cell r="S163">
+            <v>1.4183148764245436E-2</v>
+          </cell>
+          <cell r="U163">
+            <v>1.2480745719441468</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="R164">
+            <v>-8.0805134790956738E-3</v>
+          </cell>
+          <cell r="S164">
+            <v>1.432376666040793E-2</v>
+          </cell>
+          <cell r="U164">
+            <v>0.31824635847041766</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="R165">
+            <v>-3.381909989623743E-3</v>
+          </cell>
+          <cell r="S165">
+            <v>1.4712247158412491E-2</v>
+          </cell>
+          <cell r="U165">
+            <v>5.284039612197592E-2</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="R166">
+            <v>-2.0796398788179685E-2</v>
+          </cell>
+          <cell r="S166">
+            <v>1.504418666962188E-2</v>
+          </cell>
+          <cell r="U166">
+            <v>1.9109038987227913</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="R167">
+            <v>-2.2171218869859708E-2</v>
+          </cell>
+          <cell r="S167">
+            <v>1.5353757178626857E-2</v>
+          </cell>
+          <cell r="U167">
+            <v>2.0852100176752972</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="R168">
+            <v>-7.679002483086411E-3</v>
+          </cell>
+          <cell r="S168">
+            <v>1.5715666909482562E-2</v>
+          </cell>
+          <cell r="U168">
+            <v>0.2387503325337243</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="R169">
+            <v>-5.9623013952313309E-3</v>
+          </cell>
+          <cell r="S169">
+            <v>1.6153476372506338E-2</v>
+          </cell>
+          <cell r="U169">
+            <v>0.13623724422769973</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="R170">
+            <v>-4.3868149109776685E-3</v>
+          </cell>
+          <cell r="S170">
+            <v>1.6635792022840736E-2</v>
+          </cell>
+          <cell r="U170">
+            <v>6.9536312667653616E-2</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="R171">
+            <v>-7.4476103456911713E-3</v>
+          </cell>
+          <cell r="S171">
+            <v>1.7044904292704971E-2</v>
+          </cell>
+          <cell r="U171">
+            <v>0.19091706932240932</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="R172">
+            <v>1.5131039564977945E-2</v>
+          </cell>
+          <cell r="S172">
+            <v>1.7657678008211362E-2</v>
+          </cell>
+          <cell r="U172">
+            <v>0.73429462221196717</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="R173">
+            <v>-1.5382463836561033E-2</v>
+          </cell>
+          <cell r="S173">
+            <v>1.844199375737695E-2</v>
+          </cell>
+          <cell r="U173">
+            <v>0.6957225244767582</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="R174">
+            <v>-5.8534525144169104E-3</v>
+          </cell>
+          <cell r="S174">
+            <v>1.8984015070124632E-2</v>
+          </cell>
+          <cell r="U174">
+            <v>9.5070999362846256E-2</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="R175">
+            <v>1.1196045226504341E-2</v>
+          </cell>
+          <cell r="S175">
+            <v>1.9416560651186562E-2</v>
+          </cell>
+          <cell r="U175">
+            <v>0.33249466466370098</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="R176">
+            <v>4.8681356078051335E-3</v>
+          </cell>
+          <cell r="S176">
+            <v>2.0502847851135975E-2</v>
+          </cell>
+          <cell r="U176">
+            <v>5.6376350337100041E-2</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="R177">
+            <v>6.9829720013823886E-3</v>
+          </cell>
+          <cell r="S177">
+            <v>2.1142428689408906E-2</v>
+          </cell>
+          <cell r="U177">
+            <v>0.10908646100081264</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="R178">
+            <v>-6.5018974777839031E-3</v>
+          </cell>
+          <cell r="S178">
+            <v>2.1976031725940863E-2</v>
+          </cell>
+          <cell r="U178">
+            <v>8.7534990249295508E-2</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="R179">
+            <v>1.4459786699645176E-2</v>
+          </cell>
+          <cell r="S179">
+            <v>2.2777329617136386E-2</v>
+          </cell>
+          <cell r="U179">
+            <v>0.40301216902202652</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="R180">
+            <v>3.3836220711303447E-2</v>
+          </cell>
+          <cell r="S180">
+            <v>2.3806993438741434E-2</v>
+          </cell>
+          <cell r="U180">
+            <v>2.020014997377416</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="R181">
+            <v>2.8058952217732757E-2</v>
+          </cell>
+          <cell r="S181">
+            <v>2.5030328537576901E-2</v>
+          </cell>
+          <cell r="U181">
+            <v>1.2566368731929325</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="R182">
+            <v>2.7908990694304279E-2</v>
+          </cell>
+          <cell r="S182">
+            <v>2.6423514707860023E-2</v>
+          </cell>
+          <cell r="U182">
+            <v>1.1155963705154541</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="R183">
+            <v>1.9977516697880896E-2</v>
+          </cell>
+          <cell r="S183">
+            <v>2.7529308506178359E-2</v>
+          </cell>
+          <cell r="U183">
+            <v>0.52661399831991829</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="R184">
+            <v>3.6822232971022203E-2</v>
+          </cell>
+          <cell r="S184">
+            <v>2.8987029394585629E-2</v>
+          </cell>
+          <cell r="U184">
+            <v>1.6136629253620809</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="R185">
+            <v>2.5415360712498843E-2</v>
+          </cell>
+          <cell r="S185">
+            <v>3.0718378505606096E-2</v>
+          </cell>
+          <cell r="U185">
+            <v>0.68453550861517876</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="R186">
+            <v>3.5097842747609687E-2</v>
+          </cell>
+          <cell r="S186">
+            <v>3.2064707742092177E-2</v>
+          </cell>
+          <cell r="U186">
+            <v>1.1981364373043917</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="R187">
+            <v>3.3070868030647314E-2</v>
+          </cell>
+          <cell r="S187">
+            <v>3.430476221747198E-2</v>
+          </cell>
+          <cell r="U187">
+            <v>0.92935654487734176</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="R188">
+            <v>9.9784443283469741E-3</v>
+          </cell>
+          <cell r="S188">
+            <v>3.6040423985645734E-2</v>
+          </cell>
+          <cell r="U188">
+            <v>7.6655954265816575E-2</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="R189">
+            <v>4.1717198419769425E-2</v>
+          </cell>
+          <cell r="S189">
+            <v>3.7942399730627178E-2</v>
+          </cell>
+          <cell r="U189">
+            <v>1.2088730058346191</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="R190">
+            <v>2.1841206319419677E-2</v>
+          </cell>
+          <cell r="S190">
+            <v>4.1567556712637267E-2</v>
+          </cell>
+          <cell r="U190">
+            <v>0.27608591235586633</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="R191">
+            <v>3.4608762252730497E-2</v>
+          </cell>
+          <cell r="S191">
+            <v>4.3003295253753064E-2</v>
+          </cell>
+          <cell r="U191">
+            <v>0.64769219413815227</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="R192">
+            <v>4.12092047044074E-2</v>
+          </cell>
+          <cell r="S192">
+            <v>4.6480215984769452E-2</v>
+          </cell>
+          <cell r="U192">
+            <v>0.7860536549281496</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="R193">
+            <v>-2.4109311856402287E-3</v>
+          </cell>
+          <cell r="S193">
+            <v>4.8400476747043952E-2</v>
+          </cell>
+          <cell r="U193">
+            <v>2.481249007020403E-3</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="R194">
+            <v>7.6645414937863967E-3</v>
+          </cell>
+          <cell r="S194">
+            <v>5.1786715433664143E-2</v>
+          </cell>
+          <cell r="U194">
+            <v>2.1904615074081334E-2</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="R195">
+            <v>3.817721107843708E-3</v>
+          </cell>
+          <cell r="S195">
+            <v>5.4242586434973504E-2</v>
+          </cell>
+          <cell r="U195">
+            <v>4.9536762411664728E-3</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="R196">
+            <v>1.8301006119351548E-3</v>
+          </cell>
+          <cell r="S196">
+            <v>6.0233860193683417E-2</v>
+          </cell>
+          <cell r="U196">
+            <v>9.2314206135262118E-4</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="R197">
+            <v>5.5998180499822775E-2</v>
+          </cell>
+          <cell r="S197">
+            <v>6.291610618605574E-2</v>
+          </cell>
+          <cell r="U197">
+            <v>0.79218051989832117</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="R198">
+            <v>-1.8602297412908377E-3</v>
+          </cell>
+          <cell r="S198">
+            <v>6.7943155358499832E-2</v>
+          </cell>
+          <cell r="U198">
+            <v>7.4962099730421219E-4</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="R199">
+            <v>-9.0696013888326182E-2</v>
+          </cell>
+          <cell r="S199">
+            <v>7.474350927519359E-2</v>
+          </cell>
+          <cell r="U199">
+            <v>1.4724122814064302</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="R200">
+            <v>-3.2381602708967276E-2</v>
+          </cell>
+          <cell r="S200">
+            <v>7.8027431464087041E-2</v>
+          </cell>
+          <cell r="U200">
+            <v>0.17222732586472944</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="R201">
+            <v>-0.11545274669882419</v>
+          </cell>
+          <cell r="S201">
+            <v>8.6226122711845377E-2</v>
+          </cell>
+          <cell r="U201">
+            <v>1.7927957888807342</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="R202">
+            <v>-0.23190856739908841</v>
+          </cell>
+          <cell r="S202">
+            <v>9.067521068905561E-2</v>
+          </cell>
+          <cell r="U202">
+            <v>6.541185109375486</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="R203">
+            <v>7.0954429141056145E-3</v>
+          </cell>
+          <cell r="S203">
+            <v>0.10044039219036507</v>
+          </cell>
+          <cell r="U203">
+            <v>4.9904788683542423E-3</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="R204">
+            <v>-0.21099161550288481</v>
+          </cell>
+          <cell r="S204">
+            <v>0.11340959542474854</v>
+          </cell>
+          <cell r="U204">
+            <v>3.4612326559232107</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="R205">
+            <v>-1.2847697401777875E-2</v>
+          </cell>
+          <cell r="S205">
+            <v>0.11206636293610515</v>
+          </cell>
+          <cell r="U205">
+            <v>1.3143167534014125E-2</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="R206">
+            <v>-0.18924739295475893</v>
+          </cell>
+          <cell r="S206">
+            <v>0.131448155980155</v>
+          </cell>
+          <cell r="U206">
+            <v>2.0727685709625088</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="R207">
+            <v>-0.23987525192702336</v>
+          </cell>
+          <cell r="S207">
+            <v>0.14724203476646205</v>
+          </cell>
+          <cell r="U207">
+            <v>2.6540387954653157</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="R208">
+            <v>-0.30617692426737297</v>
+          </cell>
+          <cell r="S208">
+            <v>0.17087153154335219</v>
+          </cell>
+          <cell r="U208">
+            <v>3.2107425816686312</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="R209">
+            <v>-0.25052812769932564</v>
+          </cell>
+          <cell r="S209">
+            <v>0.18107149208503706</v>
+          </cell>
+          <cell r="U209">
+            <v>1.9143124544401533</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="R210">
+            <v>8.9222167255998477E-2</v>
+          </cell>
+          <cell r="S210">
+            <v>0.17474081133220759</v>
+          </cell>
+          <cell r="U210">
+            <v>0.26070949050282882</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="R211">
+            <v>-0.58679788988616111</v>
+          </cell>
+          <cell r="S211">
+            <v>0.19950186722152657</v>
+          </cell>
+          <cell r="U211">
+            <v>8.6513355598181381</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="R212">
+            <v>-0.61203966783876829</v>
+          </cell>
+          <cell r="S212">
+            <v>0.23570226039551587</v>
+          </cell>
+          <cell r="U212">
+            <v>6.7426659901474171</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="R213">
+            <v>0.47045842020780826</v>
+          </cell>
+          <cell r="S213">
+            <v>0.26607604209509572</v>
+          </cell>
+          <cell r="U213">
+            <v>3.1263021426650273</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="R214">
+            <v>-3.0807841772910648E-2</v>
+          </cell>
+          <cell r="S214">
+            <v>0.31622776601683794</v>
+          </cell>
+          <cell r="U214">
+            <v>9.491231147046985E-3</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="R215">
+            <v>-0.76496424250093564</v>
+          </cell>
+          <cell r="S215">
+            <v>0.38851434494290565</v>
+          </cell>
+          <cell r="U215">
+            <v>3.8767531865208253</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="R216">
+            <v>2.2933011818114687E-2</v>
+          </cell>
+          <cell r="S216">
+            <v>0.4923659639173309</v>
+          </cell>
+          <cell r="U216">
+            <v>2.1694325030803749E-3</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="R217">
+            <v>2.3434977363795051</v>
+          </cell>
+          <cell r="S217">
+            <v>0.63245553203367588</v>
+          </cell>
+          <cell r="U217">
+            <v>13.729954101039658</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="R218">
+            <v>-0.8764863468118389</v>
+          </cell>
+          <cell r="S218">
+            <v>0.64888568452305018</v>
+          </cell>
+          <cell r="U218">
+            <v>1.8245422508504625</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="R219">
+            <v>-2.7317607960264545</v>
+          </cell>
+          <cell r="S219">
+            <v>1.0690449676496976</v>
+          </cell>
+          <cell r="U219">
+            <v>6.5297024158687034</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="R220">
+            <v>-2.8076050383659639</v>
+          </cell>
+          <cell r="S220">
+            <v>0.73029674334022143</v>
+          </cell>
+          <cell r="U220">
+            <v>14.779961346483647</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="R221">
+            <v>14.226073449361117</v>
+          </cell>
+          <cell r="S221">
+            <v>1.4142135623730949</v>
+          </cell>
+          <cell r="U221">
+            <v>101.19058289330864</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="R222">
+            <v>-8.5143940951675123</v>
+          </cell>
+          <cell r="S222">
+            <v>1.4142135623730949</v>
+          </cell>
+          <cell r="U222">
+            <v>36.247453403911699</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6072,8 +11646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K139" workbookViewId="0">
-      <selection activeCell="AB179" sqref="AB179"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BA140" sqref="BA140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Target</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>chisq</t>
+  </si>
+  <si>
+    <t>bins</t>
   </si>
 </sst>
 </file>
@@ -1339,11 +1342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="471656696"/>
-        <c:axId val="471657088"/>
+        <c:axId val="475556552"/>
+        <c:axId val="475556944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="471656696"/>
+        <c:axId val="475556552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471657088"/>
+        <c:crossAx val="475556944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1463,7 +1466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471657088"/>
+        <c:axId val="475556944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471656696"/>
+        <c:crossAx val="475556552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1808,6 +1811,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>גיליון1!$R$130:$R$222</c:f>
@@ -2106,11 +2427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471657480"/>
-        <c:axId val="471650032"/>
+        <c:axId val="475558120"/>
+        <c:axId val="457063552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471657480"/>
+        <c:axId val="475558120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,6 +2451,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2166,12 +2488,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471650032"/>
+        <c:crossAx val="457063552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471650032"/>
+        <c:axId val="457063552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471657480"/>
+        <c:crossAx val="475558120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2378,6 +2700,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>גיליון1!$S$130:$S$222</c:f>
@@ -2676,11 +3316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471648464"/>
-        <c:axId val="471642192"/>
+        <c:axId val="457064728"/>
+        <c:axId val="457065120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471648464"/>
+        <c:axId val="457064728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,6 +3340,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2736,12 +3377,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471642192"/>
+        <c:crossAx val="457065120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471642192"/>
+        <c:axId val="457065120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2798,7 +3439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471648464"/>
+        <c:crossAx val="457064728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2948,6 +3589,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>גיליון1!$U$130:$U$222</c:f>
@@ -3246,11 +4205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471642584"/>
-        <c:axId val="471644936"/>
+        <c:axId val="457062376"/>
+        <c:axId val="457062768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471642584"/>
+        <c:axId val="457062376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,6 +4229,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3306,12 +4266,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471644936"/>
+        <c:crossAx val="457062768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471644936"/>
+        <c:axId val="457062768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3368,7 +4328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471642584"/>
+        <c:crossAx val="457062376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3526,6 +4486,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>גיליון1!$R$130:$R$222</c:f>
@@ -3844,6 +5122,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>[1]גיליון1!$R$130:$R$222</c:f>
@@ -4142,11 +5738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485319856"/>
-        <c:axId val="485320640"/>
+        <c:axId val="452803880"/>
+        <c:axId val="452803096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485319856"/>
+        <c:axId val="452803880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,6 +5762,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4202,12 +5799,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485320640"/>
+        <c:crossAx val="452803096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485320640"/>
+        <c:axId val="452803096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4264,7 +5861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485319856"/>
+        <c:crossAx val="452803880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4449,6 +6046,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>גיליון1!$S$130:$S$222</c:f>
@@ -4767,6 +6682,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>[1]גיליון1!$S$130:$S$222</c:f>
@@ -5065,11 +7298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486309640"/>
-        <c:axId val="486311600"/>
+        <c:axId val="312091296"/>
+        <c:axId val="312093256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486309640"/>
+        <c:axId val="312091296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5089,6 +7322,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5125,12 +7359,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486311600"/>
+        <c:crossAx val="312093256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486311600"/>
+        <c:axId val="312093256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5187,7 +7421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486309640"/>
+        <c:crossAx val="312091296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5372,6 +7606,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>גיליון1!$U$130:$U$222</c:f>
@@ -5690,6 +8242,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>[1]גיליון1!$U$130:$U$222</c:f>
@@ -5988,11 +8858,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486314344"/>
-        <c:axId val="486304544"/>
+        <c:axId val="312091688"/>
+        <c:axId val="515215360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486314344"/>
+        <c:axId val="312091688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6012,6 +8882,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6048,12 +8919,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486304544"/>
+        <c:crossAx val="515215360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486304544"/>
+        <c:axId val="515215360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6110,7 +8981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486314344"/>
+        <c:crossAx val="312091688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10103,7 +12974,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11646,8 +14517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BA140" sqref="BA140"/>
+    <sheetView tabSelected="1" topLeftCell="L144" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG162" sqref="AG162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16723,6 +19594,9 @@
       <c r="O122" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="P122" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="Q122" s="1" t="s">
         <v>12</v>
       </c>
@@ -17098,6 +19972,10 @@
         <f t="shared" si="11"/>
         <v>2.2224634773968348</v>
       </c>
+      <c r="P130">
+        <f>A130</f>
+        <v>7</v>
+      </c>
       <c r="Q130">
         <f>M10-M130</f>
         <v>-0.91183162364177184</v>
@@ -17163,24 +20041,28 @@
         <f t="shared" si="11"/>
         <v>7.0166435905729099</v>
       </c>
+      <c r="P131">
+        <f t="shared" ref="P131:P194" si="12">A131</f>
+        <v>8</v>
+      </c>
       <c r="Q131">
         <f>M11-M131</f>
         <v>-4.9845993040362213</v>
       </c>
       <c r="R131">
-        <f t="shared" ref="R131:R194" si="12">Q131/M11</f>
+        <f t="shared" ref="R131:R194" si="13">Q131/M11</f>
         <v>-1.9938397216144885</v>
       </c>
       <c r="S131">
-        <f t="shared" ref="S131:S194" si="13">1/SQRT(M11)</f>
+        <f t="shared" ref="S131:S194" si="14">1/SQRT(M11)</f>
         <v>0.63245553203367588</v>
       </c>
       <c r="T131">
-        <f t="shared" ref="T131:T194" si="14">R131/S131</f>
+        <f t="shared" ref="T131:T194" si="15">R131/S131</f>
         <v>-3.1525374048089185</v>
       </c>
       <c r="U131">
-        <f t="shared" ref="U131:U194" si="15">Q131*Q131/M11</f>
+        <f t="shared" ref="U131:U194" si="16">Q131*Q131/M11</f>
         <v>9.9384920887193537</v>
       </c>
     </row>
@@ -17228,24 +20110,28 @@
         <f t="shared" si="11"/>
         <v>6.3931236843682839</v>
       </c>
+      <c r="P132">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
       <c r="Q132">
-        <f t="shared" ref="Q132:Q195" si="16">M12-M132</f>
+        <f t="shared" ref="Q132:Q195" si="17">M12-M132</f>
         <v>-5.2185472003183584</v>
       </c>
       <c r="R132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.20464890981640621</v>
       </c>
       <c r="S132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.19802950859533489</v>
       </c>
       <c r="T132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.033426337660605</v>
       </c>
       <c r="U132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0679699953706108</v>
       </c>
     </row>
@@ -17293,24 +20179,28 @@
         <f t="shared" si="11"/>
         <v>4.859679600639808</v>
       </c>
+      <c r="P133">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
       <c r="Q133">
+        <f t="shared" si="17"/>
+        <v>3.5921938316898832</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="13"/>
+        <v>3.5174480604062502E-2</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="14"/>
+        <v>9.8954139199058683E-2</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="15"/>
+        <v>0.35546244845104069</v>
+      </c>
+      <c r="U133">
         <f t="shared" si="16"/>
-        <v>3.5921938316898832</v>
-      </c>
-      <c r="R133">
-        <f t="shared" si="12"/>
-        <v>3.5174480604062502E-2</v>
-      </c>
-      <c r="S133">
-        <f t="shared" si="13"/>
-        <v>9.8954139199058683E-2</v>
-      </c>
-      <c r="T133">
-        <f t="shared" si="14"/>
-        <v>0.35546244845104069</v>
-      </c>
-      <c r="U133">
-        <f t="shared" si="15"/>
         <v>0.12635355225880876</v>
       </c>
     </row>
@@ -17358,24 +20248,28 @@
         <f t="shared" si="11"/>
         <v>7.3570421967095108</v>
       </c>
+      <c r="P134">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
       <c r="Q134">
+        <f t="shared" si="17"/>
+        <v>-7.6492802761491134</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="13"/>
+        <v>-3.5619465779506934E-2</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="14"/>
+        <v>6.8239119393494044E-2</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="15"/>
+        <v>-0.52198015003843845</v>
+      </c>
+      <c r="U134">
         <f t="shared" si="16"/>
-        <v>-7.6492802761491134</v>
-      </c>
-      <c r="R134">
-        <f t="shared" si="12"/>
-        <v>-3.5619465779506934E-2</v>
-      </c>
-      <c r="S134">
-        <f t="shared" si="13"/>
-        <v>6.8239119393494044E-2</v>
-      </c>
-      <c r="T134">
-        <f t="shared" si="14"/>
-        <v>-0.52198015003843845</v>
-      </c>
-      <c r="U134">
-        <f t="shared" si="15"/>
         <v>0.27246327703415069</v>
       </c>
     </row>
@@ -17423,24 +20317,28 @@
         <f t="shared" si="11"/>
         <v>8.8986771454572722</v>
       </c>
+      <c r="P135">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
       <c r="Q135">
+        <f t="shared" si="17"/>
+        <v>8.0101272165780415</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="13"/>
+        <v>2.1065423317759478E-2</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="14"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="15"/>
+        <v>0.41077575469630984</v>
+      </c>
+      <c r="U135">
         <f t="shared" si="16"/>
-        <v>8.0101272165780415</v>
-      </c>
-      <c r="R135">
-        <f t="shared" si="12"/>
-        <v>2.1065423317759478E-2</v>
-      </c>
-      <c r="S135">
-        <f t="shared" si="13"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="T135">
-        <f t="shared" si="14"/>
-        <v>0.41077575469630984</v>
-      </c>
-      <c r="U135">
-        <f t="shared" si="15"/>
         <v>0.16873672064632289</v>
       </c>
     </row>
@@ -17488,24 +20386,28 @@
         <f t="shared" si="11"/>
         <v>15.778299207803659</v>
       </c>
+      <c r="P136">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
       <c r="Q136">
+        <f t="shared" si="17"/>
+        <v>-2.5975616350765449</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="13"/>
+        <v>-4.1652621929469556E-3</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="14"/>
+        <v>4.004407273335673E-2</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="15"/>
+        <v>-0.10401694704438219</v>
+      </c>
+      <c r="U136">
         <f t="shared" si="16"/>
-        <v>-2.5975616350765449</v>
-      </c>
-      <c r="R136">
-        <f t="shared" si="12"/>
-        <v>-4.1652621929469556E-3</v>
-      </c>
-      <c r="S136">
-        <f t="shared" si="13"/>
-        <v>4.004407273335673E-2</v>
-      </c>
-      <c r="T136">
-        <f t="shared" si="14"/>
-        <v>-0.10401694704438219</v>
-      </c>
-      <c r="U136">
-        <f t="shared" si="15"/>
         <v>1.0819525272433808E-2</v>
       </c>
     </row>
@@ -17553,24 +20455,28 @@
         <f t="shared" si="11"/>
         <v>22.16730574830552</v>
       </c>
+      <c r="P137">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
       <c r="Q137">
+        <f t="shared" si="17"/>
+        <v>-17.709736175834564</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="13"/>
+        <v>-2.0280259004677427E-2</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="14"/>
+        <v>3.3840027153248686E-2</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="15"/>
+        <v>-0.59929795306711198</v>
+      </c>
+      <c r="U137">
         <f t="shared" si="16"/>
-        <v>-17.709736175834564</v>
-      </c>
-      <c r="R137">
-        <f t="shared" si="12"/>
-        <v>-2.0280259004677427E-2</v>
-      </c>
-      <c r="S137">
-        <f t="shared" si="13"/>
-        <v>3.3840027153248686E-2</v>
-      </c>
-      <c r="T137">
-        <f t="shared" si="14"/>
-        <v>-0.59929795306711198</v>
-      </c>
-      <c r="U137">
-        <f t="shared" si="15"/>
         <v>0.35915803655043049</v>
       </c>
     </row>
@@ -17618,24 +20524,28 @@
         <f t="shared" si="11"/>
         <v>30.846310812206699</v>
       </c>
+      <c r="P138">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
       <c r="Q138">
+        <f t="shared" si="17"/>
+        <v>43.938462503258734</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="13"/>
+        <v>3.6226703084207966E-2</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="14"/>
+        <v>2.8713886396267204E-2</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="15"/>
+        <v>1.2616440207452178</v>
+      </c>
+      <c r="U138">
         <f t="shared" si="16"/>
-        <v>43.938462503258734</v>
-      </c>
-      <c r="R138">
-        <f t="shared" si="12"/>
-        <v>3.6226703084207966E-2</v>
-      </c>
-      <c r="S138">
-        <f t="shared" si="13"/>
-        <v>2.8713886396267204E-2</v>
-      </c>
-      <c r="T138">
-        <f t="shared" si="14"/>
-        <v>1.2616440207452178</v>
-      </c>
-      <c r="U138">
-        <f t="shared" si="15"/>
         <v>1.591745635082159</v>
       </c>
     </row>
@@ -17683,24 +20593,28 @@
         <f t="shared" si="11"/>
         <v>44.598174338056609</v>
       </c>
+      <c r="P139">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
       <c r="Q139">
+        <f t="shared" si="17"/>
+        <v>28.041128173476181</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="13"/>
+        <v>1.8204091973367642E-2</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="14"/>
+        <v>2.5479257578373642E-2</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="15"/>
+        <v>0.7144671275201897</v>
+      </c>
+      <c r="U139">
         <f t="shared" si="16"/>
-        <v>28.041128173476181</v>
-      </c>
-      <c r="R139">
-        <f t="shared" si="12"/>
-        <v>1.8204091973367642E-2</v>
-      </c>
-      <c r="S139">
-        <f t="shared" si="13"/>
-        <v>2.5479257578373642E-2</v>
-      </c>
-      <c r="T139">
-        <f t="shared" si="14"/>
-        <v>0.7144671275201897</v>
-      </c>
-      <c r="U139">
-        <f t="shared" si="15"/>
         <v>0.51046327630695099</v>
       </c>
     </row>
@@ -17748,24 +20662,28 @@
         <f t="shared" si="11"/>
         <v>51.498005143226635</v>
       </c>
+      <c r="P140">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
       <c r="Q140">
+        <f t="shared" si="17"/>
+        <v>33.971019864090067</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="13"/>
+        <v>1.8073296462906202E-2</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="14"/>
+        <v>2.3065580739059788E-2</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="15"/>
+        <v>0.78356130146337322</v>
+      </c>
+      <c r="U140">
         <f t="shared" si="16"/>
-        <v>33.971019864090067</v>
-      </c>
-      <c r="R140">
-        <f t="shared" si="12"/>
-        <v>1.8073296462906202E-2</v>
-      </c>
-      <c r="S140">
-        <f t="shared" si="13"/>
-        <v>2.3065580739059788E-2</v>
-      </c>
-      <c r="T140">
-        <f t="shared" si="14"/>
-        <v>0.78356130146337322</v>
-      </c>
-      <c r="U140">
-        <f t="shared" si="15"/>
         <v>0.61396831315097522</v>
       </c>
     </row>
@@ -17813,24 +20731,28 @@
         <f t="shared" si="11"/>
         <v>61.869942163004914</v>
       </c>
+      <c r="P141">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
       <c r="Q141">
+        <f t="shared" si="17"/>
+        <v>25.800573617234932</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="13"/>
+        <v>1.1190273187198669E-2</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="14"/>
+        <v>2.0825990392946817E-2</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="15"/>
+        <v>0.53732249828505163</v>
+      </c>
+      <c r="U141">
         <f t="shared" si="16"/>
-        <v>25.800573617234932</v>
-      </c>
-      <c r="R141">
-        <f t="shared" si="12"/>
-        <v>1.1190273187198669E-2</v>
-      </c>
-      <c r="S141">
-        <f t="shared" si="13"/>
-        <v>2.0825990392946817E-2</v>
-      </c>
-      <c r="T141">
-        <f t="shared" si="14"/>
-        <v>0.53732249828505163</v>
-      </c>
-      <c r="U141">
-        <f t="shared" si="15"/>
         <v>0.28871546716328944</v>
       </c>
     </row>
@@ -17878,24 +20800,28 @@
         <f t="shared" si="11"/>
         <v>79.166133845853551</v>
       </c>
+      <c r="P142">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
       <c r="Q142">
+        <f t="shared" si="17"/>
+        <v>18.100619882351111</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="13"/>
+        <v>6.7301059239082027E-3</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="14"/>
+        <v>1.9282539322832151E-2</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="15"/>
+        <v>0.34902591464907273</v>
+      </c>
+      <c r="U142">
         <f t="shared" si="16"/>
-        <v>18.100619882351111</v>
-      </c>
-      <c r="R142">
-        <f t="shared" si="12"/>
-        <v>6.7301059239082027E-3</v>
-      </c>
-      <c r="S142">
-        <f t="shared" si="13"/>
-        <v>1.9282539322832151E-2</v>
-      </c>
-      <c r="T142">
-        <f t="shared" si="14"/>
-        <v>0.34902591464907273</v>
-      </c>
-      <c r="U142">
-        <f t="shared" si="15"/>
         <v>0.12181908909662181</v>
       </c>
     </row>
@@ -17943,24 +20869,28 @@
         <f t="shared" si="11"/>
         <v>87.001780624655879</v>
       </c>
+      <c r="P143">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
       <c r="Q143">
+        <f t="shared" si="17"/>
+        <v>43.09665170313383</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="13"/>
+        <v>1.4381130125347068E-2</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="14"/>
+        <v>1.8267316060998445E-2</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="15"/>
+        <v>0.78726015783191261</v>
+      </c>
+      <c r="U143">
         <f t="shared" si="16"/>
-        <v>43.09665170313383</v>
-      </c>
-      <c r="R143">
-        <f t="shared" si="12"/>
-        <v>1.4381130125347068E-2</v>
-      </c>
-      <c r="S143">
-        <f t="shared" si="13"/>
-        <v>1.8267316060998445E-2</v>
-      </c>
-      <c r="T143">
-        <f t="shared" si="14"/>
-        <v>0.78726015783191261</v>
-      </c>
-      <c r="U143">
-        <f t="shared" si="15"/>
         <v>0.61977855610952803</v>
       </c>
     </row>
@@ -18008,24 +20938,28 @@
         <f t="shared" si="11"/>
         <v>98.788690116302405</v>
       </c>
+      <c r="P144">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
       <c r="Q144">
+        <f t="shared" si="17"/>
+        <v>-2.6624448001330165</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="13"/>
+        <v>-7.855267711991198E-4</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="14"/>
+        <v>1.7176718136839322E-2</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="15"/>
+        <v>-4.5732063886778321E-2</v>
+      </c>
+      <c r="U144">
         <f t="shared" si="16"/>
-        <v>-2.6624448001330165</v>
-      </c>
-      <c r="R144">
-        <f t="shared" si="12"/>
-        <v>-7.855267711991198E-4</v>
-      </c>
-      <c r="S144">
-        <f t="shared" si="13"/>
-        <v>1.7176718136839322E-2</v>
-      </c>
-      <c r="T144">
-        <f t="shared" si="14"/>
-        <v>-4.5732063886778321E-2</v>
-      </c>
-      <c r="U144">
-        <f t="shared" si="15"/>
         <v>2.0914216673443742E-3</v>
       </c>
     </row>
@@ -18073,24 +21007,28 @@
         <f t="shared" si="11"/>
         <v>127.37023731919088</v>
       </c>
+      <c r="P145">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
       <c r="Q145">
+        <f t="shared" si="17"/>
+        <v>36.65582540632613</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="13"/>
+        <v>9.6659833624698089E-3</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="14"/>
+        <v>1.6238709775341649E-2</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="15"/>
+        <v>0.59524331034892486</v>
+      </c>
+      <c r="U145">
         <f t="shared" si="16"/>
-        <v>36.65582540632613</v>
-      </c>
-      <c r="R145">
-        <f t="shared" si="12"/>
-        <v>9.6659833624698089E-3</v>
-      </c>
-      <c r="S145">
-        <f t="shared" si="13"/>
-        <v>1.6238709775341649E-2</v>
-      </c>
-      <c r="T145">
-        <f t="shared" si="14"/>
-        <v>0.59524331034892486</v>
-      </c>
-      <c r="U145">
-        <f t="shared" si="15"/>
         <v>0.35431459851514646</v>
       </c>
     </row>
@@ -18138,24 +21076,28 @@
         <f t="shared" si="11"/>
         <v>127.60080594763667</v>
       </c>
+      <c r="P146">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
       <c r="Q146">
+        <f t="shared" si="17"/>
+        <v>-27.080132901663092</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="13"/>
+        <v>-6.5832339617510859E-3</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="14"/>
+        <v>1.5591727976114366E-2</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="15"/>
+        <v>-0.42222606575975563</v>
+      </c>
+      <c r="U146">
         <f t="shared" si="16"/>
-        <v>-27.080132901663092</v>
-      </c>
-      <c r="R146">
-        <f t="shared" si="12"/>
-        <v>-6.5832339617510859E-3</v>
-      </c>
-      <c r="S146">
-        <f t="shared" si="13"/>
-        <v>1.5591727976114366E-2</v>
-      </c>
-      <c r="T146">
-        <f t="shared" si="14"/>
-        <v>-0.42222606575975563</v>
-      </c>
-      <c r="U146">
-        <f t="shared" si="15"/>
         <v>0.17827485060696144</v>
       </c>
     </row>
@@ -18203,24 +21145,28 @@
         <f t="shared" si="11"/>
         <v>123.99402705262668</v>
       </c>
+      <c r="P147">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
       <c r="Q147">
+        <f t="shared" si="17"/>
+        <v>12.815778970722931</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="13"/>
+        <v>2.9501404703416523E-3</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="14"/>
+        <v>1.5172209934815136E-2</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="15"/>
+        <v>0.1944436890219973</v>
+      </c>
+      <c r="U147">
         <f t="shared" si="16"/>
-        <v>12.815778970722931</v>
-      </c>
-      <c r="R147">
-        <f t="shared" si="12"/>
-        <v>2.9501404703416523E-3</v>
-      </c>
-      <c r="S147">
-        <f t="shared" si="13"/>
-        <v>1.5172209934815136E-2</v>
-      </c>
-      <c r="T147">
-        <f t="shared" si="14"/>
-        <v>0.1944436890219973</v>
-      </c>
-      <c r="U147">
-        <f t="shared" si="15"/>
         <v>3.7808348200483205E-2</v>
       </c>
     </row>
@@ -18268,24 +21214,28 @@
         <f t="shared" si="11"/>
         <v>139.74805010107366</v>
       </c>
+      <c r="P148">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
       <c r="Q148">
+        <f t="shared" si="17"/>
+        <v>17.659550488002424</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="13"/>
+        <v>3.7241703942011172E-3</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="14"/>
+        <v>1.4521950407133924E-2</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="15"/>
+        <v>0.25645111639904888</v>
+      </c>
+      <c r="U148">
         <f t="shared" si="16"/>
-        <v>17.659550488002424</v>
-      </c>
-      <c r="R148">
-        <f t="shared" si="12"/>
-        <v>3.7241703942011172E-3</v>
-      </c>
-      <c r="S148">
-        <f t="shared" si="13"/>
-        <v>1.4521950407133924E-2</v>
-      </c>
-      <c r="T148">
-        <f t="shared" si="14"/>
-        <v>0.25645111639904888</v>
-      </c>
-      <c r="U148">
-        <f t="shared" si="15"/>
         <v>6.5767175102318512E-2</v>
       </c>
     </row>
@@ -18333,24 +21283,28 @@
         <f t="shared" si="11"/>
         <v>159.13610333677141</v>
       </c>
+      <c r="P149">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
       <c r="Q149">
+        <f t="shared" si="17"/>
+        <v>3.4962195754096683</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="13"/>
+        <v>7.0249294495233826E-4</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="14"/>
+        <v>1.4174953192277748E-2</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="15"/>
+        <v>4.9558748831357226E-2</v>
+      </c>
+      <c r="U149">
         <f t="shared" si="16"/>
-        <v>3.4962195754096683</v>
-      </c>
-      <c r="R149">
-        <f t="shared" si="12"/>
-        <v>7.0249294495233826E-4</v>
-      </c>
-      <c r="S149">
-        <f t="shared" si="13"/>
-        <v>1.4174953192277748E-2</v>
-      </c>
-      <c r="T149">
-        <f t="shared" si="14"/>
-        <v>4.9558748831357226E-2</v>
-      </c>
-      <c r="U149">
-        <f t="shared" si="15"/>
         <v>2.4560695857295516E-3</v>
       </c>
     </row>
@@ -18398,24 +21352,28 @@
         <f t="shared" si="11"/>
         <v>160.97551567408595</v>
       </c>
+      <c r="P150">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
       <c r="Q150">
+        <f t="shared" si="17"/>
+        <v>11.808968216311769</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="13"/>
+        <v>2.2962361025349802E-3</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="14"/>
+        <v>1.3944479031314379E-2</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="15"/>
+        <v>0.16466990967381745</v>
+      </c>
+      <c r="U150">
         <f t="shared" si="16"/>
-        <v>11.808968216311769</v>
-      </c>
-      <c r="R150">
-        <f t="shared" si="12"/>
-        <v>2.2962361025349802E-3</v>
-      </c>
-      <c r="S150">
-        <f t="shared" si="13"/>
-        <v>1.3944479031314379E-2</v>
-      </c>
-      <c r="T150">
-        <f t="shared" si="14"/>
-        <v>0.16466990967381745</v>
-      </c>
-      <c r="U150">
-        <f t="shared" si="15"/>
         <v>2.7116179151983191E-2</v>
       </c>
     </row>
@@ -18463,24 +21421,28 @@
         <f t="shared" si="11"/>
         <v>148.9450219026231</v>
       </c>
+      <c r="P151">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
       <c r="Q151">
+        <f t="shared" si="17"/>
+        <v>27.053652495150345</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="13"/>
+        <v>5.0674132512573819E-3</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="14"/>
+        <v>1.3686115720737697E-2</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="15"/>
+        <v>0.37025941871725182</v>
+      </c>
+      <c r="U151">
         <f t="shared" si="16"/>
-        <v>27.053652495150345</v>
-      </c>
-      <c r="R151">
-        <f t="shared" si="12"/>
-        <v>5.0674132512573819E-3</v>
-      </c>
-      <c r="S151">
-        <f t="shared" si="13"/>
-        <v>1.3686115720737697E-2</v>
-      </c>
-      <c r="T151">
-        <f t="shared" si="14"/>
-        <v>0.37025941871725182</v>
-      </c>
-      <c r="U151">
-        <f t="shared" si="15"/>
         <v>0.13709203714883716</v>
       </c>
     </row>
@@ -18528,24 +21490,28 @@
         <f t="shared" si="11"/>
         <v>165.8913961162078</v>
       </c>
+      <c r="P152">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
       <c r="Q152">
+        <f t="shared" si="17"/>
+        <v>-35.930732458823513</v>
+      </c>
+      <c r="R152">
+        <f t="shared" si="13"/>
+        <v>-6.5977886857159799E-3</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="14"/>
+        <v>1.3550838384546319E-2</v>
+      </c>
+      <c r="T152">
+        <f t="shared" si="15"/>
+        <v>-0.48689154858789008</v>
+      </c>
+      <c r="U152">
         <f t="shared" si="16"/>
-        <v>-35.930732458823513</v>
-      </c>
-      <c r="R152">
-        <f t="shared" si="12"/>
-        <v>-6.5977886857159799E-3</v>
-      </c>
-      <c r="S152">
-        <f t="shared" si="13"/>
-        <v>1.3550838384546319E-2</v>
-      </c>
-      <c r="T152">
-        <f t="shared" si="14"/>
-        <v>-0.48689154858789008</v>
-      </c>
-      <c r="U152">
-        <f t="shared" si="15"/>
         <v>0.2370633800863137</v>
       </c>
     </row>
@@ -18593,24 +21559,28 @@
         <f t="shared" si="11"/>
         <v>184.70495778086209</v>
       </c>
+      <c r="P153">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
       <c r="Q153">
+        <f t="shared" si="17"/>
+        <v>3.1788553297674298</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="13"/>
+        <v>5.6852837267531325E-4</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="14"/>
+        <v>1.337336474903855E-2</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="15"/>
+        <v>4.2511991809405063E-2</v>
+      </c>
+      <c r="U153">
         <f t="shared" si="16"/>
-        <v>3.1788553297674298</v>
-      </c>
-      <c r="R153">
-        <f t="shared" si="12"/>
-        <v>5.6852837267531325E-4</v>
-      </c>
-      <c r="S153">
-        <f t="shared" si="13"/>
-        <v>1.337336474903855E-2</v>
-      </c>
-      <c r="T153">
-        <f t="shared" si="14"/>
-        <v>4.2511991809405063E-2</v>
-      </c>
-      <c r="U153">
-        <f t="shared" si="15"/>
         <v>1.8072694476029233E-3</v>
       </c>
     </row>
@@ -18658,24 +21628,28 @@
         <f t="shared" si="11"/>
         <v>194.41964039207099</v>
       </c>
+      <c r="P154">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
       <c r="Q154">
+        <f t="shared" si="17"/>
+        <v>-39.226538628337039</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="13"/>
+        <v>-6.9335463770812261E-3</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="14"/>
+        <v>1.3294980928779005E-2</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="15"/>
+        <v>-0.5215160829657538</v>
+      </c>
+      <c r="U154">
         <f t="shared" si="16"/>
-        <v>-39.226538628337039</v>
-      </c>
-      <c r="R154">
-        <f t="shared" si="12"/>
-        <v>-6.9335463770812261E-3</v>
-      </c>
-      <c r="S154">
-        <f t="shared" si="13"/>
-        <v>1.3294980928779005E-2</v>
-      </c>
-      <c r="T154">
-        <f t="shared" si="14"/>
-        <v>-0.5215160829657538</v>
-      </c>
-      <c r="U154">
-        <f t="shared" si="15"/>
         <v>0.27197902479194308</v>
       </c>
     </row>
@@ -18723,24 +21697,28 @@
         <f t="shared" si="11"/>
         <v>188.54038870800295</v>
       </c>
+      <c r="P155">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
       <c r="Q155">
+        <f t="shared" si="17"/>
+        <v>-44.239270001628029</v>
+      </c>
+      <c r="R155">
+        <f t="shared" si="13"/>
+        <v>-7.7317726222970295E-3</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="14"/>
+        <v>1.3220124979025265E-2</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="15"/>
+        <v>-0.58484867840236576</v>
+      </c>
+      <c r="U155">
         <f t="shared" si="16"/>
-        <v>-44.239270001628029</v>
-      </c>
-      <c r="R155">
-        <f t="shared" si="12"/>
-        <v>-7.7317726222970295E-3</v>
-      </c>
-      <c r="S155">
-        <f t="shared" si="13"/>
-        <v>1.3220124979025265E-2</v>
-      </c>
-      <c r="T155">
-        <f t="shared" si="14"/>
-        <v>-0.58484867840236576</v>
-      </c>
-      <c r="U155">
-        <f t="shared" si="15"/>
         <v>0.34204797662899389</v>
       </c>
     </row>
@@ -18788,24 +21766,28 @@
         <f t="shared" si="11"/>
         <v>172.6194136590961</v>
       </c>
+      <c r="P156">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
       <c r="Q156">
+        <f t="shared" si="17"/>
+        <v>-6.3989028483574657</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="13"/>
+        <v>-1.1095481454550518E-3</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="14"/>
+        <v>1.3168015154181935E-2</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="15"/>
+        <v>-8.4260849677309069E-2</v>
+      </c>
+      <c r="U156">
         <f t="shared" si="16"/>
-        <v>-6.3989028483574657</v>
-      </c>
-      <c r="R156">
-        <f t="shared" si="12"/>
-        <v>-1.1095481454550518E-3</v>
-      </c>
-      <c r="S156">
-        <f t="shared" si="13"/>
-        <v>1.3168015154181935E-2</v>
-      </c>
-      <c r="T156">
-        <f t="shared" si="14"/>
-        <v>-8.4260849677309069E-2</v>
-      </c>
-      <c r="U156">
-        <f t="shared" si="15"/>
         <v>7.099890788342075E-3</v>
       </c>
     </row>
@@ -18853,24 +21835,28 @@
         <f t="shared" si="11"/>
         <v>194.22907063807983</v>
       </c>
+      <c r="P157">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
       <c r="Q157">
+        <f t="shared" si="17"/>
+        <v>14.735165864261035</v>
+      </c>
+      <c r="R157">
+        <f t="shared" si="13"/>
+        <v>2.5724800740679179E-3</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="14"/>
+        <v>1.3212910564542248E-2</v>
+      </c>
+      <c r="T157">
+        <f t="shared" si="15"/>
+        <v>0.19469442871817697</v>
+      </c>
+      <c r="U157">
         <f t="shared" si="16"/>
-        <v>14.735165864261035</v>
-      </c>
-      <c r="R157">
-        <f t="shared" si="12"/>
-        <v>2.5724800740679179E-3</v>
-      </c>
-      <c r="S157">
-        <f t="shared" si="13"/>
-        <v>1.3212910564542248E-2</v>
-      </c>
-      <c r="T157">
-        <f t="shared" si="14"/>
-        <v>0.19469442871817697</v>
-      </c>
-      <c r="U157">
-        <f t="shared" si="15"/>
         <v>3.790592057389728E-2</v>
       </c>
     </row>
@@ -18918,24 +21904,28 @@
         <f t="shared" si="11"/>
         <v>199.17683423968737</v>
       </c>
+      <c r="P158">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
       <c r="Q158">
+        <f t="shared" si="17"/>
+        <v>-15.297530561565509</v>
+      </c>
+      <c r="R158">
+        <f t="shared" si="13"/>
+        <v>-2.7176888031028418E-3</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="14"/>
+        <v>1.3328743112218882E-2</v>
+      </c>
+      <c r="T158">
+        <f t="shared" si="15"/>
+        <v>-0.20389685510642411</v>
+      </c>
+      <c r="U158">
         <f t="shared" si="16"/>
-        <v>-15.297530561565509</v>
-      </c>
-      <c r="R158">
-        <f t="shared" si="12"/>
-        <v>-2.7176888031028418E-3</v>
-      </c>
-      <c r="S158">
-        <f t="shared" si="13"/>
-        <v>1.3328743112218882E-2</v>
-      </c>
-      <c r="T158">
-        <f t="shared" si="14"/>
-        <v>-0.20389685510642411</v>
-      </c>
-      <c r="U158">
-        <f t="shared" si="15"/>
         <v>4.1573927522290111E-2</v>
       </c>
     </row>
@@ -18983,24 +21973,28 @@
         <f t="shared" si="11"/>
         <v>192.46860634449365</v>
       </c>
+      <c r="P159">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
       <c r="Q159">
+        <f t="shared" si="17"/>
+        <v>-76.438642427319792</v>
+      </c>
+      <c r="R159">
+        <f t="shared" si="13"/>
+        <v>-1.3797588885797796E-2</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="14"/>
+        <v>1.3435230372511476E-2</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="15"/>
+        <v>-1.0269707703730713</v>
+      </c>
+      <c r="U159">
         <f t="shared" si="16"/>
-        <v>-76.438642427319792</v>
-      </c>
-      <c r="R159">
-        <f t="shared" si="12"/>
-        <v>-1.3797588885797796E-2</v>
-      </c>
-      <c r="S159">
-        <f t="shared" si="13"/>
-        <v>1.3435230372511476E-2</v>
-      </c>
-      <c r="T159">
-        <f t="shared" si="14"/>
-        <v>-1.0269707703730713</v>
-      </c>
-      <c r="U159">
-        <f t="shared" si="15"/>
         <v>1.0546689632006596</v>
       </c>
     </row>
@@ -19048,24 +22042,28 @@
         <f t="shared" si="11"/>
         <v>201.30707622383616</v>
       </c>
+      <c r="P160">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
       <c r="Q160">
+        <f t="shared" si="17"/>
+        <v>-24.386535525320141</v>
+      </c>
+      <c r="R160">
+        <f t="shared" si="13"/>
+        <v>-4.4439143573622728E-3</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="14"/>
+        <v>1.3499192392788215E-2</v>
+      </c>
+      <c r="T160">
+        <f t="shared" si="15"/>
+        <v>-0.32919853484986122</v>
+      </c>
+      <c r="U160">
         <f t="shared" si="16"/>
-        <v>-24.386535525320141</v>
-      </c>
-      <c r="R160">
-        <f t="shared" si="12"/>
-        <v>-4.4439143573622728E-3</v>
-      </c>
-      <c r="S160">
-        <f t="shared" si="13"/>
-        <v>1.3499192392788215E-2</v>
-      </c>
-      <c r="T160">
-        <f t="shared" si="14"/>
-        <v>-0.32919853484986122</v>
-      </c>
-      <c r="U160">
-        <f t="shared" si="15"/>
         <v>0.10837167534729529</v>
       </c>
     </row>
@@ -19113,24 +22111,28 @@
         <f t="shared" si="11"/>
         <v>179.91270516704478</v>
       </c>
+      <c r="P161">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
       <c r="Q161">
+        <f t="shared" si="17"/>
+        <v>-68.521595254520435</v>
+      </c>
+      <c r="R161">
+        <f t="shared" si="13"/>
+        <v>-1.2980955315924211E-2</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="14"/>
+        <v>1.3763839347353903E-2</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="15"/>
+        <v>-0.94312022890762659</v>
+      </c>
+      <c r="U161">
         <f t="shared" si="16"/>
-        <v>-68.521595254520435</v>
-      </c>
-      <c r="R161">
-        <f t="shared" si="12"/>
-        <v>-1.2980955315924211E-2</v>
-      </c>
-      <c r="S161">
-        <f t="shared" si="13"/>
-        <v>1.3763839347353903E-2</v>
-      </c>
-      <c r="T161">
-        <f t="shared" si="14"/>
-        <v>-0.94312022890762659</v>
-      </c>
-      <c r="U161">
-        <f t="shared" si="15"/>
         <v>0.8894757661747742</v>
       </c>
     </row>
@@ -19178,24 +22180,28 @@
         <f t="shared" si="11"/>
         <v>184.18345042991567</v>
       </c>
+      <c r="P162">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
       <c r="Q162">
+        <f t="shared" si="17"/>
+        <v>17.534868009404818</v>
+      </c>
+      <c r="R162">
+        <f t="shared" si="13"/>
+        <v>3.3622296168745154E-3</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="14"/>
+        <v>1.3847214960382929E-2</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="15"/>
+        <v>0.24280908662817036</v>
+      </c>
+      <c r="U162">
         <f t="shared" si="16"/>
-        <v>17.534868009404818</v>
-      </c>
-      <c r="R162">
-        <f t="shared" si="12"/>
-        <v>3.3622296168745154E-3</v>
-      </c>
-      <c r="S162">
-        <f t="shared" si="13"/>
-        <v>1.3847214960382929E-2</v>
-      </c>
-      <c r="T162">
-        <f t="shared" si="14"/>
-        <v>0.24280908662817036</v>
-      </c>
-      <c r="U162">
-        <f t="shared" si="15"/>
         <v>5.8956252549206369E-2</v>
       </c>
     </row>
@@ -19243,24 +22249,28 @@
         <f t="shared" si="11"/>
         <v>187.75897879963719</v>
       </c>
+      <c r="P163">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
       <c r="Q163">
+        <f t="shared" si="17"/>
+        <v>-51.639330394556055</v>
+      </c>
+      <c r="R163">
+        <f t="shared" si="13"/>
+        <v>-1.0387855947005165E-2</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="14"/>
+        <v>1.4183148764245436E-2</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="15"/>
+        <v>-0.73240830507200949</v>
+      </c>
+      <c r="U163">
         <f t="shared" si="16"/>
-        <v>-51.639330394556055</v>
-      </c>
-      <c r="R163">
-        <f t="shared" si="12"/>
-        <v>-1.0387855947005165E-2</v>
-      </c>
-      <c r="S163">
-        <f t="shared" si="13"/>
-        <v>1.4183148764245436E-2</v>
-      </c>
-      <c r="T163">
-        <f t="shared" si="14"/>
-        <v>-0.73240830507200949</v>
-      </c>
-      <c r="U163">
-        <f t="shared" si="15"/>
         <v>0.53642192533845368</v>
       </c>
     </row>
@@ -19308,24 +22318,28 @@
         <f t="shared" si="11"/>
         <v>187.25765025962457</v>
       </c>
+      <c r="P164">
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
       <c r="Q164">
+        <f t="shared" si="17"/>
+        <v>13.749921783922218</v>
+      </c>
+      <c r="R164">
+        <f t="shared" si="13"/>
+        <v>2.8210754583344725E-3</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="14"/>
+        <v>1.432376666040793E-2</v>
+      </c>
+      <c r="T164">
+        <f t="shared" si="15"/>
+        <v>0.19695067123176177</v>
+      </c>
+      <c r="U164">
         <f t="shared" si="16"/>
-        <v>13.749921783922218</v>
-      </c>
-      <c r="R164">
-        <f t="shared" si="12"/>
-        <v>2.8210754583344725E-3</v>
-      </c>
-      <c r="S164">
-        <f t="shared" si="13"/>
-        <v>1.432376666040793E-2</v>
-      </c>
-      <c r="T164">
-        <f t="shared" si="14"/>
-        <v>0.19695067123176177</v>
-      </c>
-      <c r="U164">
-        <f t="shared" si="15"/>
         <v>3.8789566898641513E-2</v>
       </c>
     </row>
@@ -19373,24 +22387,28 @@
         <f t="shared" si="11"/>
         <v>166.56882785036413</v>
       </c>
+      <c r="P165">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
       <c r="Q165">
+        <f t="shared" si="17"/>
+        <v>16.61448342354015</v>
+      </c>
+      <c r="R165">
+        <f t="shared" si="13"/>
+        <v>3.5962085332337987E-3</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="14"/>
+        <v>1.4712247158412491E-2</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="15"/>
+        <v>0.24443638653647004</v>
+      </c>
+      <c r="U165">
         <f t="shared" si="16"/>
-        <v>16.61448342354015</v>
-      </c>
-      <c r="R165">
-        <f t="shared" si="12"/>
-        <v>3.5962085332337987E-3</v>
-      </c>
-      <c r="S165">
-        <f t="shared" si="13"/>
-        <v>1.4712247158412491E-2</v>
-      </c>
-      <c r="T165">
-        <f t="shared" si="14"/>
-        <v>0.24443638653647004</v>
-      </c>
-      <c r="U165">
-        <f t="shared" si="15"/>
         <v>5.9749147063006589E-2</v>
       </c>
     </row>
@@ -19438,24 +22456,28 @@
         <f t="shared" si="11"/>
         <v>174.23116527553003</v>
       </c>
+      <c r="P166">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
       <c r="Q166">
+        <f t="shared" si="17"/>
+        <v>-68.379694704889516</v>
+      </c>
+      <c r="R166">
+        <f t="shared" si="13"/>
+        <v>-1.5476208946703146E-2</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="14"/>
+        <v>1.504418666962188E-2</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="15"/>
+        <v>-1.0287168915521123</v>
+      </c>
+      <c r="U166">
         <f t="shared" si="16"/>
-        <v>-68.379694704889516</v>
-      </c>
-      <c r="R166">
-        <f t="shared" si="12"/>
-        <v>-1.5476208946703146E-2</v>
-      </c>
-      <c r="S166">
-        <f t="shared" si="13"/>
-        <v>1.504418666962188E-2</v>
-      </c>
-      <c r="T166">
-        <f t="shared" si="14"/>
-        <v>-1.0287168915521123</v>
-      </c>
-      <c r="U166">
-        <f t="shared" si="15"/>
         <v>1.0582584429646409</v>
       </c>
     </row>
@@ -19503,24 +22525,28 @@
         <f t="shared" si="11"/>
         <v>170.88839722408019</v>
       </c>
+      <c r="P167">
+        <f t="shared" si="12"/>
+        <v>44</v>
+      </c>
       <c r="Q167">
+        <f t="shared" si="17"/>
+        <v>-53.723065800960285</v>
+      </c>
+      <c r="R167">
+        <f t="shared" si="13"/>
+        <v>-1.2664560537708695E-2</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="14"/>
+        <v>1.5353757178626857E-2</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="15"/>
+        <v>-0.82485090719933696</v>
+      </c>
+      <c r="U167">
         <f t="shared" si="16"/>
-        <v>-53.723065800960285</v>
-      </c>
-      <c r="R167">
-        <f t="shared" si="12"/>
-        <v>-1.2664560537708695E-2</v>
-      </c>
-      <c r="S167">
-        <f t="shared" si="13"/>
-        <v>1.5353757178626857E-2</v>
-      </c>
-      <c r="T167">
-        <f t="shared" si="14"/>
-        <v>-0.82485090719933696</v>
-      </c>
-      <c r="U167">
-        <f t="shared" si="15"/>
         <v>0.68037901910756915</v>
       </c>
     </row>
@@ -19568,24 +22594,28 @@
         <f t="shared" si="11"/>
         <v>166.03404974072637</v>
       </c>
+      <c r="P168">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
       <c r="Q168">
+        <f t="shared" si="17"/>
+        <v>-4.2213747780715494</v>
+      </c>
+      <c r="R168">
+        <f t="shared" si="13"/>
+        <v>-1.0426043723433173E-3</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="14"/>
+        <v>1.5715666909482562E-2</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="15"/>
+        <v>-6.6341719912263342E-2</v>
+      </c>
+      <c r="U168">
         <f t="shared" si="16"/>
-        <v>-4.2213747780715494</v>
-      </c>
-      <c r="R168">
-        <f t="shared" si="12"/>
-        <v>-1.0426043723433173E-3</v>
-      </c>
-      <c r="S168">
-        <f t="shared" si="13"/>
-        <v>1.5715666909482562E-2</v>
-      </c>
-      <c r="T168">
-        <f t="shared" si="14"/>
-        <v>-6.6341719912263342E-2</v>
-      </c>
-      <c r="U168">
-        <f t="shared" si="15"/>
         <v>4.401223800917199E-3</v>
       </c>
     </row>
@@ -19633,24 +22663,28 @@
         <f t="shared" si="11"/>
         <v>163.63878386306075</v>
       </c>
+      <c r="P169">
+        <f t="shared" si="12"/>
+        <v>46</v>
+      </c>
       <c r="Q169">
+        <f t="shared" si="17"/>
+        <v>-19.097394963705483</v>
+      </c>
+      <c r="R169">
+        <f t="shared" si="13"/>
+        <v>-4.9831749146953212E-3</v>
+      </c>
+      <c r="S169">
+        <f t="shared" si="14"/>
+        <v>1.6153476372506338E-2</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="15"/>
+        <v>-0.3084893183226381</v>
+      </c>
+      <c r="U169">
         <f t="shared" si="16"/>
-        <v>-19.097394963705483</v>
-      </c>
-      <c r="R169">
-        <f t="shared" si="12"/>
-        <v>-4.9831749146953212E-3</v>
-      </c>
-      <c r="S169">
-        <f t="shared" si="13"/>
-        <v>1.6153476372506338E-2</v>
-      </c>
-      <c r="T169">
-        <f t="shared" si="14"/>
-        <v>-0.3084893183226381</v>
-      </c>
-      <c r="U169">
-        <f t="shared" si="15"/>
         <v>9.5165659519165932E-2</v>
       </c>
     </row>
@@ -19698,24 +22732,28 @@
         <f t="shared" si="11"/>
         <v>172.49458936916221</v>
       </c>
+      <c r="P170">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
       <c r="Q170">
+        <f t="shared" si="17"/>
+        <v>35.315411514604421</v>
+      </c>
+      <c r="R170">
+        <f t="shared" si="13"/>
+        <v>9.7735251709563549E-3</v>
+      </c>
+      <c r="S170">
+        <f t="shared" si="14"/>
+        <v>1.6635792022840736E-2</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="15"/>
+        <v>0.58749984115799392</v>
+      </c>
+      <c r="U170">
         <f t="shared" si="16"/>
-        <v>35.315411514604421</v>
-      </c>
-      <c r="R170">
-        <f t="shared" si="12"/>
-        <v>9.7735251709563549E-3</v>
-      </c>
-      <c r="S170">
-        <f t="shared" si="13"/>
-        <v>1.6635792022840736E-2</v>
-      </c>
-      <c r="T170">
-        <f t="shared" si="14"/>
-        <v>0.58749984115799392</v>
-      </c>
-      <c r="U170">
-        <f t="shared" si="15"/>
         <v>0.34515606336066823</v>
       </c>
     </row>
@@ -19763,24 +22801,28 @@
         <f t="shared" si="11"/>
         <v>153.56384403135536</v>
       </c>
+      <c r="P171">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
       <c r="Q171">
+        <f t="shared" si="17"/>
+        <v>22.662696905903886</v>
+      </c>
+      <c r="R171">
+        <f t="shared" si="13"/>
+        <v>6.5841652835281483E-3</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="14"/>
+        <v>1.7044904292704971E-2</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="15"/>
+        <v>0.38628349977571291</v>
+      </c>
+      <c r="U171">
         <f t="shared" si="16"/>
-        <v>22.662696905903886</v>
-      </c>
-      <c r="R171">
-        <f t="shared" si="12"/>
-        <v>6.5841652835281483E-3</v>
-      </c>
-      <c r="S171">
-        <f t="shared" si="13"/>
-        <v>1.7044904292704971E-2</v>
-      </c>
-      <c r="T171">
-        <f t="shared" si="14"/>
-        <v>0.38628349977571291</v>
-      </c>
-      <c r="U171">
-        <f t="shared" si="15"/>
         <v>0.14921494219897316</v>
       </c>
     </row>
@@ -19828,24 +22870,28 @@
         <f t="shared" si="11"/>
         <v>145.42926778058435</v>
       </c>
+      <c r="P172">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
       <c r="Q172">
+        <f t="shared" si="17"/>
+        <v>69.82484022738754</v>
+      </c>
+      <c r="R172">
+        <f t="shared" si="13"/>
+        <v>2.1770937790127849E-2</v>
+      </c>
+      <c r="S172">
+        <f t="shared" si="14"/>
+        <v>1.7657678008211362E-2</v>
+      </c>
+      <c r="T172">
+        <f t="shared" si="15"/>
+        <v>1.2329445457100132</v>
+      </c>
+      <c r="U172">
         <f t="shared" si="16"/>
-        <v>69.82484022738754</v>
-      </c>
-      <c r="R172">
-        <f t="shared" si="12"/>
-        <v>2.1770937790127849E-2</v>
-      </c>
-      <c r="S172">
-        <f t="shared" si="13"/>
-        <v>1.7657678008211362E-2</v>
-      </c>
-      <c r="T172">
-        <f t="shared" si="14"/>
-        <v>1.2329445457100132</v>
-      </c>
-      <c r="U172">
-        <f t="shared" si="15"/>
         <v>1.5201522527960705</v>
       </c>
     </row>
@@ -19893,24 +22939,28 @@
         <f t="shared" si="11"/>
         <v>157.0772886076804</v>
       </c>
+      <c r="P173">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
       <c r="Q173">
+        <f t="shared" si="17"/>
+        <v>-41.248485341663581</v>
+      </c>
+      <c r="R173">
+        <f t="shared" si="13"/>
+        <v>-1.4028904120963722E-2</v>
+      </c>
+      <c r="S173">
+        <f t="shared" si="14"/>
+        <v>1.844199375737695E-2</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="15"/>
+        <v>-0.76070430917221432</v>
+      </c>
+      <c r="U173">
         <f t="shared" si="16"/>
-        <v>-41.248485341663581</v>
-      </c>
-      <c r="R173">
-        <f t="shared" si="12"/>
-        <v>-1.4028904120963722E-2</v>
-      </c>
-      <c r="S173">
-        <f t="shared" si="13"/>
-        <v>1.844199375737695E-2</v>
-      </c>
-      <c r="T173">
-        <f t="shared" si="14"/>
-        <v>-0.76070430917221432</v>
-      </c>
-      <c r="U173">
-        <f t="shared" si="15"/>
         <v>0.57867104599317587</v>
       </c>
     </row>
@@ -19958,24 +23008,28 @@
         <f t="shared" si="11"/>
         <v>141.74665856135411</v>
       </c>
+      <c r="P174">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
       <c r="Q174">
+        <f t="shared" si="17"/>
+        <v>-19.012660870092986</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="13"/>
+        <v>-6.8520266222517291E-3</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="14"/>
+        <v>1.8984015070124632E-2</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="15"/>
+        <v>-0.36093664048101415</v>
+      </c>
+      <c r="U174">
         <f t="shared" si="16"/>
-        <v>-19.012660870092986</v>
-      </c>
-      <c r="R174">
-        <f t="shared" si="12"/>
-        <v>-6.8520266222517291E-3</v>
-      </c>
-      <c r="S174">
-        <f t="shared" si="13"/>
-        <v>1.8984015070124632E-2</v>
-      </c>
-      <c r="T174">
-        <f t="shared" si="14"/>
-        <v>-0.36093664048101415</v>
-      </c>
-      <c r="U174">
-        <f t="shared" si="15"/>
         <v>0.13027525844172089</v>
       </c>
     </row>
@@ -20023,24 +23077,28 @@
         <f t="shared" si="11"/>
         <v>157.84074120567504</v>
       </c>
+      <c r="P175">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
       <c r="Q175">
+        <f t="shared" si="17"/>
+        <v>17.41181139532091</v>
+      </c>
+      <c r="R175">
+        <f t="shared" si="13"/>
+        <v>6.5643021283019456E-3</v>
+      </c>
+      <c r="S175">
+        <f t="shared" si="14"/>
+        <v>1.9416560651186562E-2</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="15"/>
+        <v>0.33807749200426984</v>
+      </c>
+      <c r="U175">
         <f t="shared" si="16"/>
-        <v>17.41181139532091</v>
-      </c>
-      <c r="R175">
-        <f t="shared" si="12"/>
-        <v>6.5643021283019456E-3</v>
-      </c>
-      <c r="S175">
-        <f t="shared" si="13"/>
-        <v>1.9416560651186562E-2</v>
-      </c>
-      <c r="T175">
-        <f t="shared" si="14"/>
-        <v>0.33807749200426984</v>
-      </c>
-      <c r="U175">
-        <f t="shared" si="15"/>
         <v>0.11429639059989713</v>
       </c>
     </row>
@@ -20088,24 +23146,28 @@
         <f t="shared" si="11"/>
         <v>143.26174537836908</v>
       </c>
+      <c r="P176">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
       <c r="Q176">
+        <f t="shared" si="17"/>
+        <v>-9.1764707574561726</v>
+      </c>
+      <c r="R176">
+        <f t="shared" si="13"/>
+        <v>-3.8574833723739889E-3</v>
+      </c>
+      <c r="S176">
+        <f t="shared" si="14"/>
+        <v>2.0502847851135975E-2</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="15"/>
+        <v>-0.18814378375052235</v>
+      </c>
+      <c r="U176">
         <f t="shared" si="16"/>
-        <v>-9.1764707574561726</v>
-      </c>
-      <c r="R176">
-        <f t="shared" si="12"/>
-        <v>-3.8574833723739889E-3</v>
-      </c>
-      <c r="S176">
-        <f t="shared" si="13"/>
-        <v>2.0502847851135975E-2</v>
-      </c>
-      <c r="T176">
-        <f t="shared" si="14"/>
-        <v>-0.18814378375052235</v>
-      </c>
-      <c r="U176">
-        <f t="shared" si="15"/>
         <v>3.5398083363963329E-2</v>
       </c>
     </row>
@@ -20153,24 +23215,28 @@
         <f t="shared" si="11"/>
         <v>140.50713895514232</v>
       </c>
+      <c r="P177">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
       <c r="Q177">
+        <f t="shared" si="17"/>
+        <v>-8.2418103987538416</v>
+      </c>
+      <c r="R177">
+        <f t="shared" si="13"/>
+        <v>-3.68410812929713E-3</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="14"/>
+        <v>2.1142428689408906E-2</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="15"/>
+        <v>-0.17425188862728189</v>
+      </c>
+      <c r="U177">
         <f t="shared" si="16"/>
-        <v>-8.2418103987538416</v>
-      </c>
-      <c r="R177">
-        <f t="shared" si="12"/>
-        <v>-3.68410812929713E-3</v>
-      </c>
-      <c r="S177">
-        <f t="shared" si="13"/>
-        <v>2.1142428689408906E-2</v>
-      </c>
-      <c r="T177">
-        <f t="shared" si="14"/>
-        <v>-0.17425188862728189</v>
-      </c>
-      <c r="U177">
-        <f t="shared" si="15"/>
         <v>3.0363720690174647E-2</v>
       </c>
     </row>
@@ -20218,24 +23284,28 @@
         <f t="shared" si="11"/>
         <v>133.77635023308378</v>
       </c>
+      <c r="P178">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
       <c r="Q178">
+        <f t="shared" si="17"/>
+        <v>-24.248072177865197</v>
+      </c>
+      <c r="R178">
+        <f t="shared" si="13"/>
+        <v>-1.1710508748742625E-2</v>
+      </c>
+      <c r="S178">
+        <f t="shared" si="14"/>
+        <v>2.1976031725940863E-2</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="15"/>
+        <v>-0.53287640347366949</v>
+      </c>
+      <c r="U178">
         <f t="shared" si="16"/>
-        <v>-24.248072177865197</v>
-      </c>
-      <c r="R178">
-        <f t="shared" si="12"/>
-        <v>-1.1710508748742625E-2</v>
-      </c>
-      <c r="S178">
-        <f t="shared" si="13"/>
-        <v>2.1976031725940863E-2</v>
-      </c>
-      <c r="T178">
-        <f t="shared" si="14"/>
-        <v>-0.53287640347366949</v>
-      </c>
-      <c r="U178">
-        <f t="shared" si="15"/>
         <v>0.28395726137903304</v>
       </c>
     </row>
@@ -20283,24 +23353,28 @@
         <f t="shared" si="11"/>
         <v>129.30976898174006</v>
       </c>
+      <c r="P179">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
       <c r="Q179">
+        <f t="shared" si="17"/>
+        <v>-3.1053981014938472</v>
+      </c>
+      <c r="R179">
+        <f t="shared" si="13"/>
+        <v>-1.6111014793742397E-3</v>
+      </c>
+      <c r="S179">
+        <f t="shared" si="14"/>
+        <v>2.2777329617136386E-2</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="15"/>
+        <v>-7.0732676150154897E-2</v>
+      </c>
+      <c r="U179">
         <f t="shared" si="16"/>
-        <v>-3.1053981014938472</v>
-      </c>
-      <c r="R179">
-        <f t="shared" si="12"/>
-        <v>-1.6111014793742397E-3</v>
-      </c>
-      <c r="S179">
-        <f t="shared" si="13"/>
-        <v>2.2777329617136386E-2</v>
-      </c>
-      <c r="T179">
-        <f t="shared" si="14"/>
-        <v>-7.0732676150154897E-2</v>
-      </c>
-      <c r="U179">
-        <f t="shared" si="15"/>
         <v>5.003111475362693E-3</v>
       </c>
     </row>
@@ -20348,24 +23422,28 @@
         <f t="shared" si="11"/>
         <v>124.1537887840835</v>
       </c>
+      <c r="P180">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
       <c r="Q180">
+        <f t="shared" si="17"/>
+        <v>26.062406439351207</v>
+      </c>
+      <c r="R180">
+        <f t="shared" si="13"/>
+        <v>1.4771466632292573E-2</v>
+      </c>
+      <c r="S180">
+        <f t="shared" si="14"/>
+        <v>2.3806993438741434E-2</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="15"/>
+        <v>0.62046753909944674</v>
+      </c>
+      <c r="U180">
         <f t="shared" si="16"/>
-        <v>26.062406439351207</v>
-      </c>
-      <c r="R180">
-        <f t="shared" si="12"/>
-        <v>1.4771466632292573E-2</v>
-      </c>
-      <c r="S180">
-        <f t="shared" si="13"/>
-        <v>2.3806993438741434E-2</v>
-      </c>
-      <c r="T180">
-        <f t="shared" si="14"/>
-        <v>0.62046753909944674</v>
-      </c>
-      <c r="U180">
-        <f t="shared" si="15"/>
         <v>0.38497996707612342</v>
       </c>
     </row>
@@ -20413,24 +23491,28 @@
         <f t="shared" si="11"/>
         <v>117.39690756066825</v>
       </c>
+      <c r="P181">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
       <c r="Q181">
+        <f t="shared" si="17"/>
+        <v>14.193885787278759</v>
+      </c>
+      <c r="R181">
+        <f t="shared" si="13"/>
+        <v>8.8927156627950556E-3</v>
+      </c>
+      <c r="S181">
+        <f t="shared" si="14"/>
+        <v>2.5030328537576901E-2</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="15"/>
+        <v>0.35527762448043076</v>
+      </c>
+      <c r="U181">
         <f t="shared" si="16"/>
-        <v>14.193885787278759</v>
-      </c>
-      <c r="R181">
-        <f t="shared" si="12"/>
-        <v>8.8927156627950556E-3</v>
-      </c>
-      <c r="S181">
-        <f t="shared" si="13"/>
-        <v>2.5030328537576901E-2</v>
-      </c>
-      <c r="T181">
-        <f t="shared" si="14"/>
-        <v>0.35527762448043076</v>
-      </c>
-      <c r="U181">
-        <f t="shared" si="15"/>
         <v>0.12622219045645797</v>
       </c>
     </row>
@@ -20478,24 +23560,28 @@
         <f t="shared" si="11"/>
         <v>100.59485902666431</v>
       </c>
+      <c r="P182">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
       <c r="Q182">
+        <f t="shared" si="17"/>
+        <v>5.7109866927075927</v>
+      </c>
+      <c r="R182">
+        <f t="shared" si="13"/>
+        <v>3.9874230704888061E-3</v>
+      </c>
+      <c r="S182">
+        <f t="shared" si="14"/>
+        <v>2.6423514707860023E-2</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="15"/>
+        <v>0.15090434087115195</v>
+      </c>
+      <c r="U182">
         <f t="shared" si="16"/>
-        <v>5.7109866927075927</v>
-      </c>
-      <c r="R182">
-        <f t="shared" si="12"/>
-        <v>3.9874230704888061E-3</v>
-      </c>
-      <c r="S182">
-        <f t="shared" si="13"/>
-        <v>2.6423514707860023E-2</v>
-      </c>
-      <c r="T182">
-        <f t="shared" si="14"/>
-        <v>0.15090434087115195</v>
-      </c>
-      <c r="U182">
-        <f t="shared" si="15"/>
         <v>2.2772120093756822E-2</v>
       </c>
     </row>
@@ -20543,24 +23629,28 @@
         <f t="shared" si="11"/>
         <v>106.35707194885008</v>
       </c>
+      <c r="P183">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
       <c r="Q183">
+        <f t="shared" si="17"/>
+        <v>-11.561869482038674</v>
+      </c>
+      <c r="R183">
+        <f t="shared" si="13"/>
+        <v>-8.7623110890781911E-3</v>
+      </c>
+      <c r="S183">
+        <f t="shared" si="14"/>
+        <v>2.7529308506178359E-2</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="15"/>
+        <v>-0.31829027187921122</v>
+      </c>
+      <c r="U183">
         <f t="shared" si="16"/>
-        <v>-11.561869482038674</v>
-      </c>
-      <c r="R183">
-        <f t="shared" si="12"/>
-        <v>-8.7623110890781911E-3</v>
-      </c>
-      <c r="S183">
-        <f t="shared" si="13"/>
-        <v>2.7529308506178359E-2</v>
-      </c>
-      <c r="T183">
-        <f t="shared" si="14"/>
-        <v>-0.31829027187921122</v>
-      </c>
-      <c r="U183">
-        <f t="shared" si="15"/>
         <v>0.10130869717294219</v>
       </c>
     </row>
@@ -20608,24 +23698,28 @@
         <f t="shared" si="11"/>
         <v>93.245378746800796</v>
       </c>
+      <c r="P184">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
       <c r="Q184">
+        <f t="shared" si="17"/>
+        <v>17.420251528852532</v>
+      </c>
+      <c r="R184">
+        <f t="shared" si="13"/>
+        <v>1.4637329296378558E-2</v>
+      </c>
+      <c r="S184">
+        <f t="shared" si="14"/>
+        <v>2.8987029394585629E-2</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="15"/>
+        <v>0.50496134312792351</v>
+      </c>
+      <c r="U184">
         <f t="shared" si="16"/>
-        <v>17.420251528852532</v>
-      </c>
-      <c r="R184">
-        <f t="shared" si="12"/>
-        <v>1.4637329296378558E-2</v>
-      </c>
-      <c r="S184">
-        <f t="shared" si="13"/>
-        <v>2.8987029394585629E-2</v>
-      </c>
-      <c r="T184">
-        <f t="shared" si="14"/>
-        <v>0.50496134312792351</v>
-      </c>
-      <c r="U184">
-        <f t="shared" si="15"/>
         <v>0.25498595805355656</v>
       </c>
     </row>
@@ -20673,24 +23767,28 @@
         <f t="shared" si="11"/>
         <v>90.250918253638872</v>
       </c>
+      <c r="P185">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
       <c r="Q185">
+        <f t="shared" si="17"/>
+        <v>-3.9284687635913542</v>
+      </c>
+      <c r="R185">
+        <f t="shared" si="13"/>
+        <v>-3.7069768941649958E-3</v>
+      </c>
+      <c r="S185">
+        <f t="shared" si="14"/>
+        <v>3.0718378505606096E-2</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="15"/>
+        <v>-0.12067619042744959</v>
+      </c>
+      <c r="U185">
         <f t="shared" si="16"/>
-        <v>-3.9284687635913542</v>
-      </c>
-      <c r="R185">
-        <f t="shared" si="12"/>
-        <v>-3.7069768941649958E-3</v>
-      </c>
-      <c r="S185">
-        <f t="shared" si="13"/>
-        <v>3.0718378505606096E-2</v>
-      </c>
-      <c r="T185">
-        <f t="shared" si="14"/>
-        <v>-0.12067619042744959</v>
-      </c>
-      <c r="U185">
-        <f t="shared" si="15"/>
         <v>1.4562742936082078E-2</v>
       </c>
     </row>
@@ -20738,24 +23836,28 @@
         <f t="shared" si="11"/>
         <v>90.452724326112531</v>
       </c>
+      <c r="P186">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
       <c r="Q186">
+        <f t="shared" si="17"/>
+        <v>-1.2351103748634387</v>
+      </c>
+      <c r="R186">
+        <f t="shared" si="13"/>
+        <v>-1.269873152410681E-3</v>
+      </c>
+      <c r="S186">
+        <f t="shared" si="14"/>
+        <v>3.2064707742092177E-2</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="15"/>
+        <v>-3.9603453199222066E-2</v>
+      </c>
+      <c r="U186">
         <f t="shared" si="16"/>
-        <v>-1.2351103748634387</v>
-      </c>
-      <c r="R186">
-        <f t="shared" si="12"/>
-        <v>-1.269873152410681E-3</v>
-      </c>
-      <c r="S186">
-        <f t="shared" si="13"/>
-        <v>3.2064707742092177E-2</v>
-      </c>
-      <c r="T186">
-        <f t="shared" si="14"/>
-        <v>-3.9603453199222066E-2</v>
-      </c>
-      <c r="U186">
-        <f t="shared" si="15"/>
         <v>1.568433505302973E-3</v>
       </c>
     </row>
@@ -20803,24 +23905,28 @@
         <f t="shared" si="11"/>
         <v>88.972118596463787</v>
       </c>
+      <c r="P187">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
       <c r="Q187">
+        <f t="shared" si="17"/>
+        <v>-6.747731176670186</v>
+      </c>
+      <c r="R187">
+        <f t="shared" si="13"/>
+        <v>-7.9408428086733575E-3</v>
+      </c>
+      <c r="S187">
+        <f t="shared" si="14"/>
+        <v>3.430476221747198E-2</v>
+      </c>
+      <c r="T187">
+        <f t="shared" si="15"/>
+        <v>-0.23147931352309317</v>
+      </c>
+      <c r="U187">
         <f t="shared" si="16"/>
-        <v>-6.747731176670186</v>
-      </c>
-      <c r="R187">
-        <f t="shared" si="12"/>
-        <v>-7.9408428086733575E-3</v>
-      </c>
-      <c r="S187">
-        <f t="shared" si="13"/>
-        <v>3.430476221747198E-2</v>
-      </c>
-      <c r="T187">
-        <f t="shared" si="14"/>
-        <v>-0.23147931352309317</v>
-      </c>
-      <c r="U187">
-        <f t="shared" si="15"/>
         <v>5.3582672589122457E-2</v>
       </c>
     </row>
@@ -20853,39 +23959,43 @@
         <v>726.78131192549995</v>
       </c>
       <c r="L188" s="1">
-        <f t="shared" ref="L188:L232" si="17">SUM(B188:K188)</f>
+        <f t="shared" ref="L188:L232" si="18">SUM(B188:K188)</f>
         <v>6249.6032846942435</v>
       </c>
       <c r="M188" s="1">
-        <f t="shared" ref="M188:M232" si="18">AVERAGE(B188:K188)</f>
+        <f t="shared" ref="M188:M232" si="19">AVERAGE(B188:K188)</f>
         <v>781.20041058678044</v>
       </c>
       <c r="N188" s="1">
-        <f t="shared" ref="N188:N232" si="19">STDEV(B188:K188)</f>
+        <f t="shared" ref="N188:N232" si="20">STDEV(B188:K188)</f>
         <v>125.47375295043668</v>
       </c>
       <c r="O188">
-        <f t="shared" ref="O188:O232" si="20">N188/SQRT(3)</f>
+        <f t="shared" ref="O188:O232" si="21">N188/SQRT(3)</f>
         <v>72.44230504216722</v>
       </c>
+      <c r="P188">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
       <c r="Q188">
+        <f t="shared" si="17"/>
+        <v>-11.325410586780436</v>
+      </c>
+      <c r="R188">
+        <f t="shared" si="13"/>
+        <v>-1.4710713540224627E-2</v>
+      </c>
+      <c r="S188">
+        <f t="shared" si="14"/>
+        <v>3.6040423985645734E-2</v>
+      </c>
+      <c r="T188">
+        <f t="shared" si="15"/>
+        <v>-0.40817259935908762</v>
+      </c>
+      <c r="U188">
         <f t="shared" si="16"/>
-        <v>-11.325410586780436</v>
-      </c>
-      <c r="R188">
-        <f t="shared" si="12"/>
-        <v>-1.4710713540224627E-2</v>
-      </c>
-      <c r="S188">
-        <f t="shared" si="13"/>
-        <v>3.6040423985645734E-2</v>
-      </c>
-      <c r="T188">
-        <f t="shared" si="14"/>
-        <v>-0.40817259935908762</v>
-      </c>
-      <c r="U188">
-        <f t="shared" si="15"/>
         <v>0.16660487086755432</v>
       </c>
     </row>
@@ -20918,39 +24028,43 @@
         <v>647.95122427307001</v>
       </c>
       <c r="L189" s="1">
+        <f t="shared" si="18"/>
+        <v>5578.6717023830779</v>
+      </c>
+      <c r="M189" s="1">
+        <f t="shared" si="19"/>
+        <v>697.33396279788474</v>
+      </c>
+      <c r="N189" s="1">
+        <f t="shared" si="20"/>
+        <v>108.56971580773708</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="21"/>
+        <v>62.682754647438173</v>
+      </c>
+      <c r="P189">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="Q189">
         <f t="shared" si="17"/>
-        <v>5578.6717023830779</v>
-      </c>
-      <c r="M189" s="1">
-        <f t="shared" si="18"/>
-        <v>697.33396279788474</v>
-      </c>
-      <c r="N189" s="1">
-        <f t="shared" si="19"/>
-        <v>108.56971580773708</v>
-      </c>
-      <c r="O189">
-        <f t="shared" si="20"/>
-        <v>62.682754647438173</v>
-      </c>
-      <c r="Q189">
+        <v>-2.7089627978847375</v>
+      </c>
+      <c r="R189">
+        <f t="shared" si="13"/>
+        <v>-3.8998924569152238E-3</v>
+      </c>
+      <c r="S189">
+        <f t="shared" si="14"/>
+        <v>3.7942399730627178E-2</v>
+      </c>
+      <c r="T189">
+        <f t="shared" si="15"/>
+        <v>-0.10278454933274089</v>
+      </c>
+      <c r="U189">
         <f t="shared" si="16"/>
-        <v>-2.7089627978847375</v>
-      </c>
-      <c r="R189">
-        <f t="shared" si="12"/>
-        <v>-3.8998924569152238E-3</v>
-      </c>
-      <c r="S189">
-        <f t="shared" si="13"/>
-        <v>3.7942399730627178E-2</v>
-      </c>
-      <c r="T189">
-        <f t="shared" si="14"/>
-        <v>-0.10278454933274089</v>
-      </c>
-      <c r="U189">
-        <f t="shared" si="15"/>
         <v>1.0564663581534649E-2</v>
       </c>
     </row>
@@ -20983,39 +24097,43 @@
         <v>514.95423774793699</v>
       </c>
       <c r="L190" s="1">
+        <f t="shared" si="18"/>
+        <v>4779.1941111320521</v>
+      </c>
+      <c r="M190" s="1">
+        <f t="shared" si="19"/>
+        <v>597.39926389150651</v>
+      </c>
+      <c r="N190" s="1">
+        <f t="shared" si="20"/>
+        <v>120.8072396143511</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="21"/>
+        <v>69.748092311401237</v>
+      </c>
+      <c r="P190">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="Q190">
         <f t="shared" si="17"/>
-        <v>4779.1941111320521</v>
-      </c>
-      <c r="M190" s="1">
-        <f t="shared" si="18"/>
-        <v>597.39926389150651</v>
-      </c>
-      <c r="N190" s="1">
-        <f t="shared" si="19"/>
-        <v>120.8072396143511</v>
-      </c>
-      <c r="O190">
-        <f t="shared" si="20"/>
-        <v>69.748092311401237</v>
-      </c>
-      <c r="Q190">
+        <v>-18.649263891506507</v>
+      </c>
+      <c r="R190">
+        <f t="shared" si="13"/>
+        <v>-3.222335013651232E-2</v>
+      </c>
+      <c r="S190">
+        <f t="shared" si="14"/>
+        <v>4.1567556712637267E-2</v>
+      </c>
+      <c r="T190">
+        <f t="shared" si="15"/>
+        <v>-0.77520433445913495</v>
+      </c>
+      <c r="U190">
         <f t="shared" si="16"/>
-        <v>-18.649263891506507</v>
-      </c>
-      <c r="R190">
-        <f t="shared" si="12"/>
-        <v>-3.222335013651232E-2</v>
-      </c>
-      <c r="S190">
-        <f t="shared" si="13"/>
-        <v>4.1567556712637267E-2</v>
-      </c>
-      <c r="T190">
-        <f t="shared" si="14"/>
-        <v>-0.77520433445913495</v>
-      </c>
-      <c r="U190">
-        <f t="shared" si="15"/>
         <v>0.60094176016423051</v>
       </c>
     </row>
@@ -21048,39 +24166,43 @@
         <v>476.11082462966402</v>
       </c>
       <c r="L191" s="1">
+        <f t="shared" si="18"/>
+        <v>4447.3392702154797</v>
+      </c>
+      <c r="M191" s="1">
+        <f t="shared" si="19"/>
+        <v>555.91740877693496</v>
+      </c>
+      <c r="N191" s="1">
+        <f t="shared" si="20"/>
+        <v>121.64522737921017</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="21"/>
+        <v>70.231904773020233</v>
+      </c>
+      <c r="P191">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="Q191">
         <f t="shared" si="17"/>
-        <v>4447.3392702154797</v>
-      </c>
-      <c r="M191" s="1">
-        <f t="shared" si="18"/>
-        <v>555.91740877693496</v>
-      </c>
-      <c r="N191" s="1">
-        <f t="shared" si="19"/>
-        <v>121.64522737921017</v>
-      </c>
-      <c r="O191">
-        <f t="shared" si="20"/>
-        <v>70.231904773020233</v>
-      </c>
-      <c r="Q191">
+        <v>-15.167408776934963</v>
+      </c>
+      <c r="R191">
+        <f t="shared" si="13"/>
+        <v>-2.8048837312870945E-2</v>
+      </c>
+      <c r="S191">
+        <f t="shared" si="14"/>
+        <v>4.3003295253753064E-2</v>
+      </c>
+      <c r="T191">
+        <f t="shared" si="15"/>
+        <v>-0.6522485578688999</v>
+      </c>
+      <c r="U191">
         <f t="shared" si="16"/>
-        <v>-15.167408776934963</v>
-      </c>
-      <c r="R191">
-        <f t="shared" si="12"/>
-        <v>-2.8048837312870945E-2</v>
-      </c>
-      <c r="S191">
-        <f t="shared" si="13"/>
-        <v>4.3003295253753064E-2</v>
-      </c>
-      <c r="T191">
-        <f t="shared" si="14"/>
-        <v>-0.6522485578688999</v>
-      </c>
-      <c r="U191">
-        <f t="shared" si="15"/>
         <v>0.42542818124205961</v>
       </c>
     </row>
@@ -21113,39 +24235,43 @@
         <v>392.79024781286699</v>
       </c>
       <c r="L192" s="1">
+        <f t="shared" si="18"/>
+        <v>3807.98500352771</v>
+      </c>
+      <c r="M192" s="1">
+        <f t="shared" si="19"/>
+        <v>475.99812544096375</v>
+      </c>
+      <c r="N192" s="1">
+        <f t="shared" si="20"/>
+        <v>96.957546551719275</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="21"/>
+        <v>55.978465601600796</v>
+      </c>
+      <c r="P192">
+        <f t="shared" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="Q192">
         <f t="shared" si="17"/>
-        <v>3807.98500352771</v>
-      </c>
-      <c r="M192" s="1">
-        <f t="shared" si="18"/>
-        <v>475.99812544096375</v>
-      </c>
-      <c r="N192" s="1">
-        <f t="shared" si="19"/>
-        <v>96.957546551719275</v>
-      </c>
-      <c r="O192">
-        <f t="shared" si="20"/>
-        <v>55.978465601600796</v>
-      </c>
-      <c r="Q192">
+        <v>-13.123125440963747</v>
+      </c>
+      <c r="R192">
+        <f t="shared" si="13"/>
+        <v>-2.8351337706645958E-2</v>
+      </c>
+      <c r="S192">
+        <f t="shared" si="14"/>
+        <v>4.6480215984769452E-2</v>
+      </c>
+      <c r="T192">
+        <f t="shared" si="15"/>
+        <v>-0.60996570489121804</v>
+      </c>
+      <c r="U192">
         <f t="shared" si="16"/>
-        <v>-13.123125440963747</v>
-      </c>
-      <c r="R192">
-        <f t="shared" si="12"/>
-        <v>-2.8351337706645958E-2</v>
-      </c>
-      <c r="S192">
-        <f t="shared" si="13"/>
-        <v>4.6480215984769452E-2</v>
-      </c>
-      <c r="T192">
-        <f t="shared" si="14"/>
-        <v>-0.60996570489121804</v>
-      </c>
-      <c r="U192">
-        <f t="shared" si="15"/>
         <v>0.37205816114344031</v>
       </c>
     </row>
@@ -21178,39 +24304,43 @@
         <v>406.41125945746001</v>
       </c>
       <c r="L193" s="1">
+        <f t="shared" si="18"/>
+        <v>3558.8089258987334</v>
+      </c>
+      <c r="M193" s="1">
+        <f t="shared" si="19"/>
+        <v>444.85111573734167</v>
+      </c>
+      <c r="N193" s="1">
+        <f t="shared" si="20"/>
+        <v>86.087251697683868</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="21"/>
+        <v>49.702497941452854</v>
+      </c>
+      <c r="P193">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="Q193">
         <f t="shared" si="17"/>
-        <v>3558.8089258987334</v>
-      </c>
-      <c r="M193" s="1">
-        <f t="shared" si="18"/>
-        <v>444.85111573734167</v>
-      </c>
-      <c r="N193" s="1">
-        <f t="shared" si="19"/>
-        <v>86.087251697683868</v>
-      </c>
-      <c r="O193">
-        <f t="shared" si="20"/>
-        <v>49.702497941452854</v>
-      </c>
-      <c r="Q193">
+        <v>-17.976115737341672</v>
+      </c>
+      <c r="R193">
+        <f t="shared" si="13"/>
+        <v>-4.2110959267564682E-2</v>
+      </c>
+      <c r="S193">
+        <f t="shared" si="14"/>
+        <v>4.8400476747043952E-2</v>
+      </c>
+      <c r="T193">
+        <f t="shared" si="15"/>
+        <v>-0.87005257174737638</v>
+      </c>
+      <c r="U193">
         <f t="shared" si="16"/>
-        <v>-17.976115737341672</v>
-      </c>
-      <c r="R193">
-        <f t="shared" si="12"/>
-        <v>-4.2110959267564682E-2</v>
-      </c>
-      <c r="S193">
-        <f t="shared" si="13"/>
-        <v>4.8400476747043952E-2</v>
-      </c>
-      <c r="T193">
-        <f t="shared" si="14"/>
-        <v>-0.87005257174737638</v>
-      </c>
-      <c r="U193">
-        <f t="shared" si="15"/>
         <v>0.75699147760422358</v>
       </c>
     </row>
@@ -21243,39 +24373,43 @@
         <v>344.52856078743901</v>
       </c>
       <c r="L194" s="1">
+        <f t="shared" si="18"/>
+        <v>3086.3899227082679</v>
+      </c>
+      <c r="M194" s="1">
+        <f t="shared" si="19"/>
+        <v>385.79874033853349</v>
+      </c>
+      <c r="N194" s="1">
+        <f t="shared" si="20"/>
+        <v>78.656093093308343</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="21"/>
+        <v>45.41211652082584</v>
+      </c>
+      <c r="P194">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="Q194">
         <f t="shared" si="17"/>
-        <v>3086.3899227082679</v>
-      </c>
-      <c r="M194" s="1">
-        <f t="shared" si="18"/>
-        <v>385.79874033853349</v>
-      </c>
-      <c r="N194" s="1">
-        <f t="shared" si="19"/>
-        <v>78.656093093308343</v>
-      </c>
-      <c r="O194">
-        <f t="shared" si="20"/>
-        <v>45.41211652082584</v>
-      </c>
-      <c r="Q194">
+        <v>-12.923740338533491</v>
+      </c>
+      <c r="R194">
+        <f t="shared" si="13"/>
+        <v>-3.4659712607531992E-2</v>
+      </c>
+      <c r="S194">
+        <f t="shared" si="14"/>
+        <v>5.1786715433664143E-2</v>
+      </c>
+      <c r="T194">
+        <f t="shared" si="15"/>
+        <v>-0.66927806325020023</v>
+      </c>
+      <c r="U194">
         <f t="shared" si="16"/>
-        <v>-12.923740338533491</v>
-      </c>
-      <c r="R194">
-        <f t="shared" si="12"/>
-        <v>-3.4659712607531992E-2</v>
-      </c>
-      <c r="S194">
-        <f t="shared" si="13"/>
-        <v>5.1786715433664143E-2</v>
-      </c>
-      <c r="T194">
-        <f t="shared" si="14"/>
-        <v>-0.66927806325020023</v>
-      </c>
-      <c r="U194">
-        <f t="shared" si="15"/>
         <v>0.44793312594793899</v>
       </c>
     </row>
@@ -21308,39 +24442,43 @@
         <v>282.94575250148699</v>
       </c>
       <c r="L195" s="1">
+        <f t="shared" si="18"/>
+        <v>2804.6709493137855</v>
+      </c>
+      <c r="M195" s="1">
+        <f t="shared" si="19"/>
+        <v>350.58386866422319</v>
+      </c>
+      <c r="N195" s="1">
+        <f t="shared" si="20"/>
+        <v>85.787783387489313</v>
+      </c>
+      <c r="O195">
+        <f t="shared" si="21"/>
+        <v>49.529599831948261</v>
+      </c>
+      <c r="P195">
+        <f t="shared" ref="P195:P232" si="22">A195</f>
+        <v>72</v>
+      </c>
+      <c r="Q195">
         <f t="shared" si="17"/>
-        <v>2804.6709493137855</v>
-      </c>
-      <c r="M195" s="1">
-        <f t="shared" si="18"/>
-        <v>350.58386866422319</v>
-      </c>
-      <c r="N195" s="1">
-        <f t="shared" si="19"/>
-        <v>85.787783387489313</v>
-      </c>
-      <c r="O195">
-        <f t="shared" si="20"/>
-        <v>49.529599831948261</v>
-      </c>
-      <c r="Q195">
-        <f t="shared" si="16"/>
         <v>-10.708868664223189</v>
       </c>
       <c r="R195">
-        <f t="shared" ref="R195:R222" si="21">Q195/M75</f>
+        <f t="shared" ref="R195:R222" si="23">Q195/M75</f>
         <v>-3.1508256459648956E-2</v>
       </c>
       <c r="S195">
-        <f t="shared" ref="S195:S222" si="22">1/SQRT(M75)</f>
+        <f t="shared" ref="S195:S222" si="24">1/SQRT(M75)</f>
         <v>5.4242586434973504E-2</v>
       </c>
       <c r="T195">
-        <f t="shared" ref="T195:T222" si="23">R195/S195</f>
+        <f t="shared" ref="T195:T222" si="25">R195/S195</f>
         <v>-0.58087673413990559</v>
       </c>
       <c r="U195">
-        <f t="shared" ref="U195:U222" si="24">Q195*Q195/M75</f>
+        <f t="shared" ref="U195:U222" si="26">Q195*Q195/M75</f>
         <v>0.3374177802650426</v>
       </c>
     </row>
@@ -21373,39 +24511,43 @@
         <v>208.68433517403</v>
       </c>
       <c r="L196" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2319.2927802986478</v>
       </c>
       <c r="M196" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>289.91159753733098</v>
       </c>
       <c r="N196" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>86.291519273816462</v>
       </c>
       <c r="O196">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>49.820431881519717</v>
       </c>
+      <c r="P196">
+        <f t="shared" si="22"/>
+        <v>73</v>
+      </c>
       <c r="Q196">
-        <f t="shared" ref="Q196:Q232" si="25">M76-M196</f>
+        <f t="shared" ref="Q196:Q232" si="27">M76-M196</f>
         <v>-14.286597537330977</v>
       </c>
       <c r="R196">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-5.1833460452901506E-2</v>
       </c>
       <c r="S196">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6.0233860193683417E-2</v>
       </c>
       <c r="T196">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-0.86053691870701587</v>
       </c>
       <c r="U196">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.74052378845776512</v>
       </c>
     </row>
@@ -21438,39 +24580,43 @@
         <v>201.28042064607101</v>
       </c>
       <c r="L197" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2008.2239191627559</v>
       </c>
       <c r="M197" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>251.02798989534449</v>
       </c>
       <c r="N197" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>75.580262231154222</v>
       </c>
       <c r="O197">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43.636284744579399</v>
       </c>
+      <c r="P197">
+        <f t="shared" si="22"/>
+        <v>74</v>
+      </c>
       <c r="Q197">
+        <f t="shared" si="27"/>
+        <v>1.5970101046555101</v>
+      </c>
+      <c r="R197">
+        <f t="shared" si="23"/>
+        <v>6.3216629575675804E-3</v>
+      </c>
+      <c r="S197">
+        <f t="shared" si="24"/>
+        <v>6.291610618605574E-2</v>
+      </c>
+      <c r="T197">
         <f t="shared" si="25"/>
-        <v>1.5970101046555101</v>
-      </c>
-      <c r="R197">
-        <f t="shared" si="21"/>
-        <v>6.3216629575675804E-3</v>
-      </c>
-      <c r="S197">
-        <f t="shared" si="22"/>
-        <v>6.291610618605574E-2</v>
-      </c>
-      <c r="T197">
-        <f t="shared" si="23"/>
         <v>0.10047765732471008</v>
       </c>
       <c r="U197">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0095759621461864E-2</v>
       </c>
     </row>
@@ -21503,39 +24649,43 @@
         <v>147.93436010926899</v>
       </c>
       <c r="L198" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1753.6570663601121</v>
       </c>
       <c r="M198" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>219.20713329501402</v>
       </c>
       <c r="N198" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>62.009183192430122</v>
       </c>
       <c r="O198">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>35.801018608378349</v>
       </c>
+      <c r="P198">
+        <f t="shared" si="22"/>
+        <v>75</v>
+      </c>
       <c r="Q198">
+        <f t="shared" si="27"/>
+        <v>-2.5821332950140174</v>
+      </c>
+      <c r="R198">
+        <f t="shared" si="23"/>
+        <v>-1.1919830559787733E-2</v>
+      </c>
+      <c r="S198">
+        <f t="shared" si="24"/>
+        <v>6.7943155358499832E-2</v>
+      </c>
+      <c r="T198">
         <f t="shared" si="25"/>
-        <v>-2.5821332950140174</v>
-      </c>
-      <c r="R198">
-        <f t="shared" si="21"/>
-        <v>-1.1919830559787733E-2</v>
-      </c>
-      <c r="S198">
-        <f t="shared" si="22"/>
-        <v>6.7943155358499832E-2</v>
-      </c>
-      <c r="T198">
-        <f t="shared" si="23"/>
         <v>-0.17543828361949246</v>
       </c>
       <c r="U198">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.0778591359353479E-2</v>
       </c>
     </row>
@@ -21568,39 +24718,43 @@
         <v>148.23960337228999</v>
       </c>
       <c r="L199" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1466.790757181119</v>
       </c>
       <c r="M199" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>183.34884464763988</v>
       </c>
       <c r="N199" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>44.451596622099444</v>
       </c>
       <c r="O199">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>25.664141275677775</v>
       </c>
+      <c r="P199">
+        <f t="shared" si="22"/>
+        <v>76</v>
+      </c>
       <c r="Q199">
+        <f t="shared" si="27"/>
+        <v>-4.3488446476398792</v>
+      </c>
+      <c r="R199">
+        <f t="shared" si="23"/>
+        <v>-2.4295221495194856E-2</v>
+      </c>
+      <c r="S199">
+        <f t="shared" si="24"/>
+        <v>7.474350927519359E-2</v>
+      </c>
+      <c r="T199">
         <f t="shared" si="25"/>
-        <v>-4.3488446476398792</v>
-      </c>
-      <c r="R199">
-        <f t="shared" si="21"/>
-        <v>-2.4295221495194856E-2</v>
-      </c>
-      <c r="S199">
-        <f t="shared" si="22"/>
-        <v>7.474350927519359E-2</v>
-      </c>
-      <c r="T199">
-        <f t="shared" si="23"/>
         <v>-0.32504791025724727</v>
       </c>
       <c r="U199">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.10565614396260349</v>
       </c>
     </row>
@@ -21633,39 +24787,43 @@
         <v>126.70440521277401</v>
       </c>
       <c r="L200" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1346.9589502811389</v>
       </c>
       <c r="M200" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>168.36986878514236</v>
       </c>
       <c r="N200" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>45.808118736540649</v>
       </c>
       <c r="O200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>26.447329683612086</v>
       </c>
+      <c r="P200">
+        <f t="shared" si="22"/>
+        <v>77</v>
+      </c>
       <c r="Q200">
+        <f t="shared" si="27"/>
+        <v>-4.1198687851423585</v>
+      </c>
+      <c r="R200">
+        <f t="shared" si="23"/>
+        <v>-2.5082914978035668E-2</v>
+      </c>
+      <c r="S200">
+        <f t="shared" si="24"/>
+        <v>7.8027431464087041E-2</v>
+      </c>
+      <c r="T200">
         <f t="shared" si="25"/>
-        <v>-4.1198687851423585</v>
-      </c>
-      <c r="R200">
-        <f t="shared" si="21"/>
-        <v>-2.5082914978035668E-2</v>
-      </c>
-      <c r="S200">
-        <f t="shared" si="22"/>
-        <v>7.8027431464087041E-2</v>
-      </c>
-      <c r="T200">
-        <f t="shared" si="23"/>
         <v>-0.32146277927372691</v>
       </c>
       <c r="U200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.10333831845838888</v>
       </c>
     </row>
@@ -21698,39 +24856,43 @@
         <v>122.78631253912999</v>
       </c>
       <c r="L201" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1062.1916083836677</v>
       </c>
       <c r="M201" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>132.77395104795846</v>
       </c>
       <c r="N201" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>43.521184479041196</v>
       </c>
       <c r="O201">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>25.126967574425798</v>
       </c>
+      <c r="P201">
+        <f t="shared" si="22"/>
+        <v>78</v>
+      </c>
       <c r="Q201">
+        <f t="shared" si="27"/>
+        <v>1.7260489520415376</v>
+      </c>
+      <c r="R201">
+        <f t="shared" si="23"/>
+        <v>1.2833077710346004E-2</v>
+      </c>
+      <c r="S201">
+        <f t="shared" si="24"/>
+        <v>8.6226122711845377E-2</v>
+      </c>
+      <c r="T201">
         <f t="shared" si="25"/>
-        <v>1.7260489520415376</v>
-      </c>
-      <c r="R201">
-        <f t="shared" si="21"/>
-        <v>1.2833077710346004E-2</v>
-      </c>
-      <c r="S201">
-        <f t="shared" si="22"/>
-        <v>8.6226122711845377E-2</v>
-      </c>
-      <c r="T201">
-        <f t="shared" si="23"/>
         <v>0.1488305087453857</v>
       </c>
       <c r="U201">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.2150520333410337E-2</v>
       </c>
     </row>
@@ -21763,39 +24925,43 @@
         <v>114.372471615672</v>
       </c>
       <c r="L202" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1026.621321637173</v>
       </c>
       <c r="M202" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>128.32766520464662</v>
       </c>
       <c r="N202" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>32.795394717737359</v>
       </c>
       <c r="O202">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>18.934429968465697</v>
       </c>
+      <c r="P202">
+        <f t="shared" si="22"/>
+        <v>79</v>
+      </c>
       <c r="Q202">
+        <f t="shared" si="27"/>
+        <v>-6.7026652046466211</v>
+      </c>
+      <c r="R202">
+        <f t="shared" si="23"/>
+        <v>-5.5109271980650534E-2</v>
+      </c>
+      <c r="S202">
+        <f t="shared" si="24"/>
+        <v>9.067521068905561E-2</v>
+      </c>
+      <c r="T202">
         <f t="shared" si="25"/>
-        <v>-6.7026652046466211</v>
-      </c>
-      <c r="R202">
-        <f t="shared" si="21"/>
-        <v>-5.5109271980650534E-2</v>
-      </c>
-      <c r="S202">
-        <f t="shared" si="22"/>
-        <v>9.067521068905561E-2</v>
-      </c>
-      <c r="T202">
-        <f t="shared" si="23"/>
         <v>-0.60776557960953448</v>
       </c>
       <c r="U202">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.36937899975811328</v>
       </c>
     </row>
@@ -21828,39 +24994,43 @@
         <v>94.118717812000995</v>
       </c>
       <c r="L203" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>795.89062690548337</v>
       </c>
       <c r="M203" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>99.486328363185422</v>
       </c>
       <c r="N203" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27.088260737938853</v>
       </c>
       <c r="O203">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15.639414628927769</v>
       </c>
+      <c r="P203">
+        <f t="shared" si="22"/>
+        <v>80</v>
+      </c>
       <c r="Q203">
+        <f t="shared" si="27"/>
+        <v>-0.36132836318542161</v>
+      </c>
+      <c r="R203">
+        <f t="shared" si="23"/>
+        <v>-3.6451789476461198E-3</v>
+      </c>
+      <c r="S203">
+        <f t="shared" si="24"/>
+        <v>0.10044039219036507</v>
+      </c>
+      <c r="T203">
         <f t="shared" si="25"/>
-        <v>-0.36132836318542161</v>
-      </c>
-      <c r="R203">
-        <f t="shared" si="21"/>
-        <v>-3.6451789476461198E-3</v>
-      </c>
-      <c r="S203">
-        <f t="shared" si="22"/>
-        <v>0.10044039219036507</v>
-      </c>
-      <c r="T203">
-        <f t="shared" si="23"/>
         <v>-3.6291962507846422E-2</v>
       </c>
       <c r="U203">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.3171065426709301E-3</v>
       </c>
     </row>
@@ -21893,39 +25063,43 @@
         <v>69.716946385800796</v>
       </c>
       <c r="L204" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>696.38106168247555</v>
       </c>
       <c r="M204" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>87.047632710309443</v>
       </c>
       <c r="N204" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30.005921263073922</v>
       </c>
       <c r="O204">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>17.323926718518447</v>
       </c>
+      <c r="P204">
+        <f t="shared" si="22"/>
+        <v>81</v>
+      </c>
       <c r="Q204">
+        <f t="shared" si="27"/>
+        <v>-9.2976327103094434</v>
+      </c>
+      <c r="R204">
+        <f t="shared" si="23"/>
+        <v>-0.11958370045414075</v>
+      </c>
+      <c r="S204">
+        <f t="shared" si="24"/>
+        <v>0.11340959542474854</v>
+      </c>
+      <c r="T204">
         <f t="shared" si="25"/>
-        <v>-9.2976327103094434</v>
-      </c>
-      <c r="R204">
-        <f t="shared" si="21"/>
-        <v>-0.11958370045414075</v>
-      </c>
-      <c r="S204">
-        <f t="shared" si="22"/>
-        <v>0.11340959542474854</v>
-      </c>
-      <c r="T204">
-        <f t="shared" si="23"/>
         <v>-1.0544407640841023</v>
       </c>
       <c r="U204">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1118453249622653</v>
       </c>
     </row>
@@ -21958,39 +25132,43 @@
         <v>37.2804145812988</v>
       </c>
       <c r="L205" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>569.99575313925595</v>
       </c>
       <c r="M205" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>71.249469142406994</v>
       </c>
       <c r="N205" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>34.207838902062257</v>
       </c>
       <c r="O205">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>19.749904998500998</v>
       </c>
+      <c r="P205">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
       <c r="Q205">
+        <f t="shared" si="27"/>
+        <v>8.3755308575930059</v>
+      </c>
+      <c r="R205">
+        <f t="shared" si="23"/>
+        <v>0.10518720072330305</v>
+      </c>
+      <c r="S205">
+        <f t="shared" si="24"/>
+        <v>0.11206636293610515</v>
+      </c>
+      <c r="T205">
         <f t="shared" si="25"/>
-        <v>8.3755308575930059</v>
-      </c>
-      <c r="R205">
-        <f t="shared" si="21"/>
-        <v>0.10518720072330305</v>
-      </c>
-      <c r="S205">
-        <f t="shared" si="22"/>
-        <v>0.11206636293610515</v>
-      </c>
-      <c r="T205">
-        <f t="shared" si="23"/>
         <v>0.93861528086956592</v>
       </c>
       <c r="U205">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.88099864548185403</v>
       </c>
     </row>
@@ -22023,39 +25201,43 @@
         <v>66.639224931597695</v>
       </c>
       <c r="L206" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>485.87324500060606</v>
       </c>
       <c r="M206" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>60.734155625075758</v>
       </c>
       <c r="N206" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27.478901493142647</v>
       </c>
       <c r="O206">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15.864951174101117</v>
       </c>
+      <c r="P206">
+        <f t="shared" si="22"/>
+        <v>83</v>
+      </c>
       <c r="Q206">
+        <f t="shared" si="27"/>
+        <v>-2.8591556250757577</v>
+      </c>
+      <c r="R206">
+        <f t="shared" si="23"/>
+        <v>-4.9402257020747437E-2</v>
+      </c>
+      <c r="S206">
+        <f t="shared" si="24"/>
+        <v>0.131448155980155</v>
+      </c>
+      <c r="T206">
         <f t="shared" si="25"/>
-        <v>-2.8591556250757577</v>
-      </c>
-      <c r="R206">
-        <f t="shared" si="21"/>
-        <v>-4.9402257020747437E-2</v>
-      </c>
-      <c r="S206">
-        <f t="shared" si="22"/>
-        <v>0.131448155980155</v>
-      </c>
-      <c r="T206">
-        <f t="shared" si="23"/>
         <v>-0.37583073457649568</v>
       </c>
       <c r="U206">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.14124874105230836</v>
       </c>
     </row>
@@ -22088,39 +25270,43 @@
         <v>37.578291900455902</v>
       </c>
       <c r="L207" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>443.27214369177761</v>
       </c>
       <c r="M207" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>55.409017961472202</v>
       </c>
       <c r="N207" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>24.161386640631974</v>
       </c>
       <c r="O207">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13.9495830809635</v>
       </c>
+      <c r="P207">
+        <f t="shared" si="22"/>
+        <v>84</v>
+      </c>
       <c r="Q207">
+        <f t="shared" si="27"/>
+        <v>-9.2840179614722018</v>
+      </c>
+      <c r="R207">
+        <f t="shared" si="23"/>
+        <v>-0.20127952219993933</v>
+      </c>
+      <c r="S207">
+        <f t="shared" si="24"/>
+        <v>0.14724203476646205</v>
+      </c>
+      <c r="T207">
         <f t="shared" si="25"/>
-        <v>-9.2840179614722018</v>
-      </c>
-      <c r="R207">
-        <f t="shared" si="21"/>
-        <v>-0.20127952219993933</v>
-      </c>
-      <c r="S207">
-        <f t="shared" si="22"/>
-        <v>0.14724203476646205</v>
-      </c>
-      <c r="T207">
-        <f t="shared" si="23"/>
         <v>-1.3669976954555483</v>
       </c>
       <c r="U207">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.8686826993807795</v>
       </c>
     </row>
@@ -22153,39 +25339,43 @@
         <v>28.541309390216998</v>
       </c>
       <c r="L208" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>272.41230589803274</v>
       </c>
       <c r="M208" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>34.051538237254093</v>
       </c>
       <c r="N208" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>19.455603380645652</v>
       </c>
       <c r="O208">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11.232697849062362</v>
       </c>
+      <c r="P208">
+        <f t="shared" si="22"/>
+        <v>85</v>
+      </c>
       <c r="Q208">
+        <f t="shared" si="27"/>
+        <v>0.19846176274590732</v>
+      </c>
+      <c r="R208">
+        <f t="shared" si="23"/>
+        <v>5.7945040217783159E-3</v>
+      </c>
+      <c r="S208">
+        <f t="shared" si="24"/>
+        <v>0.17087153154335219</v>
+      </c>
+      <c r="T208">
         <f t="shared" si="25"/>
-        <v>0.19846176274590732</v>
-      </c>
-      <c r="R208">
-        <f t="shared" si="21"/>
-        <v>5.7945040217783159E-3</v>
-      </c>
-      <c r="S208">
-        <f t="shared" si="22"/>
-        <v>0.17087153154335219</v>
-      </c>
-      <c r="T208">
-        <f t="shared" si="23"/>
         <v>3.3911465353186579E-2</v>
       </c>
       <c r="U208">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1499874824003741E-3</v>
       </c>
     </row>
@@ -22218,39 +25408,43 @@
         <v>36.390125691890702</v>
       </c>
       <c r="L209" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>330.09947445534527</v>
       </c>
       <c r="M209" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>41.262434306918159</v>
       </c>
       <c r="N209" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15.606575729265582</v>
       </c>
       <c r="O209">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.0104606984197648</v>
       </c>
+      <c r="P209">
+        <f t="shared" si="22"/>
+        <v>86</v>
+      </c>
       <c r="Q209">
+        <f t="shared" si="27"/>
+        <v>-10.762434306918159</v>
+      </c>
+      <c r="R209">
+        <f t="shared" si="23"/>
+        <v>-0.35286669858748065</v>
+      </c>
+      <c r="S209">
+        <f t="shared" si="24"/>
+        <v>0.18107149208503706</v>
+      </c>
+      <c r="T209">
         <f t="shared" si="25"/>
-        <v>-10.762434306918159</v>
-      </c>
-      <c r="R209">
-        <f t="shared" si="21"/>
-        <v>-0.35286669858748065</v>
-      </c>
-      <c r="S209">
-        <f t="shared" si="22"/>
-        <v>0.18107149208503706</v>
-      </c>
-      <c r="T209">
-        <f t="shared" si="23"/>
         <v>-1.948770038420863</v>
       </c>
       <c r="U209">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.7977046626468511</v>
       </c>
     </row>
@@ -22283,39 +25477,43 @@
         <v>-6.0464866561815098</v>
       </c>
       <c r="L210" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>258.3370900033039</v>
       </c>
       <c r="M210" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.292136250412987</v>
       </c>
       <c r="N210" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>22.837923923883423</v>
       </c>
       <c r="O210">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13.18548152518629</v>
       </c>
+      <c r="P210">
+        <f t="shared" si="22"/>
+        <v>87</v>
+      </c>
       <c r="Q210">
+        <f t="shared" si="27"/>
+        <v>0.45786374958701259</v>
+      </c>
+      <c r="R210">
+        <f t="shared" si="23"/>
+        <v>1.3980572506473667E-2</v>
+      </c>
+      <c r="S210">
+        <f t="shared" si="24"/>
+        <v>0.17474081133220759</v>
+      </c>
+      <c r="T210">
         <f t="shared" si="25"/>
-        <v>0.45786374958701259</v>
-      </c>
-      <c r="R210">
-        <f t="shared" si="21"/>
-        <v>1.3980572506473667E-2</v>
-      </c>
-      <c r="S210">
-        <f t="shared" si="22"/>
-        <v>0.17474081133220759</v>
-      </c>
-      <c r="T210">
-        <f t="shared" si="23"/>
         <v>8.0007483082441308E-2</v>
       </c>
       <c r="U210">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.4011973491871323E-3</v>
       </c>
     </row>
@@ -22348,39 +25546,43 @@
         <v>6.7858904767780999</v>
       </c>
       <c r="L211" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200.18420347664468</v>
       </c>
       <c r="M211" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>25.023025434580585</v>
       </c>
       <c r="N211" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16.611003349798871</v>
       </c>
       <c r="O211">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.5903672555161545</v>
       </c>
+      <c r="P211">
+        <f t="shared" si="22"/>
+        <v>88</v>
+      </c>
       <c r="Q211">
+        <f t="shared" si="27"/>
+        <v>0.10197456541941463</v>
+      </c>
+      <c r="R211">
+        <f t="shared" si="23"/>
+        <v>4.0586891709219752E-3</v>
+      </c>
+      <c r="S211">
+        <f t="shared" si="24"/>
+        <v>0.19950186722152657</v>
+      </c>
+      <c r="T211">
         <f t="shared" si="25"/>
-        <v>0.10197456541941463</v>
-      </c>
-      <c r="R211">
-        <f t="shared" si="21"/>
-        <v>4.0586891709219752E-3</v>
-      </c>
-      <c r="S211">
-        <f t="shared" si="22"/>
-        <v>0.19950186722152657</v>
-      </c>
-      <c r="T211">
-        <f t="shared" si="23"/>
         <v>2.0344116210276934E-2</v>
       </c>
       <c r="U211">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.138830643772527E-4</v>
       </c>
     </row>
@@ -22413,39 +25615,43 @@
         <v>0.89350782893598002</v>
       </c>
       <c r="L212" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>152.72666060179435</v>
       </c>
       <c r="M212" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19.090832575224294</v>
       </c>
       <c r="N212" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12.150141363840586</v>
       </c>
       <c r="O212">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.014887387105369</v>
       </c>
+      <c r="P212">
+        <f t="shared" si="22"/>
+        <v>89</v>
+      </c>
       <c r="Q212">
+        <f t="shared" si="27"/>
+        <v>-1.0908325752242938</v>
+      </c>
+      <c r="R212">
+        <f t="shared" si="23"/>
+        <v>-6.0601809734682988E-2</v>
+      </c>
+      <c r="S212">
+        <f t="shared" si="24"/>
+        <v>0.23570226039551587</v>
+      </c>
+      <c r="T212">
         <f t="shared" si="25"/>
-        <v>-1.0908325752242938</v>
-      </c>
-      <c r="R212">
-        <f t="shared" si="21"/>
-        <v>-6.0601809734682988E-2</v>
-      </c>
-      <c r="S212">
-        <f t="shared" si="22"/>
-        <v>0.23570226039551587</v>
-      </c>
-      <c r="T212">
-        <f t="shared" si="23"/>
         <v>-0.25711170369342756</v>
       </c>
       <c r="U212">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.6106428176136919E-2</v>
       </c>
     </row>
@@ -22478,39 +25684,43 @@
         <v>-4.8170590475201598</v>
       </c>
       <c r="L213" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>99.30812640767526</v>
       </c>
       <c r="M213" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12.413515800959408</v>
       </c>
       <c r="N213" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18.743631795138551</v>
       </c>
       <c r="O213">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10.821640862514471</v>
       </c>
+      <c r="P213">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q213">
+        <f t="shared" si="27"/>
+        <v>1.7114841990405925</v>
+      </c>
+      <c r="R213">
+        <f t="shared" si="23"/>
+        <v>0.12116702294092691</v>
+      </c>
+      <c r="S213">
+        <f t="shared" si="24"/>
+        <v>0.26607604209509572</v>
+      </c>
+      <c r="T213">
         <f t="shared" si="25"/>
-        <v>1.7114841990405925</v>
-      </c>
-      <c r="R213">
-        <f t="shared" si="21"/>
-        <v>0.12116702294092691</v>
-      </c>
-      <c r="S213">
-        <f t="shared" si="22"/>
-        <v>0.26607604209509572</v>
-      </c>
-      <c r="T213">
-        <f t="shared" si="23"/>
         <v>0.4553849417890159</v>
       </c>
       <c r="U213">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.20737544520818535</v>
       </c>
     </row>
@@ -22543,39 +25753,43 @@
         <v>1.9134561419480001</v>
       </c>
       <c r="L214" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>130.94796150177609</v>
       </c>
       <c r="M214" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16.368495187722012</v>
       </c>
       <c r="N214" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11.293467701498596</v>
       </c>
       <c r="O214">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.5202866175445591</v>
       </c>
+      <c r="P214">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
       <c r="Q214">
+        <f t="shared" si="27"/>
+        <v>-6.3684951877220115</v>
+      </c>
+      <c r="R214">
+        <f t="shared" si="23"/>
+        <v>-0.6368495187722012</v>
+      </c>
+      <c r="S214">
+        <f t="shared" si="24"/>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="T214">
         <f t="shared" si="25"/>
-        <v>-6.3684951877220115</v>
-      </c>
-      <c r="R214">
-        <f t="shared" si="21"/>
-        <v>-0.6368495187722012</v>
-      </c>
-      <c r="S214">
-        <f t="shared" si="22"/>
-        <v>0.31622776601683794</v>
-      </c>
-      <c r="T214">
-        <f t="shared" si="23"/>
         <v>-2.0138950061023149</v>
       </c>
       <c r="U214">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.0557730956038416</v>
       </c>
     </row>
@@ -22608,39 +25822,43 @@
         <v>2.6646031886339099</v>
       </c>
       <c r="L215" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>82.652988712303085</v>
       </c>
       <c r="M215" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.331623589037886</v>
       </c>
       <c r="N215" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.5109697322777365</v>
       </c>
       <c r="O215">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.3364603968056832</v>
       </c>
+      <c r="P215">
+        <f t="shared" si="22"/>
+        <v>92</v>
+      </c>
       <c r="Q215">
+        <f t="shared" si="27"/>
+        <v>-3.7066235890378856</v>
+      </c>
+      <c r="R215">
+        <f t="shared" si="23"/>
+        <v>-0.55949035306232231</v>
+      </c>
+      <c r="S215">
+        <f t="shared" si="24"/>
+        <v>0.38851434494290565</v>
+      </c>
+      <c r="T215">
         <f t="shared" si="25"/>
-        <v>-3.7066235890378856</v>
-      </c>
-      <c r="R215">
-        <f t="shared" si="21"/>
-        <v>-0.55949035306232231</v>
-      </c>
-      <c r="S215">
-        <f t="shared" si="22"/>
-        <v>0.38851434494290565</v>
-      </c>
-      <c r="T215">
-        <f t="shared" si="23"/>
         <v>-1.440076435644976</v>
       </c>
       <c r="U215">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.0738201404999388</v>
       </c>
     </row>
@@ -22673,39 +25891,43 @@
         <v>-16.398715807124901</v>
       </c>
       <c r="L216" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>36.47930202959104</v>
       </c>
       <c r="M216" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.5599127536988799</v>
       </c>
       <c r="N216" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.6370645554453027</v>
       </c>
       <c r="O216">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.9866115460945215</v>
       </c>
+      <c r="P216">
+        <f t="shared" si="22"/>
+        <v>93</v>
+      </c>
       <c r="Q216">
+        <f t="shared" si="27"/>
+        <v>-0.43491275369887994</v>
+      </c>
+      <c r="R216">
+        <f t="shared" si="23"/>
+        <v>-0.10543339483609211</v>
+      </c>
+      <c r="S216">
+        <f t="shared" si="24"/>
+        <v>0.4923659639173309</v>
+      </c>
+      <c r="T216">
         <f t="shared" si="25"/>
-        <v>-0.43491275369887994</v>
-      </c>
-      <c r="R216">
-        <f t="shared" si="21"/>
-        <v>-0.10543339483609211</v>
-      </c>
-      <c r="S216">
-        <f t="shared" si="22"/>
-        <v>0.4923659639173309</v>
-      </c>
-      <c r="T216">
-        <f t="shared" si="23"/>
         <v>-0.21413623719488978</v>
       </c>
       <c r="U216">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.5854328079986087E-2</v>
       </c>
     </row>
@@ -22738,39 +25960,43 @@
         <v>10.580760195851299</v>
       </c>
       <c r="L217" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4.3892790586687678</v>
       </c>
       <c r="M217" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.54865988233359597</v>
       </c>
       <c r="N217" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.0712996764067544</v>
       </c>
       <c r="O217">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.2373173100732053</v>
       </c>
+      <c r="P217">
+        <f t="shared" si="22"/>
+        <v>94</v>
+      </c>
       <c r="Q217">
+        <f t="shared" si="27"/>
+        <v>3.0486598823335962</v>
+      </c>
+      <c r="R217">
+        <f t="shared" si="23"/>
+        <v>1.2194639529334386</v>
+      </c>
+      <c r="S217">
+        <f t="shared" si="24"/>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="T217">
         <f t="shared" si="25"/>
-        <v>3.0486598823335962</v>
-      </c>
-      <c r="R217">
-        <f t="shared" si="21"/>
-        <v>1.2194639529334386</v>
-      </c>
-      <c r="S217">
-        <f t="shared" si="22"/>
-        <v>0.63245553203367588</v>
-      </c>
-      <c r="T217">
-        <f t="shared" si="23"/>
         <v>1.9281418078710184</v>
       </c>
       <c r="U217">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.7177308312601185</v>
       </c>
     </row>
@@ -22803,39 +26029,43 @@
         <v>-2.20587714016437</v>
       </c>
       <c r="L218" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16.526345372199941</v>
       </c>
       <c r="M218" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0657931715249926</v>
       </c>
       <c r="N218" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>14.205465084390118</v>
       </c>
       <c r="O218">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.2015290904364644</v>
       </c>
+      <c r="P218">
+        <f t="shared" si="22"/>
+        <v>95</v>
+      </c>
       <c r="Q218">
+        <f t="shared" si="27"/>
+        <v>0.30920682847500736</v>
+      </c>
+      <c r="R218">
+        <f t="shared" si="23"/>
+        <v>0.13019234883158204</v>
+      </c>
+      <c r="S218">
+        <f t="shared" si="24"/>
+        <v>0.64888568452305018</v>
+      </c>
+      <c r="T218">
         <f t="shared" si="25"/>
-        <v>0.30920682847500736</v>
-      </c>
-      <c r="R218">
-        <f t="shared" si="21"/>
-        <v>0.13019234883158204</v>
-      </c>
-      <c r="S218">
-        <f t="shared" si="22"/>
-        <v>0.64888568452305018</v>
-      </c>
-      <c r="T218">
-        <f t="shared" si="23"/>
         <v>0.20063988455420648</v>
       </c>
       <c r="U218">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.0256363273925316E-2</v>
       </c>
     </row>
@@ -22868,39 +26098,43 @@
         <v>-7.9968948438763601</v>
       </c>
       <c r="L219" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.3746899701655</v>
       </c>
       <c r="M219" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.1718362462706875</v>
       </c>
       <c r="N219" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.3449958633488199</v>
       </c>
       <c r="O219">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.6632850697115034</v>
       </c>
+      <c r="P219">
+        <f t="shared" si="22"/>
+        <v>96</v>
+      </c>
       <c r="Q219">
+        <f t="shared" si="27"/>
+        <v>1.0468362462706875</v>
+      </c>
+      <c r="R219">
+        <f t="shared" si="23"/>
+        <v>1.1963842814522143</v>
+      </c>
+      <c r="S219">
+        <f t="shared" si="24"/>
+        <v>1.0690449676496976</v>
+      </c>
+      <c r="T219">
         <f t="shared" si="25"/>
-        <v>1.0468362462706875</v>
-      </c>
-      <c r="R219">
-        <f t="shared" si="21"/>
-        <v>1.1963842814522143</v>
-      </c>
-      <c r="S219">
-        <f t="shared" si="22"/>
-        <v>1.0690449676496976</v>
-      </c>
-      <c r="T219">
-        <f t="shared" si="23"/>
         <v>1.119115021028978</v>
       </c>
       <c r="U219">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.2524184302926895</v>
       </c>
     </row>
@@ -22933,39 +26167,43 @@
         <v>-11.388264775276101</v>
       </c>
       <c r="L220" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>55.907928299158698</v>
       </c>
       <c r="M220" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.9884910373948372</v>
       </c>
       <c r="N220" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11.202874050336662</v>
       </c>
       <c r="O220">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.4679823486593451</v>
       </c>
+      <c r="P220">
+        <f t="shared" si="22"/>
+        <v>97</v>
+      </c>
       <c r="Q220">
+        <f t="shared" si="27"/>
+        <v>-5.1134910373948372</v>
+      </c>
+      <c r="R220">
+        <f t="shared" si="23"/>
+        <v>-2.7271952199439133</v>
+      </c>
+      <c r="S220">
+        <f t="shared" si="24"/>
+        <v>0.73029674334022143</v>
+      </c>
+      <c r="T220">
         <f t="shared" si="25"/>
-        <v>-5.1134910373948372</v>
-      </c>
-      <c r="R220">
-        <f t="shared" si="21"/>
-        <v>-2.7271952199439133</v>
-      </c>
-      <c r="S220">
-        <f t="shared" si="22"/>
-        <v>0.73029674334022143</v>
-      </c>
-      <c r="T220">
-        <f t="shared" si="23"/>
         <v>-3.7343658517088607</v>
       </c>
       <c r="U220">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>13.945488314409241</v>
       </c>
     </row>
@@ -22998,39 +26236,43 @@
         <v>7.3930990397930101</v>
       </c>
       <c r="L221" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-10.761607022955928</v>
       </c>
       <c r="M221" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.3452008778694911</v>
       </c>
       <c r="N221" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.2912435090869341</v>
       </c>
       <c r="O221">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.6322511335088272</v>
       </c>
+      <c r="P221">
+        <f t="shared" si="22"/>
+        <v>98</v>
+      </c>
       <c r="Q221">
+        <f t="shared" si="27"/>
+        <v>1.8452008778694911</v>
+      </c>
+      <c r="R221">
+        <f t="shared" si="23"/>
+        <v>3.6904017557389821</v>
+      </c>
+      <c r="S221">
+        <f t="shared" si="24"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="T221">
         <f t="shared" si="25"/>
-        <v>1.8452008778694911</v>
-      </c>
-      <c r="R221">
-        <f t="shared" si="21"/>
-        <v>3.6904017557389821</v>
-      </c>
-      <c r="S221">
-        <f t="shared" si="22"/>
-        <v>1.4142135623730949</v>
-      </c>
-      <c r="T221">
-        <f t="shared" si="23"/>
         <v>2.6095081067857753</v>
       </c>
       <c r="U221">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.8095325593806812</v>
       </c>
     </row>
@@ -23063,39 +26305,43 @@
         <v>-5.3721819221973401</v>
       </c>
       <c r="L222" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.9931902851239354</v>
       </c>
       <c r="M222" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.62414878564049192</v>
       </c>
       <c r="N222" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.6909815426508672</v>
       </c>
       <c r="O222">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.0177405331715477</v>
       </c>
+      <c r="P222">
+        <f t="shared" si="22"/>
+        <v>99</v>
+      </c>
       <c r="Q222">
+        <f t="shared" si="27"/>
+        <v>-0.12414878564049192</v>
+      </c>
+      <c r="R222">
+        <f t="shared" si="23"/>
+        <v>-0.24829757128098384</v>
+      </c>
+      <c r="S222">
+        <f t="shared" si="24"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="T222">
         <f t="shared" si="25"/>
-        <v>-0.12414878564049192</v>
-      </c>
-      <c r="R222">
-        <f t="shared" si="21"/>
-        <v>-0.24829757128098384</v>
-      </c>
-      <c r="S222">
-        <f t="shared" si="22"/>
-        <v>1.4142135623730949</v>
-      </c>
-      <c r="T222">
-        <f t="shared" si="23"/>
         <v>-0.17557289640493384</v>
       </c>
       <c r="U222">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.0825841952017628E-2</v>
       </c>
     </row>
@@ -23128,23 +26374,27 @@
         <v>5.2977392822503999</v>
       </c>
       <c r="L223" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-7.9265783075242675</v>
       </c>
       <c r="M223" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.99082228844053344</v>
       </c>
       <c r="N223" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.6423036960652695</v>
       </c>
       <c r="O223">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.9896363653417817</v>
       </c>
+      <c r="P223">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
       <c r="Q223">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.99082228844053344</v>
       </c>
     </row>
@@ -23177,23 +26427,27 @@
         <v>-2.04236055910587</v>
       </c>
       <c r="L224" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-28.525419659912412</v>
       </c>
       <c r="M224" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-3.5656774574890515</v>
       </c>
       <c r="N224" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.483414312449078</v>
       </c>
       <c r="O224">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.3205512677499733</v>
       </c>
+      <c r="P224">
+        <f t="shared" si="22"/>
+        <v>101</v>
+      </c>
       <c r="Q224">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.8156774574890515</v>
       </c>
     </row>
@@ -23226,23 +26480,27 @@
         <v>2.3191373720765101</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-37.307319845072797</v>
       </c>
       <c r="M225" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-4.6634149806340996</v>
       </c>
       <c r="N225" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.2994423462489308</v>
       </c>
       <c r="O225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.6369847343513482</v>
       </c>
+      <c r="P225">
+        <f t="shared" si="22"/>
+        <v>102</v>
+      </c>
       <c r="Q225">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.6634149806340996</v>
       </c>
     </row>
@@ -23275,23 +26533,27 @@
         <v>-13.2571517080068</v>
       </c>
       <c r="L226" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.5087879727361599</v>
       </c>
       <c r="M226" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.18859849659201999</v>
       </c>
       <c r="N226" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.1767520465472057</v>
       </c>
       <c r="O226">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.7208499951708527</v>
       </c>
+      <c r="P226">
+        <f t="shared" si="22"/>
+        <v>103</v>
+      </c>
       <c r="Q226">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.18859849659201999</v>
       </c>
     </row>
@@ -23324,23 +26586,27 @@
         <v>-0.475329879671335</v>
       </c>
       <c r="L227" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.900606628041702</v>
       </c>
       <c r="M227" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.86257582850521275</v>
       </c>
       <c r="N227" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.7861985961349447</v>
       </c>
       <c r="O227">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.3406633170631452</v>
       </c>
+      <c r="P227">
+        <f t="shared" si="22"/>
+        <v>104</v>
+      </c>
       <c r="Q227">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.86257582850521275</v>
       </c>
     </row>
@@ -23373,23 +26639,27 @@
         <v>0.10511348396539601</v>
       </c>
       <c r="L228" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.0329083185642824</v>
       </c>
       <c r="M228" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.75411353982053531</v>
       </c>
       <c r="N228" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.6604349670330616</v>
       </c>
       <c r="O228">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.5360028443780314</v>
       </c>
+      <c r="P228">
+        <f t="shared" si="22"/>
+        <v>105</v>
+      </c>
       <c r="Q228">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.75411353982053531</v>
       </c>
     </row>
@@ -23422,23 +26692,27 @@
         <v>-2.7436777353286699</v>
       </c>
       <c r="L229" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.9028349891304348</v>
       </c>
       <c r="M229" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.48785437364130435</v>
       </c>
       <c r="N229" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.5236896379471085</v>
       </c>
       <c r="O229">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.7664539685783356</v>
       </c>
+      <c r="P229">
+        <f t="shared" si="22"/>
+        <v>106</v>
+      </c>
       <c r="Q229">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.48785437364130435</v>
       </c>
     </row>
@@ -23471,23 +26745,27 @@
         <v>6.1442567110061601</v>
       </c>
       <c r="L230" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-22.521521933376736</v>
       </c>
       <c r="M230" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-2.815190241672092</v>
       </c>
       <c r="N230" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12.046099425716312</v>
       </c>
       <c r="O230">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.9548187461223092</v>
       </c>
+      <c r="P230">
+        <f t="shared" si="22"/>
+        <v>107</v>
+      </c>
       <c r="Q230">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.815190241672092</v>
       </c>
     </row>
@@ -23520,23 +26798,27 @@
         <v>0.74337254464626301</v>
       </c>
       <c r="L231" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32.050767246633754</v>
       </c>
       <c r="M231" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.0063459058292192</v>
       </c>
       <c r="N231" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12.084435366310831</v>
       </c>
       <c r="O231">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.976952011744193</v>
       </c>
+      <c r="P231">
+        <f t="shared" si="22"/>
+        <v>108</v>
+      </c>
       <c r="Q231">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-4.0063459058292192</v>
       </c>
     </row>
@@ -23569,23 +26851,27 @@
         <v>3.7616134732961601</v>
       </c>
       <c r="L232" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>68.982069026678673</v>
       </c>
       <c r="M232" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.6227586283348341</v>
       </c>
       <c r="N232" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.4630742766628577</v>
       </c>
       <c r="O232">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.3088079426134724</v>
       </c>
+      <c r="P232">
+        <f t="shared" si="22"/>
+        <v>109</v>
+      </c>
       <c r="Q232">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-8.6227586283348341</v>
       </c>
     </row>
@@ -23598,15 +26884,15 @@
         <v>160887.2572864072</v>
       </c>
       <c r="C240">
-        <f t="shared" ref="C240:I240" si="26">SUM(C123:C232)</f>
+        <f t="shared" ref="C240:I240" si="28">SUM(C123:C232)</f>
         <v>179135.89259480289</v>
       </c>
       <c r="D240">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>194399.46465761459</v>
       </c>
       <c r="E240">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>198018.17817689409</v>
       </c>
       <c r="F240">
@@ -23614,15 +26900,15 @@
         <v>187593.34230175277</v>
       </c>
       <c r="G240">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>197476.66285654757</v>
       </c>
       <c r="H240">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>192543.13880156647</v>
       </c>
       <c r="I240">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>182211.65395871975</v>
       </c>
     </row>
@@ -23635,15 +26921,15 @@
         <v>161351</v>
       </c>
       <c r="C241">
-        <f t="shared" ref="C241:E241" si="27">SUM(C3:C112)</f>
+        <f t="shared" ref="C241:E241" si="29">SUM(C3:C112)</f>
         <v>181519</v>
       </c>
       <c r="D241">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>192822</v>
       </c>
       <c r="E241">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>194520</v>
       </c>
       <c r="F241">
@@ -23651,15 +26937,15 @@
         <v>186904</v>
       </c>
       <c r="G241">
-        <f t="shared" ref="G241:I241" si="28">SUM(G3:G112)</f>
+        <f t="shared" ref="G241:I241" si="30">SUM(G3:G112)</f>
         <v>196497</v>
       </c>
       <c r="H241">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>193015</v>
       </c>
       <c r="I241">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>183450</v>
       </c>
     </row>
@@ -23672,15 +26958,15 @@
         <v>-463.74271359280101</v>
       </c>
       <c r="C242">
-        <f t="shared" ref="C242:E242" si="29">C240-C241</f>
+        <f t="shared" ref="C242:E242" si="31">C240-C241</f>
         <v>-2383.1074051971082</v>
       </c>
       <c r="D242">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1577.4646576145897</v>
       </c>
       <c r="E242">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3498.1781768940855</v>
       </c>
       <c r="F242">
@@ -23688,15 +26974,15 @@
         <v>689.34230175276753</v>
       </c>
       <c r="G242">
-        <f t="shared" ref="G242:I242" si="30">G240-G241</f>
+        <f t="shared" ref="G242:I242" si="32">G240-G241</f>
         <v>979.66285654756939</v>
       </c>
       <c r="H242">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-471.86119843352935</v>
       </c>
       <c r="I242">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-1238.3460412802524</v>
       </c>
     </row>
@@ -23709,15 +26995,15 @@
         <v>-2.8741235789849521E-3</v>
       </c>
       <c r="C243">
-        <f t="shared" ref="C243:E243" si="31">C242/C241</f>
+        <f t="shared" ref="C243:E243" si="33">C242/C241</f>
         <v>-1.312869399455213E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.1809371213585058E-3</v>
       </c>
       <c r="E243">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.7983642694294085E-2</v>
       </c>
       <c r="F243">
@@ -23725,15 +27011,15 @@
         <v>3.6882158849075863E-3</v>
       </c>
       <c r="G243">
-        <f t="shared" ref="G243:I243" si="32">G242/G241</f>
+        <f t="shared" ref="G243:I243" si="34">G242/G241</f>
         <v>4.9856377275356335E-3</v>
       </c>
       <c r="H243">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-2.4446866742664007E-3</v>
       </c>
       <c r="I243">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-6.7503191130021938E-3</v>
       </c>
       <c r="J243">
@@ -23758,11 +27044,11 @@
         <v>31.287087878983982</v>
       </c>
       <c r="D244">
-        <f t="shared" ref="D244:E244" si="33">(D241-D240)^2/D241</f>
+        <f t="shared" ref="D244:E244" si="35">(D241-D240)^2/D241</f>
         <v>12.905139175110282</v>
       </c>
       <c r="E244">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>62.909986414240322</v>
       </c>
       <c r="F244">
@@ -23774,11 +27060,11 @@
         <v>4.8842440978688915</v>
       </c>
       <c r="H244">
-        <f t="shared" ref="H244:I244" si="34">(H241-H240)^2/H241</f>
+        <f t="shared" ref="H244:I244" si="36">(H241-H240)^2/H241</f>
         <v>1.1535527839138231</v>
       </c>
       <c r="I244">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>8.3592309509646903</v>
       </c>
     </row>

--- a/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1342,11 +1342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="475556552"/>
-        <c:axId val="475556944"/>
+        <c:axId val="446662320"/>
+        <c:axId val="446659184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="475556552"/>
+        <c:axId val="446662320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1458,7 +1458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475556944"/>
+        <c:crossAx val="446659184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1466,7 +1466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475556944"/>
+        <c:axId val="446659184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475556552"/>
+        <c:crossAx val="446662320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2427,11 +2427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475558120"/>
-        <c:axId val="457063552"/>
+        <c:axId val="313567664"/>
+        <c:axId val="313568056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475558120"/>
+        <c:axId val="313567664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,12 +2488,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457063552"/>
+        <c:crossAx val="313568056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457063552"/>
+        <c:axId val="313568056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,7 +2550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475558120"/>
+        <c:crossAx val="313567664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3316,11 +3316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="457064728"/>
-        <c:axId val="457065120"/>
+        <c:axId val="369921504"/>
+        <c:axId val="475335112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="457064728"/>
+        <c:axId val="369921504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3377,12 +3377,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457065120"/>
+        <c:crossAx val="475335112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457065120"/>
+        <c:axId val="475335112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457064728"/>
+        <c:crossAx val="369921504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4205,11 +4205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="457062376"/>
-        <c:axId val="457062768"/>
+        <c:axId val="472199696"/>
+        <c:axId val="472198912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="457062376"/>
+        <c:axId val="472199696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,12 +4266,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457062768"/>
+        <c:crossAx val="472198912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457062768"/>
+        <c:axId val="472198912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4328,7 +4328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457062376"/>
+        <c:crossAx val="472199696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5738,11 +5738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="452803880"/>
-        <c:axId val="452803096"/>
+        <c:axId val="472200480"/>
+        <c:axId val="472201264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="452803880"/>
+        <c:axId val="472200480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,12 +5799,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452803096"/>
+        <c:crossAx val="472201264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="452803096"/>
+        <c:axId val="472201264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5861,7 +5861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452803880"/>
+        <c:crossAx val="472200480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7298,11 +7298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="312091296"/>
-        <c:axId val="312093256"/>
+        <c:axId val="454595264"/>
+        <c:axId val="454596440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="312091296"/>
+        <c:axId val="454595264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7359,12 +7359,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312093256"/>
+        <c:crossAx val="454596440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="312093256"/>
+        <c:axId val="454596440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7421,7 +7421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312091296"/>
+        <c:crossAx val="454595264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8858,11 +8858,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="312091688"/>
-        <c:axId val="515215360"/>
+        <c:axId val="454594088"/>
+        <c:axId val="454594480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="312091688"/>
+        <c:axId val="454594088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8919,12 +8919,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515215360"/>
+        <c:crossAx val="454594480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="515215360"/>
+        <c:axId val="454594480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8981,7 +8981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312091688"/>
+        <c:crossAx val="454594088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12974,7 +12974,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14517,8 +14517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L144" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG162" sqref="AG162"/>
+    <sheetView tabSelected="1" topLeftCell="O114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD116" sqref="AD116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
@@ -16,6 +16,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1342,11 +1343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446662320"/>
-        <c:axId val="446659184"/>
+        <c:axId val="516627040"/>
+        <c:axId val="516622336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446662320"/>
+        <c:axId val="516627040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1458,7 +1459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446659184"/>
+        <c:crossAx val="516622336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1466,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446659184"/>
+        <c:axId val="516622336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446662320"/>
+        <c:crossAx val="516627040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2427,11 +2428,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="313567664"/>
-        <c:axId val="313568056"/>
+        <c:axId val="516623512"/>
+        <c:axId val="516631352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="313567664"/>
+        <c:axId val="516623512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,12 +2489,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313568056"/>
+        <c:crossAx val="516631352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="313568056"/>
+        <c:axId val="516631352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,7 +2551,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313567664"/>
+        <c:crossAx val="516623512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3316,11 +3317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="369921504"/>
-        <c:axId val="475335112"/>
+        <c:axId val="516631744"/>
+        <c:axId val="516632136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="369921504"/>
+        <c:axId val="516631744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3377,12 +3378,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475335112"/>
+        <c:crossAx val="516632136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475335112"/>
+        <c:axId val="516632136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369921504"/>
+        <c:crossAx val="516631744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3528,7 +3529,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4205,11 +4205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472199696"/>
-        <c:axId val="472198912"/>
+        <c:axId val="516632528"/>
+        <c:axId val="516623120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472199696"/>
+        <c:axId val="516632528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,12 +4266,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472198912"/>
+        <c:crossAx val="516623120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472198912"/>
+        <c:axId val="516623120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4328,7 +4328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472199696"/>
+        <c:crossAx val="516632528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5738,11 +5738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472200480"/>
-        <c:axId val="472201264"/>
+        <c:axId val="516621552"/>
+        <c:axId val="516636056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472200480"/>
+        <c:axId val="516621552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,12 +5799,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472201264"/>
+        <c:crossAx val="516636056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472201264"/>
+        <c:axId val="516636056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5861,7 +5861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472200480"/>
+        <c:crossAx val="516621552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7298,11 +7298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="454595264"/>
-        <c:axId val="454596440"/>
+        <c:axId val="516634880"/>
+        <c:axId val="471655912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="454595264"/>
+        <c:axId val="516634880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7359,12 +7359,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454596440"/>
+        <c:crossAx val="471655912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454596440"/>
+        <c:axId val="471655912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7421,7 +7421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454595264"/>
+        <c:crossAx val="516634880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7542,7 +7542,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8858,11 +8857,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="454594088"/>
-        <c:axId val="454594480"/>
+        <c:axId val="471656304"/>
+        <c:axId val="471642584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="454594088"/>
+        <c:axId val="471656304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8919,12 +8918,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454594480"/>
+        <c:crossAx val="471642584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454594480"/>
+        <c:axId val="471642584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8981,7 +8980,2202 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454594088"/>
+        <c:crossAx val="471656304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>relative error and 1/sqrt(true) together</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>relative error: 10z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$R$130:$R$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>-2.4315509963780584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9938397216144885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.20464890981640621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5174480604062502E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5619465779506934E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1065423317759478E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.1652621929469556E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.0280259004677427E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6226703084207966E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8204091973367642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8073296462906202E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1190273187198669E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7301059239082027E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4381130125347068E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.855267711991198E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6659833624698089E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.5832339617510859E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9501404703416523E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7241703942011172E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0249294495233826E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2962361025349802E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0674132512573819E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.5977886857159799E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6852837267531325E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.9335463770812261E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.7317726222970295E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.1095481454550518E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5724800740679179E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.7176888031028418E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.3797588885797796E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.4439143573622728E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2980955315924211E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3622296168745154E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0387855947005165E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8210754583344725E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5962085332337987E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.5476208946703146E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.2664560537708695E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.0426043723433173E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.9831749146953212E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.7735251709563549E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5841652835281483E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1770937790127849E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.4028904120963722E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.8520266222517291E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5643021283019456E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.8574833723739889E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.68410812929713E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1710508748742625E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6111014793742397E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4771466632292573E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.8927156627950556E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9874230704888061E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.7623110890781911E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4637329296378558E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.7069768941649958E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.269873152410681E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-7.9408428086733575E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.4710713540224627E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.8998924569152238E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.222335013651232E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.8048837312870945E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.8351337706645958E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.2110959267564682E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.4659712607531992E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.1508256459648956E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-5.1833460452901506E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.3216629575675804E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.1919830559787733E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.4295221495194856E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.5082914978035668E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2833077710346004E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-5.5109271980650534E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.6451789476461198E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.11958370045414075</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.10518720072330305</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.9402257020747437E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.20127952219993933</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.7945040217783159E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.35286669858748065</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3980572506473667E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0586891709219752E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-6.0601809734682988E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.12116702294092691</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.6368495187722012</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.55949035306232231</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.10543339483609211</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.2194639529334386</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.13019234883158204</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1963842814522143</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.7271952199439133</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6904017557389821</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.24829757128098384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>relative error: allz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$R$130:$R$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>11.504553201297902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3172893341863499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37497317346324011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.148734959149816E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3583193189431216E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0036901846350122E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0651996022213879E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.19958793386532E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7851735668360231E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1346980081556663E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.214623467218845E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6512963201166377E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9469569785007729E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0912084747351027E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3487818784956711E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2046964034804747E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.2856544366176213E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3034073463130668E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.485382572565702E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.298781673646901E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.9820239198405287E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9397945533765729E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.739686147436778E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.8503878320259216E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8123097605162931E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3403314497615332E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.3293299963635392E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.9431350565812904E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3265596473084795E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.6059253308315383E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.2211943233401075E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9528037254739342E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6351467463010093E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.5845024887575183E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-8.0805134790956738E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.381909989623743E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.0796398788179685E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.2171218869859708E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.679002483086411E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.9623013952313309E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.3868149109776685E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.4476103456911713E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5131039564977945E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.5382463836561033E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5.8534525144169104E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1196045226504341E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.8681356078051335E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.9829720013823886E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.5018974777839031E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4459786699645176E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3836220711303447E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.8058952217732757E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.7908990694304279E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9977516697880896E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.6822232971022203E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5415360712498843E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.5097842747609687E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.3070868030647314E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.9784443283469741E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.1717198419769425E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1841206319419677E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.4608762252730497E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.12092047044074E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.4109311856402287E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.6645414937863967E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.817721107843708E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8301006119351548E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.5998180499822775E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.8602297412908377E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-9.0696013888326182E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.2381602708967276E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.11545274669882419</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.23190856739908841</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.0954429141056145E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.21099161550288481</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.2847697401777875E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.18924739295475893</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.23987525192702336</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.30617692426737297</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.25052812769932564</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.9222167255998477E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.58679788988616111</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.61203966783876829</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.47045842020780826</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.0807841772910648E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.76496424250093564</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2933011818114687E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.3434977363795051</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.8764863468118389</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.7317607960264545</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.8076050383659639</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.226073449361117</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-8.5143940951675123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1/sqrt(true)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$S$130:$S$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1.6329931618554523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19802950859533489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8954139199058683E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8239119393494044E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.004407273335673E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3840027153248686E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8713886396267204E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5479257578373642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3065580739059788E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0825990392946817E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9282539322832151E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8267316060998445E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7176718136839322E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6238709775341649E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5591727976114366E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5172209934815136E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4521950407133924E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4174953192277748E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3944479031314379E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3686115720737697E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3550838384546319E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.337336474903855E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3294980928779005E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3220124979025265E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3168015154181935E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3212910564542248E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3328743112218882E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3435230372511476E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3499192392788215E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3763839347353903E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3847214960382929E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4183148764245436E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.432376666040793E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4712247158412491E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.504418666962188E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5353757178626857E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5715666909482562E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6153476372506338E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6635792022840736E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7044904292704971E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7657678008211362E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.844199375737695E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8984015070124632E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9416560651186562E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0502847851135975E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1142428689408906E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1976031725940863E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2777329617136386E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3806993438741434E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5030328537576901E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6423514707860023E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7529308506178359E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8987029394585629E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0718378505606096E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2064707742092177E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.430476221747198E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.6040423985645734E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7942399730627178E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1567556712637267E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3003295253753064E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.6480215984769452E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8400476747043952E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.1786715433664143E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.4242586434973504E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0233860193683417E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.291610618605574E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7943155358499832E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.474350927519359E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8027431464087041E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.6226122711845377E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.067521068905561E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.10044039219036507</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11340959542474854</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.11206636293610515</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.131448155980155</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14724203476646205</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.17087153154335219</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.18107149208503706</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.17474081133220759</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.19950186722152657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.23570226039551587</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26607604209509572</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.31622776601683794</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.38851434494290565</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.4923659639173309</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.64888568452305018</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0690449676496976</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.73029674334022143</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369921504"/>
+        <c:axId val="369918368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369921504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369918368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="369918368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369921504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9303,6 +11497,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12954,6 +15188,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12974,7 +15724,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13178,6 +15928,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>57823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14210,6 +16992,814 @@
           </cell>
           <cell r="U222">
             <v>36.247453403911699</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="גיליון1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="130">
+          <cell r="P130">
+            <v>7</v>
+          </cell>
+          <cell r="S130">
+            <v>1.6329931618554523</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="P131">
+            <v>8</v>
+          </cell>
+          <cell r="S131">
+            <v>0.63245553203367588</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="P132">
+            <v>9</v>
+          </cell>
+          <cell r="S132">
+            <v>0.19802950859533489</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="P133">
+            <v>10</v>
+          </cell>
+          <cell r="S133">
+            <v>9.8954139199058683E-2</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="P134">
+            <v>11</v>
+          </cell>
+          <cell r="S134">
+            <v>6.8239119393494044E-2</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="P135">
+            <v>12</v>
+          </cell>
+          <cell r="S135">
+            <v>5.128205128205128E-2</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="P136">
+            <v>13</v>
+          </cell>
+          <cell r="S136">
+            <v>4.004407273335673E-2</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="P137">
+            <v>14</v>
+          </cell>
+          <cell r="S137">
+            <v>3.3840027153248686E-2</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="P138">
+            <v>15</v>
+          </cell>
+          <cell r="S138">
+            <v>2.8713886396267204E-2</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="P139">
+            <v>16</v>
+          </cell>
+          <cell r="S139">
+            <v>2.5479257578373642E-2</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="P140">
+            <v>17</v>
+          </cell>
+          <cell r="S140">
+            <v>2.3065580739059788E-2</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="P141">
+            <v>18</v>
+          </cell>
+          <cell r="S141">
+            <v>2.0825990392946817E-2</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="P142">
+            <v>19</v>
+          </cell>
+          <cell r="S142">
+            <v>1.9282539322832151E-2</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="P143">
+            <v>20</v>
+          </cell>
+          <cell r="S143">
+            <v>1.8267316060998445E-2</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="P144">
+            <v>21</v>
+          </cell>
+          <cell r="S144">
+            <v>1.7176718136839322E-2</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="P145">
+            <v>22</v>
+          </cell>
+          <cell r="S145">
+            <v>1.6238709775341649E-2</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="P146">
+            <v>23</v>
+          </cell>
+          <cell r="S146">
+            <v>1.5591727976114366E-2</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="P147">
+            <v>24</v>
+          </cell>
+          <cell r="S147">
+            <v>1.5172209934815136E-2</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="P148">
+            <v>25</v>
+          </cell>
+          <cell r="S148">
+            <v>1.4521950407133924E-2</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="P149">
+            <v>26</v>
+          </cell>
+          <cell r="S149">
+            <v>1.4174953192277748E-2</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="P150">
+            <v>27</v>
+          </cell>
+          <cell r="S150">
+            <v>1.3944479031314379E-2</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="P151">
+            <v>28</v>
+          </cell>
+          <cell r="S151">
+            <v>1.3686115720737697E-2</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="P152">
+            <v>29</v>
+          </cell>
+          <cell r="S152">
+            <v>1.3550838384546319E-2</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="P153">
+            <v>30</v>
+          </cell>
+          <cell r="S153">
+            <v>1.337336474903855E-2</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="P154">
+            <v>31</v>
+          </cell>
+          <cell r="S154">
+            <v>1.3294980928779005E-2</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="P155">
+            <v>32</v>
+          </cell>
+          <cell r="S155">
+            <v>1.3220124979025265E-2</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="P156">
+            <v>33</v>
+          </cell>
+          <cell r="S156">
+            <v>1.3168015154181935E-2</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="P157">
+            <v>34</v>
+          </cell>
+          <cell r="S157">
+            <v>1.3212910564542248E-2</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="P158">
+            <v>35</v>
+          </cell>
+          <cell r="S158">
+            <v>1.3328743112218882E-2</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="P159">
+            <v>36</v>
+          </cell>
+          <cell r="S159">
+            <v>1.3435230372511476E-2</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="P160">
+            <v>37</v>
+          </cell>
+          <cell r="S160">
+            <v>1.3499192392788215E-2</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="P161">
+            <v>38</v>
+          </cell>
+          <cell r="S161">
+            <v>1.3763839347353903E-2</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="P162">
+            <v>39</v>
+          </cell>
+          <cell r="S162">
+            <v>1.3847214960382929E-2</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="P163">
+            <v>40</v>
+          </cell>
+          <cell r="S163">
+            <v>1.4183148764245436E-2</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="P164">
+            <v>41</v>
+          </cell>
+          <cell r="S164">
+            <v>1.432376666040793E-2</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="P165">
+            <v>42</v>
+          </cell>
+          <cell r="S165">
+            <v>1.4712247158412491E-2</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="P166">
+            <v>43</v>
+          </cell>
+          <cell r="S166">
+            <v>1.504418666962188E-2</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="P167">
+            <v>44</v>
+          </cell>
+          <cell r="S167">
+            <v>1.5353757178626857E-2</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="P168">
+            <v>45</v>
+          </cell>
+          <cell r="S168">
+            <v>1.5715666909482562E-2</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="P169">
+            <v>46</v>
+          </cell>
+          <cell r="S169">
+            <v>1.6153476372506338E-2</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="P170">
+            <v>47</v>
+          </cell>
+          <cell r="S170">
+            <v>1.6635792022840736E-2</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="P171">
+            <v>48</v>
+          </cell>
+          <cell r="S171">
+            <v>1.7044904292704971E-2</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="P172">
+            <v>49</v>
+          </cell>
+          <cell r="S172">
+            <v>1.7657678008211362E-2</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="P173">
+            <v>50</v>
+          </cell>
+          <cell r="S173">
+            <v>1.844199375737695E-2</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="P174">
+            <v>51</v>
+          </cell>
+          <cell r="S174">
+            <v>1.8984015070124632E-2</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="P175">
+            <v>52</v>
+          </cell>
+          <cell r="S175">
+            <v>1.9416560651186562E-2</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="P176">
+            <v>53</v>
+          </cell>
+          <cell r="S176">
+            <v>2.0502847851135975E-2</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="P177">
+            <v>54</v>
+          </cell>
+          <cell r="S177">
+            <v>2.1142428689408906E-2</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="P178">
+            <v>55</v>
+          </cell>
+          <cell r="S178">
+            <v>2.1976031725940863E-2</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="P179">
+            <v>56</v>
+          </cell>
+          <cell r="S179">
+            <v>2.2777329617136386E-2</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="P180">
+            <v>57</v>
+          </cell>
+          <cell r="S180">
+            <v>2.3806993438741434E-2</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="P181">
+            <v>58</v>
+          </cell>
+          <cell r="S181">
+            <v>2.5030328537576901E-2</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="P182">
+            <v>59</v>
+          </cell>
+          <cell r="S182">
+            <v>2.6423514707860023E-2</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="P183">
+            <v>60</v>
+          </cell>
+          <cell r="S183">
+            <v>2.7529308506178359E-2</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="P184">
+            <v>61</v>
+          </cell>
+          <cell r="S184">
+            <v>2.8987029394585629E-2</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="P185">
+            <v>62</v>
+          </cell>
+          <cell r="S185">
+            <v>3.0718378505606096E-2</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="P186">
+            <v>63</v>
+          </cell>
+          <cell r="S186">
+            <v>3.2064707742092177E-2</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="P187">
+            <v>64</v>
+          </cell>
+          <cell r="S187">
+            <v>3.430476221747198E-2</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="P188">
+            <v>65</v>
+          </cell>
+          <cell r="S188">
+            <v>3.6040423985645734E-2</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="P189">
+            <v>66</v>
+          </cell>
+          <cell r="S189">
+            <v>3.7942399730627178E-2</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="P190">
+            <v>67</v>
+          </cell>
+          <cell r="S190">
+            <v>4.1567556712637267E-2</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="P191">
+            <v>68</v>
+          </cell>
+          <cell r="S191">
+            <v>4.3003295253753064E-2</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="P192">
+            <v>69</v>
+          </cell>
+          <cell r="S192">
+            <v>4.6480215984769452E-2</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="P193">
+            <v>70</v>
+          </cell>
+          <cell r="S193">
+            <v>4.8400476747043952E-2</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="P194">
+            <v>71</v>
+          </cell>
+          <cell r="S194">
+            <v>5.1786715433664143E-2</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="P195">
+            <v>72</v>
+          </cell>
+          <cell r="S195">
+            <v>5.4242586434973504E-2</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="P196">
+            <v>73</v>
+          </cell>
+          <cell r="S196">
+            <v>6.0233860193683417E-2</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="P197">
+            <v>74</v>
+          </cell>
+          <cell r="S197">
+            <v>6.291610618605574E-2</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="P198">
+            <v>75</v>
+          </cell>
+          <cell r="S198">
+            <v>6.7943155358499832E-2</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="P199">
+            <v>76</v>
+          </cell>
+          <cell r="S199">
+            <v>7.474350927519359E-2</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="P200">
+            <v>77</v>
+          </cell>
+          <cell r="S200">
+            <v>7.8027431464087041E-2</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="P201">
+            <v>78</v>
+          </cell>
+          <cell r="S201">
+            <v>8.6226122711845377E-2</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="P202">
+            <v>79</v>
+          </cell>
+          <cell r="S202">
+            <v>9.067521068905561E-2</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="P203">
+            <v>80</v>
+          </cell>
+          <cell r="S203">
+            <v>0.10044039219036507</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="P204">
+            <v>81</v>
+          </cell>
+          <cell r="S204">
+            <v>0.11340959542474854</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="P205">
+            <v>82</v>
+          </cell>
+          <cell r="S205">
+            <v>0.11206636293610515</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="P206">
+            <v>83</v>
+          </cell>
+          <cell r="S206">
+            <v>0.131448155980155</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="P207">
+            <v>84</v>
+          </cell>
+          <cell r="S207">
+            <v>0.14724203476646205</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="P208">
+            <v>85</v>
+          </cell>
+          <cell r="S208">
+            <v>0.17087153154335219</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="P209">
+            <v>86</v>
+          </cell>
+          <cell r="S209">
+            <v>0.18107149208503706</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="P210">
+            <v>87</v>
+          </cell>
+          <cell r="S210">
+            <v>0.17474081133220759</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="P211">
+            <v>88</v>
+          </cell>
+          <cell r="S211">
+            <v>0.19950186722152657</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="P212">
+            <v>89</v>
+          </cell>
+          <cell r="S212">
+            <v>0.23570226039551587</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="P213">
+            <v>90</v>
+          </cell>
+          <cell r="S213">
+            <v>0.26607604209509572</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="P214">
+            <v>91</v>
+          </cell>
+          <cell r="S214">
+            <v>0.31622776601683794</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="P215">
+            <v>92</v>
+          </cell>
+          <cell r="S215">
+            <v>0.38851434494290565</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="P216">
+            <v>93</v>
+          </cell>
+          <cell r="S216">
+            <v>0.4923659639173309</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="P217">
+            <v>94</v>
+          </cell>
+          <cell r="S217">
+            <v>0.63245553203367588</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="P218">
+            <v>95</v>
+          </cell>
+          <cell r="S218">
+            <v>0.64888568452305018</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="P219">
+            <v>96</v>
+          </cell>
+          <cell r="S219">
+            <v>1.0690449676496976</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="P220">
+            <v>97</v>
+          </cell>
+          <cell r="S220">
+            <v>0.73029674334022143</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="P221">
+            <v>98</v>
+          </cell>
+          <cell r="S221">
+            <v>1.4142135623730949</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="P222">
+            <v>99</v>
+          </cell>
+          <cell r="S222">
+            <v>1.4142135623730949</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="P223">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="P224">
+            <v>101</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="P225">
+            <v>102</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="P226">
+            <v>103</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="P227">
+            <v>104</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="P228">
+            <v>105</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="P229">
+            <v>106</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="P230">
+            <v>107</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="P231">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="P232">
+            <v>109</v>
           </cell>
         </row>
       </sheetData>
@@ -14517,8 +18107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD116" sqref="AD116"/>
+    <sheetView tabSelected="1" topLeftCell="AQ114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BF135" sqref="BF135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
@@ -1343,11 +1343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="516627040"/>
-        <c:axId val="516622336"/>
+        <c:axId val="314335880"/>
+        <c:axId val="314336272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="516627040"/>
+        <c:axId val="314335880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516622336"/>
+        <c:crossAx val="314336272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="516622336"/>
+        <c:axId val="314336272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516627040"/>
+        <c:crossAx val="314335880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1672,6 +1672,924 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>relative: (allz - 10z)/allz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$BG$119:$BG$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>1.3266727229610615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2919576669488091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12387460848890341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1062630582112669E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.1740961203080448E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9762716437817181E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.5340591930851329E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.1861793119242816E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6149078797279083E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4127808358039591E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2926077503178653E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5666049836319894E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7411209674700248E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3412299621783477E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.253324586570486E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.484627962093213E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.2907569382859456E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1215613483557116E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2421182243794889E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9986788480240983E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2697972342080103E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.376470849936592E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1233401647128528E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.3684394309845276E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0990371636731113E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5965298731107159E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2124159177682916E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.4900241811483971E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0409815124213247E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2259178617791541E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.732425391296328E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.4216792603623901E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0995316947242248E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3720487056243271E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0814204716259058E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.9545985721124349E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.2118029309170411E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.3004557412527042E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.585825442160507E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.7332327399778074E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4098492648738905E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3928045058552772E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.7419101535183875E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.333054075343188E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-9.9276319388859877E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.6841876377813037E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.7683043368303407E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.0742091569303197E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5.174964323279377E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6306679302798777E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.973242506538269E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.9719546155665426E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.4608362011503467E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.932568149268595E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.303303089585633E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.9881794897050926E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.7690573753995329E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-4.2414391602985324E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.4938000297040956E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-4.7602952778027979E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-5.527175842780721E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-6.4903841242411386E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-7.2550281667301666E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.9604544284990786E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-4.2651155522686432E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.5461359370144913E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-5.3761950780428461E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-5.2623327975981522E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.0040922268709885E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.0879284316767299E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.069757296722194E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.11500785214028783</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.14351657263014328</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.0817375914515958E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.5481872820454154E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.1165376576426409</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.11759129069293195</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1128720249258005E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.2388431632026842</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-8.183628092298717E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-8.2612457297560685E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.3723578049357652</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.34207462061894761</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.65961089832622199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.58792885764638969</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.11641816009817275</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.13137933053568079</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.83664732224404814</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.53647003465631016</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0526250989407697</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.1118214167626891E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.7965834859324783</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.86879904706440492</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.13137933039071301</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.83664732214223447</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.53647003472941535</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0526250990313533</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1118214103571686E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.79658348594238737</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.86879904712849643</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8051085040582202</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.2872623696360301</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-2.1394901307125558</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.4211644576344804</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.66852055566926416</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.8520495566284888</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.87401722100461698</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8169538142750388</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.11479200853813973</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.5737340260965587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="483083896"/>
+        <c:axId val="475557336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="483083896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475557336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475557336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483083896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2428,11 +3346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516623512"/>
-        <c:axId val="516631352"/>
+        <c:axId val="521947816"/>
+        <c:axId val="521947424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516623512"/>
+        <c:axId val="521947816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,12 +3407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516631352"/>
+        <c:crossAx val="521947424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516631352"/>
+        <c:axId val="521947424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,7 +3469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516623512"/>
+        <c:crossAx val="521947816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3317,11 +4235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516631744"/>
-        <c:axId val="516632136"/>
+        <c:axId val="521948992"/>
+        <c:axId val="521949384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516631744"/>
+        <c:axId val="521948992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3378,12 +4296,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516632136"/>
+        <c:crossAx val="521949384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516632136"/>
+        <c:axId val="521949384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3440,7 +4358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516631744"/>
+        <c:crossAx val="521948992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3529,6 +4447,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4205,11 +5124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516632528"/>
-        <c:axId val="516623120"/>
+        <c:axId val="521948600"/>
+        <c:axId val="454606304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516632528"/>
+        <c:axId val="521948600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,12 +5185,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516623120"/>
+        <c:crossAx val="454606304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516623120"/>
+        <c:axId val="454606304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4328,7 +5247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516632528"/>
+        <c:crossAx val="521948600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5738,11 +6657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516621552"/>
-        <c:axId val="516636056"/>
+        <c:axId val="454607088"/>
+        <c:axId val="454605912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516621552"/>
+        <c:axId val="454607088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,12 +6718,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516636056"/>
+        <c:crossAx val="454605912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516636056"/>
+        <c:axId val="454605912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5861,7 +6780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516621552"/>
+        <c:crossAx val="454607088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7298,11 +8217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516634880"/>
-        <c:axId val="471655912"/>
+        <c:axId val="454607872"/>
+        <c:axId val="473443736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516634880"/>
+        <c:axId val="454607872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7359,12 +8278,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471655912"/>
+        <c:crossAx val="473443736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471655912"/>
+        <c:axId val="473443736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7421,7 +8340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516634880"/>
+        <c:crossAx val="454607872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7542,6 +8461,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8857,11 +9777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471656304"/>
-        <c:axId val="471642584"/>
+        <c:axId val="473444520"/>
+        <c:axId val="473446480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471656304"/>
+        <c:axId val="473444520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8918,12 +9838,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471642584"/>
+        <c:crossAx val="473446480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471642584"/>
+        <c:axId val="473446480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8980,7 +9900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471656304"/>
+        <c:crossAx val="473444520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8994,6 +9914,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11052,11 +11973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="369921504"/>
-        <c:axId val="369918368"/>
+        <c:axId val="521186568"/>
+        <c:axId val="521184608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="369921504"/>
+        <c:axId val="521186568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11113,12 +12034,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369918368"/>
+        <c:crossAx val="521184608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="369918368"/>
+        <c:axId val="521184608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11175,7 +12096,1613 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369921504"/>
+        <c:crossAx val="521186568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>output 10z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$BE$119:$BE$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>1.286831624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4845993039999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.7185472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.532806170000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>222.39928029999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>372.2398728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>626.22256159999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>890.95973619999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1168.936537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1512.3338719999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1845.65398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2279.8244260000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2671.3993799999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2953.6533479999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3392.0374449999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3755.5941750000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4140.5801330000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4331.3092210000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4724.2154499999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4973.37878</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5130.9410319999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5311.6963480000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5481.8057319999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5588.1961449999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5696.7265390000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5765.98927</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5773.5239030000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5713.2648339999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5644.1725310000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5616.4386420000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5512.011536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5347.1465950000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5197.7151320000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5022.76433</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4860.250078</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4603.3855169999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4486.7546949999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4295.7230659999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4053.0963750000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3851.4723949999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3578.0595880000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3419.3373029999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3137.4251599999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2981.4984850000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2793.7626610000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2635.0881890000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2388.0514710000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2245.36681</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2094.8730719999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1930.6053979999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1738.312594</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1581.931114</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1426.5390130000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1331.0618689999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1172.7047480000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1063.678469</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>973.86011040000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>856.49773119999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>781.20041060000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>697.33396279999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>597.39926390000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>555.91740879999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>475.99812539999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>444.85111569999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>385.79874030000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>350.58386869999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>289.91159750000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>251.02798989999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>219.20713330000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>183.34884460000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>168.36986880000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>132.77395100000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>128.32766520000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>99.486328360000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87.047632710000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>71.249469140000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>60.734155629999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>55.40901796</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.051538239999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41.262434310000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32.292136249999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25.023025430000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>19.090832580000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12.413515800000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.368495190000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.33162359</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.559912754</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.54865988200000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0657931719999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.171836246</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.9884910370000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.345200878</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.62414878600000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.5599127536988799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.54865988233359597</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.0657931715249926</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.1718362462706875</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.9884910373948372</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.3452008778694911</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.62414878564049192</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.99082228844053344</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-3.5656774574890515</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-4.6634149806340996</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.18859849659201999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.86257582850521275</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.75411353982053531</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.48785437364130435</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-2.815190241672092</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.0063459058292192</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.6227586283348341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>output allz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$BF$119:$BF$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>-3.9392074500000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.7932233350000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.061815920000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.4043956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217.66699070000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>365.0259681</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>610.74589900000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>883.72540160000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1179.0943259999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1534.0060149999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1869.8234629999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2297.2064799999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2686.8247660000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2972.5026710000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3435.0902759999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3772.5124900000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4135.2425400000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4340.5178960000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4734.831502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4983.338874</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5152.9430540000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5335.0450170000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5493.4702379999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5629.6780870000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5760.0314250000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5798.440415</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5786.3256620000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5750.5862779999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5703.545384</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5628.9682629999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5516.2769559999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5381.7061860000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5213.8757050000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5049.8925989999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4913.3844230000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4635.6244239999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4510.2612879999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4336.0503099999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4079.9663209999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3855.2247750000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3629.2262070000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3467.6346749999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3158.720973</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2985.4782890000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2790.9918670000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2622.80249</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2367.2943140000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2221.5032190000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2084.0879909999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1899.6287609999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1704.6752180000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1551.3394049999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1392.2773480000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1293.1396669999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1146.3019400000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1032.816071</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>938.48796070000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>821.64802989999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>762.19284519999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>665.64719100000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>566.1094018</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>522.03531180000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>443.8002894</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>427.90416620000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>370.01708409999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>338.57745199999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>275.12057850000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>238.4784597</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>217.02797229999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>195.23458650000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>169.56867819999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>150.0283944</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>149.83087950000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>98.421664219999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>94.154598109999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80.647997910000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>68.827692870000007</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>57.189245999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44.736559659999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>38.141107890000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29.827974019999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>39.868296979999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>29.016714019999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.4797748149999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10.308078419999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11.69288811</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.0304013259999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-3.358744341</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.4566550740000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.2652906970000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.1392594469999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-6.6130367249999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.7571970480000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.0304013262502769</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-3.3587443409487623</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.4566550736781174</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.2652906965231479</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.1392594469361823</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-6.6130367246805584</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.7571970475837562</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2306692619022239</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>12.412615902343457</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1.485405204817658</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.44780249893665186</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.6022000557131744</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.0970684685744221</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.8723893656861055</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.4459600928239489</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.5938057280145568</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-5.4791715025203196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="486479136"/>
+        <c:axId val="486475608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="486479136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486475608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="486475608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486479136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11257,6 +13784,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11576,7 +14143,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15704,6 +18827,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -15724,7 +19363,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15960,6 +19599,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>163484</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>82435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>33944</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17008,12 +20711,142 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="119">
+          <cell r="BE119">
+            <v>1.286831624</v>
+          </cell>
+          <cell r="BF119">
+            <v>-3.9392074500000001</v>
+          </cell>
+          <cell r="BG119">
+            <v>1.3266727229610615</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="BE120">
+            <v>7.4845993039999996</v>
+          </cell>
+          <cell r="BF120">
+            <v>-5.7932233350000004</v>
+          </cell>
+          <cell r="BG120">
+            <v>2.2919576669488091</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="BE121">
+            <v>30.7185472</v>
+          </cell>
+          <cell r="BF121">
+            <v>35.061815920000001</v>
+          </cell>
+          <cell r="BG121">
+            <v>0.12387460848890341</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="BE122">
+            <v>98.532806170000001</v>
+          </cell>
+          <cell r="BF122">
+            <v>108.4043956</v>
+          </cell>
+          <cell r="BG122">
+            <v>9.1062630582112669E-2</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="BE123">
+            <v>222.39928029999999</v>
+          </cell>
+          <cell r="BF123">
+            <v>217.66699070000001</v>
+          </cell>
+          <cell r="BG123">
+            <v>-2.1740961203080448E-2</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="BE124">
+            <v>372.2398728</v>
+          </cell>
+          <cell r="BF124">
+            <v>365.0259681</v>
+          </cell>
+          <cell r="BG124">
+            <v>-1.9762716437817181E-2</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="BE125">
+            <v>626.22256159999995</v>
+          </cell>
+          <cell r="BF125">
+            <v>610.74589900000001</v>
+          </cell>
+          <cell r="BG125">
+            <v>-2.5340591930851329E-2</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="BE126">
+            <v>890.95973619999995</v>
+          </cell>
+          <cell r="BF126">
+            <v>883.72540160000005</v>
+          </cell>
+          <cell r="BG126">
+            <v>-8.1861793119242816E-3</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="BE127">
+            <v>1168.936537</v>
+          </cell>
+          <cell r="BF127">
+            <v>1179.0943259999999</v>
+          </cell>
+          <cell r="BG127">
+            <v>8.6149078797279083E-3</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="BE128">
+            <v>1512.3338719999999</v>
+          </cell>
+          <cell r="BF128">
+            <v>1534.0060149999999</v>
+          </cell>
+          <cell r="BG128">
+            <v>1.4127808358039591E-2</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="BE129">
+            <v>1845.65398</v>
+          </cell>
+          <cell r="BF129">
+            <v>1869.8234629999999</v>
+          </cell>
+          <cell r="BG129">
+            <v>1.2926077503178653E-2</v>
+          </cell>
+        </row>
         <row r="130">
           <cell r="P130">
             <v>7</v>
           </cell>
           <cell r="S130">
             <v>1.6329931618554523</v>
+          </cell>
+          <cell r="BE130">
+            <v>2279.8244260000001</v>
+          </cell>
+          <cell r="BF130">
+            <v>2297.2064799999998</v>
+          </cell>
+          <cell r="BG130">
+            <v>7.5666049836319894E-3</v>
           </cell>
         </row>
         <row r="131">
@@ -17023,6 +20856,15 @@
           <cell r="S131">
             <v>0.63245553203367588</v>
           </cell>
+          <cell r="BE131">
+            <v>2671.3993799999998</v>
+          </cell>
+          <cell r="BF131">
+            <v>2686.8247660000002</v>
+          </cell>
+          <cell r="BG131">
+            <v>5.7411209674700248E-3</v>
+          </cell>
         </row>
         <row r="132">
           <cell r="P132">
@@ -17031,6 +20873,15 @@
           <cell r="S132">
             <v>0.19802950859533489</v>
           </cell>
+          <cell r="BE132">
+            <v>2953.6533479999998</v>
+          </cell>
+          <cell r="BF132">
+            <v>2972.5026710000002</v>
+          </cell>
+          <cell r="BG132">
+            <v>6.3412299621783477E-3</v>
+          </cell>
         </row>
         <row r="133">
           <cell r="P133">
@@ -17039,6 +20890,15 @@
           <cell r="S133">
             <v>9.8954139199058683E-2</v>
           </cell>
+          <cell r="BE133">
+            <v>3392.0374449999999</v>
+          </cell>
+          <cell r="BF133">
+            <v>3435.0902759999999</v>
+          </cell>
+          <cell r="BG133">
+            <v>1.253324586570486E-2</v>
+          </cell>
         </row>
         <row r="134">
           <cell r="P134">
@@ -17047,6 +20907,15 @@
           <cell r="S134">
             <v>6.8239119393494044E-2</v>
           </cell>
+          <cell r="BE134">
+            <v>3755.5941750000002</v>
+          </cell>
+          <cell r="BF134">
+            <v>3772.5124900000001</v>
+          </cell>
+          <cell r="BG134">
+            <v>4.484627962093213E-3</v>
+          </cell>
         </row>
         <row r="135">
           <cell r="P135">
@@ -17055,6 +20924,15 @@
           <cell r="S135">
             <v>5.128205128205128E-2</v>
           </cell>
+          <cell r="BE135">
+            <v>4140.5801330000004</v>
+          </cell>
+          <cell r="BF135">
+            <v>4135.2425400000002</v>
+          </cell>
+          <cell r="BG135">
+            <v>-1.2907569382859456E-3</v>
+          </cell>
         </row>
         <row r="136">
           <cell r="P136">
@@ -17063,6 +20941,15 @@
           <cell r="S136">
             <v>4.004407273335673E-2</v>
           </cell>
+          <cell r="BE136">
+            <v>4331.3092210000004</v>
+          </cell>
+          <cell r="BF136">
+            <v>4340.5178960000003</v>
+          </cell>
+          <cell r="BG136">
+            <v>2.1215613483557116E-3</v>
+          </cell>
         </row>
         <row r="137">
           <cell r="P137">
@@ -17071,6 +20958,15 @@
           <cell r="S137">
             <v>3.3840027153248686E-2</v>
           </cell>
+          <cell r="BE137">
+            <v>4724.2154499999997</v>
+          </cell>
+          <cell r="BF137">
+            <v>4734.831502</v>
+          </cell>
+          <cell r="BG137">
+            <v>2.2421182243794889E-3</v>
+          </cell>
         </row>
         <row r="138">
           <cell r="P138">
@@ -17079,6 +20975,15 @@
           <cell r="S138">
             <v>2.8713886396267204E-2</v>
           </cell>
+          <cell r="BE138">
+            <v>4973.37878</v>
+          </cell>
+          <cell r="BF138">
+            <v>4983.338874</v>
+          </cell>
+          <cell r="BG138">
+            <v>1.9986788480240983E-3</v>
+          </cell>
         </row>
         <row r="139">
           <cell r="P139">
@@ -17087,6 +20992,15 @@
           <cell r="S139">
             <v>2.5479257578373642E-2</v>
           </cell>
+          <cell r="BE139">
+            <v>5130.9410319999997</v>
+          </cell>
+          <cell r="BF139">
+            <v>5152.9430540000003</v>
+          </cell>
+          <cell r="BG139">
+            <v>4.2697972342080103E-3</v>
+          </cell>
         </row>
         <row r="140">
           <cell r="P140">
@@ -17095,6 +21009,15 @@
           <cell r="S140">
             <v>2.3065580739059788E-2</v>
           </cell>
+          <cell r="BE140">
+            <v>5311.6963480000004</v>
+          </cell>
+          <cell r="BF140">
+            <v>5335.0450170000004</v>
+          </cell>
+          <cell r="BG140">
+            <v>4.376470849936592E-3</v>
+          </cell>
         </row>
         <row r="141">
           <cell r="P141">
@@ -17103,6 +21026,15 @@
           <cell r="S141">
             <v>2.0825990392946817E-2</v>
           </cell>
+          <cell r="BE141">
+            <v>5481.8057319999998</v>
+          </cell>
+          <cell r="BF141">
+            <v>5493.4702379999999</v>
+          </cell>
+          <cell r="BG141">
+            <v>2.1233401647128528E-3</v>
+          </cell>
         </row>
         <row r="142">
           <cell r="P142">
@@ -17111,6 +21043,15 @@
           <cell r="S142">
             <v>1.9282539322832151E-2</v>
           </cell>
+          <cell r="BE142">
+            <v>5588.1961449999999</v>
+          </cell>
+          <cell r="BF142">
+            <v>5629.6780870000002</v>
+          </cell>
+          <cell r="BG142">
+            <v>7.3684394309845276E-3</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="P143">
@@ -17119,6 +21060,15 @@
           <cell r="S143">
             <v>1.8267316060998445E-2</v>
           </cell>
+          <cell r="BE143">
+            <v>5696.7265390000002</v>
+          </cell>
+          <cell r="BF143">
+            <v>5760.0314250000001</v>
+          </cell>
+          <cell r="BG143">
+            <v>1.0990371636731113E-2</v>
+          </cell>
         </row>
         <row r="144">
           <cell r="P144">
@@ -17127,6 +21077,15 @@
           <cell r="S144">
             <v>1.7176718136839322E-2</v>
           </cell>
+          <cell r="BE144">
+            <v>5765.98927</v>
+          </cell>
+          <cell r="BF144">
+            <v>5798.440415</v>
+          </cell>
+          <cell r="BG144">
+            <v>5.5965298731107159E-3</v>
+          </cell>
         </row>
         <row r="145">
           <cell r="P145">
@@ -17135,6 +21094,15 @@
           <cell r="S145">
             <v>1.6238709775341649E-2</v>
           </cell>
+          <cell r="BE145">
+            <v>5773.5239030000002</v>
+          </cell>
+          <cell r="BF145">
+            <v>5786.3256620000002</v>
+          </cell>
+          <cell r="BG145">
+            <v>2.2124159177682916E-3</v>
+          </cell>
         </row>
         <row r="146">
           <cell r="P146">
@@ -17143,6 +21111,15 @@
           <cell r="S146">
             <v>1.5591727976114366E-2</v>
           </cell>
+          <cell r="BE146">
+            <v>5713.2648339999996</v>
+          </cell>
+          <cell r="BF146">
+            <v>5750.5862779999998</v>
+          </cell>
+          <cell r="BG146">
+            <v>6.4900241811483971E-3</v>
+          </cell>
         </row>
         <row r="147">
           <cell r="P147">
@@ -17151,6 +21128,15 @@
           <cell r="S147">
             <v>1.5172209934815136E-2</v>
           </cell>
+          <cell r="BE147">
+            <v>5644.1725310000002</v>
+          </cell>
+          <cell r="BF147">
+            <v>5703.545384</v>
+          </cell>
+          <cell r="BG147">
+            <v>1.0409815124213247E-2</v>
+          </cell>
         </row>
         <row r="148">
           <cell r="P148">
@@ -17159,6 +21145,15 @@
           <cell r="S148">
             <v>1.4521950407133924E-2</v>
           </cell>
+          <cell r="BE148">
+            <v>5616.4386420000001</v>
+          </cell>
+          <cell r="BF148">
+            <v>5628.9682629999998</v>
+          </cell>
+          <cell r="BG148">
+            <v>2.2259178617791541E-3</v>
+          </cell>
         </row>
         <row r="149">
           <cell r="P149">
@@ -17167,6 +21162,15 @@
           <cell r="S149">
             <v>1.4174953192277748E-2</v>
           </cell>
+          <cell r="BE149">
+            <v>5512.011536</v>
+          </cell>
+          <cell r="BF149">
+            <v>5516.2769559999997</v>
+          </cell>
+          <cell r="BG149">
+            <v>7.732425391296328E-4</v>
+          </cell>
         </row>
         <row r="150">
           <cell r="P150">
@@ -17175,6 +21179,15 @@
           <cell r="S150">
             <v>1.3944479031314379E-2</v>
           </cell>
+          <cell r="BE150">
+            <v>5347.1465950000002</v>
+          </cell>
+          <cell r="BF150">
+            <v>5381.7061860000003</v>
+          </cell>
+          <cell r="BG150">
+            <v>6.4216792603623901E-3</v>
+          </cell>
         </row>
         <row r="151">
           <cell r="P151">
@@ -17183,6 +21196,15 @@
           <cell r="S151">
             <v>1.3686115720737697E-2</v>
           </cell>
+          <cell r="BE151">
+            <v>5197.7151320000003</v>
+          </cell>
+          <cell r="BF151">
+            <v>5213.8757050000004</v>
+          </cell>
+          <cell r="BG151">
+            <v>3.0995316947242248E-3</v>
+          </cell>
         </row>
         <row r="152">
           <cell r="P152">
@@ -17191,6 +21213,15 @@
           <cell r="S152">
             <v>1.3550838384546319E-2</v>
           </cell>
+          <cell r="BE152">
+            <v>5022.76433</v>
+          </cell>
+          <cell r="BF152">
+            <v>5049.8925989999998</v>
+          </cell>
+          <cell r="BG152">
+            <v>5.3720487056243271E-3</v>
+          </cell>
         </row>
         <row r="153">
           <cell r="P153">
@@ -17199,6 +21230,15 @@
           <cell r="S153">
             <v>1.337336474903855E-2</v>
           </cell>
+          <cell r="BE153">
+            <v>4860.250078</v>
+          </cell>
+          <cell r="BF153">
+            <v>4913.3844230000004</v>
+          </cell>
+          <cell r="BG153">
+            <v>1.0814204716259058E-2</v>
+          </cell>
         </row>
         <row r="154">
           <cell r="P154">
@@ -17207,6 +21247,15 @@
           <cell r="S154">
             <v>1.3294980928779005E-2</v>
           </cell>
+          <cell r="BE154">
+            <v>4603.3855169999997</v>
+          </cell>
+          <cell r="BF154">
+            <v>4635.6244239999996</v>
+          </cell>
+          <cell r="BG154">
+            <v>6.9545985721124349E-3</v>
+          </cell>
         </row>
         <row r="155">
           <cell r="P155">
@@ -17215,6 +21264,15 @@
           <cell r="S155">
             <v>1.3220124979025265E-2</v>
           </cell>
+          <cell r="BE155">
+            <v>4486.7546949999996</v>
+          </cell>
+          <cell r="BF155">
+            <v>4510.2612879999997</v>
+          </cell>
+          <cell r="BG155">
+            <v>5.2118029309170411E-3</v>
+          </cell>
         </row>
         <row r="156">
           <cell r="P156">
@@ -17223,6 +21281,15 @@
           <cell r="S156">
             <v>1.3168015154181935E-2</v>
           </cell>
+          <cell r="BE156">
+            <v>4295.7230659999996</v>
+          </cell>
+          <cell r="BF156">
+            <v>4336.0503099999996</v>
+          </cell>
+          <cell r="BG156">
+            <v>9.3004557412527042E-3</v>
+          </cell>
         </row>
         <row r="157">
           <cell r="P157">
@@ -17231,6 +21298,15 @@
           <cell r="S157">
             <v>1.3212910564542248E-2</v>
           </cell>
+          <cell r="BE157">
+            <v>4053.0963750000001</v>
+          </cell>
+          <cell r="BF157">
+            <v>4079.9663209999999</v>
+          </cell>
+          <cell r="BG157">
+            <v>6.585825442160507E-3</v>
+          </cell>
         </row>
         <row r="158">
           <cell r="P158">
@@ -17239,6 +21315,15 @@
           <cell r="S158">
             <v>1.3328743112218882E-2</v>
           </cell>
+          <cell r="BE158">
+            <v>3851.4723949999998</v>
+          </cell>
+          <cell r="BF158">
+            <v>3855.2247750000001</v>
+          </cell>
+          <cell r="BG158">
+            <v>9.7332327399778074E-4</v>
+          </cell>
         </row>
         <row r="159">
           <cell r="P159">
@@ -17247,6 +21332,15 @@
           <cell r="S159">
             <v>1.3435230372511476E-2</v>
           </cell>
+          <cell r="BE159">
+            <v>3578.0595880000001</v>
+          </cell>
+          <cell r="BF159">
+            <v>3629.2262070000002</v>
+          </cell>
+          <cell r="BG159">
+            <v>1.4098492648738905E-2</v>
+          </cell>
         </row>
         <row r="160">
           <cell r="P160">
@@ -17255,6 +21349,15 @@
           <cell r="S160">
             <v>1.3499192392788215E-2</v>
           </cell>
+          <cell r="BE160">
+            <v>3419.3373029999998</v>
+          </cell>
+          <cell r="BF160">
+            <v>3467.6346749999998</v>
+          </cell>
+          <cell r="BG160">
+            <v>1.3928045058552772E-2</v>
+          </cell>
         </row>
         <row r="161">
           <cell r="P161">
@@ -17263,6 +21366,15 @@
           <cell r="S161">
             <v>1.3763839347353903E-2</v>
           </cell>
+          <cell r="BE161">
+            <v>3137.4251599999998</v>
+          </cell>
+          <cell r="BF161">
+            <v>3158.720973</v>
+          </cell>
+          <cell r="BG161">
+            <v>6.7419101535183875E-3</v>
+          </cell>
         </row>
         <row r="162">
           <cell r="P162">
@@ -17271,6 +21383,15 @@
           <cell r="S162">
             <v>1.3847214960382929E-2</v>
           </cell>
+          <cell r="BE162">
+            <v>2981.4984850000001</v>
+          </cell>
+          <cell r="BF162">
+            <v>2985.4782890000001</v>
+          </cell>
+          <cell r="BG162">
+            <v>1.333054075343188E-3</v>
+          </cell>
         </row>
         <row r="163">
           <cell r="P163">
@@ -17279,6 +21400,15 @@
           <cell r="S163">
             <v>1.4183148764245436E-2</v>
           </cell>
+          <cell r="BE163">
+            <v>2793.7626610000002</v>
+          </cell>
+          <cell r="BF163">
+            <v>2790.9918670000002</v>
+          </cell>
+          <cell r="BG163">
+            <v>-9.9276319388859877E-4</v>
+          </cell>
         </row>
         <row r="164">
           <cell r="P164">
@@ -17287,6 +21417,15 @@
           <cell r="S164">
             <v>1.432376666040793E-2</v>
           </cell>
+          <cell r="BE164">
+            <v>2635.0881890000001</v>
+          </cell>
+          <cell r="BF164">
+            <v>2622.80249</v>
+          </cell>
+          <cell r="BG164">
+            <v>-4.6841876377813037E-3</v>
+          </cell>
         </row>
         <row r="165">
           <cell r="P165">
@@ -17295,6 +21434,15 @@
           <cell r="S165">
             <v>1.4712247158412491E-2</v>
           </cell>
+          <cell r="BE165">
+            <v>2388.0514710000002</v>
+          </cell>
+          <cell r="BF165">
+            <v>2367.2943140000002</v>
+          </cell>
+          <cell r="BG165">
+            <v>-8.7683043368303407E-3</v>
+          </cell>
         </row>
         <row r="166">
           <cell r="P166">
@@ -17303,6 +21451,15 @@
           <cell r="S166">
             <v>1.504418666962188E-2</v>
           </cell>
+          <cell r="BE166">
+            <v>2245.36681</v>
+          </cell>
+          <cell r="BF166">
+            <v>2221.5032190000002</v>
+          </cell>
+          <cell r="BG166">
+            <v>-1.0742091569303197E-2</v>
+          </cell>
         </row>
         <row r="167">
           <cell r="P167">
@@ -17311,6 +21468,15 @@
           <cell r="S167">
             <v>1.5353757178626857E-2</v>
           </cell>
+          <cell r="BE167">
+            <v>2094.8730719999999</v>
+          </cell>
+          <cell r="BF167">
+            <v>2084.0879909999999</v>
+          </cell>
+          <cell r="BG167">
+            <v>-5.174964323279377E-3</v>
+          </cell>
         </row>
         <row r="168">
           <cell r="P168">
@@ -17319,6 +21485,15 @@
           <cell r="S168">
             <v>1.5715666909482562E-2</v>
           </cell>
+          <cell r="BE168">
+            <v>1930.6053979999999</v>
+          </cell>
+          <cell r="BF168">
+            <v>1899.6287609999999</v>
+          </cell>
+          <cell r="BG168">
+            <v>-1.6306679302798777E-2</v>
+          </cell>
         </row>
         <row r="169">
           <cell r="P169">
@@ -17327,6 +21502,15 @@
           <cell r="S169">
             <v>1.6153476372506338E-2</v>
           </cell>
+          <cell r="BE169">
+            <v>1738.312594</v>
+          </cell>
+          <cell r="BF169">
+            <v>1704.6752180000001</v>
+          </cell>
+          <cell r="BG169">
+            <v>-1.973242506538269E-2</v>
+          </cell>
         </row>
         <row r="170">
           <cell r="P170">
@@ -17335,6 +21519,15 @@
           <cell r="S170">
             <v>1.6635792022840736E-2</v>
           </cell>
+          <cell r="BE170">
+            <v>1581.931114</v>
+          </cell>
+          <cell r="BF170">
+            <v>1551.3394049999999</v>
+          </cell>
+          <cell r="BG170">
+            <v>-1.9719546155665426E-2</v>
+          </cell>
         </row>
         <row r="171">
           <cell r="P171">
@@ -17343,6 +21536,15 @@
           <cell r="S171">
             <v>1.7044904292704971E-2</v>
           </cell>
+          <cell r="BE171">
+            <v>1426.5390130000001</v>
+          </cell>
+          <cell r="BF171">
+            <v>1392.2773480000001</v>
+          </cell>
+          <cell r="BG171">
+            <v>-2.4608362011503467E-2</v>
+          </cell>
         </row>
         <row r="172">
           <cell r="P172">
@@ -17351,6 +21553,15 @@
           <cell r="S172">
             <v>1.7657678008211362E-2</v>
           </cell>
+          <cell r="BE172">
+            <v>1331.0618689999999</v>
+          </cell>
+          <cell r="BF172">
+            <v>1293.1396669999999</v>
+          </cell>
+          <cell r="BG172">
+            <v>-2.932568149268595E-2</v>
+          </cell>
         </row>
         <row r="173">
           <cell r="P173">
@@ -17359,6 +21570,15 @@
           <cell r="S173">
             <v>1.844199375737695E-2</v>
           </cell>
+          <cell r="BE173">
+            <v>1172.7047480000001</v>
+          </cell>
+          <cell r="BF173">
+            <v>1146.3019400000001</v>
+          </cell>
+          <cell r="BG173">
+            <v>-2.303303089585633E-2</v>
+          </cell>
         </row>
         <row r="174">
           <cell r="P174">
@@ -17367,6 +21587,15 @@
           <cell r="S174">
             <v>1.8984015070124632E-2</v>
           </cell>
+          <cell r="BE174">
+            <v>1063.678469</v>
+          </cell>
+          <cell r="BF174">
+            <v>1032.816071</v>
+          </cell>
+          <cell r="BG174">
+            <v>-2.9881794897050926E-2</v>
+          </cell>
         </row>
         <row r="175">
           <cell r="P175">
@@ -17375,6 +21604,15 @@
           <cell r="S175">
             <v>1.9416560651186562E-2</v>
           </cell>
+          <cell r="BE175">
+            <v>973.86011040000005</v>
+          </cell>
+          <cell r="BF175">
+            <v>938.48796070000003</v>
+          </cell>
+          <cell r="BG175">
+            <v>-3.7690573753995329E-2</v>
+          </cell>
         </row>
         <row r="176">
           <cell r="P176">
@@ -17383,6 +21621,15 @@
           <cell r="S176">
             <v>2.0502847851135975E-2</v>
           </cell>
+          <cell r="BE176">
+            <v>856.49773119999998</v>
+          </cell>
+          <cell r="BF176">
+            <v>821.64802989999998</v>
+          </cell>
+          <cell r="BG176">
+            <v>-4.2414391602985324E-2</v>
+          </cell>
         </row>
         <row r="177">
           <cell r="P177">
@@ -17391,6 +21638,15 @@
           <cell r="S177">
             <v>2.1142428689408906E-2</v>
           </cell>
+          <cell r="BE177">
+            <v>781.20041060000005</v>
+          </cell>
+          <cell r="BF177">
+            <v>762.19284519999997</v>
+          </cell>
+          <cell r="BG177">
+            <v>-2.4938000297040956E-2</v>
+          </cell>
         </row>
         <row r="178">
           <cell r="P178">
@@ -17399,6 +21655,15 @@
           <cell r="S178">
             <v>2.1976031725940863E-2</v>
           </cell>
+          <cell r="BE178">
+            <v>697.33396279999999</v>
+          </cell>
+          <cell r="BF178">
+            <v>665.64719100000002</v>
+          </cell>
+          <cell r="BG178">
+            <v>-4.7602952778027979E-2</v>
+          </cell>
         </row>
         <row r="179">
           <cell r="P179">
@@ -17407,6 +21672,15 @@
           <cell r="S179">
             <v>2.2777329617136386E-2</v>
           </cell>
+          <cell r="BE179">
+            <v>597.39926390000005</v>
+          </cell>
+          <cell r="BF179">
+            <v>566.1094018</v>
+          </cell>
+          <cell r="BG179">
+            <v>-5.527175842780721E-2</v>
+          </cell>
         </row>
         <row r="180">
           <cell r="P180">
@@ -17415,6 +21689,15 @@
           <cell r="S180">
             <v>2.3806993438741434E-2</v>
           </cell>
+          <cell r="BE180">
+            <v>555.91740879999998</v>
+          </cell>
+          <cell r="BF180">
+            <v>522.03531180000004</v>
+          </cell>
+          <cell r="BG180">
+            <v>-6.4903841242411386E-2</v>
+          </cell>
         </row>
         <row r="181">
           <cell r="P181">
@@ -17423,6 +21706,15 @@
           <cell r="S181">
             <v>2.5030328537576901E-2</v>
           </cell>
+          <cell r="BE181">
+            <v>475.99812539999999</v>
+          </cell>
+          <cell r="BF181">
+            <v>443.8002894</v>
+          </cell>
+          <cell r="BG181">
+            <v>-7.2550281667301666E-2</v>
+          </cell>
         </row>
         <row r="182">
           <cell r="P182">
@@ -17431,6 +21723,15 @@
           <cell r="S182">
             <v>2.6423514707860023E-2</v>
           </cell>
+          <cell r="BE182">
+            <v>444.85111569999998</v>
+          </cell>
+          <cell r="BF182">
+            <v>427.90416620000002</v>
+          </cell>
+          <cell r="BG182">
+            <v>-3.9604544284990786E-2</v>
+          </cell>
         </row>
         <row r="183">
           <cell r="P183">
@@ -17439,6 +21740,15 @@
           <cell r="S183">
             <v>2.7529308506178359E-2</v>
           </cell>
+          <cell r="BE183">
+            <v>385.79874030000002</v>
+          </cell>
+          <cell r="BF183">
+            <v>370.01708409999998</v>
+          </cell>
+          <cell r="BG183">
+            <v>-4.2651155522686432E-2</v>
+          </cell>
         </row>
         <row r="184">
           <cell r="P184">
@@ -17447,6 +21757,15 @@
           <cell r="S184">
             <v>2.8987029394585629E-2</v>
           </cell>
+          <cell r="BE184">
+            <v>350.58386869999998</v>
+          </cell>
+          <cell r="BF184">
+            <v>338.57745199999999</v>
+          </cell>
+          <cell r="BG184">
+            <v>-3.5461359370144913E-2</v>
+          </cell>
         </row>
         <row r="185">
           <cell r="P185">
@@ -17455,6 +21774,15 @@
           <cell r="S185">
             <v>3.0718378505606096E-2</v>
           </cell>
+          <cell r="BE185">
+            <v>289.91159750000003</v>
+          </cell>
+          <cell r="BF185">
+            <v>275.12057850000002</v>
+          </cell>
+          <cell r="BG185">
+            <v>-5.3761950780428461E-2</v>
+          </cell>
         </row>
         <row r="186">
           <cell r="P186">
@@ -17463,6 +21791,15 @@
           <cell r="S186">
             <v>3.2064707742092177E-2</v>
           </cell>
+          <cell r="BE186">
+            <v>251.02798989999999</v>
+          </cell>
+          <cell r="BF186">
+            <v>238.4784597</v>
+          </cell>
+          <cell r="BG186">
+            <v>-5.2623327975981522E-2</v>
+          </cell>
         </row>
         <row r="187">
           <cell r="P187">
@@ -17471,6 +21808,15 @@
           <cell r="S187">
             <v>3.430476221747198E-2</v>
           </cell>
+          <cell r="BE187">
+            <v>219.20713330000001</v>
+          </cell>
+          <cell r="BF187">
+            <v>217.02797229999999</v>
+          </cell>
+          <cell r="BG187">
+            <v>-1.0040922268709885E-2</v>
+          </cell>
         </row>
         <row r="188">
           <cell r="P188">
@@ -17479,6 +21825,15 @@
           <cell r="S188">
             <v>3.6040423985645734E-2</v>
           </cell>
+          <cell r="BE188">
+            <v>183.34884460000001</v>
+          </cell>
+          <cell r="BF188">
+            <v>195.23458650000001</v>
+          </cell>
+          <cell r="BG188">
+            <v>6.0879284316767299E-2</v>
+          </cell>
         </row>
         <row r="189">
           <cell r="P189">
@@ -17487,6 +21842,15 @@
           <cell r="S189">
             <v>3.7942399730627178E-2</v>
           </cell>
+          <cell r="BE189">
+            <v>168.36986880000001</v>
+          </cell>
+          <cell r="BF189">
+            <v>169.56867819999999</v>
+          </cell>
+          <cell r="BG189">
+            <v>7.069757296722194E-3</v>
+          </cell>
         </row>
         <row r="190">
           <cell r="P190">
@@ -17495,6 +21859,15 @@
           <cell r="S190">
             <v>4.1567556712637267E-2</v>
           </cell>
+          <cell r="BE190">
+            <v>132.77395100000001</v>
+          </cell>
+          <cell r="BF190">
+            <v>150.0283944</v>
+          </cell>
+          <cell r="BG190">
+            <v>0.11500785214028783</v>
+          </cell>
         </row>
         <row r="191">
           <cell r="P191">
@@ -17503,6 +21876,15 @@
           <cell r="S191">
             <v>4.3003295253753064E-2</v>
           </cell>
+          <cell r="BE191">
+            <v>128.32766520000001</v>
+          </cell>
+          <cell r="BF191">
+            <v>149.83087950000001</v>
+          </cell>
+          <cell r="BG191">
+            <v>0.14351657263014328</v>
+          </cell>
         </row>
         <row r="192">
           <cell r="P192">
@@ -17511,6 +21893,15 @@
           <cell r="S192">
             <v>4.6480215984769452E-2</v>
           </cell>
+          <cell r="BE192">
+            <v>99.486328360000002</v>
+          </cell>
+          <cell r="BF192">
+            <v>98.421664219999997</v>
+          </cell>
+          <cell r="BG192">
+            <v>-1.0817375914515958E-2</v>
+          </cell>
         </row>
         <row r="193">
           <cell r="P193">
@@ -17519,6 +21910,15 @@
           <cell r="S193">
             <v>4.8400476747043952E-2</v>
           </cell>
+          <cell r="BE193">
+            <v>87.047632710000002</v>
+          </cell>
+          <cell r="BF193">
+            <v>94.154598109999995</v>
+          </cell>
+          <cell r="BG193">
+            <v>7.5481872820454154E-2</v>
+          </cell>
         </row>
         <row r="194">
           <cell r="P194">
@@ -17527,6 +21927,15 @@
           <cell r="S194">
             <v>5.1786715433664143E-2</v>
           </cell>
+          <cell r="BE194">
+            <v>71.249469140000002</v>
+          </cell>
+          <cell r="BF194">
+            <v>80.647997910000001</v>
+          </cell>
+          <cell r="BG194">
+            <v>0.1165376576426409</v>
+          </cell>
         </row>
         <row r="195">
           <cell r="P195">
@@ -17535,6 +21944,15 @@
           <cell r="S195">
             <v>5.4242586434973504E-2</v>
           </cell>
+          <cell r="BE195">
+            <v>60.734155629999997</v>
+          </cell>
+          <cell r="BF195">
+            <v>68.827692870000007</v>
+          </cell>
+          <cell r="BG195">
+            <v>0.11759129069293195</v>
+          </cell>
         </row>
         <row r="196">
           <cell r="P196">
@@ -17543,6 +21961,15 @@
           <cell r="S196">
             <v>6.0233860193683417E-2</v>
           </cell>
+          <cell r="BE196">
+            <v>55.40901796</v>
+          </cell>
+          <cell r="BF196">
+            <v>57.189245999999997</v>
+          </cell>
+          <cell r="BG196">
+            <v>3.1128720249258005E-2</v>
+          </cell>
         </row>
         <row r="197">
           <cell r="P197">
@@ -17551,6 +21978,15 @@
           <cell r="S197">
             <v>6.291610618605574E-2</v>
           </cell>
+          <cell r="BE197">
+            <v>34.051538239999999</v>
+          </cell>
+          <cell r="BF197">
+            <v>44.736559659999998</v>
+          </cell>
+          <cell r="BG197">
+            <v>0.2388431632026842</v>
+          </cell>
         </row>
         <row r="198">
           <cell r="P198">
@@ -17559,6 +21995,15 @@
           <cell r="S198">
             <v>6.7943155358499832E-2</v>
           </cell>
+          <cell r="BE198">
+            <v>41.262434310000003</v>
+          </cell>
+          <cell r="BF198">
+            <v>38.141107890000001</v>
+          </cell>
+          <cell r="BG198">
+            <v>-8.183628092298717E-2</v>
+          </cell>
         </row>
         <row r="199">
           <cell r="P199">
@@ -17567,6 +22012,15 @@
           <cell r="S199">
             <v>7.474350927519359E-2</v>
           </cell>
+          <cell r="BE199">
+            <v>32.292136249999999</v>
+          </cell>
+          <cell r="BF199">
+            <v>29.827974019999999</v>
+          </cell>
+          <cell r="BG199">
+            <v>-8.2612457297560685E-2</v>
+          </cell>
         </row>
         <row r="200">
           <cell r="P200">
@@ -17575,6 +22029,15 @@
           <cell r="S200">
             <v>7.8027431464087041E-2</v>
           </cell>
+          <cell r="BE200">
+            <v>25.023025430000001</v>
+          </cell>
+          <cell r="BF200">
+            <v>39.868296979999997</v>
+          </cell>
+          <cell r="BG200">
+            <v>0.3723578049357652</v>
+          </cell>
         </row>
         <row r="201">
           <cell r="P201">
@@ -17583,6 +22046,15 @@
           <cell r="S201">
             <v>8.6226122711845377E-2</v>
           </cell>
+          <cell r="BE201">
+            <v>19.090832580000001</v>
+          </cell>
+          <cell r="BF201">
+            <v>29.016714019999998</v>
+          </cell>
+          <cell r="BG201">
+            <v>0.34207462061894761</v>
+          </cell>
         </row>
         <row r="202">
           <cell r="P202">
@@ -17591,6 +22063,15 @@
           <cell r="S202">
             <v>9.067521068905561E-2</v>
           </cell>
+          <cell r="BE202">
+            <v>12.413515800000001</v>
+          </cell>
+          <cell r="BF202">
+            <v>7.4797748149999999</v>
+          </cell>
+          <cell r="BG202">
+            <v>-0.65961089832622199</v>
+          </cell>
         </row>
         <row r="203">
           <cell r="P203">
@@ -17599,6 +22080,15 @@
           <cell r="S203">
             <v>0.10044039219036507</v>
           </cell>
+          <cell r="BE203">
+            <v>16.368495190000001</v>
+          </cell>
+          <cell r="BF203">
+            <v>10.308078419999999</v>
+          </cell>
+          <cell r="BG203">
+            <v>-0.58792885764638969</v>
+          </cell>
         </row>
         <row r="204">
           <cell r="P204">
@@ -17607,6 +22097,15 @@
           <cell r="S204">
             <v>0.11340959542474854</v>
           </cell>
+          <cell r="BE204">
+            <v>10.33162359</v>
+          </cell>
+          <cell r="BF204">
+            <v>11.69288811</v>
+          </cell>
+          <cell r="BG204">
+            <v>0.11641816009817275</v>
+          </cell>
         </row>
         <row r="205">
           <cell r="P205">
@@ -17615,6 +22114,15 @@
           <cell r="S205">
             <v>0.11206636293610515</v>
           </cell>
+          <cell r="BE205">
+            <v>4.559912754</v>
+          </cell>
+          <cell r="BF205">
+            <v>4.0304013259999998</v>
+          </cell>
+          <cell r="BG205">
+            <v>-0.13137933053568079</v>
+          </cell>
         </row>
         <row r="206">
           <cell r="P206">
@@ -17623,6 +22131,15 @@
           <cell r="S206">
             <v>0.131448155980155</v>
           </cell>
+          <cell r="BE206">
+            <v>-0.54865988200000004</v>
+          </cell>
+          <cell r="BF206">
+            <v>-3.358744341</v>
+          </cell>
+          <cell r="BG206">
+            <v>0.83664732224404814</v>
+          </cell>
         </row>
         <row r="207">
           <cell r="P207">
@@ -17631,6 +22148,15 @@
           <cell r="S207">
             <v>0.14724203476646205</v>
           </cell>
+          <cell r="BE207">
+            <v>2.0657931719999998</v>
+          </cell>
+          <cell r="BF207">
+            <v>4.4566550740000004</v>
+          </cell>
+          <cell r="BG207">
+            <v>0.53647003465631016</v>
+          </cell>
         </row>
         <row r="208">
           <cell r="P208">
@@ -17639,6 +22165,15 @@
           <cell r="S208">
             <v>0.17087153154335219</v>
           </cell>
+          <cell r="BE208">
+            <v>-0.171836246</v>
+          </cell>
+          <cell r="BF208">
+            <v>3.2652906970000002</v>
+          </cell>
+          <cell r="BG208">
+            <v>1.0526250989407697</v>
+          </cell>
         </row>
         <row r="209">
           <cell r="P209">
@@ -17647,6 +22182,15 @@
           <cell r="S209">
             <v>0.18107149208503706</v>
           </cell>
+          <cell r="BE209">
+            <v>6.9884910370000002</v>
+          </cell>
+          <cell r="BF209">
+            <v>7.1392594469999997</v>
+          </cell>
+          <cell r="BG209">
+            <v>2.1118214167626891E-2</v>
+          </cell>
         </row>
         <row r="210">
           <cell r="P210">
@@ -17655,6 +22199,15 @@
           <cell r="S210">
             <v>0.17474081133220759</v>
           </cell>
+          <cell r="BE210">
+            <v>-1.345200878</v>
+          </cell>
+          <cell r="BF210">
+            <v>-6.6130367249999997</v>
+          </cell>
+          <cell r="BG210">
+            <v>0.7965834859324783</v>
+          </cell>
         </row>
         <row r="211">
           <cell r="P211">
@@ -17663,6 +22216,15 @@
           <cell r="S211">
             <v>0.19950186722152657</v>
           </cell>
+          <cell r="BE211">
+            <v>0.62414878600000001</v>
+          </cell>
+          <cell r="BF211">
+            <v>4.7571970480000001</v>
+          </cell>
+          <cell r="BG211">
+            <v>0.86879904706440492</v>
+          </cell>
         </row>
         <row r="212">
           <cell r="P212">
@@ -17671,6 +22233,15 @@
           <cell r="S212">
             <v>0.23570226039551587</v>
           </cell>
+          <cell r="BE212">
+            <v>4.5599127536988799</v>
+          </cell>
+          <cell r="BF212">
+            <v>4.0304013262502769</v>
+          </cell>
+          <cell r="BG212">
+            <v>-0.13137933039071301</v>
+          </cell>
         </row>
         <row r="213">
           <cell r="P213">
@@ -17679,6 +22250,15 @@
           <cell r="S213">
             <v>0.26607604209509572</v>
           </cell>
+          <cell r="BE213">
+            <v>-0.54865988233359597</v>
+          </cell>
+          <cell r="BF213">
+            <v>-3.3587443409487623</v>
+          </cell>
+          <cell r="BG213">
+            <v>0.83664732214223447</v>
+          </cell>
         </row>
         <row r="214">
           <cell r="P214">
@@ -17687,6 +22267,15 @@
           <cell r="S214">
             <v>0.31622776601683794</v>
           </cell>
+          <cell r="BE214">
+            <v>2.0657931715249926</v>
+          </cell>
+          <cell r="BF214">
+            <v>4.4566550736781174</v>
+          </cell>
+          <cell r="BG214">
+            <v>0.53647003472941535</v>
+          </cell>
         </row>
         <row r="215">
           <cell r="P215">
@@ -17695,6 +22284,15 @@
           <cell r="S215">
             <v>0.38851434494290565</v>
           </cell>
+          <cell r="BE215">
+            <v>-0.1718362462706875</v>
+          </cell>
+          <cell r="BF215">
+            <v>3.2652906965231479</v>
+          </cell>
+          <cell r="BG215">
+            <v>1.0526250990313533</v>
+          </cell>
         </row>
         <row r="216">
           <cell r="P216">
@@ -17703,6 +22301,15 @@
           <cell r="S216">
             <v>0.4923659639173309</v>
           </cell>
+          <cell r="BE216">
+            <v>6.9884910373948372</v>
+          </cell>
+          <cell r="BF216">
+            <v>7.1392594469361823</v>
+          </cell>
+          <cell r="BG216">
+            <v>2.1118214103571686E-2</v>
+          </cell>
         </row>
         <row r="217">
           <cell r="P217">
@@ -17711,6 +22318,15 @@
           <cell r="S217">
             <v>0.63245553203367588</v>
           </cell>
+          <cell r="BE217">
+            <v>-1.3452008778694911</v>
+          </cell>
+          <cell r="BF217">
+            <v>-6.6130367246805584</v>
+          </cell>
+          <cell r="BG217">
+            <v>0.79658348594238737</v>
+          </cell>
         </row>
         <row r="218">
           <cell r="P218">
@@ -17719,6 +22335,15 @@
           <cell r="S218">
             <v>0.64888568452305018</v>
           </cell>
+          <cell r="BE218">
+            <v>0.62414878564049192</v>
+          </cell>
+          <cell r="BF218">
+            <v>4.7571970475837562</v>
+          </cell>
+          <cell r="BG218">
+            <v>0.86879904712849643</v>
+          </cell>
         </row>
         <row r="219">
           <cell r="P219">
@@ -17727,6 +22352,15 @@
           <cell r="S219">
             <v>1.0690449676496976</v>
           </cell>
+          <cell r="BE219">
+            <v>-0.99082228844053344</v>
+          </cell>
+          <cell r="BF219">
+            <v>1.2306692619022239</v>
+          </cell>
+          <cell r="BG219">
+            <v>1.8051085040582202</v>
+          </cell>
         </row>
         <row r="220">
           <cell r="P220">
@@ -17735,6 +22369,15 @@
           <cell r="S220">
             <v>0.73029674334022143</v>
           </cell>
+          <cell r="BE220">
+            <v>-3.5656774574890515</v>
+          </cell>
+          <cell r="BF220">
+            <v>12.412615902343457</v>
+          </cell>
+          <cell r="BG220">
+            <v>1.2872623696360301</v>
+          </cell>
         </row>
         <row r="221">
           <cell r="P221">
@@ -17743,6 +22386,15 @@
           <cell r="S221">
             <v>1.4142135623730949</v>
           </cell>
+          <cell r="BE221">
+            <v>-4.6634149806340996</v>
+          </cell>
+          <cell r="BF221">
+            <v>-1.485405204817658</v>
+          </cell>
+          <cell r="BG221">
+            <v>-2.1394901307125558</v>
+          </cell>
         </row>
         <row r="222">
           <cell r="P222">
@@ -17751,35 +22403,98 @@
           <cell r="S222">
             <v>1.4142135623730949</v>
           </cell>
+          <cell r="BE222">
+            <v>-0.18859849659201999</v>
+          </cell>
+          <cell r="BF222">
+            <v>0.44780249893665186</v>
+          </cell>
+          <cell r="BG222">
+            <v>1.4211644576344804</v>
+          </cell>
         </row>
         <row r="223">
           <cell r="P223">
             <v>100</v>
           </cell>
+          <cell r="BE223">
+            <v>0.86257582850521275</v>
+          </cell>
+          <cell r="BF223">
+            <v>2.6022000557131744</v>
+          </cell>
+          <cell r="BG223">
+            <v>0.66852055566926416</v>
+          </cell>
         </row>
         <row r="224">
           <cell r="P224">
             <v>101</v>
           </cell>
+          <cell r="BE224">
+            <v>0.75411353982053531</v>
+          </cell>
+          <cell r="BF224">
+            <v>5.0970684685744221</v>
+          </cell>
+          <cell r="BG224">
+            <v>0.8520495566284888</v>
+          </cell>
         </row>
         <row r="225">
           <cell r="P225">
             <v>102</v>
           </cell>
+          <cell r="BE225">
+            <v>0.48785437364130435</v>
+          </cell>
+          <cell r="BF225">
+            <v>3.8723893656861055</v>
+          </cell>
+          <cell r="BG225">
+            <v>0.87401722100461698</v>
+          </cell>
         </row>
         <row r="226">
           <cell r="P226">
             <v>103</v>
           </cell>
+          <cell r="BE226">
+            <v>-2.815190241672092</v>
+          </cell>
+          <cell r="BF226">
+            <v>3.4459600928239489</v>
+          </cell>
+          <cell r="BG226">
+            <v>1.8169538142750388</v>
+          </cell>
         </row>
         <row r="227">
           <cell r="P227">
             <v>104</v>
           </cell>
+          <cell r="BE227">
+            <v>4.0063459058292192</v>
+          </cell>
+          <cell r="BF227">
+            <v>3.5938057280145568</v>
+          </cell>
+          <cell r="BG227">
+            <v>-0.11479200853813973</v>
+          </cell>
         </row>
         <row r="228">
           <cell r="P228">
             <v>105</v>
+          </cell>
+          <cell r="BE228">
+            <v>8.6227586283348341</v>
+          </cell>
+          <cell r="BF228">
+            <v>-5.4791715025203196</v>
+          </cell>
+          <cell r="BG228">
+            <v>2.5737340260965587</v>
           </cell>
         </row>
         <row r="229">
@@ -18107,8 +22822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF135" sqref="BF135"/>
+    <sheetView tabSelected="1" topLeftCell="AG119" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BH155" sqref="BH155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
@@ -267,6 +267,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1343,11 +1344,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="314335880"/>
-        <c:axId val="314336272"/>
+        <c:axId val="486315912"/>
+        <c:axId val="486307680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314335880"/>
+        <c:axId val="486315912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,6 +1395,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1459,7 +1461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314336272"/>
+        <c:crossAx val="486307680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +1469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314336272"/>
+        <c:axId val="486307680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,6 +1516,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1580,7 +1583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314335880"/>
+        <c:crossAx val="486315912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,6 +1636,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2452,11 +2456,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="483083896"/>
-        <c:axId val="475557336"/>
+        <c:axId val="485313192"/>
+        <c:axId val="485310840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="483083896"/>
+        <c:axId val="485313192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,12 +2517,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475557336"/>
+        <c:crossAx val="485310840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475557336"/>
+        <c:axId val="485310840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483083896"/>
+        <c:crossAx val="485313192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3346,11 +3350,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="521947816"/>
-        <c:axId val="521947424"/>
+        <c:axId val="486315128"/>
+        <c:axId val="486307288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="521947816"/>
+        <c:axId val="486315128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,12 +3411,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521947424"/>
+        <c:crossAx val="486307288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="521947424"/>
+        <c:axId val="486307288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3469,7 +3473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521947816"/>
+        <c:crossAx val="486315128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4235,11 +4239,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="521948992"/>
-        <c:axId val="521949384"/>
+        <c:axId val="486313952"/>
+        <c:axId val="486308072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="521948992"/>
+        <c:axId val="486313952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4296,12 +4300,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521949384"/>
+        <c:crossAx val="486308072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="521949384"/>
+        <c:axId val="486308072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4358,7 +4362,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521948992"/>
+        <c:crossAx val="486313952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5124,11 +5128,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="521948600"/>
-        <c:axId val="454606304"/>
+        <c:axId val="486306896"/>
+        <c:axId val="486305328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="521948600"/>
+        <c:axId val="486306896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5185,12 +5189,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454606304"/>
+        <c:crossAx val="486305328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454606304"/>
+        <c:axId val="486305328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5247,7 +5251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521948600"/>
+        <c:crossAx val="486306896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6657,11 +6661,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="454607088"/>
-        <c:axId val="454605912"/>
+        <c:axId val="486311600"/>
+        <c:axId val="486313168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="454607088"/>
+        <c:axId val="486311600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6718,12 +6722,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454605912"/>
+        <c:crossAx val="486313168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454605912"/>
+        <c:axId val="486313168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6780,7 +6784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454607088"/>
+        <c:crossAx val="486311600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8217,11 +8221,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="454607872"/>
-        <c:axId val="473443736"/>
+        <c:axId val="486313560"/>
+        <c:axId val="486304152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="454607872"/>
+        <c:axId val="486313560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8278,12 +8282,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473443736"/>
+        <c:crossAx val="486304152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473443736"/>
+        <c:axId val="486304152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8340,7 +8344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454607872"/>
+        <c:crossAx val="486313560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9777,11 +9781,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="473444520"/>
-        <c:axId val="473446480"/>
+        <c:axId val="485307312"/>
+        <c:axId val="485317504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="473444520"/>
+        <c:axId val="485307312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9838,12 +9842,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473446480"/>
+        <c:crossAx val="485317504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="473446480"/>
+        <c:axId val="485317504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9900,7 +9904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473444520"/>
+        <c:crossAx val="485307312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11973,11 +11977,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="521186568"/>
-        <c:axId val="521184608"/>
+        <c:axId val="485318680"/>
+        <c:axId val="485309664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="521186568"/>
+        <c:axId val="485318680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12034,12 +12038,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521184608"/>
+        <c:crossAx val="485309664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="521184608"/>
+        <c:axId val="485309664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12096,7 +12100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521186568"/>
+        <c:crossAx val="485318680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13579,11 +13583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486479136"/>
-        <c:axId val="486475608"/>
+        <c:axId val="485307704"/>
+        <c:axId val="485310448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486479136"/>
+        <c:axId val="485307704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13640,12 +13644,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486475608"/>
+        <c:crossAx val="485310448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486475608"/>
+        <c:axId val="485310448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13702,7 +13706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486479136"/>
+        <c:crossAx val="485307704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19363,7 +19367,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22822,7 +22826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG119" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S109" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="BH155" sqref="BH155"/>
     </sheetView>
   </sheetViews>

--- a/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
@@ -267,7 +267,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1344,11 +1343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="486315912"/>
-        <c:axId val="486307680"/>
+        <c:axId val="306131880"/>
+        <c:axId val="354027048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="486315912"/>
+        <c:axId val="306131880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1394,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1461,7 +1459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486307680"/>
+        <c:crossAx val="354027048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1469,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="486307680"/>
+        <c:axId val="354027048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1514,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1583,7 +1580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486315912"/>
+        <c:crossAx val="306131880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1636,7 +1633,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2456,11 +2452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485313192"/>
-        <c:axId val="485310840"/>
+        <c:axId val="354025480"/>
+        <c:axId val="354358912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485313192"/>
+        <c:axId val="354025480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,12 +2513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485310840"/>
+        <c:crossAx val="354358912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485310840"/>
+        <c:axId val="354358912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,7 +2575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485313192"/>
+        <c:crossAx val="354025480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3350,11 +3346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486315128"/>
-        <c:axId val="486307288"/>
+        <c:axId val="354029400"/>
+        <c:axId val="354027440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486315128"/>
+        <c:axId val="354029400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3411,12 +3407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486307288"/>
+        <c:crossAx val="354027440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486307288"/>
+        <c:axId val="354027440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,7 +3469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486315128"/>
+        <c:crossAx val="354029400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4239,11 +4235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486313952"/>
-        <c:axId val="486308072"/>
+        <c:axId val="354030576"/>
+        <c:axId val="354027832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486313952"/>
+        <c:axId val="354030576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4300,12 +4296,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486308072"/>
+        <c:crossAx val="354027832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486308072"/>
+        <c:axId val="354027832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4362,7 +4358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486313952"/>
+        <c:crossAx val="354030576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5128,11 +5124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486306896"/>
-        <c:axId val="486305328"/>
+        <c:axId val="354029008"/>
+        <c:axId val="354030968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486306896"/>
+        <c:axId val="354029008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5189,12 +5185,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486305328"/>
+        <c:crossAx val="354030968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486305328"/>
+        <c:axId val="354030968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5251,7 +5247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486306896"/>
+        <c:crossAx val="354029008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6661,11 +6657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486311600"/>
-        <c:axId val="486313168"/>
+        <c:axId val="353278024"/>
+        <c:axId val="353283120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486311600"/>
+        <c:axId val="353278024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6722,12 +6718,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486313168"/>
+        <c:crossAx val="353283120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486313168"/>
+        <c:axId val="353283120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6784,7 +6780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486311600"/>
+        <c:crossAx val="353278024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8221,11 +8217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486313560"/>
-        <c:axId val="486304152"/>
+        <c:axId val="353277240"/>
+        <c:axId val="353281552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486313560"/>
+        <c:axId val="353277240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8282,12 +8278,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486304152"/>
+        <c:crossAx val="353281552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486304152"/>
+        <c:axId val="353281552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8344,7 +8340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486313560"/>
+        <c:crossAx val="353277240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9781,11 +9777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485307312"/>
-        <c:axId val="485317504"/>
+        <c:axId val="353276456"/>
+        <c:axId val="353281944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485307312"/>
+        <c:axId val="353276456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9842,12 +9838,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485317504"/>
+        <c:crossAx val="353281944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485317504"/>
+        <c:axId val="353281944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9904,7 +9900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485307312"/>
+        <c:crossAx val="353276456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11977,11 +11973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485318680"/>
-        <c:axId val="485309664"/>
+        <c:axId val="353281160"/>
+        <c:axId val="353282728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485318680"/>
+        <c:axId val="353281160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12038,12 +12034,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485309664"/>
+        <c:crossAx val="353282728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485309664"/>
+        <c:axId val="353282728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12100,7 +12096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485318680"/>
+        <c:crossAx val="353281160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13583,11 +13579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485307704"/>
-        <c:axId val="485310448"/>
+        <c:axId val="354028616"/>
+        <c:axId val="354024696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485307704"/>
+        <c:axId val="354028616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13644,12 +13640,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485310448"/>
+        <c:crossAx val="354024696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485310448"/>
+        <c:axId val="354024696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13706,7 +13702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485307704"/>
+        <c:crossAx val="354028616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19367,7 +19363,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22827,7 +22823,7 @@
   <dimension ref="A1:U244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S109" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BH155" sqref="BH155"/>
+      <selection activeCell="BF140" sqref="BF140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
@@ -1343,11 +1343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="306131880"/>
-        <c:axId val="354027048"/>
+        <c:axId val="317132224"/>
+        <c:axId val="361585256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306131880"/>
+        <c:axId val="317132224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354027048"/>
+        <c:crossAx val="361585256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354027048"/>
+        <c:axId val="361585256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306131880"/>
+        <c:crossAx val="317132224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2452,11 +2452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354025480"/>
-        <c:axId val="354358912"/>
+        <c:axId val="361582512"/>
+        <c:axId val="362323520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354025480"/>
+        <c:axId val="361582512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,12 +2513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354358912"/>
+        <c:crossAx val="362323520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354358912"/>
+        <c:axId val="362323520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354025480"/>
+        <c:crossAx val="361582512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3346,11 +3346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354029400"/>
-        <c:axId val="354027440"/>
+        <c:axId val="361580552"/>
+        <c:axId val="361582120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354029400"/>
+        <c:axId val="361580552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,12 +3407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354027440"/>
+        <c:crossAx val="361582120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354027440"/>
+        <c:axId val="361582120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3469,7 +3469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354029400"/>
+        <c:crossAx val="361580552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4235,11 +4235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354030576"/>
-        <c:axId val="354027832"/>
+        <c:axId val="361584080"/>
+        <c:axId val="361584864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354030576"/>
+        <c:axId val="361584080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4296,12 +4296,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354027832"/>
+        <c:crossAx val="361584864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354027832"/>
+        <c:axId val="361584864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4358,7 +4358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354030576"/>
+        <c:crossAx val="361584080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5124,11 +5124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354029008"/>
-        <c:axId val="354030968"/>
+        <c:axId val="361584472"/>
+        <c:axId val="361579376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354029008"/>
+        <c:axId val="361584472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5185,12 +5185,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354030968"/>
+        <c:crossAx val="361579376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354030968"/>
+        <c:axId val="361579376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5247,7 +5247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354029008"/>
+        <c:crossAx val="361584472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6657,11 +6657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353278024"/>
-        <c:axId val="353283120"/>
+        <c:axId val="361726232"/>
+        <c:axId val="361720744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353278024"/>
+        <c:axId val="361726232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6718,12 +6718,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353283120"/>
+        <c:crossAx val="361720744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353283120"/>
+        <c:axId val="361720744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6780,7 +6780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353278024"/>
+        <c:crossAx val="361726232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8217,11 +8217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353277240"/>
-        <c:axId val="353281552"/>
+        <c:axId val="361723488"/>
+        <c:axId val="361725448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353277240"/>
+        <c:axId val="361723488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8278,12 +8278,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353281552"/>
+        <c:crossAx val="361725448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353281552"/>
+        <c:axId val="361725448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8340,7 +8340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353277240"/>
+        <c:crossAx val="361723488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9777,11 +9777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353276456"/>
-        <c:axId val="353281944"/>
+        <c:axId val="361723096"/>
+        <c:axId val="361725840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353276456"/>
+        <c:axId val="361723096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9838,12 +9838,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353281944"/>
+        <c:crossAx val="361725840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353281944"/>
+        <c:axId val="361725840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9900,7 +9900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353276456"/>
+        <c:crossAx val="361723096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11973,11 +11973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353281160"/>
-        <c:axId val="353282728"/>
+        <c:axId val="361727800"/>
+        <c:axId val="361720352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353281160"/>
+        <c:axId val="361727800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12034,12 +12034,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353282728"/>
+        <c:crossAx val="361720352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353282728"/>
+        <c:axId val="361720352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12096,7 +12096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353281160"/>
+        <c:crossAx val="361727800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13579,11 +13579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354028616"/>
-        <c:axId val="354024696"/>
+        <c:axId val="361578984"/>
+        <c:axId val="361581336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354028616"/>
+        <c:axId val="361578984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13640,12 +13640,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354024696"/>
+        <c:crossAx val="361581336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354024696"/>
+        <c:axId val="361581336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13702,7 +13702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354028616"/>
+        <c:crossAx val="361578984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19363,7 +19363,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22823,7 +22823,7 @@
   <dimension ref="A1:U244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S109" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BF140" sqref="BF140"/>
+      <selection activeCell="BF138" sqref="BF138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_10z/target_vs_output.xlsx
@@ -267,6 +267,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -325,135 +326,636 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>גיליון1!$O$3:$O$21</c:f>
+                <c:f>גיליון1!$Q$123:$Q$232</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="19"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
+                  <c:ptCount val="110"/>
                   <c:pt idx="7">
-                    <c:v>0.29880715233359845</c:v>
+                    <c:v>-0.91183162364177184</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.53452248382484879</c:v>
+                    <c:v>-4.9845993040362213</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.2253945610567474</c:v>
+                    <c:v>-5.2185472003183584</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5.931654390599963</c:v>
+                    <c:v>3.5921938316898832</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>5.0023803857573164</c:v>
+                    <c:v>-7.6492802761491134</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>10.331413032015284</c:v>
+                    <c:v>8.0101272165780415</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>19.673374562252068</c:v>
+                    <c:v>-2.5975616350765449</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>18.76610419524166</c:v>
+                    <c:v>-17.709736175834564</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>23.177241505613299</c:v>
+                    <c:v>43.938462503258734</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>25.85663311783799</c:v>
+                    <c:v>28.041128173476181</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>48.093101673435754</c:v>
+                    <c:v>33.971019864090067</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>43.866613294221402</c:v>
+                    <c:v>25.800573617234932</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>18.100619882351111</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>43.09665170313383</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>-2.6624448001330165</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>36.65582540632613</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>-27.080132901663092</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>12.815778970722931</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>17.659550488002424</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.4962195754096683</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>11.808968216311769</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>27.053652495150345</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>-35.930732458823513</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3.1788553297674298</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>-39.226538628337039</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>-44.239270001628029</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>-6.3989028483574657</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>14.735165864261035</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>-15.297530561565509</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>-76.438642427319792</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>-24.386535525320141</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>-68.521595254520435</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>17.534868009404818</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>-51.639330394556055</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>13.749921783922218</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>16.61448342354015</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>-68.379694704889516</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>-53.723065800960285</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>-4.2213747780715494</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>-19.097394963705483</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>35.315411514604421</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>22.662696905903886</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>69.82484022738754</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>-41.248485341663581</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>-19.012660870092986</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>17.41181139532091</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>-9.1764707574561726</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>-8.2418103987538416</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>-24.248072177865197</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>-3.1053981014938472</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>26.062406439351207</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>14.193885787278759</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>5.7109866927075927</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>-11.561869482038674</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>17.420251528852532</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>-3.9284687635913542</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>-1.2351103748634387</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>-6.747731176670186</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>-11.325410586780436</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>-2.7089627978847375</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>-18.649263891506507</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>-15.167408776934963</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>-13.123125440963747</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>-17.976115737341672</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>-12.923740338533491</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>-10.708868664223189</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>-14.286597537330977</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1.5970101046555101</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>-2.5821332950140174</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>-4.3488446476398792</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>-4.1198687851423585</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>1.7260489520415376</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>-6.7026652046466211</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>-0.36132836318542161</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>-9.2976327103094434</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>8.3755308575930059</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>-2.8591556250757577</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>-9.2840179614722018</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>0.19846176274590732</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>-10.762434306918159</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>0.45786374958701259</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>0.10197456541941463</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>-1.0908325752242938</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1.7114841990405925</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>-6.3684951877220115</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>-3.7066235890378856</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>-0.43491275369887994</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>3.0486598823335962</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>0.30920682847500736</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>1.0468362462706875</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>-5.1134910373948372</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>1.8452008778694911</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>-0.12414878564049192</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>0.99082228844053344</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>3.8156774574890515</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>4.6634149806340996</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>0.18859849659201999</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>-0.86257582850521275</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>-0.75411353982053531</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>-0.48785437364130435</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>2.815190241672092</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>-4.0063459058292192</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>-8.6227586283348341</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>גיליון1!$O$3:$O$22</c:f>
+                <c:f>גיליון1!$Q$123:$Q$232</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
+                  <c:ptCount val="110"/>
                   <c:pt idx="7">
-                    <c:v>0.29880715233359845</c:v>
+                    <c:v>-0.91183162364177184</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.53452248382484879</c:v>
+                    <c:v>-4.9845993040362213</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.2253945610567474</c:v>
+                    <c:v>-5.2185472003183584</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5.931654390599963</c:v>
+                    <c:v>3.5921938316898832</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>5.0023803857573164</c:v>
+                    <c:v>-7.6492802761491134</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>10.331413032015284</c:v>
+                    <c:v>8.0101272165780415</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>19.673374562252068</c:v>
+                    <c:v>-2.5975616350765449</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>18.76610419524166</c:v>
+                    <c:v>-17.709736175834564</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>23.177241505613299</c:v>
+                    <c:v>43.938462503258734</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>25.85663311783799</c:v>
+                    <c:v>28.041128173476181</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>48.093101673435754</c:v>
+                    <c:v>33.971019864090067</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>43.866613294221402</c:v>
+                    <c:v>25.800573617234932</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>53.607035785559773</c:v>
+                    <c:v>18.100619882351111</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>43.09665170313383</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>-2.6624448001330165</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>36.65582540632613</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>-27.080132901663092</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>12.815778970722931</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>17.659550488002424</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.4962195754096683</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>11.808968216311769</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>27.053652495150345</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>-35.930732458823513</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3.1788553297674298</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>-39.226538628337039</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>-44.239270001628029</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>-6.3989028483574657</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>14.735165864261035</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>-15.297530561565509</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>-76.438642427319792</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>-24.386535525320141</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>-68.521595254520435</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>17.534868009404818</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>-51.639330394556055</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>13.749921783922218</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>16.61448342354015</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>-68.379694704889516</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>-53.723065800960285</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>-4.2213747780715494</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>-19.097394963705483</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>35.315411514604421</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>22.662696905903886</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>69.82484022738754</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>-41.248485341663581</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>-19.012660870092986</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>17.41181139532091</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>-9.1764707574561726</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>-8.2418103987538416</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>-24.248072177865197</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>-3.1053981014938472</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>26.062406439351207</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>14.193885787278759</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>5.7109866927075927</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>-11.561869482038674</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>17.420251528852532</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>-3.9284687635913542</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>-1.2351103748634387</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>-6.747731176670186</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>-11.325410586780436</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>-2.7089627978847375</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>-18.649263891506507</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>-15.167408776934963</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>-13.123125440963747</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>-17.976115737341672</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>-12.923740338533491</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>-10.708868664223189</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>-14.286597537330977</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1.5970101046555101</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>-2.5821332950140174</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>-4.3488446476398792</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>-4.1198687851423585</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>1.7260489520415376</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>-6.7026652046466211</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>-0.36132836318542161</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>-9.2976327103094434</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>8.3755308575930059</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>-2.8591556250757577</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>-9.2840179614722018</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>0.19846176274590732</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>-10.762434306918159</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>0.45786374958701259</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>0.10197456541941463</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>-1.0908325752242938</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1.7114841990405925</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>-6.3684951877220115</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>-3.7066235890378856</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>-0.43491275369887994</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>3.0486598823335962</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>0.30920682847500736</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>1.0468362462706875</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>-5.1134910373948372</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>1.8452008778694911</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>-0.12414878564049192</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>0.99082228844053344</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>3.8156774574890515</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>4.6634149806340996</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>0.18859849659201999</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>-0.86257582850521275</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>-0.75411353982053531</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>-0.48785437364130435</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>2.815190241672092</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>-4.0063459058292192</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>-8.6227586283348341</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1343,11 +1845,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="317132224"/>
-        <c:axId val="361585256"/>
+        <c:axId val="300826368"/>
+        <c:axId val="300828328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317132224"/>
+        <c:axId val="300826368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,6 +1896,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1459,7 +1962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361585256"/>
+        <c:crossAx val="300828328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +1970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361585256"/>
+        <c:axId val="300828328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,6 +2017,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1580,7 +2084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317132224"/>
+        <c:crossAx val="300826368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,6 +2137,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2452,11 +2957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361582512"/>
-        <c:axId val="362323520"/>
+        <c:axId val="353900424"/>
+        <c:axId val="354019976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361582512"/>
+        <c:axId val="353900424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,12 +3018,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362323520"/>
+        <c:crossAx val="354019976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362323520"/>
+        <c:axId val="354019976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +3080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361582512"/>
+        <c:crossAx val="353900424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3346,11 +3851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361580552"/>
-        <c:axId val="361582120"/>
+        <c:axId val="353895328"/>
+        <c:axId val="353894544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361580552"/>
+        <c:axId val="353895328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,12 +3912,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361582120"/>
+        <c:crossAx val="353894544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361582120"/>
+        <c:axId val="353894544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3469,7 +3974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361580552"/>
+        <c:crossAx val="353895328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4235,11 +4740,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361584080"/>
-        <c:axId val="361584864"/>
+        <c:axId val="353901208"/>
+        <c:axId val="353895720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361584080"/>
+        <c:axId val="353901208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4296,12 +4801,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361584864"/>
+        <c:crossAx val="353895720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361584864"/>
+        <c:axId val="353895720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4358,7 +4863,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361584080"/>
+        <c:crossAx val="353901208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5124,11 +5629,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361584472"/>
-        <c:axId val="361579376"/>
+        <c:axId val="353898072"/>
+        <c:axId val="353898464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361584472"/>
+        <c:axId val="353898072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5185,12 +5690,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361579376"/>
+        <c:crossAx val="353898464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361579376"/>
+        <c:axId val="353898464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5247,7 +5752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361584472"/>
+        <c:crossAx val="353898072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6657,11 +7162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361726232"/>
-        <c:axId val="361720744"/>
+        <c:axId val="354018800"/>
+        <c:axId val="354019192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361726232"/>
+        <c:axId val="354018800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6718,12 +7223,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361720744"/>
+        <c:crossAx val="354019192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361720744"/>
+        <c:axId val="354019192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6780,7 +7285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361726232"/>
+        <c:crossAx val="354018800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8217,11 +8722,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361723488"/>
-        <c:axId val="361725448"/>
+        <c:axId val="354015664"/>
+        <c:axId val="354019584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361723488"/>
+        <c:axId val="354015664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8278,12 +8783,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361725448"/>
+        <c:crossAx val="354019584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361725448"/>
+        <c:axId val="354019584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8340,7 +8845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361723488"/>
+        <c:crossAx val="354015664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9777,11 +10282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361723096"/>
-        <c:axId val="361725840"/>
+        <c:axId val="354012920"/>
+        <c:axId val="354014488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361723096"/>
+        <c:axId val="354012920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9838,12 +10343,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361725840"/>
+        <c:crossAx val="354014488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361725840"/>
+        <c:axId val="354014488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9900,7 +10405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361723096"/>
+        <c:crossAx val="354012920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11973,11 +12478,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361727800"/>
-        <c:axId val="361720352"/>
+        <c:axId val="354016448"/>
+        <c:axId val="354016840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361727800"/>
+        <c:axId val="354016448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12034,12 +12539,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361720352"/>
+        <c:crossAx val="354016840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361720352"/>
+        <c:axId val="354016840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12096,7 +12601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361727800"/>
+        <c:crossAx val="354016448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13579,11 +14084,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361578984"/>
-        <c:axId val="361581336"/>
+        <c:axId val="353900032"/>
+        <c:axId val="353901992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361578984"/>
+        <c:axId val="353900032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13640,12 +14145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361581336"/>
+        <c:crossAx val="353901992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361581336"/>
+        <c:axId val="353901992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13702,7 +14207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361578984"/>
+        <c:crossAx val="353900032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19348,22 +19853,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>430529</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22822,8 +23327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S109" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BF138" sqref="BF138"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
